--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,11 @@
           <t>2026-02-15 21:14:22</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>2026-02-15 21:21:04</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -504,6 +509,9 @@
       <c r="I2" t="n">
         <v>129.95</v>
       </c>
+      <c r="J2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -541,6 +549,9 @@
       <c r="I3" t="n">
         <v>149.95</v>
       </c>
+      <c r="J3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -578,6 +589,9 @@
       <c r="I4" t="n">
         <v>149.95</v>
       </c>
+      <c r="J4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="I5" t="n">
         <v>149.95</v>
       </c>
+      <c r="J5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -652,6 +669,9 @@
       <c r="I6" t="n">
         <v>149.95</v>
       </c>
+      <c r="J6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -689,6 +709,9 @@
       <c r="I7" t="n">
         <v>149.95</v>
       </c>
+      <c r="J7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -726,6 +749,9 @@
       <c r="I8" t="n">
         <v>149.95</v>
       </c>
+      <c r="J8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -763,6 +789,9 @@
       <c r="I9" t="n">
         <v>168.95</v>
       </c>
+      <c r="J9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -804,6 +833,9 @@
       <c r="I10" t="n">
         <v>179.95</v>
       </c>
+      <c r="J10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -845,6 +877,9 @@
       <c r="I11" t="n">
         <v>179.95</v>
       </c>
+      <c r="J11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -886,6 +921,9 @@
       <c r="I12" t="n">
         <v>179.95</v>
       </c>
+      <c r="J12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -925,6 +963,9 @@
         </is>
       </c>
       <c r="I13" t="n">
+        <v>179.95</v>
+      </c>
+      <c r="J13" t="n">
         <v>179.95</v>
       </c>
     </row>
@@ -964,6 +1005,9 @@
       <c r="I14" t="n">
         <v>179.95</v>
       </c>
+      <c r="J14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1001,6 +1045,9 @@
       <c r="I15" t="n">
         <v>179.95</v>
       </c>
+      <c r="J15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1038,6 +1085,9 @@
       <c r="I16" t="n">
         <v>179.95</v>
       </c>
+      <c r="J16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1075,6 +1125,9 @@
       <c r="I17" t="n">
         <v>189.95</v>
       </c>
+      <c r="J17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1116,6 +1169,9 @@
       <c r="I18" t="n">
         <v>209.95</v>
       </c>
+      <c r="J18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1155,6 +1211,9 @@
         </is>
       </c>
       <c r="I19" t="n">
+        <v>209.95</v>
+      </c>
+      <c r="J19" t="n">
         <v>209.95</v>
       </c>
     </row>
@@ -1194,6 +1253,9 @@
       <c r="I20" t="n">
         <v>219.95</v>
       </c>
+      <c r="J20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1235,6 +1297,9 @@
       <c r="I21" t="n">
         <v>249.95</v>
       </c>
+      <c r="J21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1276,6 +1341,9 @@
       <c r="I22" t="n">
         <v>249.95</v>
       </c>
+      <c r="J22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1315,6 +1383,9 @@
         </is>
       </c>
       <c r="I23" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="J23" t="n">
         <v>249.95</v>
       </c>
     </row>
@@ -1354,6 +1425,9 @@
       <c r="I24" t="n">
         <v>249.95</v>
       </c>
+      <c r="J24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1391,6 +1465,9 @@
       <c r="I25" t="n">
         <v>249.95</v>
       </c>
+      <c r="J25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1428,6 +1505,9 @@
       <c r="I26" t="n">
         <v>249.95</v>
       </c>
+      <c r="J26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1465,6 +1545,9 @@
       <c r="I27" t="n">
         <v>279.95</v>
       </c>
+      <c r="J27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1502,6 +1585,9 @@
       <c r="I28" t="n">
         <v>299.95</v>
       </c>
+      <c r="J28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1539,6 +1625,9 @@
       <c r="I29" t="n">
         <v>299.95</v>
       </c>
+      <c r="J29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1576,6 +1665,9 @@
       <c r="I30" t="n">
         <v>299.95</v>
       </c>
+      <c r="J30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1613,6 +1705,9 @@
       <c r="I31" t="n">
         <v>299.95</v>
       </c>
+      <c r="J31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1650,6 +1745,9 @@
       <c r="I32" t="n">
         <v>399.95</v>
       </c>
+      <c r="J32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1687,6 +1785,9 @@
       <c r="I33" t="n">
         <v>399.95</v>
       </c>
+      <c r="J33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1724,6 +1825,9 @@
       <c r="I34" t="n">
         <v>399.95</v>
       </c>
+      <c r="J34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1761,6 +1865,9 @@
       <c r="I35" t="n">
         <v>429.95</v>
       </c>
+      <c r="J35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1798,6 +1905,9 @@
       <c r="I36" t="n">
         <v>429.95</v>
       </c>
+      <c r="J36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1835,6 +1945,9 @@
       <c r="I37" t="n">
         <v>429.95</v>
       </c>
+      <c r="J37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1872,6 +1985,9 @@
       <c r="I38" t="n">
         <v>499.95</v>
       </c>
+      <c r="J38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1909,6 +2025,9 @@
       <c r="I39" t="n">
         <v>499.95</v>
       </c>
+      <c r="J39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1946,6 +2065,9 @@
       <c r="I40" t="n">
         <v>499.95</v>
       </c>
+      <c r="J40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1983,6 +2105,9 @@
       <c r="I41" t="n">
         <v>549.95</v>
       </c>
+      <c r="J41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2020,6 +2145,9 @@
       <c r="I42" t="n">
         <v>549.95</v>
       </c>
+      <c r="J42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2057,6 +2185,9 @@
       <c r="I43" t="n">
         <v>549.95</v>
       </c>
+      <c r="J43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2094,6 +2225,9 @@
       <c r="I44" t="n">
         <v>649.95</v>
       </c>
+      <c r="J44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2131,6 +2265,9 @@
       <c r="I45" t="n">
         <v>649.95</v>
       </c>
+      <c r="J45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2168,6 +2305,9 @@
       <c r="I46" t="n">
         <v>649.95</v>
       </c>
+      <c r="J46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2205,6 +2345,9 @@
       <c r="I47" t="n">
         <v>899.95</v>
       </c>
+      <c r="J47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2242,6 +2385,9 @@
       <c r="I48" t="n">
         <v>899.95</v>
       </c>
+      <c r="J48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2279,6 +2425,9 @@
       <c r="I49" t="n">
         <v>899.95</v>
       </c>
+      <c r="J49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2316,6 +2465,9 @@
       <c r="I50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="J50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2353,6 +2505,9 @@
       <c r="I51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="J51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2388,6 +2543,9 @@
         </is>
       </c>
       <c r="I52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="J52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,6 +472,11 @@
           <t>2026-02-15 21:21:04</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>2026-02-15 22:19:05</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -512,6 +517,9 @@
       <c r="J2" t="n">
         <v>129.95</v>
       </c>
+      <c r="K2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -552,6 +560,9 @@
       <c r="J3" t="n">
         <v>149.95</v>
       </c>
+      <c r="K3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -592,6 +603,9 @@
       <c r="J4" t="n">
         <v>149.95</v>
       </c>
+      <c r="K4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="J5" t="n">
         <v>149.95</v>
       </c>
+      <c r="K5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -672,6 +689,9 @@
       <c r="J6" t="n">
         <v>149.95</v>
       </c>
+      <c r="K6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -712,6 +732,9 @@
       <c r="J7" t="n">
         <v>149.95</v>
       </c>
+      <c r="K7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -752,6 +775,9 @@
       <c r="J8" t="n">
         <v>149.95</v>
       </c>
+      <c r="K8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -792,6 +818,9 @@
       <c r="J9" t="n">
         <v>168.95</v>
       </c>
+      <c r="K9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -836,6 +865,9 @@
       <c r="J10" t="n">
         <v>179.95</v>
       </c>
+      <c r="K10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -880,6 +912,9 @@
       <c r="J11" t="n">
         <v>179.95</v>
       </c>
+      <c r="K11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -924,6 +959,9 @@
       <c r="J12" t="n">
         <v>179.95</v>
       </c>
+      <c r="K12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -966,6 +1004,9 @@
         <v>179.95</v>
       </c>
       <c r="J13" t="n">
+        <v>179.95</v>
+      </c>
+      <c r="K13" t="n">
         <v>179.95</v>
       </c>
     </row>
@@ -1008,6 +1049,9 @@
       <c r="J14" t="n">
         <v>179.95</v>
       </c>
+      <c r="K14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1048,6 +1092,9 @@
       <c r="J15" t="n">
         <v>179.95</v>
       </c>
+      <c r="K15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1088,6 +1135,9 @@
       <c r="J16" t="n">
         <v>179.95</v>
       </c>
+      <c r="K16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1128,6 +1178,9 @@
       <c r="J17" t="n">
         <v>189.95</v>
       </c>
+      <c r="K17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1172,6 +1225,9 @@
       <c r="J18" t="n">
         <v>209.95</v>
       </c>
+      <c r="K18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1214,6 +1270,9 @@
         <v>209.95</v>
       </c>
       <c r="J19" t="n">
+        <v>209.95</v>
+      </c>
+      <c r="K19" t="n">
         <v>209.95</v>
       </c>
     </row>
@@ -1256,6 +1315,9 @@
       <c r="J20" t="n">
         <v>219.95</v>
       </c>
+      <c r="K20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1300,6 +1362,9 @@
       <c r="J21" t="n">
         <v>249.95</v>
       </c>
+      <c r="K21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1344,6 +1409,9 @@
       <c r="J22" t="n">
         <v>249.95</v>
       </c>
+      <c r="K22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1386,6 +1454,9 @@
         <v>249.95</v>
       </c>
       <c r="J23" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="K23" t="n">
         <v>249.95</v>
       </c>
     </row>
@@ -1428,6 +1499,9 @@
       <c r="J24" t="n">
         <v>249.95</v>
       </c>
+      <c r="K24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1468,6 +1542,9 @@
       <c r="J25" t="n">
         <v>249.95</v>
       </c>
+      <c r="K25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1508,6 +1585,9 @@
       <c r="J26" t="n">
         <v>249.95</v>
       </c>
+      <c r="K26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1548,6 +1628,9 @@
       <c r="J27" t="n">
         <v>279.95</v>
       </c>
+      <c r="K27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1588,6 +1671,9 @@
       <c r="J28" t="n">
         <v>299.95</v>
       </c>
+      <c r="K28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1628,6 +1714,9 @@
       <c r="J29" t="n">
         <v>299.95</v>
       </c>
+      <c r="K29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1668,6 +1757,9 @@
       <c r="J30" t="n">
         <v>299.95</v>
       </c>
+      <c r="K30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1708,6 +1800,9 @@
       <c r="J31" t="n">
         <v>299.95</v>
       </c>
+      <c r="K31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1748,6 +1843,9 @@
       <c r="J32" t="n">
         <v>399.95</v>
       </c>
+      <c r="K32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1788,6 +1886,9 @@
       <c r="J33" t="n">
         <v>399.95</v>
       </c>
+      <c r="K33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1828,6 +1929,9 @@
       <c r="J34" t="n">
         <v>399.95</v>
       </c>
+      <c r="K34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1868,6 +1972,9 @@
       <c r="J35" t="n">
         <v>429.95</v>
       </c>
+      <c r="K35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1908,6 +2015,9 @@
       <c r="J36" t="n">
         <v>429.95</v>
       </c>
+      <c r="K36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1948,6 +2058,9 @@
       <c r="J37" t="n">
         <v>429.95</v>
       </c>
+      <c r="K37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1988,6 +2101,9 @@
       <c r="J38" t="n">
         <v>499.95</v>
       </c>
+      <c r="K38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2028,6 +2144,9 @@
       <c r="J39" t="n">
         <v>499.95</v>
       </c>
+      <c r="K39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2068,6 +2187,9 @@
       <c r="J40" t="n">
         <v>499.95</v>
       </c>
+      <c r="K40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2108,6 +2230,9 @@
       <c r="J41" t="n">
         <v>549.95</v>
       </c>
+      <c r="K41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2148,6 +2273,9 @@
       <c r="J42" t="n">
         <v>549.95</v>
       </c>
+      <c r="K42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2188,6 +2316,9 @@
       <c r="J43" t="n">
         <v>549.95</v>
       </c>
+      <c r="K43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2228,6 +2359,9 @@
       <c r="J44" t="n">
         <v>649.95</v>
       </c>
+      <c r="K44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2268,6 +2402,9 @@
       <c r="J45" t="n">
         <v>649.95</v>
       </c>
+      <c r="K45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2308,6 +2445,9 @@
       <c r="J46" t="n">
         <v>649.95</v>
       </c>
+      <c r="K46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2348,6 +2488,9 @@
       <c r="J47" t="n">
         <v>899.95</v>
       </c>
+      <c r="K47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2388,6 +2531,9 @@
       <c r="J48" t="n">
         <v>899.95</v>
       </c>
+      <c r="K48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2428,6 +2574,9 @@
       <c r="J49" t="n">
         <v>899.95</v>
       </c>
+      <c r="K49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2468,6 +2617,9 @@
       <c r="J50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="K50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2508,6 +2660,9 @@
       <c r="J51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="K51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2546,6 +2701,9 @@
         <v>1299.95</v>
       </c>
       <c r="J52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="K52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,11 @@
           <t>2026-02-15 22:19:05</t>
         </is>
       </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>2026-02-15 23:21:00</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -520,6 +525,9 @@
       <c r="K2" t="n">
         <v>129.95</v>
       </c>
+      <c r="L2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -563,6 +571,9 @@
       <c r="K3" t="n">
         <v>149.95</v>
       </c>
+      <c r="L3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -606,6 +617,9 @@
       <c r="K4" t="n">
         <v>149.95</v>
       </c>
+      <c r="L4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="K5" t="n">
         <v>149.95</v>
       </c>
+      <c r="L5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -692,6 +709,9 @@
       <c r="K6" t="n">
         <v>149.95</v>
       </c>
+      <c r="L6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -735,6 +755,9 @@
       <c r="K7" t="n">
         <v>149.95</v>
       </c>
+      <c r="L7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -778,6 +801,9 @@
       <c r="K8" t="n">
         <v>149.95</v>
       </c>
+      <c r="L8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -821,6 +847,9 @@
       <c r="K9" t="n">
         <v>168.95</v>
       </c>
+      <c r="L9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -868,6 +897,9 @@
       <c r="K10" t="n">
         <v>179.95</v>
       </c>
+      <c r="L10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -915,6 +947,9 @@
       <c r="K11" t="n">
         <v>179.95</v>
       </c>
+      <c r="L11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -962,6 +997,9 @@
       <c r="K12" t="n">
         <v>179.95</v>
       </c>
+      <c r="L12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1007,6 +1045,9 @@
         <v>179.95</v>
       </c>
       <c r="K13" t="n">
+        <v>179.95</v>
+      </c>
+      <c r="L13" t="n">
         <v>179.95</v>
       </c>
     </row>
@@ -1052,6 +1093,9 @@
       <c r="K14" t="n">
         <v>179.95</v>
       </c>
+      <c r="L14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1095,6 +1139,9 @@
       <c r="K15" t="n">
         <v>179.95</v>
       </c>
+      <c r="L15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1138,6 +1185,9 @@
       <c r="K16" t="n">
         <v>179.95</v>
       </c>
+      <c r="L16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1181,6 +1231,9 @@
       <c r="K17" t="n">
         <v>189.95</v>
       </c>
+      <c r="L17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1228,6 +1281,9 @@
       <c r="K18" t="n">
         <v>209.95</v>
       </c>
+      <c r="L18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1273,6 +1329,9 @@
         <v>209.95</v>
       </c>
       <c r="K19" t="n">
+        <v>209.95</v>
+      </c>
+      <c r="L19" t="n">
         <v>209.95</v>
       </c>
     </row>
@@ -1318,6 +1377,9 @@
       <c r="K20" t="n">
         <v>219.95</v>
       </c>
+      <c r="L20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1365,6 +1427,9 @@
       <c r="K21" t="n">
         <v>249.95</v>
       </c>
+      <c r="L21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1412,6 +1477,9 @@
       <c r="K22" t="n">
         <v>249.95</v>
       </c>
+      <c r="L22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1457,6 +1525,9 @@
         <v>249.95</v>
       </c>
       <c r="K23" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="L23" t="n">
         <v>249.95</v>
       </c>
     </row>
@@ -1502,6 +1573,9 @@
       <c r="K24" t="n">
         <v>249.95</v>
       </c>
+      <c r="L24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1545,6 +1619,9 @@
       <c r="K25" t="n">
         <v>249.95</v>
       </c>
+      <c r="L25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1588,6 +1665,9 @@
       <c r="K26" t="n">
         <v>249.95</v>
       </c>
+      <c r="L26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1631,6 +1711,9 @@
       <c r="K27" t="n">
         <v>279.95</v>
       </c>
+      <c r="L27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1674,6 +1757,9 @@
       <c r="K28" t="n">
         <v>299.95</v>
       </c>
+      <c r="L28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1717,6 +1803,9 @@
       <c r="K29" t="n">
         <v>299.95</v>
       </c>
+      <c r="L29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1760,6 +1849,9 @@
       <c r="K30" t="n">
         <v>299.95</v>
       </c>
+      <c r="L30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1803,6 +1895,9 @@
       <c r="K31" t="n">
         <v>299.95</v>
       </c>
+      <c r="L31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1846,6 +1941,9 @@
       <c r="K32" t="n">
         <v>399.95</v>
       </c>
+      <c r="L32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1889,6 +1987,9 @@
       <c r="K33" t="n">
         <v>399.95</v>
       </c>
+      <c r="L33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1932,6 +2033,9 @@
       <c r="K34" t="n">
         <v>399.95</v>
       </c>
+      <c r="L34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1975,6 +2079,9 @@
       <c r="K35" t="n">
         <v>429.95</v>
       </c>
+      <c r="L35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2018,6 +2125,9 @@
       <c r="K36" t="n">
         <v>429.95</v>
       </c>
+      <c r="L36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2061,6 +2171,9 @@
       <c r="K37" t="n">
         <v>429.95</v>
       </c>
+      <c r="L37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2104,6 +2217,9 @@
       <c r="K38" t="n">
         <v>499.95</v>
       </c>
+      <c r="L38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2147,6 +2263,9 @@
       <c r="K39" t="n">
         <v>499.95</v>
       </c>
+      <c r="L39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2190,6 +2309,9 @@
       <c r="K40" t="n">
         <v>499.95</v>
       </c>
+      <c r="L40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2233,6 +2355,9 @@
       <c r="K41" t="n">
         <v>549.95</v>
       </c>
+      <c r="L41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2276,6 +2401,9 @@
       <c r="K42" t="n">
         <v>549.95</v>
       </c>
+      <c r="L42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2319,6 +2447,9 @@
       <c r="K43" t="n">
         <v>549.95</v>
       </c>
+      <c r="L43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2362,6 +2493,9 @@
       <c r="K44" t="n">
         <v>649.95</v>
       </c>
+      <c r="L44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2405,6 +2539,9 @@
       <c r="K45" t="n">
         <v>649.95</v>
       </c>
+      <c r="L45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2448,6 +2585,9 @@
       <c r="K46" t="n">
         <v>649.95</v>
       </c>
+      <c r="L46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2491,6 +2631,9 @@
       <c r="K47" t="n">
         <v>899.95</v>
       </c>
+      <c r="L47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2534,6 +2677,9 @@
       <c r="K48" t="n">
         <v>899.95</v>
       </c>
+      <c r="L48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2577,6 +2723,9 @@
       <c r="K49" t="n">
         <v>899.95</v>
       </c>
+      <c r="L49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2620,6 +2769,9 @@
       <c r="K50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="L50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2663,6 +2815,9 @@
       <c r="K51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="L51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2704,6 +2859,9 @@
         <v>1299.95</v>
       </c>
       <c r="K52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="L52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,11 @@
           <t>2026-02-15 23:21:00</t>
         </is>
       </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:44:14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -528,6 +533,9 @@
       <c r="L2" t="n">
         <v>129.95</v>
       </c>
+      <c r="M2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -574,6 +582,9 @@
       <c r="L3" t="n">
         <v>149.95</v>
       </c>
+      <c r="M3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -620,6 +631,9 @@
       <c r="L4" t="n">
         <v>149.95</v>
       </c>
+      <c r="M4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -666,6 +680,9 @@
       <c r="L5" t="n">
         <v>149.95</v>
       </c>
+      <c r="M5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -712,6 +729,9 @@
       <c r="L6" t="n">
         <v>149.95</v>
       </c>
+      <c r="M6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -758,6 +778,9 @@
       <c r="L7" t="n">
         <v>149.95</v>
       </c>
+      <c r="M7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -804,6 +827,9 @@
       <c r="L8" t="n">
         <v>149.95</v>
       </c>
+      <c r="M8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -850,6 +876,9 @@
       <c r="L9" t="n">
         <v>168.95</v>
       </c>
+      <c r="M9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -900,6 +929,9 @@
       <c r="L10" t="n">
         <v>179.95</v>
       </c>
+      <c r="M10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -950,6 +982,9 @@
       <c r="L11" t="n">
         <v>179.95</v>
       </c>
+      <c r="M11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1000,6 +1035,9 @@
       <c r="L12" t="n">
         <v>179.95</v>
       </c>
+      <c r="M12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1048,6 +1086,9 @@
         <v>179.95</v>
       </c>
       <c r="L13" t="n">
+        <v>179.95</v>
+      </c>
+      <c r="M13" t="n">
         <v>179.95</v>
       </c>
     </row>
@@ -1096,6 +1137,9 @@
       <c r="L14" t="n">
         <v>179.95</v>
       </c>
+      <c r="M14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1142,6 +1186,9 @@
       <c r="L15" t="n">
         <v>179.95</v>
       </c>
+      <c r="M15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1188,6 +1235,9 @@
       <c r="L16" t="n">
         <v>179.95</v>
       </c>
+      <c r="M16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1234,6 +1284,9 @@
       <c r="L17" t="n">
         <v>189.95</v>
       </c>
+      <c r="M17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1284,6 +1337,9 @@
       <c r="L18" t="n">
         <v>209.95</v>
       </c>
+      <c r="M18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1332,6 +1388,9 @@
         <v>209.95</v>
       </c>
       <c r="L19" t="n">
+        <v>209.95</v>
+      </c>
+      <c r="M19" t="n">
         <v>209.95</v>
       </c>
     </row>
@@ -1380,6 +1439,9 @@
       <c r="L20" t="n">
         <v>219.95</v>
       </c>
+      <c r="M20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1430,6 +1492,9 @@
       <c r="L21" t="n">
         <v>249.95</v>
       </c>
+      <c r="M21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1480,6 +1545,9 @@
       <c r="L22" t="n">
         <v>249.95</v>
       </c>
+      <c r="M22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1528,6 +1596,9 @@
         <v>249.95</v>
       </c>
       <c r="L23" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="M23" t="n">
         <v>249.95</v>
       </c>
     </row>
@@ -1576,6 +1647,9 @@
       <c r="L24" t="n">
         <v>249.95</v>
       </c>
+      <c r="M24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1622,6 +1696,9 @@
       <c r="L25" t="n">
         <v>249.95</v>
       </c>
+      <c r="M25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1668,6 +1745,9 @@
       <c r="L26" t="n">
         <v>249.95</v>
       </c>
+      <c r="M26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1714,6 +1794,9 @@
       <c r="L27" t="n">
         <v>279.95</v>
       </c>
+      <c r="M27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1760,6 +1843,9 @@
       <c r="L28" t="n">
         <v>299.95</v>
       </c>
+      <c r="M28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1806,6 +1892,9 @@
       <c r="L29" t="n">
         <v>299.95</v>
       </c>
+      <c r="M29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1852,6 +1941,9 @@
       <c r="L30" t="n">
         <v>299.95</v>
       </c>
+      <c r="M30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1898,6 +1990,9 @@
       <c r="L31" t="n">
         <v>299.95</v>
       </c>
+      <c r="M31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1944,6 +2039,9 @@
       <c r="L32" t="n">
         <v>399.95</v>
       </c>
+      <c r="M32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1990,6 +2088,9 @@
       <c r="L33" t="n">
         <v>399.95</v>
       </c>
+      <c r="M33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2036,6 +2137,9 @@
       <c r="L34" t="n">
         <v>399.95</v>
       </c>
+      <c r="M34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2082,6 +2186,9 @@
       <c r="L35" t="n">
         <v>429.95</v>
       </c>
+      <c r="M35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2128,6 +2235,9 @@
       <c r="L36" t="n">
         <v>429.95</v>
       </c>
+      <c r="M36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2174,6 +2284,9 @@
       <c r="L37" t="n">
         <v>429.95</v>
       </c>
+      <c r="M37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2220,6 +2333,9 @@
       <c r="L38" t="n">
         <v>499.95</v>
       </c>
+      <c r="M38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2266,6 +2382,9 @@
       <c r="L39" t="n">
         <v>499.95</v>
       </c>
+      <c r="M39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2312,6 +2431,9 @@
       <c r="L40" t="n">
         <v>499.95</v>
       </c>
+      <c r="M40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2358,6 +2480,9 @@
       <c r="L41" t="n">
         <v>549.95</v>
       </c>
+      <c r="M41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2404,6 +2529,9 @@
       <c r="L42" t="n">
         <v>549.95</v>
       </c>
+      <c r="M42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2450,6 +2578,9 @@
       <c r="L43" t="n">
         <v>549.95</v>
       </c>
+      <c r="M43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2496,6 +2627,9 @@
       <c r="L44" t="n">
         <v>649.95</v>
       </c>
+      <c r="M44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2542,6 +2676,9 @@
       <c r="L45" t="n">
         <v>649.95</v>
       </c>
+      <c r="M45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2588,6 +2725,9 @@
       <c r="L46" t="n">
         <v>649.95</v>
       </c>
+      <c r="M46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2634,6 +2774,9 @@
       <c r="L47" t="n">
         <v>899.95</v>
       </c>
+      <c r="M47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2680,6 +2823,9 @@
       <c r="L48" t="n">
         <v>899.95</v>
       </c>
+      <c r="M48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2726,6 +2872,9 @@
       <c r="L49" t="n">
         <v>899.95</v>
       </c>
+      <c r="M49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2772,6 +2921,9 @@
       <c r="L50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="M50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2818,6 +2970,9 @@
       <c r="L51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="M51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2862,6 +3017,9 @@
         <v>1299.95</v>
       </c>
       <c r="L52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="M52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,11 @@
           <t>2026-02-16 01:44:14</t>
         </is>
       </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>2026-02-16 06:03:18</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -536,6 +541,9 @@
       <c r="M2" t="n">
         <v>129.95</v>
       </c>
+      <c r="N2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -585,6 +593,9 @@
       <c r="M3" t="n">
         <v>149.95</v>
       </c>
+      <c r="N3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -634,6 +645,9 @@
       <c r="M4" t="n">
         <v>149.95</v>
       </c>
+      <c r="N4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -683,6 +697,9 @@
       <c r="M5" t="n">
         <v>149.95</v>
       </c>
+      <c r="N5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -732,6 +749,9 @@
       <c r="M6" t="n">
         <v>149.95</v>
       </c>
+      <c r="N6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -781,6 +801,9 @@
       <c r="M7" t="n">
         <v>149.95</v>
       </c>
+      <c r="N7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -830,6 +853,9 @@
       <c r="M8" t="n">
         <v>149.95</v>
       </c>
+      <c r="N8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -879,6 +905,9 @@
       <c r="M9" t="n">
         <v>168.95</v>
       </c>
+      <c r="N9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -932,6 +961,9 @@
       <c r="M10" t="n">
         <v>179.95</v>
       </c>
+      <c r="N10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -985,6 +1017,9 @@
       <c r="M11" t="n">
         <v>179.95</v>
       </c>
+      <c r="N11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1038,6 +1073,9 @@
       <c r="M12" t="n">
         <v>179.95</v>
       </c>
+      <c r="N12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1089,6 +1127,9 @@
         <v>179.95</v>
       </c>
       <c r="M13" t="n">
+        <v>179.95</v>
+      </c>
+      <c r="N13" t="n">
         <v>179.95</v>
       </c>
     </row>
@@ -1140,6 +1181,9 @@
       <c r="M14" t="n">
         <v>179.95</v>
       </c>
+      <c r="N14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1189,6 +1233,9 @@
       <c r="M15" t="n">
         <v>179.95</v>
       </c>
+      <c r="N15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1238,6 +1285,9 @@
       <c r="M16" t="n">
         <v>179.95</v>
       </c>
+      <c r="N16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1287,6 +1337,9 @@
       <c r="M17" t="n">
         <v>189.95</v>
       </c>
+      <c r="N17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1340,6 +1393,9 @@
       <c r="M18" t="n">
         <v>209.95</v>
       </c>
+      <c r="N18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1391,6 +1447,9 @@
         <v>209.95</v>
       </c>
       <c r="M19" t="n">
+        <v>209.95</v>
+      </c>
+      <c r="N19" t="n">
         <v>209.95</v>
       </c>
     </row>
@@ -1442,6 +1501,9 @@
       <c r="M20" t="n">
         <v>219.95</v>
       </c>
+      <c r="N20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1495,6 +1557,9 @@
       <c r="M21" t="n">
         <v>249.95</v>
       </c>
+      <c r="N21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1548,6 +1613,9 @@
       <c r="M22" t="n">
         <v>249.95</v>
       </c>
+      <c r="N22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1599,6 +1667,9 @@
         <v>249.95</v>
       </c>
       <c r="M23" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="N23" t="n">
         <v>249.95</v>
       </c>
     </row>
@@ -1650,6 +1721,9 @@
       <c r="M24" t="n">
         <v>249.95</v>
       </c>
+      <c r="N24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1699,6 +1773,9 @@
       <c r="M25" t="n">
         <v>249.95</v>
       </c>
+      <c r="N25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1748,6 +1825,9 @@
       <c r="M26" t="n">
         <v>249.95</v>
       </c>
+      <c r="N26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1797,6 +1877,9 @@
       <c r="M27" t="n">
         <v>279.95</v>
       </c>
+      <c r="N27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1846,6 +1929,9 @@
       <c r="M28" t="n">
         <v>299.95</v>
       </c>
+      <c r="N28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1895,6 +1981,9 @@
       <c r="M29" t="n">
         <v>299.95</v>
       </c>
+      <c r="N29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1944,6 +2033,9 @@
       <c r="M30" t="n">
         <v>299.95</v>
       </c>
+      <c r="N30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1993,6 +2085,9 @@
       <c r="M31" t="n">
         <v>299.95</v>
       </c>
+      <c r="N31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2042,6 +2137,9 @@
       <c r="M32" t="n">
         <v>399.95</v>
       </c>
+      <c r="N32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2091,6 +2189,9 @@
       <c r="M33" t="n">
         <v>399.95</v>
       </c>
+      <c r="N33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2140,6 +2241,9 @@
       <c r="M34" t="n">
         <v>399.95</v>
       </c>
+      <c r="N34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2189,6 +2293,9 @@
       <c r="M35" t="n">
         <v>429.95</v>
       </c>
+      <c r="N35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2238,6 +2345,9 @@
       <c r="M36" t="n">
         <v>429.95</v>
       </c>
+      <c r="N36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2287,6 +2397,9 @@
       <c r="M37" t="n">
         <v>429.95</v>
       </c>
+      <c r="N37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2336,6 +2449,9 @@
       <c r="M38" t="n">
         <v>499.95</v>
       </c>
+      <c r="N38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2385,6 +2501,9 @@
       <c r="M39" t="n">
         <v>499.95</v>
       </c>
+      <c r="N39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2434,6 +2553,9 @@
       <c r="M40" t="n">
         <v>499.95</v>
       </c>
+      <c r="N40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2483,6 +2605,9 @@
       <c r="M41" t="n">
         <v>549.95</v>
       </c>
+      <c r="N41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2532,6 +2657,9 @@
       <c r="M42" t="n">
         <v>549.95</v>
       </c>
+      <c r="N42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2581,6 +2709,9 @@
       <c r="M43" t="n">
         <v>549.95</v>
       </c>
+      <c r="N43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2630,6 +2761,9 @@
       <c r="M44" t="n">
         <v>649.95</v>
       </c>
+      <c r="N44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2679,6 +2813,9 @@
       <c r="M45" t="n">
         <v>649.95</v>
       </c>
+      <c r="N45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2728,6 +2865,9 @@
       <c r="M46" t="n">
         <v>649.95</v>
       </c>
+      <c r="N46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2777,6 +2917,9 @@
       <c r="M47" t="n">
         <v>899.95</v>
       </c>
+      <c r="N47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2826,6 +2969,9 @@
       <c r="M48" t="n">
         <v>899.95</v>
       </c>
+      <c r="N48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2875,6 +3021,9 @@
       <c r="M49" t="n">
         <v>899.95</v>
       </c>
+      <c r="N49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2924,6 +3073,9 @@
       <c r="M50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="N50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2973,6 +3125,9 @@
       <c r="M51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="N51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3020,6 +3175,9 @@
         <v>1299.95</v>
       </c>
       <c r="M52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="N52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,11 @@
           <t>2026-02-16 06:03:18</t>
         </is>
       </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>2026-02-16 07:50:29</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -544,6 +549,9 @@
       <c r="N2" t="n">
         <v>129.95</v>
       </c>
+      <c r="O2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -596,6 +604,9 @@
       <c r="N3" t="n">
         <v>149.95</v>
       </c>
+      <c r="O3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -648,6 +659,9 @@
       <c r="N4" t="n">
         <v>149.95</v>
       </c>
+      <c r="O4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -700,6 +714,9 @@
       <c r="N5" t="n">
         <v>149.95</v>
       </c>
+      <c r="O5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -752,6 +769,9 @@
       <c r="N6" t="n">
         <v>149.95</v>
       </c>
+      <c r="O6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -804,6 +824,9 @@
       <c r="N7" t="n">
         <v>149.95</v>
       </c>
+      <c r="O7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -856,6 +879,9 @@
       <c r="N8" t="n">
         <v>149.95</v>
       </c>
+      <c r="O8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -908,6 +934,9 @@
       <c r="N9" t="n">
         <v>168.95</v>
       </c>
+      <c r="O9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -964,6 +993,9 @@
       <c r="N10" t="n">
         <v>179.95</v>
       </c>
+      <c r="O10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1020,6 +1052,9 @@
       <c r="N11" t="n">
         <v>179.95</v>
       </c>
+      <c r="O11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1076,6 +1111,9 @@
       <c r="N12" t="n">
         <v>179.95</v>
       </c>
+      <c r="O12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1130,6 +1168,9 @@
         <v>179.95</v>
       </c>
       <c r="N13" t="n">
+        <v>179.95</v>
+      </c>
+      <c r="O13" t="n">
         <v>179.95</v>
       </c>
     </row>
@@ -1184,6 +1225,9 @@
       <c r="N14" t="n">
         <v>179.95</v>
       </c>
+      <c r="O14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1236,6 +1280,9 @@
       <c r="N15" t="n">
         <v>179.95</v>
       </c>
+      <c r="O15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1288,6 +1335,9 @@
       <c r="N16" t="n">
         <v>179.95</v>
       </c>
+      <c r="O16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1340,6 +1390,9 @@
       <c r="N17" t="n">
         <v>189.95</v>
       </c>
+      <c r="O17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1396,6 +1449,9 @@
       <c r="N18" t="n">
         <v>209.95</v>
       </c>
+      <c r="O18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1450,6 +1506,9 @@
         <v>209.95</v>
       </c>
       <c r="N19" t="n">
+        <v>209.95</v>
+      </c>
+      <c r="O19" t="n">
         <v>209.95</v>
       </c>
     </row>
@@ -1504,6 +1563,9 @@
       <c r="N20" t="n">
         <v>219.95</v>
       </c>
+      <c r="O20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1560,6 +1622,9 @@
       <c r="N21" t="n">
         <v>249.95</v>
       </c>
+      <c r="O21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1616,6 +1681,9 @@
       <c r="N22" t="n">
         <v>249.95</v>
       </c>
+      <c r="O22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1670,6 +1738,9 @@
         <v>249.95</v>
       </c>
       <c r="N23" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="O23" t="n">
         <v>249.95</v>
       </c>
     </row>
@@ -1724,6 +1795,9 @@
       <c r="N24" t="n">
         <v>249.95</v>
       </c>
+      <c r="O24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1776,6 +1850,9 @@
       <c r="N25" t="n">
         <v>249.95</v>
       </c>
+      <c r="O25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1828,6 +1905,9 @@
       <c r="N26" t="n">
         <v>249.95</v>
       </c>
+      <c r="O26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1880,6 +1960,9 @@
       <c r="N27" t="n">
         <v>279.95</v>
       </c>
+      <c r="O27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1932,6 +2015,9 @@
       <c r="N28" t="n">
         <v>299.95</v>
       </c>
+      <c r="O28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1984,6 +2070,9 @@
       <c r="N29" t="n">
         <v>299.95</v>
       </c>
+      <c r="O29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2036,6 +2125,9 @@
       <c r="N30" t="n">
         <v>299.95</v>
       </c>
+      <c r="O30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2088,6 +2180,9 @@
       <c r="N31" t="n">
         <v>299.95</v>
       </c>
+      <c r="O31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2140,6 +2235,9 @@
       <c r="N32" t="n">
         <v>399.95</v>
       </c>
+      <c r="O32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2192,6 +2290,9 @@
       <c r="N33" t="n">
         <v>399.95</v>
       </c>
+      <c r="O33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2244,6 +2345,9 @@
       <c r="N34" t="n">
         <v>399.95</v>
       </c>
+      <c r="O34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2296,6 +2400,9 @@
       <c r="N35" t="n">
         <v>429.95</v>
       </c>
+      <c r="O35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2348,6 +2455,9 @@
       <c r="N36" t="n">
         <v>429.95</v>
       </c>
+      <c r="O36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2400,6 +2510,9 @@
       <c r="N37" t="n">
         <v>429.95</v>
       </c>
+      <c r="O37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2452,6 +2565,9 @@
       <c r="N38" t="n">
         <v>499.95</v>
       </c>
+      <c r="O38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2504,6 +2620,9 @@
       <c r="N39" t="n">
         <v>499.95</v>
       </c>
+      <c r="O39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2556,6 +2675,9 @@
       <c r="N40" t="n">
         <v>499.95</v>
       </c>
+      <c r="O40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2608,6 +2730,9 @@
       <c r="N41" t="n">
         <v>549.95</v>
       </c>
+      <c r="O41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2660,6 +2785,9 @@
       <c r="N42" t="n">
         <v>549.95</v>
       </c>
+      <c r="O42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2712,6 +2840,9 @@
       <c r="N43" t="n">
         <v>549.95</v>
       </c>
+      <c r="O43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2764,6 +2895,9 @@
       <c r="N44" t="n">
         <v>649.95</v>
       </c>
+      <c r="O44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2816,6 +2950,9 @@
       <c r="N45" t="n">
         <v>649.95</v>
       </c>
+      <c r="O45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2868,6 +3005,9 @@
       <c r="N46" t="n">
         <v>649.95</v>
       </c>
+      <c r="O46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2920,6 +3060,9 @@
       <c r="N47" t="n">
         <v>899.95</v>
       </c>
+      <c r="O47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2972,6 +3115,9 @@
       <c r="N48" t="n">
         <v>899.95</v>
       </c>
+      <c r="O48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3024,6 +3170,9 @@
       <c r="N49" t="n">
         <v>899.95</v>
       </c>
+      <c r="O49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3076,6 +3225,9 @@
       <c r="N50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="O50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3128,6 +3280,9 @@
       <c r="N51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="O51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3178,6 +3333,9 @@
         <v>1299.95</v>
       </c>
       <c r="N52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="O52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,11 @@
           <t>2026-02-16 07:50:29</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>2026-02-16 08:40:39</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -552,6 +557,9 @@
       <c r="O2" t="n">
         <v>129.95</v>
       </c>
+      <c r="P2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -607,6 +615,9 @@
       <c r="O3" t="n">
         <v>149.95</v>
       </c>
+      <c r="P3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -662,6 +673,9 @@
       <c r="O4" t="n">
         <v>149.95</v>
       </c>
+      <c r="P4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -717,6 +731,9 @@
       <c r="O5" t="n">
         <v>149.95</v>
       </c>
+      <c r="P5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -772,6 +789,9 @@
       <c r="O6" t="n">
         <v>149.95</v>
       </c>
+      <c r="P6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -827,6 +847,9 @@
       <c r="O7" t="n">
         <v>149.95</v>
       </c>
+      <c r="P7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -882,6 +905,9 @@
       <c r="O8" t="n">
         <v>149.95</v>
       </c>
+      <c r="P8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -937,6 +963,9 @@
       <c r="O9" t="n">
         <v>168.95</v>
       </c>
+      <c r="P9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -996,6 +1025,9 @@
       <c r="O10" t="n">
         <v>179.95</v>
       </c>
+      <c r="P10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1055,6 +1087,9 @@
       <c r="O11" t="n">
         <v>179.95</v>
       </c>
+      <c r="P11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1114,6 +1149,9 @@
       <c r="O12" t="n">
         <v>179.95</v>
       </c>
+      <c r="P12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1171,6 +1209,9 @@
         <v>179.95</v>
       </c>
       <c r="O13" t="n">
+        <v>179.95</v>
+      </c>
+      <c r="P13" t="n">
         <v>179.95</v>
       </c>
     </row>
@@ -1228,6 +1269,9 @@
       <c r="O14" t="n">
         <v>179.95</v>
       </c>
+      <c r="P14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1283,6 +1327,9 @@
       <c r="O15" t="n">
         <v>179.95</v>
       </c>
+      <c r="P15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1338,6 +1385,9 @@
       <c r="O16" t="n">
         <v>179.95</v>
       </c>
+      <c r="P16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1393,6 +1443,9 @@
       <c r="O17" t="n">
         <v>189.95</v>
       </c>
+      <c r="P17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1452,6 +1505,9 @@
       <c r="O18" t="n">
         <v>209.95</v>
       </c>
+      <c r="P18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1509,6 +1565,9 @@
         <v>209.95</v>
       </c>
       <c r="O19" t="n">
+        <v>209.95</v>
+      </c>
+      <c r="P19" t="n">
         <v>209.95</v>
       </c>
     </row>
@@ -1566,6 +1625,9 @@
       <c r="O20" t="n">
         <v>219.95</v>
       </c>
+      <c r="P20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1625,6 +1687,9 @@
       <c r="O21" t="n">
         <v>249.95</v>
       </c>
+      <c r="P21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1684,6 +1749,9 @@
       <c r="O22" t="n">
         <v>249.95</v>
       </c>
+      <c r="P22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1741,6 +1809,9 @@
         <v>249.95</v>
       </c>
       <c r="O23" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="P23" t="n">
         <v>249.95</v>
       </c>
     </row>
@@ -1798,6 +1869,9 @@
       <c r="O24" t="n">
         <v>249.95</v>
       </c>
+      <c r="P24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1853,6 +1927,9 @@
       <c r="O25" t="n">
         <v>249.95</v>
       </c>
+      <c r="P25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1908,6 +1985,9 @@
       <c r="O26" t="n">
         <v>249.95</v>
       </c>
+      <c r="P26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1963,6 +2043,9 @@
       <c r="O27" t="n">
         <v>279.95</v>
       </c>
+      <c r="P27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2018,6 +2101,9 @@
       <c r="O28" t="n">
         <v>299.95</v>
       </c>
+      <c r="P28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2073,6 +2159,9 @@
       <c r="O29" t="n">
         <v>299.95</v>
       </c>
+      <c r="P29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2128,6 +2217,9 @@
       <c r="O30" t="n">
         <v>299.95</v>
       </c>
+      <c r="P30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2183,6 +2275,9 @@
       <c r="O31" t="n">
         <v>299.95</v>
       </c>
+      <c r="P31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2238,6 +2333,9 @@
       <c r="O32" t="n">
         <v>399.95</v>
       </c>
+      <c r="P32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2293,6 +2391,9 @@
       <c r="O33" t="n">
         <v>399.95</v>
       </c>
+      <c r="P33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2348,6 +2449,9 @@
       <c r="O34" t="n">
         <v>399.95</v>
       </c>
+      <c r="P34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2403,6 +2507,9 @@
       <c r="O35" t="n">
         <v>429.95</v>
       </c>
+      <c r="P35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2458,6 +2565,9 @@
       <c r="O36" t="n">
         <v>429.95</v>
       </c>
+      <c r="P36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2513,6 +2623,9 @@
       <c r="O37" t="n">
         <v>429.95</v>
       </c>
+      <c r="P37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2568,6 +2681,9 @@
       <c r="O38" t="n">
         <v>499.95</v>
       </c>
+      <c r="P38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2623,6 +2739,9 @@
       <c r="O39" t="n">
         <v>499.95</v>
       </c>
+      <c r="P39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2678,6 +2797,9 @@
       <c r="O40" t="n">
         <v>499.95</v>
       </c>
+      <c r="P40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2733,6 +2855,9 @@
       <c r="O41" t="n">
         <v>549.95</v>
       </c>
+      <c r="P41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2788,6 +2913,9 @@
       <c r="O42" t="n">
         <v>549.95</v>
       </c>
+      <c r="P42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2843,6 +2971,9 @@
       <c r="O43" t="n">
         <v>549.95</v>
       </c>
+      <c r="P43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2898,6 +3029,9 @@
       <c r="O44" t="n">
         <v>649.95</v>
       </c>
+      <c r="P44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2953,6 +3087,9 @@
       <c r="O45" t="n">
         <v>649.95</v>
       </c>
+      <c r="P45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3008,6 +3145,9 @@
       <c r="O46" t="n">
         <v>649.95</v>
       </c>
+      <c r="P46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3063,6 +3203,9 @@
       <c r="O47" t="n">
         <v>899.95</v>
       </c>
+      <c r="P47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3118,6 +3261,9 @@
       <c r="O48" t="n">
         <v>899.95</v>
       </c>
+      <c r="P48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3173,6 +3319,9 @@
       <c r="O49" t="n">
         <v>899.95</v>
       </c>
+      <c r="P49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3228,6 +3377,9 @@
       <c r="O50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="P50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3283,6 +3435,9 @@
       <c r="O51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="P51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3336,6 +3491,9 @@
         <v>1299.95</v>
       </c>
       <c r="O52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="P52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,11 @@
           <t>2026-02-16 08:40:39</t>
         </is>
       </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>2026-02-16 09:47:21</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -560,6 +565,9 @@
       <c r="P2" t="n">
         <v>129.95</v>
       </c>
+      <c r="Q2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>149.95</v>
       </c>
+      <c r="Q3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -676,6 +687,9 @@
       <c r="P4" t="n">
         <v>149.95</v>
       </c>
+      <c r="Q4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -734,6 +748,9 @@
       <c r="P5" t="n">
         <v>149.95</v>
       </c>
+      <c r="Q5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -792,6 +809,9 @@
       <c r="P6" t="n">
         <v>149.95</v>
       </c>
+      <c r="Q6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -850,6 +870,9 @@
       <c r="P7" t="n">
         <v>149.95</v>
       </c>
+      <c r="Q7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -908,6 +931,9 @@
       <c r="P8" t="n">
         <v>149.95</v>
       </c>
+      <c r="Q8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -966,6 +992,9 @@
       <c r="P9" t="n">
         <v>168.95</v>
       </c>
+      <c r="Q9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1028,6 +1057,9 @@
       <c r="P10" t="n">
         <v>179.95</v>
       </c>
+      <c r="Q10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1090,6 +1122,9 @@
       <c r="P11" t="n">
         <v>179.95</v>
       </c>
+      <c r="Q11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1152,6 +1187,9 @@
       <c r="P12" t="n">
         <v>179.95</v>
       </c>
+      <c r="Q12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1212,6 +1250,9 @@
         <v>179.95</v>
       </c>
       <c r="P13" t="n">
+        <v>179.95</v>
+      </c>
+      <c r="Q13" t="n">
         <v>179.95</v>
       </c>
     </row>
@@ -1272,6 +1313,9 @@
       <c r="P14" t="n">
         <v>179.95</v>
       </c>
+      <c r="Q14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1330,6 +1374,9 @@
       <c r="P15" t="n">
         <v>179.95</v>
       </c>
+      <c r="Q15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1388,6 +1435,9 @@
       <c r="P16" t="n">
         <v>179.95</v>
       </c>
+      <c r="Q16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1446,6 +1496,9 @@
       <c r="P17" t="n">
         <v>189.95</v>
       </c>
+      <c r="Q17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1508,6 +1561,9 @@
       <c r="P18" t="n">
         <v>209.95</v>
       </c>
+      <c r="Q18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1568,6 +1624,9 @@
         <v>209.95</v>
       </c>
       <c r="P19" t="n">
+        <v>209.95</v>
+      </c>
+      <c r="Q19" t="n">
         <v>209.95</v>
       </c>
     </row>
@@ -1628,6 +1687,9 @@
       <c r="P20" t="n">
         <v>219.95</v>
       </c>
+      <c r="Q20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1690,6 +1752,9 @@
       <c r="P21" t="n">
         <v>249.95</v>
       </c>
+      <c r="Q21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1752,6 +1817,9 @@
       <c r="P22" t="n">
         <v>249.95</v>
       </c>
+      <c r="Q22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1812,6 +1880,9 @@
         <v>249.95</v>
       </c>
       <c r="P23" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="Q23" t="n">
         <v>249.95</v>
       </c>
     </row>
@@ -1872,6 +1943,9 @@
       <c r="P24" t="n">
         <v>249.95</v>
       </c>
+      <c r="Q24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1930,6 +2004,9 @@
       <c r="P25" t="n">
         <v>249.95</v>
       </c>
+      <c r="Q25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1988,6 +2065,9 @@
       <c r="P26" t="n">
         <v>249.95</v>
       </c>
+      <c r="Q26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2046,6 +2126,9 @@
       <c r="P27" t="n">
         <v>279.95</v>
       </c>
+      <c r="Q27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2104,6 +2187,9 @@
       <c r="P28" t="n">
         <v>299.95</v>
       </c>
+      <c r="Q28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2162,6 +2248,9 @@
       <c r="P29" t="n">
         <v>299.95</v>
       </c>
+      <c r="Q29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2220,6 +2309,9 @@
       <c r="P30" t="n">
         <v>299.95</v>
       </c>
+      <c r="Q30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2278,6 +2370,9 @@
       <c r="P31" t="n">
         <v>299.95</v>
       </c>
+      <c r="Q31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2336,6 +2431,9 @@
       <c r="P32" t="n">
         <v>399.95</v>
       </c>
+      <c r="Q32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2394,6 +2492,9 @@
       <c r="P33" t="n">
         <v>399.95</v>
       </c>
+      <c r="Q33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2452,6 +2553,9 @@
       <c r="P34" t="n">
         <v>399.95</v>
       </c>
+      <c r="Q34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2510,6 +2614,9 @@
       <c r="P35" t="n">
         <v>429.95</v>
       </c>
+      <c r="Q35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2568,6 +2675,9 @@
       <c r="P36" t="n">
         <v>429.95</v>
       </c>
+      <c r="Q36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2626,6 +2736,9 @@
       <c r="P37" t="n">
         <v>429.95</v>
       </c>
+      <c r="Q37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2684,6 +2797,9 @@
       <c r="P38" t="n">
         <v>499.95</v>
       </c>
+      <c r="Q38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2742,6 +2858,9 @@
       <c r="P39" t="n">
         <v>499.95</v>
       </c>
+      <c r="Q39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2800,6 +2919,9 @@
       <c r="P40" t="n">
         <v>499.95</v>
       </c>
+      <c r="Q40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2858,6 +2980,9 @@
       <c r="P41" t="n">
         <v>549.95</v>
       </c>
+      <c r="Q41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2916,6 +3041,9 @@
       <c r="P42" t="n">
         <v>549.95</v>
       </c>
+      <c r="Q42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2974,6 +3102,9 @@
       <c r="P43" t="n">
         <v>549.95</v>
       </c>
+      <c r="Q43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3032,6 +3163,9 @@
       <c r="P44" t="n">
         <v>649.95</v>
       </c>
+      <c r="Q44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3090,6 +3224,9 @@
       <c r="P45" t="n">
         <v>649.95</v>
       </c>
+      <c r="Q45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3148,6 +3285,9 @@
       <c r="P46" t="n">
         <v>649.95</v>
       </c>
+      <c r="Q46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3206,6 +3346,9 @@
       <c r="P47" t="n">
         <v>899.95</v>
       </c>
+      <c r="Q47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3264,6 +3407,9 @@
       <c r="P48" t="n">
         <v>899.95</v>
       </c>
+      <c r="Q48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3322,6 +3468,9 @@
       <c r="P49" t="n">
         <v>899.95</v>
       </c>
+      <c r="Q49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3380,6 +3529,9 @@
       <c r="P50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="Q50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3438,6 +3590,9 @@
       <c r="P51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="Q51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3494,6 +3649,9 @@
         <v>1299.95</v>
       </c>
       <c r="P52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="Q52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,11 @@
           <t>2026-02-16 09:47:21</t>
         </is>
       </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>2026-02-16 10:43:51</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -568,6 +573,9 @@
       <c r="Q2" t="n">
         <v>129.95</v>
       </c>
+      <c r="R2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>149.95</v>
       </c>
+      <c r="R3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -690,6 +701,9 @@
       <c r="Q4" t="n">
         <v>149.95</v>
       </c>
+      <c r="R4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -751,6 +765,9 @@
       <c r="Q5" t="n">
         <v>149.95</v>
       </c>
+      <c r="R5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -812,6 +829,9 @@
       <c r="Q6" t="n">
         <v>149.95</v>
       </c>
+      <c r="R6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -873,6 +893,9 @@
       <c r="Q7" t="n">
         <v>149.95</v>
       </c>
+      <c r="R7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -934,6 +957,9 @@
       <c r="Q8" t="n">
         <v>149.95</v>
       </c>
+      <c r="R8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -995,6 +1021,9 @@
       <c r="Q9" t="n">
         <v>168.95</v>
       </c>
+      <c r="R9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1060,6 +1089,9 @@
       <c r="Q10" t="n">
         <v>179.95</v>
       </c>
+      <c r="R10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1125,6 +1157,9 @@
       <c r="Q11" t="n">
         <v>179.95</v>
       </c>
+      <c r="R11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1190,6 +1225,9 @@
       <c r="Q12" t="n">
         <v>179.95</v>
       </c>
+      <c r="R12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1253,6 +1291,9 @@
         <v>179.95</v>
       </c>
       <c r="Q13" t="n">
+        <v>179.95</v>
+      </c>
+      <c r="R13" t="n">
         <v>179.95</v>
       </c>
     </row>
@@ -1316,6 +1357,9 @@
       <c r="Q14" t="n">
         <v>179.95</v>
       </c>
+      <c r="R14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1377,6 +1421,9 @@
       <c r="Q15" t="n">
         <v>179.95</v>
       </c>
+      <c r="R15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1438,6 +1485,9 @@
       <c r="Q16" t="n">
         <v>179.95</v>
       </c>
+      <c r="R16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1499,6 +1549,9 @@
       <c r="Q17" t="n">
         <v>189.95</v>
       </c>
+      <c r="R17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1564,6 +1617,9 @@
       <c r="Q18" t="n">
         <v>209.95</v>
       </c>
+      <c r="R18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1627,6 +1683,9 @@
         <v>209.95</v>
       </c>
       <c r="Q19" t="n">
+        <v>209.95</v>
+      </c>
+      <c r="R19" t="n">
         <v>209.95</v>
       </c>
     </row>
@@ -1690,6 +1749,9 @@
       <c r="Q20" t="n">
         <v>219.95</v>
       </c>
+      <c r="R20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1755,6 +1817,9 @@
       <c r="Q21" t="n">
         <v>249.95</v>
       </c>
+      <c r="R21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1820,6 +1885,9 @@
       <c r="Q22" t="n">
         <v>249.95</v>
       </c>
+      <c r="R22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1883,6 +1951,9 @@
         <v>249.95</v>
       </c>
       <c r="Q23" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="R23" t="n">
         <v>249.95</v>
       </c>
     </row>
@@ -1946,6 +2017,9 @@
       <c r="Q24" t="n">
         <v>249.95</v>
       </c>
+      <c r="R24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2007,6 +2081,9 @@
       <c r="Q25" t="n">
         <v>249.95</v>
       </c>
+      <c r="R25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2068,6 +2145,9 @@
       <c r="Q26" t="n">
         <v>249.95</v>
       </c>
+      <c r="R26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2129,6 +2209,9 @@
       <c r="Q27" t="n">
         <v>279.95</v>
       </c>
+      <c r="R27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2190,6 +2273,9 @@
       <c r="Q28" t="n">
         <v>299.95</v>
       </c>
+      <c r="R28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2251,6 +2337,9 @@
       <c r="Q29" t="n">
         <v>299.95</v>
       </c>
+      <c r="R29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2312,6 +2401,9 @@
       <c r="Q30" t="n">
         <v>299.95</v>
       </c>
+      <c r="R30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2373,6 +2465,9 @@
       <c r="Q31" t="n">
         <v>299.95</v>
       </c>
+      <c r="R31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2434,6 +2529,9 @@
       <c r="Q32" t="n">
         <v>399.95</v>
       </c>
+      <c r="R32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2495,6 +2593,9 @@
       <c r="Q33" t="n">
         <v>399.95</v>
       </c>
+      <c r="R33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2556,6 +2657,9 @@
       <c r="Q34" t="n">
         <v>399.95</v>
       </c>
+      <c r="R34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2617,6 +2721,9 @@
       <c r="Q35" t="n">
         <v>429.95</v>
       </c>
+      <c r="R35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2678,6 +2785,9 @@
       <c r="Q36" t="n">
         <v>429.95</v>
       </c>
+      <c r="R36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2739,6 +2849,9 @@
       <c r="Q37" t="n">
         <v>429.95</v>
       </c>
+      <c r="R37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2800,6 +2913,9 @@
       <c r="Q38" t="n">
         <v>499.95</v>
       </c>
+      <c r="R38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2861,6 +2977,9 @@
       <c r="Q39" t="n">
         <v>499.95</v>
       </c>
+      <c r="R39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2922,6 +3041,9 @@
       <c r="Q40" t="n">
         <v>499.95</v>
       </c>
+      <c r="R40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2983,6 +3105,9 @@
       <c r="Q41" t="n">
         <v>549.95</v>
       </c>
+      <c r="R41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3044,6 +3169,9 @@
       <c r="Q42" t="n">
         <v>549.95</v>
       </c>
+      <c r="R42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3105,6 +3233,9 @@
       <c r="Q43" t="n">
         <v>549.95</v>
       </c>
+      <c r="R43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3166,6 +3297,9 @@
       <c r="Q44" t="n">
         <v>649.95</v>
       </c>
+      <c r="R44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3227,6 +3361,9 @@
       <c r="Q45" t="n">
         <v>649.95</v>
       </c>
+      <c r="R45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3288,6 +3425,9 @@
       <c r="Q46" t="n">
         <v>649.95</v>
       </c>
+      <c r="R46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3349,6 +3489,9 @@
       <c r="Q47" t="n">
         <v>899.95</v>
       </c>
+      <c r="R47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3410,6 +3553,9 @@
       <c r="Q48" t="n">
         <v>899.95</v>
       </c>
+      <c r="R48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3471,6 +3617,9 @@
       <c r="Q49" t="n">
         <v>899.95</v>
       </c>
+      <c r="R49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3532,6 +3681,9 @@
       <c r="Q50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="R50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3593,6 +3745,9 @@
       <c r="Q51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="R51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3652,6 +3807,9 @@
         <v>1299.95</v>
       </c>
       <c r="Q52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="R52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,11 @@
           <t>2026-02-16 10:43:51</t>
         </is>
       </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>2026-02-16 11:36:58</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -576,6 +581,9 @@
       <c r="R2" t="n">
         <v>129.95</v>
       </c>
+      <c r="S2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -640,6 +648,9 @@
       <c r="R3" t="n">
         <v>149.95</v>
       </c>
+      <c r="S3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -704,6 +715,9 @@
       <c r="R4" t="n">
         <v>149.95</v>
       </c>
+      <c r="S4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -768,6 +782,9 @@
       <c r="R5" t="n">
         <v>149.95</v>
       </c>
+      <c r="S5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -832,6 +849,9 @@
       <c r="R6" t="n">
         <v>149.95</v>
       </c>
+      <c r="S6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -896,6 +916,9 @@
       <c r="R7" t="n">
         <v>149.95</v>
       </c>
+      <c r="S7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -960,6 +983,9 @@
       <c r="R8" t="n">
         <v>149.95</v>
       </c>
+      <c r="S8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1024,6 +1050,9 @@
       <c r="R9" t="n">
         <v>168.95</v>
       </c>
+      <c r="S9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1092,6 +1121,9 @@
       <c r="R10" t="n">
         <v>179.95</v>
       </c>
+      <c r="S10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1160,6 +1192,9 @@
       <c r="R11" t="n">
         <v>179.95</v>
       </c>
+      <c r="S11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1228,6 +1263,9 @@
       <c r="R12" t="n">
         <v>179.95</v>
       </c>
+      <c r="S12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1294,6 +1332,9 @@
         <v>179.95</v>
       </c>
       <c r="R13" t="n">
+        <v>179.95</v>
+      </c>
+      <c r="S13" t="n">
         <v>179.95</v>
       </c>
     </row>
@@ -1360,6 +1401,9 @@
       <c r="R14" t="n">
         <v>179.95</v>
       </c>
+      <c r="S14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1424,6 +1468,9 @@
       <c r="R15" t="n">
         <v>179.95</v>
       </c>
+      <c r="S15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1488,6 +1535,9 @@
       <c r="R16" t="n">
         <v>179.95</v>
       </c>
+      <c r="S16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1552,6 +1602,9 @@
       <c r="R17" t="n">
         <v>189.95</v>
       </c>
+      <c r="S17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1620,6 +1673,9 @@
       <c r="R18" t="n">
         <v>209.95</v>
       </c>
+      <c r="S18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1686,6 +1742,9 @@
         <v>209.95</v>
       </c>
       <c r="R19" t="n">
+        <v>209.95</v>
+      </c>
+      <c r="S19" t="n">
         <v>209.95</v>
       </c>
     </row>
@@ -1752,6 +1811,9 @@
       <c r="R20" t="n">
         <v>219.95</v>
       </c>
+      <c r="S20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1820,6 +1882,9 @@
       <c r="R21" t="n">
         <v>249.95</v>
       </c>
+      <c r="S21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1888,6 +1953,9 @@
       <c r="R22" t="n">
         <v>249.95</v>
       </c>
+      <c r="S22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1954,6 +2022,9 @@
         <v>249.95</v>
       </c>
       <c r="R23" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="S23" t="n">
         <v>249.95</v>
       </c>
     </row>
@@ -2020,6 +2091,9 @@
       <c r="R24" t="n">
         <v>249.95</v>
       </c>
+      <c r="S24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2084,6 +2158,9 @@
       <c r="R25" t="n">
         <v>249.95</v>
       </c>
+      <c r="S25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2148,6 +2225,9 @@
       <c r="R26" t="n">
         <v>249.95</v>
       </c>
+      <c r="S26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2212,6 +2292,9 @@
       <c r="R27" t="n">
         <v>279.95</v>
       </c>
+      <c r="S27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2276,6 +2359,9 @@
       <c r="R28" t="n">
         <v>299.95</v>
       </c>
+      <c r="S28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2340,6 +2426,9 @@
       <c r="R29" t="n">
         <v>299.95</v>
       </c>
+      <c r="S29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2404,6 +2493,9 @@
       <c r="R30" t="n">
         <v>299.95</v>
       </c>
+      <c r="S30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2468,6 +2560,9 @@
       <c r="R31" t="n">
         <v>299.95</v>
       </c>
+      <c r="S31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2532,6 +2627,9 @@
       <c r="R32" t="n">
         <v>399.95</v>
       </c>
+      <c r="S32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2596,6 +2694,9 @@
       <c r="R33" t="n">
         <v>399.95</v>
       </c>
+      <c r="S33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2660,6 +2761,9 @@
       <c r="R34" t="n">
         <v>399.95</v>
       </c>
+      <c r="S34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2724,6 +2828,9 @@
       <c r="R35" t="n">
         <v>429.95</v>
       </c>
+      <c r="S35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2788,6 +2895,9 @@
       <c r="R36" t="n">
         <v>429.95</v>
       </c>
+      <c r="S36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2852,6 +2962,9 @@
       <c r="R37" t="n">
         <v>429.95</v>
       </c>
+      <c r="S37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2916,6 +3029,9 @@
       <c r="R38" t="n">
         <v>499.95</v>
       </c>
+      <c r="S38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2980,6 +3096,9 @@
       <c r="R39" t="n">
         <v>499.95</v>
       </c>
+      <c r="S39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3044,6 +3163,9 @@
       <c r="R40" t="n">
         <v>499.95</v>
       </c>
+      <c r="S40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3108,6 +3230,9 @@
       <c r="R41" t="n">
         <v>549.95</v>
       </c>
+      <c r="S41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3172,6 +3297,9 @@
       <c r="R42" t="n">
         <v>549.95</v>
       </c>
+      <c r="S42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3236,6 +3364,9 @@
       <c r="R43" t="n">
         <v>549.95</v>
       </c>
+      <c r="S43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3300,6 +3431,9 @@
       <c r="R44" t="n">
         <v>649.95</v>
       </c>
+      <c r="S44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3364,6 +3498,9 @@
       <c r="R45" t="n">
         <v>649.95</v>
       </c>
+      <c r="S45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3428,6 +3565,9 @@
       <c r="R46" t="n">
         <v>649.95</v>
       </c>
+      <c r="S46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3492,6 +3632,9 @@
       <c r="R47" t="n">
         <v>899.95</v>
       </c>
+      <c r="S47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3556,6 +3699,9 @@
       <c r="R48" t="n">
         <v>899.95</v>
       </c>
+      <c r="S48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3620,6 +3766,9 @@
       <c r="R49" t="n">
         <v>899.95</v>
       </c>
+      <c r="S49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3684,6 +3833,9 @@
       <c r="R50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="S50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3748,6 +3900,9 @@
       <c r="R51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="S51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3810,6 +3965,9 @@
         <v>1299.95</v>
       </c>
       <c r="R52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="S52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,11 @@
           <t>2026-02-16 11:36:58</t>
         </is>
       </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>2026-02-16 12:51:00</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -584,6 +589,9 @@
       <c r="S2" t="n">
         <v>129.95</v>
       </c>
+      <c r="T2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -651,6 +659,9 @@
       <c r="S3" t="n">
         <v>149.95</v>
       </c>
+      <c r="T3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -718,6 +729,9 @@
       <c r="S4" t="n">
         <v>149.95</v>
       </c>
+      <c r="T4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -785,6 +799,9 @@
       <c r="S5" t="n">
         <v>149.95</v>
       </c>
+      <c r="T5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -852,6 +869,9 @@
       <c r="S6" t="n">
         <v>149.95</v>
       </c>
+      <c r="T6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -919,6 +939,9 @@
       <c r="S7" t="n">
         <v>149.95</v>
       </c>
+      <c r="T7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -986,6 +1009,9 @@
       <c r="S8" t="n">
         <v>149.95</v>
       </c>
+      <c r="T8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1053,6 +1079,9 @@
       <c r="S9" t="n">
         <v>168.95</v>
       </c>
+      <c r="T9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1124,6 +1153,9 @@
       <c r="S10" t="n">
         <v>179.95</v>
       </c>
+      <c r="T10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1195,6 +1227,9 @@
       <c r="S11" t="n">
         <v>179.95</v>
       </c>
+      <c r="T11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1266,6 +1301,9 @@
       <c r="S12" t="n">
         <v>179.95</v>
       </c>
+      <c r="T12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1335,6 +1373,9 @@
         <v>179.95</v>
       </c>
       <c r="S13" t="n">
+        <v>179.95</v>
+      </c>
+      <c r="T13" t="n">
         <v>179.95</v>
       </c>
     </row>
@@ -1404,6 +1445,9 @@
       <c r="S14" t="n">
         <v>179.95</v>
       </c>
+      <c r="T14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1471,6 +1515,9 @@
       <c r="S15" t="n">
         <v>179.95</v>
       </c>
+      <c r="T15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1538,6 +1585,9 @@
       <c r="S16" t="n">
         <v>179.95</v>
       </c>
+      <c r="T16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1605,6 +1655,9 @@
       <c r="S17" t="n">
         <v>189.95</v>
       </c>
+      <c r="T17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1676,6 +1729,9 @@
       <c r="S18" t="n">
         <v>209.95</v>
       </c>
+      <c r="T18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1745,6 +1801,9 @@
         <v>209.95</v>
       </c>
       <c r="S19" t="n">
+        <v>209.95</v>
+      </c>
+      <c r="T19" t="n">
         <v>209.95</v>
       </c>
     </row>
@@ -1814,6 +1873,9 @@
       <c r="S20" t="n">
         <v>219.95</v>
       </c>
+      <c r="T20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1885,6 +1947,9 @@
       <c r="S21" t="n">
         <v>249.95</v>
       </c>
+      <c r="T21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1956,6 +2021,9 @@
       <c r="S22" t="n">
         <v>249.95</v>
       </c>
+      <c r="T22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2025,6 +2093,9 @@
         <v>249.95</v>
       </c>
       <c r="S23" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="T23" t="n">
         <v>249.95</v>
       </c>
     </row>
@@ -2094,6 +2165,9 @@
       <c r="S24" t="n">
         <v>249.95</v>
       </c>
+      <c r="T24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2161,6 +2235,9 @@
       <c r="S25" t="n">
         <v>249.95</v>
       </c>
+      <c r="T25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2228,6 +2305,9 @@
       <c r="S26" t="n">
         <v>249.95</v>
       </c>
+      <c r="T26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2295,6 +2375,9 @@
       <c r="S27" t="n">
         <v>279.95</v>
       </c>
+      <c r="T27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2362,6 +2445,9 @@
       <c r="S28" t="n">
         <v>299.95</v>
       </c>
+      <c r="T28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2429,6 +2515,9 @@
       <c r="S29" t="n">
         <v>299.95</v>
       </c>
+      <c r="T29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2496,6 +2585,9 @@
       <c r="S30" t="n">
         <v>299.95</v>
       </c>
+      <c r="T30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2563,6 +2655,9 @@
       <c r="S31" t="n">
         <v>299.95</v>
       </c>
+      <c r="T31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2630,6 +2725,9 @@
       <c r="S32" t="n">
         <v>399.95</v>
       </c>
+      <c r="T32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2697,6 +2795,9 @@
       <c r="S33" t="n">
         <v>399.95</v>
       </c>
+      <c r="T33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2764,6 +2865,9 @@
       <c r="S34" t="n">
         <v>399.95</v>
       </c>
+      <c r="T34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2831,6 +2935,9 @@
       <c r="S35" t="n">
         <v>429.95</v>
       </c>
+      <c r="T35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2898,6 +3005,9 @@
       <c r="S36" t="n">
         <v>429.95</v>
       </c>
+      <c r="T36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2965,6 +3075,9 @@
       <c r="S37" t="n">
         <v>429.95</v>
       </c>
+      <c r="T37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3032,6 +3145,9 @@
       <c r="S38" t="n">
         <v>499.95</v>
       </c>
+      <c r="T38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3099,6 +3215,9 @@
       <c r="S39" t="n">
         <v>499.95</v>
       </c>
+      <c r="T39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3166,6 +3285,9 @@
       <c r="S40" t="n">
         <v>499.95</v>
       </c>
+      <c r="T40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3233,6 +3355,9 @@
       <c r="S41" t="n">
         <v>549.95</v>
       </c>
+      <c r="T41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3300,6 +3425,9 @@
       <c r="S42" t="n">
         <v>549.95</v>
       </c>
+      <c r="T42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3367,6 +3495,9 @@
       <c r="S43" t="n">
         <v>549.95</v>
       </c>
+      <c r="T43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3434,6 +3565,9 @@
       <c r="S44" t="n">
         <v>649.95</v>
       </c>
+      <c r="T44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3501,6 +3635,9 @@
       <c r="S45" t="n">
         <v>649.95</v>
       </c>
+      <c r="T45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3568,6 +3705,9 @@
       <c r="S46" t="n">
         <v>649.95</v>
       </c>
+      <c r="T46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3635,6 +3775,9 @@
       <c r="S47" t="n">
         <v>899.95</v>
       </c>
+      <c r="T47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3702,6 +3845,9 @@
       <c r="S48" t="n">
         <v>899.95</v>
       </c>
+      <c r="T48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3769,6 +3915,9 @@
       <c r="S49" t="n">
         <v>899.95</v>
       </c>
+      <c r="T49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3836,6 +3985,9 @@
       <c r="S50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="T50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3903,6 +4055,9 @@
       <c r="S51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="T51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3968,6 +4123,9 @@
         <v>1299.95</v>
       </c>
       <c r="S52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="T52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,6 +522,11 @@
           <t>2026-02-16 12:51:00</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>2026-02-16 14:03:08</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -592,6 +597,9 @@
       <c r="T2" t="n">
         <v>129.95</v>
       </c>
+      <c r="U2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -662,6 +670,9 @@
       <c r="T3" t="n">
         <v>149.95</v>
       </c>
+      <c r="U3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -732,6 +743,9 @@
       <c r="T4" t="n">
         <v>149.95</v>
       </c>
+      <c r="U4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -802,6 +816,9 @@
       <c r="T5" t="n">
         <v>149.95</v>
       </c>
+      <c r="U5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -872,6 +889,9 @@
       <c r="T6" t="n">
         <v>149.95</v>
       </c>
+      <c r="U6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -942,6 +962,9 @@
       <c r="T7" t="n">
         <v>149.95</v>
       </c>
+      <c r="U7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1012,6 +1035,9 @@
       <c r="T8" t="n">
         <v>149.95</v>
       </c>
+      <c r="U8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1082,6 +1108,9 @@
       <c r="T9" t="n">
         <v>168.95</v>
       </c>
+      <c r="U9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1156,6 +1185,9 @@
       <c r="T10" t="n">
         <v>179.95</v>
       </c>
+      <c r="U10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1230,6 +1262,9 @@
       <c r="T11" t="n">
         <v>179.95</v>
       </c>
+      <c r="U11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1304,6 +1339,9 @@
       <c r="T12" t="n">
         <v>179.95</v>
       </c>
+      <c r="U12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1376,6 +1414,9 @@
         <v>179.95</v>
       </c>
       <c r="T13" t="n">
+        <v>179.95</v>
+      </c>
+      <c r="U13" t="n">
         <v>179.95</v>
       </c>
     </row>
@@ -1448,6 +1489,9 @@
       <c r="T14" t="n">
         <v>179.95</v>
       </c>
+      <c r="U14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1518,6 +1562,9 @@
       <c r="T15" t="n">
         <v>179.95</v>
       </c>
+      <c r="U15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1588,6 +1635,9 @@
       <c r="T16" t="n">
         <v>179.95</v>
       </c>
+      <c r="U16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1658,6 +1708,9 @@
       <c r="T17" t="n">
         <v>189.95</v>
       </c>
+      <c r="U17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1732,6 +1785,9 @@
       <c r="T18" t="n">
         <v>209.95</v>
       </c>
+      <c r="U18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1804,6 +1860,9 @@
         <v>209.95</v>
       </c>
       <c r="T19" t="n">
+        <v>209.95</v>
+      </c>
+      <c r="U19" t="n">
         <v>209.95</v>
       </c>
     </row>
@@ -1876,6 +1935,9 @@
       <c r="T20" t="n">
         <v>219.95</v>
       </c>
+      <c r="U20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1950,6 +2012,9 @@
       <c r="T21" t="n">
         <v>249.95</v>
       </c>
+      <c r="U21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2024,6 +2089,9 @@
       <c r="T22" t="n">
         <v>249.95</v>
       </c>
+      <c r="U22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2096,6 +2164,9 @@
         <v>249.95</v>
       </c>
       <c r="T23" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="U23" t="n">
         <v>249.95</v>
       </c>
     </row>
@@ -2168,6 +2239,9 @@
       <c r="T24" t="n">
         <v>249.95</v>
       </c>
+      <c r="U24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2238,6 +2312,9 @@
       <c r="T25" t="n">
         <v>249.95</v>
       </c>
+      <c r="U25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2308,6 +2385,9 @@
       <c r="T26" t="n">
         <v>249.95</v>
       </c>
+      <c r="U26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2378,6 +2458,9 @@
       <c r="T27" t="n">
         <v>279.95</v>
       </c>
+      <c r="U27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2448,6 +2531,9 @@
       <c r="T28" t="n">
         <v>299.95</v>
       </c>
+      <c r="U28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2518,6 +2604,9 @@
       <c r="T29" t="n">
         <v>299.95</v>
       </c>
+      <c r="U29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2588,6 +2677,9 @@
       <c r="T30" t="n">
         <v>299.95</v>
       </c>
+      <c r="U30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2658,6 +2750,9 @@
       <c r="T31" t="n">
         <v>299.95</v>
       </c>
+      <c r="U31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2728,6 +2823,9 @@
       <c r="T32" t="n">
         <v>399.95</v>
       </c>
+      <c r="U32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2798,6 +2896,9 @@
       <c r="T33" t="n">
         <v>399.95</v>
       </c>
+      <c r="U33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2868,6 +2969,9 @@
       <c r="T34" t="n">
         <v>399.95</v>
       </c>
+      <c r="U34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2938,6 +3042,9 @@
       <c r="T35" t="n">
         <v>429.95</v>
       </c>
+      <c r="U35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3008,6 +3115,9 @@
       <c r="T36" t="n">
         <v>429.95</v>
       </c>
+      <c r="U36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3078,6 +3188,9 @@
       <c r="T37" t="n">
         <v>429.95</v>
       </c>
+      <c r="U37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3148,6 +3261,9 @@
       <c r="T38" t="n">
         <v>499.95</v>
       </c>
+      <c r="U38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3218,6 +3334,9 @@
       <c r="T39" t="n">
         <v>499.95</v>
       </c>
+      <c r="U39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3288,6 +3407,9 @@
       <c r="T40" t="n">
         <v>499.95</v>
       </c>
+      <c r="U40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3358,6 +3480,9 @@
       <c r="T41" t="n">
         <v>549.95</v>
       </c>
+      <c r="U41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3428,6 +3553,9 @@
       <c r="T42" t="n">
         <v>549.95</v>
       </c>
+      <c r="U42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3498,6 +3626,9 @@
       <c r="T43" t="n">
         <v>549.95</v>
       </c>
+      <c r="U43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3568,6 +3699,9 @@
       <c r="T44" t="n">
         <v>649.95</v>
       </c>
+      <c r="U44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3638,6 +3772,9 @@
       <c r="T45" t="n">
         <v>649.95</v>
       </c>
+      <c r="U45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3708,6 +3845,9 @@
       <c r="T46" t="n">
         <v>649.95</v>
       </c>
+      <c r="U46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3778,6 +3918,9 @@
       <c r="T47" t="n">
         <v>899.95</v>
       </c>
+      <c r="U47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3848,6 +3991,9 @@
       <c r="T48" t="n">
         <v>899.95</v>
       </c>
+      <c r="U48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3918,6 +4064,9 @@
       <c r="T49" t="n">
         <v>899.95</v>
       </c>
+      <c r="U49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3988,6 +4137,9 @@
       <c r="T50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="U50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4058,6 +4210,9 @@
       <c r="T51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="U51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4126,6 +4281,9 @@
         <v>1299.95</v>
       </c>
       <c r="T52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="U52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,11 @@
           <t>2026-02-16 14:03:08</t>
         </is>
       </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>2026-02-16 15:36:41</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -600,6 +605,9 @@
       <c r="U2" t="n">
         <v>129.95</v>
       </c>
+      <c r="V2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -673,6 +681,9 @@
       <c r="U3" t="n">
         <v>149.95</v>
       </c>
+      <c r="V3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -746,6 +757,9 @@
       <c r="U4" t="n">
         <v>149.95</v>
       </c>
+      <c r="V4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -819,6 +833,9 @@
       <c r="U5" t="n">
         <v>149.95</v>
       </c>
+      <c r="V5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -892,6 +909,9 @@
       <c r="U6" t="n">
         <v>149.95</v>
       </c>
+      <c r="V6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -965,6 +985,9 @@
       <c r="U7" t="n">
         <v>149.95</v>
       </c>
+      <c r="V7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1038,6 +1061,9 @@
       <c r="U8" t="n">
         <v>149.95</v>
       </c>
+      <c r="V8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1111,6 +1137,9 @@
       <c r="U9" t="n">
         <v>168.95</v>
       </c>
+      <c r="V9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1188,6 +1217,9 @@
       <c r="U10" t="n">
         <v>179.95</v>
       </c>
+      <c r="V10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1265,6 +1297,9 @@
       <c r="U11" t="n">
         <v>179.95</v>
       </c>
+      <c r="V11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1342,6 +1377,9 @@
       <c r="U12" t="n">
         <v>179.95</v>
       </c>
+      <c r="V12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1417,6 +1455,9 @@
         <v>179.95</v>
       </c>
       <c r="U13" t="n">
+        <v>179.95</v>
+      </c>
+      <c r="V13" t="n">
         <v>179.95</v>
       </c>
     </row>
@@ -1492,6 +1533,9 @@
       <c r="U14" t="n">
         <v>179.95</v>
       </c>
+      <c r="V14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1565,6 +1609,9 @@
       <c r="U15" t="n">
         <v>179.95</v>
       </c>
+      <c r="V15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1638,6 +1685,9 @@
       <c r="U16" t="n">
         <v>179.95</v>
       </c>
+      <c r="V16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1711,6 +1761,9 @@
       <c r="U17" t="n">
         <v>189.95</v>
       </c>
+      <c r="V17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1788,6 +1841,9 @@
       <c r="U18" t="n">
         <v>209.95</v>
       </c>
+      <c r="V18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1863,6 +1919,9 @@
         <v>209.95</v>
       </c>
       <c r="U19" t="n">
+        <v>209.95</v>
+      </c>
+      <c r="V19" t="n">
         <v>209.95</v>
       </c>
     </row>
@@ -1938,6 +1997,9 @@
       <c r="U20" t="n">
         <v>219.95</v>
       </c>
+      <c r="V20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2015,6 +2077,9 @@
       <c r="U21" t="n">
         <v>249.95</v>
       </c>
+      <c r="V21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2092,6 +2157,9 @@
       <c r="U22" t="n">
         <v>249.95</v>
       </c>
+      <c r="V22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2167,6 +2235,9 @@
         <v>249.95</v>
       </c>
       <c r="U23" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="V23" t="n">
         <v>249.95</v>
       </c>
     </row>
@@ -2242,6 +2313,9 @@
       <c r="U24" t="n">
         <v>249.95</v>
       </c>
+      <c r="V24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2315,6 +2389,9 @@
       <c r="U25" t="n">
         <v>249.95</v>
       </c>
+      <c r="V25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2388,6 +2465,9 @@
       <c r="U26" t="n">
         <v>249.95</v>
       </c>
+      <c r="V26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2461,6 +2541,9 @@
       <c r="U27" t="n">
         <v>279.95</v>
       </c>
+      <c r="V27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2534,6 +2617,9 @@
       <c r="U28" t="n">
         <v>299.95</v>
       </c>
+      <c r="V28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2607,6 +2693,9 @@
       <c r="U29" t="n">
         <v>299.95</v>
       </c>
+      <c r="V29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2680,6 +2769,9 @@
       <c r="U30" t="n">
         <v>299.95</v>
       </c>
+      <c r="V30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2753,6 +2845,9 @@
       <c r="U31" t="n">
         <v>299.95</v>
       </c>
+      <c r="V31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2826,6 +2921,9 @@
       <c r="U32" t="n">
         <v>399.95</v>
       </c>
+      <c r="V32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2899,6 +2997,9 @@
       <c r="U33" t="n">
         <v>399.95</v>
       </c>
+      <c r="V33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2972,6 +3073,9 @@
       <c r="U34" t="n">
         <v>399.95</v>
       </c>
+      <c r="V34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3045,6 +3149,9 @@
       <c r="U35" t="n">
         <v>429.95</v>
       </c>
+      <c r="V35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3118,6 +3225,9 @@
       <c r="U36" t="n">
         <v>429.95</v>
       </c>
+      <c r="V36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3191,6 +3301,9 @@
       <c r="U37" t="n">
         <v>429.95</v>
       </c>
+      <c r="V37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3264,6 +3377,9 @@
       <c r="U38" t="n">
         <v>499.95</v>
       </c>
+      <c r="V38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3337,6 +3453,9 @@
       <c r="U39" t="n">
         <v>499.95</v>
       </c>
+      <c r="V39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3410,6 +3529,9 @@
       <c r="U40" t="n">
         <v>499.95</v>
       </c>
+      <c r="V40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3483,6 +3605,9 @@
       <c r="U41" t="n">
         <v>549.95</v>
       </c>
+      <c r="V41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3556,6 +3681,9 @@
       <c r="U42" t="n">
         <v>549.95</v>
       </c>
+      <c r="V42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3629,6 +3757,9 @@
       <c r="U43" t="n">
         <v>549.95</v>
       </c>
+      <c r="V43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3702,6 +3833,9 @@
       <c r="U44" t="n">
         <v>649.95</v>
       </c>
+      <c r="V44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3775,6 +3909,9 @@
       <c r="U45" t="n">
         <v>649.95</v>
       </c>
+      <c r="V45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3848,6 +3985,9 @@
       <c r="U46" t="n">
         <v>649.95</v>
       </c>
+      <c r="V46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3921,6 +4061,9 @@
       <c r="U47" t="n">
         <v>899.95</v>
       </c>
+      <c r="V47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3994,6 +4137,9 @@
       <c r="U48" t="n">
         <v>899.95</v>
       </c>
+      <c r="V48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4067,6 +4213,9 @@
       <c r="U49" t="n">
         <v>899.95</v>
       </c>
+      <c r="V49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4140,6 +4289,9 @@
       <c r="U50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="V50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4213,6 +4365,9 @@
       <c r="U51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="V51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4284,6 +4439,9 @@
         <v>1299.95</v>
       </c>
       <c r="U52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="V52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,11 @@
           <t>2026-02-16 15:36:41</t>
         </is>
       </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>2026-02-16 16:37:25</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -608,6 +613,9 @@
       <c r="V2" t="n">
         <v>129.95</v>
       </c>
+      <c r="W2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -684,6 +692,9 @@
       <c r="V3" t="n">
         <v>149.95</v>
       </c>
+      <c r="W3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -760,6 +771,9 @@
       <c r="V4" t="n">
         <v>149.95</v>
       </c>
+      <c r="W4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -836,6 +850,9 @@
       <c r="V5" t="n">
         <v>149.95</v>
       </c>
+      <c r="W5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -912,6 +929,9 @@
       <c r="V6" t="n">
         <v>149.95</v>
       </c>
+      <c r="W6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -988,6 +1008,9 @@
       <c r="V7" t="n">
         <v>149.95</v>
       </c>
+      <c r="W7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1064,6 +1087,9 @@
       <c r="V8" t="n">
         <v>149.95</v>
       </c>
+      <c r="W8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1140,6 +1166,9 @@
       <c r="V9" t="n">
         <v>168.95</v>
       </c>
+      <c r="W9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1220,6 +1249,9 @@
       <c r="V10" t="n">
         <v>179.95</v>
       </c>
+      <c r="W10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1300,6 +1332,9 @@
       <c r="V11" t="n">
         <v>179.95</v>
       </c>
+      <c r="W11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1380,6 +1415,9 @@
       <c r="V12" t="n">
         <v>179.95</v>
       </c>
+      <c r="W12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1458,6 +1496,9 @@
         <v>179.95</v>
       </c>
       <c r="V13" t="n">
+        <v>179.95</v>
+      </c>
+      <c r="W13" t="n">
         <v>179.95</v>
       </c>
     </row>
@@ -1536,6 +1577,9 @@
       <c r="V14" t="n">
         <v>179.95</v>
       </c>
+      <c r="W14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1612,6 +1656,9 @@
       <c r="V15" t="n">
         <v>179.95</v>
       </c>
+      <c r="W15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1688,6 +1735,9 @@
       <c r="V16" t="n">
         <v>179.95</v>
       </c>
+      <c r="W16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1764,6 +1814,9 @@
       <c r="V17" t="n">
         <v>189.95</v>
       </c>
+      <c r="W17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1844,6 +1897,9 @@
       <c r="V18" t="n">
         <v>209.95</v>
       </c>
+      <c r="W18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1922,6 +1978,9 @@
         <v>209.95</v>
       </c>
       <c r="V19" t="n">
+        <v>209.95</v>
+      </c>
+      <c r="W19" t="n">
         <v>209.95</v>
       </c>
     </row>
@@ -2000,6 +2059,9 @@
       <c r="V20" t="n">
         <v>219.95</v>
       </c>
+      <c r="W20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2080,6 +2142,9 @@
       <c r="V21" t="n">
         <v>249.95</v>
       </c>
+      <c r="W21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2160,6 +2225,9 @@
       <c r="V22" t="n">
         <v>249.95</v>
       </c>
+      <c r="W22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2238,6 +2306,9 @@
         <v>249.95</v>
       </c>
       <c r="V23" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="W23" t="n">
         <v>249.95</v>
       </c>
     </row>
@@ -2316,6 +2387,9 @@
       <c r="V24" t="n">
         <v>249.95</v>
       </c>
+      <c r="W24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2392,6 +2466,9 @@
       <c r="V25" t="n">
         <v>249.95</v>
       </c>
+      <c r="W25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2468,6 +2545,9 @@
       <c r="V26" t="n">
         <v>249.95</v>
       </c>
+      <c r="W26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2544,6 +2624,9 @@
       <c r="V27" t="n">
         <v>279.95</v>
       </c>
+      <c r="W27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2620,6 +2703,9 @@
       <c r="V28" t="n">
         <v>299.95</v>
       </c>
+      <c r="W28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2696,6 +2782,9 @@
       <c r="V29" t="n">
         <v>299.95</v>
       </c>
+      <c r="W29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2772,6 +2861,9 @@
       <c r="V30" t="n">
         <v>299.95</v>
       </c>
+      <c r="W30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2848,6 +2940,9 @@
       <c r="V31" t="n">
         <v>299.95</v>
       </c>
+      <c r="W31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2924,6 +3019,9 @@
       <c r="V32" t="n">
         <v>399.95</v>
       </c>
+      <c r="W32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3000,6 +3098,9 @@
       <c r="V33" t="n">
         <v>399.95</v>
       </c>
+      <c r="W33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3076,6 +3177,9 @@
       <c r="V34" t="n">
         <v>399.95</v>
       </c>
+      <c r="W34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3152,6 +3256,9 @@
       <c r="V35" t="n">
         <v>429.95</v>
       </c>
+      <c r="W35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3228,6 +3335,9 @@
       <c r="V36" t="n">
         <v>429.95</v>
       </c>
+      <c r="W36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3304,6 +3414,9 @@
       <c r="V37" t="n">
         <v>429.95</v>
       </c>
+      <c r="W37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3380,6 +3493,9 @@
       <c r="V38" t="n">
         <v>499.95</v>
       </c>
+      <c r="W38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3456,6 +3572,9 @@
       <c r="V39" t="n">
         <v>499.95</v>
       </c>
+      <c r="W39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3532,6 +3651,9 @@
       <c r="V40" t="n">
         <v>499.95</v>
       </c>
+      <c r="W40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3608,6 +3730,9 @@
       <c r="V41" t="n">
         <v>549.95</v>
       </c>
+      <c r="W41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3684,6 +3809,9 @@
       <c r="V42" t="n">
         <v>549.95</v>
       </c>
+      <c r="W42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3760,6 +3888,9 @@
       <c r="V43" t="n">
         <v>549.95</v>
       </c>
+      <c r="W43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3836,6 +3967,9 @@
       <c r="V44" t="n">
         <v>649.95</v>
       </c>
+      <c r="W44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3912,6 +4046,9 @@
       <c r="V45" t="n">
         <v>649.95</v>
       </c>
+      <c r="W45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3988,6 +4125,9 @@
       <c r="V46" t="n">
         <v>649.95</v>
       </c>
+      <c r="W46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4064,6 +4204,9 @@
       <c r="V47" t="n">
         <v>899.95</v>
       </c>
+      <c r="W47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4140,6 +4283,9 @@
       <c r="V48" t="n">
         <v>899.95</v>
       </c>
+      <c r="W48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4216,6 +4362,9 @@
       <c r="V49" t="n">
         <v>899.95</v>
       </c>
+      <c r="W49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4292,6 +4441,9 @@
       <c r="V50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="W50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4368,6 +4520,9 @@
       <c r="V51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="W51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4442,6 +4597,9 @@
         <v>1299.95</v>
       </c>
       <c r="V52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="W52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,6 +537,11 @@
           <t>2026-02-16 16:37:25</t>
         </is>
       </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>2026-02-16 17:34:47</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -616,6 +621,9 @@
       <c r="W2" t="n">
         <v>129.95</v>
       </c>
+      <c r="X2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -695,6 +703,9 @@
       <c r="W3" t="n">
         <v>149.95</v>
       </c>
+      <c r="X3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -774,6 +785,9 @@
       <c r="W4" t="n">
         <v>149.95</v>
       </c>
+      <c r="X4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -853,6 +867,9 @@
       <c r="W5" t="n">
         <v>149.95</v>
       </c>
+      <c r="X5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -932,6 +949,9 @@
       <c r="W6" t="n">
         <v>149.95</v>
       </c>
+      <c r="X6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1011,6 +1031,9 @@
       <c r="W7" t="n">
         <v>149.95</v>
       </c>
+      <c r="X7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1090,6 +1113,9 @@
       <c r="W8" t="n">
         <v>149.95</v>
       </c>
+      <c r="X8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1169,6 +1195,9 @@
       <c r="W9" t="n">
         <v>168.95</v>
       </c>
+      <c r="X9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1252,6 +1281,9 @@
       <c r="W10" t="n">
         <v>179.95</v>
       </c>
+      <c r="X10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1335,6 +1367,9 @@
       <c r="W11" t="n">
         <v>179.95</v>
       </c>
+      <c r="X11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1418,6 +1453,9 @@
       <c r="W12" t="n">
         <v>179.95</v>
       </c>
+      <c r="X12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1499,6 +1537,9 @@
         <v>179.95</v>
       </c>
       <c r="W13" t="n">
+        <v>179.95</v>
+      </c>
+      <c r="X13" t="n">
         <v>179.95</v>
       </c>
     </row>
@@ -1580,6 +1621,9 @@
       <c r="W14" t="n">
         <v>179.95</v>
       </c>
+      <c r="X14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1659,6 +1703,9 @@
       <c r="W15" t="n">
         <v>179.95</v>
       </c>
+      <c r="X15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1738,6 +1785,9 @@
       <c r="W16" t="n">
         <v>179.95</v>
       </c>
+      <c r="X16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1817,6 +1867,9 @@
       <c r="W17" t="n">
         <v>189.95</v>
       </c>
+      <c r="X17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1900,6 +1953,9 @@
       <c r="W18" t="n">
         <v>209.95</v>
       </c>
+      <c r="X18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1981,6 +2037,9 @@
         <v>209.95</v>
       </c>
       <c r="W19" t="n">
+        <v>209.95</v>
+      </c>
+      <c r="X19" t="n">
         <v>209.95</v>
       </c>
     </row>
@@ -2062,6 +2121,9 @@
       <c r="W20" t="n">
         <v>219.95</v>
       </c>
+      <c r="X20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2145,6 +2207,9 @@
       <c r="W21" t="n">
         <v>249.95</v>
       </c>
+      <c r="X21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2228,6 +2293,9 @@
       <c r="W22" t="n">
         <v>249.95</v>
       </c>
+      <c r="X22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2309,6 +2377,9 @@
         <v>249.95</v>
       </c>
       <c r="W23" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="X23" t="n">
         <v>249.95</v>
       </c>
     </row>
@@ -2390,6 +2461,9 @@
       <c r="W24" t="n">
         <v>249.95</v>
       </c>
+      <c r="X24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2469,6 +2543,9 @@
       <c r="W25" t="n">
         <v>249.95</v>
       </c>
+      <c r="X25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2548,6 +2625,9 @@
       <c r="W26" t="n">
         <v>249.95</v>
       </c>
+      <c r="X26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2627,6 +2707,9 @@
       <c r="W27" t="n">
         <v>279.95</v>
       </c>
+      <c r="X27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2706,6 +2789,9 @@
       <c r="W28" t="n">
         <v>299.95</v>
       </c>
+      <c r="X28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2785,6 +2871,9 @@
       <c r="W29" t="n">
         <v>299.95</v>
       </c>
+      <c r="X29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2864,6 +2953,9 @@
       <c r="W30" t="n">
         <v>299.95</v>
       </c>
+      <c r="X30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2943,6 +3035,9 @@
       <c r="W31" t="n">
         <v>299.95</v>
       </c>
+      <c r="X31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3022,6 +3117,9 @@
       <c r="W32" t="n">
         <v>399.95</v>
       </c>
+      <c r="X32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3101,6 +3199,9 @@
       <c r="W33" t="n">
         <v>399.95</v>
       </c>
+      <c r="X33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3180,6 +3281,9 @@
       <c r="W34" t="n">
         <v>399.95</v>
       </c>
+      <c r="X34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3259,6 +3363,9 @@
       <c r="W35" t="n">
         <v>429.95</v>
       </c>
+      <c r="X35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3338,6 +3445,9 @@
       <c r="W36" t="n">
         <v>429.95</v>
       </c>
+      <c r="X36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3417,6 +3527,9 @@
       <c r="W37" t="n">
         <v>429.95</v>
       </c>
+      <c r="X37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3496,6 +3609,9 @@
       <c r="W38" t="n">
         <v>499.95</v>
       </c>
+      <c r="X38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3575,6 +3691,9 @@
       <c r="W39" t="n">
         <v>499.95</v>
       </c>
+      <c r="X39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3654,6 +3773,9 @@
       <c r="W40" t="n">
         <v>499.95</v>
       </c>
+      <c r="X40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3733,6 +3855,9 @@
       <c r="W41" t="n">
         <v>549.95</v>
       </c>
+      <c r="X41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3812,6 +3937,9 @@
       <c r="W42" t="n">
         <v>549.95</v>
       </c>
+      <c r="X42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3891,6 +4019,9 @@
       <c r="W43" t="n">
         <v>549.95</v>
       </c>
+      <c r="X43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3970,6 +4101,9 @@
       <c r="W44" t="n">
         <v>649.95</v>
       </c>
+      <c r="X44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4049,6 +4183,9 @@
       <c r="W45" t="n">
         <v>649.95</v>
       </c>
+      <c r="X45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4128,6 +4265,9 @@
       <c r="W46" t="n">
         <v>649.95</v>
       </c>
+      <c r="X46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4207,6 +4347,9 @@
       <c r="W47" t="n">
         <v>899.95</v>
       </c>
+      <c r="X47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4286,6 +4429,9 @@
       <c r="W48" t="n">
         <v>899.95</v>
       </c>
+      <c r="X48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4365,6 +4511,9 @@
       <c r="W49" t="n">
         <v>899.95</v>
       </c>
+      <c r="X49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4444,6 +4593,9 @@
       <c r="W50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="X50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4523,6 +4675,9 @@
       <c r="W51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="X51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4600,6 +4755,9 @@
         <v>1299.95</v>
       </c>
       <c r="W52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="X52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,11 @@
           <t>2026-02-16 17:34:47</t>
         </is>
       </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>2026-02-16 18:36:02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -624,6 +629,9 @@
       <c r="X2" t="n">
         <v>129.95</v>
       </c>
+      <c r="Y2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -706,6 +714,9 @@
       <c r="X3" t="n">
         <v>149.95</v>
       </c>
+      <c r="Y3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -788,6 +799,9 @@
       <c r="X4" t="n">
         <v>149.95</v>
       </c>
+      <c r="Y4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -870,6 +884,9 @@
       <c r="X5" t="n">
         <v>149.95</v>
       </c>
+      <c r="Y5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -952,6 +969,9 @@
       <c r="X6" t="n">
         <v>149.95</v>
       </c>
+      <c r="Y6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1034,6 +1054,9 @@
       <c r="X7" t="n">
         <v>149.95</v>
       </c>
+      <c r="Y7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1116,6 +1139,9 @@
       <c r="X8" t="n">
         <v>149.95</v>
       </c>
+      <c r="Y8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1198,6 +1224,9 @@
       <c r="X9" t="n">
         <v>168.95</v>
       </c>
+      <c r="Y9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1284,6 +1313,9 @@
       <c r="X10" t="n">
         <v>179.95</v>
       </c>
+      <c r="Y10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1370,6 +1402,9 @@
       <c r="X11" t="n">
         <v>179.95</v>
       </c>
+      <c r="Y11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1456,6 +1491,9 @@
       <c r="X12" t="n">
         <v>179.95</v>
       </c>
+      <c r="Y12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1540,6 +1578,9 @@
         <v>179.95</v>
       </c>
       <c r="X13" t="n">
+        <v>179.95</v>
+      </c>
+      <c r="Y13" t="n">
         <v>179.95</v>
       </c>
     </row>
@@ -1624,6 +1665,9 @@
       <c r="X14" t="n">
         <v>179.95</v>
       </c>
+      <c r="Y14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1706,6 +1750,9 @@
       <c r="X15" t="n">
         <v>179.95</v>
       </c>
+      <c r="Y15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1788,6 +1835,9 @@
       <c r="X16" t="n">
         <v>179.95</v>
       </c>
+      <c r="Y16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1870,6 +1920,9 @@
       <c r="X17" t="n">
         <v>189.95</v>
       </c>
+      <c r="Y17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1956,6 +2009,9 @@
       <c r="X18" t="n">
         <v>209.95</v>
       </c>
+      <c r="Y18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2040,6 +2096,9 @@
         <v>209.95</v>
       </c>
       <c r="X19" t="n">
+        <v>209.95</v>
+      </c>
+      <c r="Y19" t="n">
         <v>209.95</v>
       </c>
     </row>
@@ -2124,6 +2183,9 @@
       <c r="X20" t="n">
         <v>219.95</v>
       </c>
+      <c r="Y20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2210,6 +2272,9 @@
       <c r="X21" t="n">
         <v>249.95</v>
       </c>
+      <c r="Y21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2296,6 +2361,9 @@
       <c r="X22" t="n">
         <v>249.95</v>
       </c>
+      <c r="Y22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2380,6 +2448,9 @@
         <v>249.95</v>
       </c>
       <c r="X23" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="Y23" t="n">
         <v>249.95</v>
       </c>
     </row>
@@ -2464,6 +2535,9 @@
       <c r="X24" t="n">
         <v>249.95</v>
       </c>
+      <c r="Y24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2546,6 +2620,9 @@
       <c r="X25" t="n">
         <v>249.95</v>
       </c>
+      <c r="Y25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2628,6 +2705,9 @@
       <c r="X26" t="n">
         <v>249.95</v>
       </c>
+      <c r="Y26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2710,6 +2790,9 @@
       <c r="X27" t="n">
         <v>279.95</v>
       </c>
+      <c r="Y27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2792,6 +2875,9 @@
       <c r="X28" t="n">
         <v>299.95</v>
       </c>
+      <c r="Y28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2874,6 +2960,9 @@
       <c r="X29" t="n">
         <v>299.95</v>
       </c>
+      <c r="Y29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2956,6 +3045,9 @@
       <c r="X30" t="n">
         <v>299.95</v>
       </c>
+      <c r="Y30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3038,6 +3130,9 @@
       <c r="X31" t="n">
         <v>299.95</v>
       </c>
+      <c r="Y31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3120,6 +3215,9 @@
       <c r="X32" t="n">
         <v>399.95</v>
       </c>
+      <c r="Y32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3202,6 +3300,9 @@
       <c r="X33" t="n">
         <v>399.95</v>
       </c>
+      <c r="Y33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3284,6 +3385,9 @@
       <c r="X34" t="n">
         <v>399.95</v>
       </c>
+      <c r="Y34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3366,6 +3470,9 @@
       <c r="X35" t="n">
         <v>429.95</v>
       </c>
+      <c r="Y35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3448,6 +3555,9 @@
       <c r="X36" t="n">
         <v>429.95</v>
       </c>
+      <c r="Y36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3530,6 +3640,9 @@
       <c r="X37" t="n">
         <v>429.95</v>
       </c>
+      <c r="Y37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3612,6 +3725,9 @@
       <c r="X38" t="n">
         <v>499.95</v>
       </c>
+      <c r="Y38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3694,6 +3810,9 @@
       <c r="X39" t="n">
         <v>499.95</v>
       </c>
+      <c r="Y39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3776,6 +3895,9 @@
       <c r="X40" t="n">
         <v>499.95</v>
       </c>
+      <c r="Y40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3858,6 +3980,9 @@
       <c r="X41" t="n">
         <v>549.95</v>
       </c>
+      <c r="Y41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3940,6 +4065,9 @@
       <c r="X42" t="n">
         <v>549.95</v>
       </c>
+      <c r="Y42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4022,6 +4150,9 @@
       <c r="X43" t="n">
         <v>549.95</v>
       </c>
+      <c r="Y43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4104,6 +4235,9 @@
       <c r="X44" t="n">
         <v>649.95</v>
       </c>
+      <c r="Y44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4186,6 +4320,9 @@
       <c r="X45" t="n">
         <v>649.95</v>
       </c>
+      <c r="Y45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4268,6 +4405,9 @@
       <c r="X46" t="n">
         <v>649.95</v>
       </c>
+      <c r="Y46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4350,6 +4490,9 @@
       <c r="X47" t="n">
         <v>899.95</v>
       </c>
+      <c r="Y47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4432,6 +4575,9 @@
       <c r="X48" t="n">
         <v>899.95</v>
       </c>
+      <c r="Y48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4514,6 +4660,9 @@
       <c r="X49" t="n">
         <v>899.95</v>
       </c>
+      <c r="Y49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4596,6 +4745,9 @@
       <c r="X50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="Y50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4678,6 +4830,9 @@
       <c r="X51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="Y51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4758,6 +4913,9 @@
         <v>1299.95</v>
       </c>
       <c r="X52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="Y52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y52"/>
+  <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +547,11 @@
           <t>2026-02-16 18:36:02</t>
         </is>
       </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>2026-02-16 19:30:01</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -632,6 +637,9 @@
       <c r="Y2" t="n">
         <v>129.95</v>
       </c>
+      <c r="Z2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -717,6 +725,9 @@
       <c r="Y3" t="n">
         <v>149.95</v>
       </c>
+      <c r="Z3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -802,6 +813,9 @@
       <c r="Y4" t="n">
         <v>149.95</v>
       </c>
+      <c r="Z4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -887,6 +901,9 @@
       <c r="Y5" t="n">
         <v>149.95</v>
       </c>
+      <c r="Z5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -972,6 +989,9 @@
       <c r="Y6" t="n">
         <v>149.95</v>
       </c>
+      <c r="Z6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1057,6 +1077,9 @@
       <c r="Y7" t="n">
         <v>149.95</v>
       </c>
+      <c r="Z7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1142,6 +1165,9 @@
       <c r="Y8" t="n">
         <v>149.95</v>
       </c>
+      <c r="Z8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1227,6 +1253,9 @@
       <c r="Y9" t="n">
         <v>168.95</v>
       </c>
+      <c r="Z9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1316,6 +1345,9 @@
       <c r="Y10" t="n">
         <v>179.95</v>
       </c>
+      <c r="Z10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1405,6 +1437,9 @@
       <c r="Y11" t="n">
         <v>179.95</v>
       </c>
+      <c r="Z11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1494,6 +1529,9 @@
       <c r="Y12" t="n">
         <v>179.95</v>
       </c>
+      <c r="Z12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1581,6 +1619,9 @@
         <v>179.95</v>
       </c>
       <c r="Y13" t="n">
+        <v>179.95</v>
+      </c>
+      <c r="Z13" t="n">
         <v>179.95</v>
       </c>
     </row>
@@ -1668,6 +1709,9 @@
       <c r="Y14" t="n">
         <v>179.95</v>
       </c>
+      <c r="Z14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1753,6 +1797,9 @@
       <c r="Y15" t="n">
         <v>179.95</v>
       </c>
+      <c r="Z15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1838,6 +1885,9 @@
       <c r="Y16" t="n">
         <v>179.95</v>
       </c>
+      <c r="Z16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1923,6 +1973,9 @@
       <c r="Y17" t="n">
         <v>189.95</v>
       </c>
+      <c r="Z17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2012,6 +2065,9 @@
       <c r="Y18" t="n">
         <v>209.95</v>
       </c>
+      <c r="Z18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2099,6 +2155,9 @@
         <v>209.95</v>
       </c>
       <c r="Y19" t="n">
+        <v>209.95</v>
+      </c>
+      <c r="Z19" t="n">
         <v>209.95</v>
       </c>
     </row>
@@ -2186,6 +2245,9 @@
       <c r="Y20" t="n">
         <v>219.95</v>
       </c>
+      <c r="Z20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2275,6 +2337,9 @@
       <c r="Y21" t="n">
         <v>249.95</v>
       </c>
+      <c r="Z21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2364,6 +2429,9 @@
       <c r="Y22" t="n">
         <v>249.95</v>
       </c>
+      <c r="Z22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2451,6 +2519,9 @@
         <v>249.95</v>
       </c>
       <c r="Y23" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="Z23" t="n">
         <v>249.95</v>
       </c>
     </row>
@@ -2538,6 +2609,9 @@
       <c r="Y24" t="n">
         <v>249.95</v>
       </c>
+      <c r="Z24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2623,6 +2697,9 @@
       <c r="Y25" t="n">
         <v>249.95</v>
       </c>
+      <c r="Z25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2708,6 +2785,9 @@
       <c r="Y26" t="n">
         <v>249.95</v>
       </c>
+      <c r="Z26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2793,6 +2873,9 @@
       <c r="Y27" t="n">
         <v>279.95</v>
       </c>
+      <c r="Z27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2878,6 +2961,9 @@
       <c r="Y28" t="n">
         <v>299.95</v>
       </c>
+      <c r="Z28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2963,6 +3049,9 @@
       <c r="Y29" t="n">
         <v>299.95</v>
       </c>
+      <c r="Z29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3048,6 +3137,9 @@
       <c r="Y30" t="n">
         <v>299.95</v>
       </c>
+      <c r="Z30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3133,6 +3225,9 @@
       <c r="Y31" t="n">
         <v>299.95</v>
       </c>
+      <c r="Z31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3218,6 +3313,9 @@
       <c r="Y32" t="n">
         <v>399.95</v>
       </c>
+      <c r="Z32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3303,6 +3401,9 @@
       <c r="Y33" t="n">
         <v>399.95</v>
       </c>
+      <c r="Z33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3388,6 +3489,9 @@
       <c r="Y34" t="n">
         <v>399.95</v>
       </c>
+      <c r="Z34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3473,6 +3577,9 @@
       <c r="Y35" t="n">
         <v>429.95</v>
       </c>
+      <c r="Z35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3558,6 +3665,9 @@
       <c r="Y36" t="n">
         <v>429.95</v>
       </c>
+      <c r="Z36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3643,6 +3753,9 @@
       <c r="Y37" t="n">
         <v>429.95</v>
       </c>
+      <c r="Z37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3728,6 +3841,9 @@
       <c r="Y38" t="n">
         <v>499.95</v>
       </c>
+      <c r="Z38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3813,6 +3929,9 @@
       <c r="Y39" t="n">
         <v>499.95</v>
       </c>
+      <c r="Z39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3898,6 +4017,9 @@
       <c r="Y40" t="n">
         <v>499.95</v>
       </c>
+      <c r="Z40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3983,6 +4105,9 @@
       <c r="Y41" t="n">
         <v>549.95</v>
       </c>
+      <c r="Z41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4068,6 +4193,9 @@
       <c r="Y42" t="n">
         <v>549.95</v>
       </c>
+      <c r="Z42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4153,6 +4281,9 @@
       <c r="Y43" t="n">
         <v>549.95</v>
       </c>
+      <c r="Z43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4238,6 +4369,9 @@
       <c r="Y44" t="n">
         <v>649.95</v>
       </c>
+      <c r="Z44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4323,6 +4457,9 @@
       <c r="Y45" t="n">
         <v>649.95</v>
       </c>
+      <c r="Z45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4408,6 +4545,9 @@
       <c r="Y46" t="n">
         <v>649.95</v>
       </c>
+      <c r="Z46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4493,6 +4633,9 @@
       <c r="Y47" t="n">
         <v>899.95</v>
       </c>
+      <c r="Z47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4578,6 +4721,9 @@
       <c r="Y48" t="n">
         <v>899.95</v>
       </c>
+      <c r="Z48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4663,6 +4809,9 @@
       <c r="Y49" t="n">
         <v>899.95</v>
       </c>
+      <c r="Z49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4748,6 +4897,9 @@
       <c r="Y50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="Z50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4833,6 +4985,9 @@
       <c r="Y51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="Z51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4916,6 +5071,9 @@
         <v>1299.95</v>
       </c>
       <c r="Y52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="Z52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z52"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,6 +552,11 @@
           <t>2026-02-16 19:30:01</t>
         </is>
       </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>2026-02-16 20:24:17</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -640,6 +645,9 @@
       <c r="Z2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AA2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -728,6 +736,9 @@
       <c r="Z3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AA3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -816,6 +827,9 @@
       <c r="Z4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AA4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -904,6 +918,9 @@
       <c r="Z5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AA5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -992,6 +1009,9 @@
       <c r="Z6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AA6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1080,6 +1100,9 @@
       <c r="Z7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AA7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1168,6 +1191,9 @@
       <c r="Z8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AA8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1256,6 +1282,9 @@
       <c r="Z9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AA9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1348,6 +1377,9 @@
       <c r="Z10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AA10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1440,6 +1472,9 @@
       <c r="Z11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AA11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1532,6 +1567,9 @@
       <c r="Z12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AA12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1624,6 +1662,9 @@
       <c r="Z13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AA13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1712,6 +1753,9 @@
       <c r="Z14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AA14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1800,6 +1844,9 @@
       <c r="Z15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AA15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1888,6 +1935,9 @@
       <c r="Z16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AA16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1976,6 +2026,9 @@
       <c r="Z17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AA17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2068,6 +2121,9 @@
       <c r="Z18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AA18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2160,6 +2216,9 @@
       <c r="Z19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AA19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2248,6 +2307,9 @@
       <c r="Z20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AA20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2340,6 +2402,9 @@
       <c r="Z21" t="n">
         <v>249.95</v>
       </c>
+      <c r="AA21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2432,6 +2497,9 @@
       <c r="Z22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AA22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2524,6 +2592,9 @@
       <c r="Z23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AA23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2612,6 +2683,9 @@
       <c r="Z24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AA24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2700,6 +2774,9 @@
       <c r="Z25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AA25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2788,6 +2865,9 @@
       <c r="Z26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AA26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2876,6 +2956,9 @@
       <c r="Z27" t="n">
         <v>279.95</v>
       </c>
+      <c r="AA27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2964,6 +3047,9 @@
       <c r="Z28" t="n">
         <v>299.95</v>
       </c>
+      <c r="AA28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3052,6 +3138,9 @@
       <c r="Z29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AA29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3140,6 +3229,9 @@
       <c r="Z30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AA30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3228,6 +3320,9 @@
       <c r="Z31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AA31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3316,6 +3411,9 @@
       <c r="Z32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AA32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3404,6 +3502,9 @@
       <c r="Z33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AA33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3492,6 +3593,9 @@
       <c r="Z34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AA34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3580,6 +3684,9 @@
       <c r="Z35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AA35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3668,6 +3775,9 @@
       <c r="Z36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AA36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3756,6 +3866,9 @@
       <c r="Z37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AA37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3844,6 +3957,9 @@
       <c r="Z38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AA38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3932,6 +4048,9 @@
       <c r="Z39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AA39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4020,6 +4139,9 @@
       <c r="Z40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AA40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4108,6 +4230,9 @@
       <c r="Z41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AA41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4196,6 +4321,9 @@
       <c r="Z42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AA42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4284,6 +4412,9 @@
       <c r="Z43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AA43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4372,6 +4503,9 @@
       <c r="Z44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AA44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4460,6 +4594,9 @@
       <c r="Z45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AA45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4548,6 +4685,9 @@
       <c r="Z46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AA46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4636,6 +4776,9 @@
       <c r="Z47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AA47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4724,6 +4867,9 @@
       <c r="Z48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AA48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4812,6 +4958,9 @@
       <c r="Z49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AA49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4900,6 +5049,9 @@
       <c r="Z50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AA50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4988,6 +5140,9 @@
       <c r="Z51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AA51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5074,6 +5229,9 @@
         <v>1299.95</v>
       </c>
       <c r="Z52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AA52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA52"/>
+  <dimension ref="A1:AB52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,11 @@
           <t>2026-02-16 20:24:17</t>
         </is>
       </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>2026-02-16 21:24:43</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -648,6 +653,9 @@
       <c r="AA2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AB2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -739,6 +747,9 @@
       <c r="AA3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AB3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -830,6 +841,9 @@
       <c r="AA4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AB4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -921,6 +935,9 @@
       <c r="AA5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AB5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1012,6 +1029,9 @@
       <c r="AA6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AB6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1103,6 +1123,9 @@
       <c r="AA7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AB7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1194,6 +1217,9 @@
       <c r="AA8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AB8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1285,6 +1311,9 @@
       <c r="AA9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AB9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1380,6 +1409,9 @@
       <c r="AA10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AB10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1475,6 +1507,9 @@
       <c r="AA11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AB11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1570,6 +1605,9 @@
       <c r="AA12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AB12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1665,6 +1703,9 @@
       <c r="AA13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AB13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1756,6 +1797,9 @@
       <c r="AA14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AB14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1847,6 +1891,9 @@
       <c r="AA15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AB15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1938,6 +1985,9 @@
       <c r="AA16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AB16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2029,6 +2079,9 @@
       <c r="AA17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AB17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2124,6 +2177,9 @@
       <c r="AA18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AB18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2219,6 +2275,9 @@
       <c r="AA19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AB19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2310,6 +2369,9 @@
       <c r="AA20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AB20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2405,6 +2467,9 @@
       <c r="AA21" t="n">
         <v>249.95</v>
       </c>
+      <c r="AB21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2500,6 +2565,9 @@
       <c r="AA22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AB22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2595,6 +2663,9 @@
       <c r="AA23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AB23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2686,6 +2757,9 @@
       <c r="AA24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AB24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2777,6 +2851,9 @@
       <c r="AA25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AB25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2868,6 +2945,9 @@
       <c r="AA26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AB26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2959,6 +3039,9 @@
       <c r="AA27" t="n">
         <v>279.95</v>
       </c>
+      <c r="AB27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3050,6 +3133,9 @@
       <c r="AA28" t="n">
         <v>299.95</v>
       </c>
+      <c r="AB28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3141,6 +3227,9 @@
       <c r="AA29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AB29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3232,6 +3321,9 @@
       <c r="AA30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AB30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3323,6 +3415,9 @@
       <c r="AA31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AB31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3414,6 +3509,9 @@
       <c r="AA32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AB32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3505,6 +3603,9 @@
       <c r="AA33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AB33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3596,6 +3697,9 @@
       <c r="AA34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AB34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3687,6 +3791,9 @@
       <c r="AA35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AB35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3778,6 +3885,9 @@
       <c r="AA36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AB36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3869,6 +3979,9 @@
       <c r="AA37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AB37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3960,6 +4073,9 @@
       <c r="AA38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AB38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4051,6 +4167,9 @@
       <c r="AA39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AB39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4142,6 +4261,9 @@
       <c r="AA40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AB40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4233,6 +4355,9 @@
       <c r="AA41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AB41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4324,6 +4449,9 @@
       <c r="AA42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AB42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4415,6 +4543,9 @@
       <c r="AA43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AB43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4506,6 +4637,9 @@
       <c r="AA44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AB44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4597,6 +4731,9 @@
       <c r="AA45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AB45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4688,6 +4825,9 @@
       <c r="AA46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AB46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4779,6 +4919,9 @@
       <c r="AA47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AB47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4870,6 +5013,9 @@
       <c r="AA48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AB48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4961,6 +5107,9 @@
       <c r="AA49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AB49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5052,6 +5201,9 @@
       <c r="AA50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AB50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5143,6 +5295,9 @@
       <c r="AA51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AB51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5232,6 +5387,9 @@
         <v>1299.95</v>
       </c>
       <c r="AA52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AB52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB52"/>
+  <dimension ref="A1:AC52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,6 +562,11 @@
           <t>2026-02-16 21:24:43</t>
         </is>
       </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>2026-02-16 22:22:09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -656,6 +661,9 @@
       <c r="AB2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AC2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -750,6 +758,9 @@
       <c r="AB3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AC3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -844,6 +855,9 @@
       <c r="AB4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AC4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -938,6 +952,9 @@
       <c r="AB5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AC5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1032,6 +1049,9 @@
       <c r="AB6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AC6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1126,6 +1146,9 @@
       <c r="AB7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AC7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1220,6 +1243,9 @@
       <c r="AB8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AC8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1314,6 +1340,9 @@
       <c r="AB9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AC9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1412,6 +1441,9 @@
       <c r="AB10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AC10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1510,6 +1542,9 @@
       <c r="AB11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AC11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1608,6 +1643,9 @@
       <c r="AB12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AC12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1706,6 +1744,9 @@
       <c r="AB13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AC13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1800,6 +1841,9 @@
       <c r="AB14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AC14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1894,6 +1938,9 @@
       <c r="AB15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AC15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1988,6 +2035,9 @@
       <c r="AB16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AC16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2082,6 +2132,9 @@
       <c r="AB17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AC17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2180,6 +2233,9 @@
       <c r="AB18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AC18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2278,6 +2334,9 @@
       <c r="AB19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AC19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2372,6 +2431,9 @@
       <c r="AB20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AC20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2470,6 +2532,9 @@
       <c r="AB21" t="n">
         <v>249.95</v>
       </c>
+      <c r="AC21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2568,6 +2633,9 @@
       <c r="AB22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AC22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2666,6 +2734,9 @@
       <c r="AB23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AC23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2760,6 +2831,9 @@
       <c r="AB24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AC24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2854,6 +2928,9 @@
       <c r="AB25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AC25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2948,6 +3025,9 @@
       <c r="AB26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AC26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3042,6 +3122,9 @@
       <c r="AB27" t="n">
         <v>279.95</v>
       </c>
+      <c r="AC27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3136,6 +3219,9 @@
       <c r="AB28" t="n">
         <v>299.95</v>
       </c>
+      <c r="AC28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3230,6 +3316,9 @@
       <c r="AB29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AC29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3324,6 +3413,9 @@
       <c r="AB30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AC30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3418,6 +3510,9 @@
       <c r="AB31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AC31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3512,6 +3607,9 @@
       <c r="AB32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AC32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3606,6 +3704,9 @@
       <c r="AB33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AC33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3700,6 +3801,9 @@
       <c r="AB34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AC34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3794,6 +3898,9 @@
       <c r="AB35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AC35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3888,6 +3995,9 @@
       <c r="AB36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AC36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3982,6 +4092,9 @@
       <c r="AB37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AC37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4076,6 +4189,9 @@
       <c r="AB38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AC38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4170,6 +4286,9 @@
       <c r="AB39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AC39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4264,6 +4383,9 @@
       <c r="AB40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AC40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4358,6 +4480,9 @@
       <c r="AB41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AC41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4452,6 +4577,9 @@
       <c r="AB42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AC42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4546,6 +4674,9 @@
       <c r="AB43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AC43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4640,6 +4771,9 @@
       <c r="AB44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AC44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4734,6 +4868,9 @@
       <c r="AB45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AC45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4828,6 +4965,9 @@
       <c r="AB46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AC46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4922,6 +5062,9 @@
       <c r="AB47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AC47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5016,6 +5159,9 @@
       <c r="AB48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AC48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5110,6 +5256,9 @@
       <c r="AB49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AC49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5204,6 +5353,9 @@
       <c r="AB50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AC50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5298,6 +5450,9 @@
       <c r="AB51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AC51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5390,6 +5545,9 @@
         <v>1299.95</v>
       </c>
       <c r="AB52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AC52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC52"/>
+  <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,6 +567,11 @@
           <t>2026-02-16 22:22:09</t>
         </is>
       </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>2026-02-16 23:24:49</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -664,6 +669,9 @@
       <c r="AC2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AD2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -761,6 +769,9 @@
       <c r="AC3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AD3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -858,6 +869,9 @@
       <c r="AC4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AD4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -955,6 +969,9 @@
       <c r="AC5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AD5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1052,6 +1069,9 @@
       <c r="AC6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AD6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1149,6 +1169,9 @@
       <c r="AC7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AD7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1246,6 +1269,9 @@
       <c r="AC8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AD8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1343,6 +1369,9 @@
       <c r="AC9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AD9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1444,6 +1473,9 @@
       <c r="AC10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AD10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1545,6 +1577,9 @@
       <c r="AC11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AD11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1646,6 +1681,9 @@
       <c r="AC12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AD12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1747,6 +1785,9 @@
       <c r="AC13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AD13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1844,6 +1885,9 @@
       <c r="AC14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AD14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1941,6 +1985,9 @@
       <c r="AC15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AD15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2038,6 +2085,9 @@
       <c r="AC16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AD16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2135,6 +2185,9 @@
       <c r="AC17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AD17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2236,6 +2289,9 @@
       <c r="AC18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AD18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2337,6 +2393,9 @@
       <c r="AC19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AD19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2434,6 +2493,9 @@
       <c r="AC20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AD20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2535,6 +2597,9 @@
       <c r="AC21" t="n">
         <v>249.95</v>
       </c>
+      <c r="AD21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2636,6 +2701,9 @@
       <c r="AC22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AD22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2737,6 +2805,9 @@
       <c r="AC23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AD23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2834,6 +2905,9 @@
       <c r="AC24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AD24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2931,6 +3005,9 @@
       <c r="AC25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AD25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3028,6 +3105,9 @@
       <c r="AC26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AD26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3125,6 +3205,9 @@
       <c r="AC27" t="n">
         <v>279.95</v>
       </c>
+      <c r="AD27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3222,6 +3305,9 @@
       <c r="AC28" t="n">
         <v>299.95</v>
       </c>
+      <c r="AD28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3319,6 +3405,9 @@
       <c r="AC29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AD29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3416,6 +3505,9 @@
       <c r="AC30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AD30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3513,6 +3605,9 @@
       <c r="AC31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AD31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3610,6 +3705,9 @@
       <c r="AC32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AD32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3707,6 +3805,9 @@
       <c r="AC33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AD33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3804,6 +3905,9 @@
       <c r="AC34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AD34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3901,6 +4005,9 @@
       <c r="AC35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AD35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3998,6 +4105,9 @@
       <c r="AC36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AD36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4095,6 +4205,9 @@
       <c r="AC37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AD37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4192,6 +4305,9 @@
       <c r="AC38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AD38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4289,6 +4405,9 @@
       <c r="AC39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AD39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4386,6 +4505,9 @@
       <c r="AC40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AD40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4483,6 +4605,9 @@
       <c r="AC41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AD41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4580,6 +4705,9 @@
       <c r="AC42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AD42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4677,6 +4805,9 @@
       <c r="AC43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AD43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4774,6 +4905,9 @@
       <c r="AC44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AD44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4871,6 +5005,9 @@
       <c r="AC45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AD45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4968,6 +5105,9 @@
       <c r="AC46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AD46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5065,6 +5205,9 @@
       <c r="AC47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AD47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5162,6 +5305,9 @@
       <c r="AC48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AD48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5259,6 +5405,9 @@
       <c r="AC49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AD49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5356,6 +5505,9 @@
       <c r="AC50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AD50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5453,6 +5605,9 @@
       <c r="AC51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AD51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5548,6 +5703,9 @@
         <v>1299.95</v>
       </c>
       <c r="AC52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AD52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD52"/>
+  <dimension ref="A1:AE52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,11 @@
           <t>2026-02-16 23:24:49</t>
         </is>
       </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>2026-02-17 01:30:46</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -672,6 +677,9 @@
       <c r="AD2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AE2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -772,6 +780,9 @@
       <c r="AD3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AE3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -872,6 +883,9 @@
       <c r="AD4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AE4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -972,6 +986,9 @@
       <c r="AD5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AE5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1072,6 +1089,9 @@
       <c r="AD6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AE6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1172,6 +1192,9 @@
       <c r="AD7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AE7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1272,6 +1295,9 @@
       <c r="AD8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AE8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1372,6 +1398,9 @@
       <c r="AD9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AE9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1476,6 +1505,9 @@
       <c r="AD10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AE10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1580,6 +1612,9 @@
       <c r="AD11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AE11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1684,6 +1719,9 @@
       <c r="AD12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AE12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1788,6 +1826,9 @@
       <c r="AD13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AE13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1888,6 +1929,9 @@
       <c r="AD14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AE14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1988,6 +2032,9 @@
       <c r="AD15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AE15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2088,6 +2135,9 @@
       <c r="AD16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AE16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2188,6 +2238,9 @@
       <c r="AD17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AE17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2292,6 +2345,9 @@
       <c r="AD18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AE18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2396,6 +2452,9 @@
       <c r="AD19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AE19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2496,6 +2555,9 @@
       <c r="AD20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AE20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2600,6 +2662,9 @@
       <c r="AD21" t="n">
         <v>249.95</v>
       </c>
+      <c r="AE21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2704,6 +2769,9 @@
       <c r="AD22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AE22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2808,6 +2876,9 @@
       <c r="AD23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AE23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2908,6 +2979,9 @@
       <c r="AD24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AE24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3008,6 +3082,9 @@
       <c r="AD25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AE25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3108,6 +3185,9 @@
       <c r="AD26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AE26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3208,6 +3288,9 @@
       <c r="AD27" t="n">
         <v>279.95</v>
       </c>
+      <c r="AE27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3308,6 +3391,9 @@
       <c r="AD28" t="n">
         <v>299.95</v>
       </c>
+      <c r="AE28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3408,6 +3494,9 @@
       <c r="AD29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AE29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3508,6 +3597,9 @@
       <c r="AD30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AE30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3608,6 +3700,9 @@
       <c r="AD31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AE31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3708,6 +3803,9 @@
       <c r="AD32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AE32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3808,6 +3906,9 @@
       <c r="AD33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AE33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3908,6 +4009,9 @@
       <c r="AD34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AE34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4008,6 +4112,9 @@
       <c r="AD35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AE35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4108,6 +4215,9 @@
       <c r="AD36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AE36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4208,6 +4318,9 @@
       <c r="AD37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AE37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4308,6 +4421,9 @@
       <c r="AD38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AE38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4408,6 +4524,9 @@
       <c r="AD39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AE39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4508,6 +4627,9 @@
       <c r="AD40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AE40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4608,6 +4730,9 @@
       <c r="AD41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AE41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4708,6 +4833,9 @@
       <c r="AD42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AE42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4808,6 +4936,9 @@
       <c r="AD43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AE43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4908,6 +5039,9 @@
       <c r="AD44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AE44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5008,6 +5142,9 @@
       <c r="AD45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AE45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5108,6 +5245,9 @@
       <c r="AD46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AE46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5208,6 +5348,9 @@
       <c r="AD47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AE47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5308,6 +5451,9 @@
       <c r="AD48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AE48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5408,6 +5554,9 @@
       <c r="AD49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AE49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5508,6 +5657,9 @@
       <c r="AD50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AE50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5608,6 +5760,9 @@
       <c r="AD51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AE51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5706,6 +5861,9 @@
         <v>1299.95</v>
       </c>
       <c r="AD52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AE52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE52"/>
+  <dimension ref="A1:AF52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,6 +577,11 @@
           <t>2026-02-17 01:30:46</t>
         </is>
       </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>2026-02-17 04:14:40</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -680,6 +685,9 @@
       <c r="AE2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AF2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -783,6 +791,9 @@
       <c r="AE3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AF3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -886,6 +897,9 @@
       <c r="AE4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AF4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -989,6 +1003,9 @@
       <c r="AE5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AF5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1092,6 +1109,9 @@
       <c r="AE6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AF6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1195,6 +1215,9 @@
       <c r="AE7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AF7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1298,6 +1321,9 @@
       <c r="AE8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AF8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1401,6 +1427,9 @@
       <c r="AE9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AF9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1508,6 +1537,9 @@
       <c r="AE10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AF10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1615,6 +1647,9 @@
       <c r="AE11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AF11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1722,6 +1757,9 @@
       <c r="AE12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AF12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1829,6 +1867,9 @@
       <c r="AE13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AF13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1932,6 +1973,9 @@
       <c r="AE14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AF14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2035,6 +2079,9 @@
       <c r="AE15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AF15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2138,6 +2185,9 @@
       <c r="AE16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AF16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2241,6 +2291,9 @@
       <c r="AE17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AF17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2348,6 +2401,9 @@
       <c r="AE18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AF18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2455,6 +2511,9 @@
       <c r="AE19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AF19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2558,6 +2617,9 @@
       <c r="AE20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AF20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2665,6 +2727,9 @@
       <c r="AE21" t="n">
         <v>249.95</v>
       </c>
+      <c r="AF21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2772,6 +2837,9 @@
       <c r="AE22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AF22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2879,6 +2947,9 @@
       <c r="AE23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AF23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2982,6 +3053,9 @@
       <c r="AE24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AF24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3085,6 +3159,9 @@
       <c r="AE25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AF25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3188,6 +3265,9 @@
       <c r="AE26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AF26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3291,6 +3371,9 @@
       <c r="AE27" t="n">
         <v>279.95</v>
       </c>
+      <c r="AF27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3394,6 +3477,9 @@
       <c r="AE28" t="n">
         <v>299.95</v>
       </c>
+      <c r="AF28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3497,6 +3583,9 @@
       <c r="AE29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AF29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3600,6 +3689,9 @@
       <c r="AE30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AF30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3703,6 +3795,9 @@
       <c r="AE31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AF31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3806,6 +3901,9 @@
       <c r="AE32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AF32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3909,6 +4007,9 @@
       <c r="AE33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AF33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4012,6 +4113,9 @@
       <c r="AE34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AF34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4115,6 +4219,9 @@
       <c r="AE35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AF35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4218,6 +4325,9 @@
       <c r="AE36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AF36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4321,6 +4431,9 @@
       <c r="AE37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AF37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4424,6 +4537,9 @@
       <c r="AE38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AF38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4527,6 +4643,9 @@
       <c r="AE39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AF39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4630,6 +4749,9 @@
       <c r="AE40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AF40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4733,6 +4855,9 @@
       <c r="AE41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AF41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4836,6 +4961,9 @@
       <c r="AE42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AF42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4939,6 +5067,9 @@
       <c r="AE43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AF43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5042,6 +5173,9 @@
       <c r="AE44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AF44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5145,6 +5279,9 @@
       <c r="AE45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AF45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5248,6 +5385,9 @@
       <c r="AE46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AF46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5351,6 +5491,9 @@
       <c r="AE47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AF47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5370,7 +5513,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (18/02/2026)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -5454,6 +5597,9 @@
       <c r="AE48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AF48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5557,6 +5703,9 @@
       <c r="AE49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AF49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5660,6 +5809,9 @@
       <c r="AE50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AF50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5763,6 +5915,9 @@
       <c r="AE51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AF51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5864,6 +6019,9 @@
         <v>1299.95</v>
       </c>
       <c r="AE52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AF52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF52"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,6 +582,11 @@
           <t>2026-02-17 04:14:40</t>
         </is>
       </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>2026-02-17 05:54:55</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -688,6 +693,9 @@
       <c r="AF2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AG2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -794,6 +802,9 @@
       <c r="AF3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AG3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -900,6 +911,9 @@
       <c r="AF4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AG4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1006,6 +1020,9 @@
       <c r="AF5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AG5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1112,6 +1129,9 @@
       <c r="AF6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AG6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1218,6 +1238,9 @@
       <c r="AF7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AG7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1324,6 +1347,9 @@
       <c r="AF8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AG8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1430,6 +1456,9 @@
       <c r="AF9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AG9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1540,6 +1569,9 @@
       <c r="AF10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AG10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1650,6 +1682,9 @@
       <c r="AF11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AG11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1760,6 +1795,9 @@
       <c r="AF12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AG12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1870,6 +1908,9 @@
       <c r="AF13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AG13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1976,6 +2017,9 @@
       <c r="AF14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AG14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2082,6 +2126,9 @@
       <c r="AF15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AG15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2188,6 +2235,9 @@
       <c r="AF16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AG16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2294,6 +2344,9 @@
       <c r="AF17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AG17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2404,6 +2457,9 @@
       <c r="AF18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AG18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2514,6 +2570,9 @@
       <c r="AF19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AG19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2620,6 +2679,9 @@
       <c r="AF20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AG20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2730,6 +2792,9 @@
       <c r="AF21" t="n">
         <v>249.95</v>
       </c>
+      <c r="AG21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2840,6 +2905,9 @@
       <c r="AF22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AG22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2950,6 +3018,9 @@
       <c r="AF23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AG23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3056,6 +3127,9 @@
       <c r="AF24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AG24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3162,6 +3236,9 @@
       <c r="AF25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AG25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3268,6 +3345,9 @@
       <c r="AF26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AG26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3374,6 +3454,9 @@
       <c r="AF27" t="n">
         <v>279.95</v>
       </c>
+      <c r="AG27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3480,6 +3563,9 @@
       <c r="AF28" t="n">
         <v>299.95</v>
       </c>
+      <c r="AG28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3586,6 +3672,9 @@
       <c r="AF29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AG29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3692,6 +3781,9 @@
       <c r="AF30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AG30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3798,6 +3890,9 @@
       <c r="AF31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AG31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3904,6 +3999,9 @@
       <c r="AF32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AG32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4010,6 +4108,9 @@
       <c r="AF33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AG33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4116,6 +4217,9 @@
       <c r="AF34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AG34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4222,6 +4326,9 @@
       <c r="AF35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AG35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4328,6 +4435,9 @@
       <c r="AF36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AG36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4434,6 +4544,9 @@
       <c r="AF37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AG37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4540,6 +4653,9 @@
       <c r="AF38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AG38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4646,6 +4762,9 @@
       <c r="AF39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AG39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4752,6 +4871,9 @@
       <c r="AF40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AG40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4858,6 +4980,9 @@
       <c r="AF41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AG41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4964,6 +5089,9 @@
       <c r="AF42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AG42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5070,6 +5198,9 @@
       <c r="AF43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AG43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5176,6 +5307,9 @@
       <c r="AF44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AG44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5282,6 +5416,9 @@
       <c r="AF45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AG45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5388,6 +5525,9 @@
       <c r="AF46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AG46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5494,6 +5634,9 @@
       <c r="AF47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AG47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5600,6 +5743,9 @@
       <c r="AF48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AG48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5706,6 +5852,9 @@
       <c r="AF49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AG49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5812,6 +5961,9 @@
       <c r="AF50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AG50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5918,6 +6070,9 @@
       <c r="AF51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AG51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6022,6 +6177,9 @@
         <v>1299.95</v>
       </c>
       <c r="AF52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AG52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AH52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,6 +587,11 @@
           <t>2026-02-17 05:54:55</t>
         </is>
       </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>2026-02-17 06:52:38</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -696,6 +701,9 @@
       <c r="AG2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AH2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -805,6 +813,9 @@
       <c r="AG3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AH3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -914,6 +925,9 @@
       <c r="AG4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AH4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1023,6 +1037,9 @@
       <c r="AG5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AH5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1132,6 +1149,9 @@
       <c r="AG6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AH6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1241,6 +1261,9 @@
       <c r="AG7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AH7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1350,6 +1373,9 @@
       <c r="AG8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AH8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1459,6 +1485,9 @@
       <c r="AG9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AH9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1572,6 +1601,9 @@
       <c r="AG10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AH10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1685,6 +1717,9 @@
       <c r="AG11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AH11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1798,6 +1833,9 @@
       <c r="AG12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AH12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1911,6 +1949,9 @@
       <c r="AG13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AH13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2020,6 +2061,9 @@
       <c r="AG14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AH14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2129,6 +2173,9 @@
       <c r="AG15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AH15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2238,6 +2285,9 @@
       <c r="AG16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AH16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2347,6 +2397,9 @@
       <c r="AG17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AH17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2460,6 +2513,9 @@
       <c r="AG18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AH18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2573,6 +2629,9 @@
       <c r="AG19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AH19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2682,6 +2741,9 @@
       <c r="AG20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AH20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2795,6 +2857,9 @@
       <c r="AG21" t="n">
         <v>249.95</v>
       </c>
+      <c r="AH21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2908,6 +2973,9 @@
       <c r="AG22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AH22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3021,6 +3089,9 @@
       <c r="AG23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AH23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3130,6 +3201,9 @@
       <c r="AG24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AH24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3239,6 +3313,9 @@
       <c r="AG25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AH25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3348,6 +3425,9 @@
       <c r="AG26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AH26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3457,6 +3537,9 @@
       <c r="AG27" t="n">
         <v>279.95</v>
       </c>
+      <c r="AH27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3566,6 +3649,9 @@
       <c r="AG28" t="n">
         <v>299.95</v>
       </c>
+      <c r="AH28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3675,6 +3761,9 @@
       <c r="AG29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AH29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3784,6 +3873,9 @@
       <c r="AG30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AH30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3893,6 +3985,9 @@
       <c r="AG31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AH31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4002,6 +4097,9 @@
       <c r="AG32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AH32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4111,6 +4209,9 @@
       <c r="AG33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AH33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4220,6 +4321,9 @@
       <c r="AG34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AH34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4329,6 +4433,9 @@
       <c r="AG35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AH35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4438,6 +4545,9 @@
       <c r="AG36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AH36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4547,6 +4657,9 @@
       <c r="AG37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AH37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4656,6 +4769,9 @@
       <c r="AG38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AH38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4765,6 +4881,9 @@
       <c r="AG39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AH39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4874,6 +4993,9 @@
       <c r="AG40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AH40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4983,6 +5105,9 @@
       <c r="AG41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AH41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5092,6 +5217,9 @@
       <c r="AG42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AH42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5201,6 +5329,9 @@
       <c r="AG43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AH43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5310,6 +5441,9 @@
       <c r="AG44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AH44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5419,6 +5553,9 @@
       <c r="AG45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AH45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5528,6 +5665,9 @@
       <c r="AG46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AH46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5637,6 +5777,9 @@
       <c r="AG47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AH47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5746,6 +5889,9 @@
       <c r="AG48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AH48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5855,6 +6001,9 @@
       <c r="AG49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AH49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5964,6 +6113,9 @@
       <c r="AG50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AH50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6073,6 +6225,9 @@
       <c r="AG51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AH51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6180,6 +6335,9 @@
         <v>1299.95</v>
       </c>
       <c r="AG52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AH52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,6 +592,11 @@
           <t>2026-02-17 06:52:38</t>
         </is>
       </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>2026-02-17 07:46:34</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -704,6 +709,9 @@
       <c r="AH2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AI2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -816,6 +824,9 @@
       <c r="AH3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AI3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -928,6 +939,9 @@
       <c r="AH4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AI4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1040,6 +1054,9 @@
       <c r="AH5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AI5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1152,6 +1169,9 @@
       <c r="AH6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AI6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1264,6 +1284,9 @@
       <c r="AH7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AI7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1376,6 +1399,9 @@
       <c r="AH8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AI8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1488,6 +1514,9 @@
       <c r="AH9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AI9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1604,6 +1633,9 @@
       <c r="AH10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AI10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1720,6 +1752,9 @@
       <c r="AH11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AI11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1836,6 +1871,9 @@
       <c r="AH12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AI12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1952,6 +1990,9 @@
       <c r="AH13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AI13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2064,6 +2105,9 @@
       <c r="AH14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AI14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2176,6 +2220,9 @@
       <c r="AH15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AI15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2288,6 +2335,9 @@
       <c r="AH16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AI16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2400,6 +2450,9 @@
       <c r="AH17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AI17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2516,6 +2569,9 @@
       <c r="AH18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AI18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2632,6 +2688,9 @@
       <c r="AH19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AI19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2744,6 +2803,9 @@
       <c r="AH20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AI20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2860,6 +2922,9 @@
       <c r="AH21" t="n">
         <v>249.95</v>
       </c>
+      <c r="AI21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2976,6 +3041,9 @@
       <c r="AH22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AI22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3092,6 +3160,9 @@
       <c r="AH23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AI23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3204,6 +3275,9 @@
       <c r="AH24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AI24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3316,6 +3390,9 @@
       <c r="AH25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AI25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3428,6 +3505,9 @@
       <c r="AH26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AI26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3540,6 +3620,9 @@
       <c r="AH27" t="n">
         <v>279.95</v>
       </c>
+      <c r="AI27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3652,6 +3735,9 @@
       <c r="AH28" t="n">
         <v>299.95</v>
       </c>
+      <c r="AI28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3764,6 +3850,9 @@
       <c r="AH29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AI29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3876,6 +3965,9 @@
       <c r="AH30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AI30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3988,6 +4080,9 @@
       <c r="AH31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AI31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4100,6 +4195,9 @@
       <c r="AH32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AI32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4212,6 +4310,9 @@
       <c r="AH33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AI33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4324,6 +4425,9 @@
       <c r="AH34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AI34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4436,6 +4540,9 @@
       <c r="AH35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AI35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4548,6 +4655,9 @@
       <c r="AH36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AI36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4660,6 +4770,9 @@
       <c r="AH37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AI37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4772,6 +4885,9 @@
       <c r="AH38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AI38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4884,6 +5000,9 @@
       <c r="AH39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AI39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4996,6 +5115,9 @@
       <c r="AH40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AI40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5108,6 +5230,9 @@
       <c r="AH41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AI41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5220,6 +5345,9 @@
       <c r="AH42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AI42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5332,6 +5460,9 @@
       <c r="AH43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AI43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5444,6 +5575,9 @@
       <c r="AH44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AI44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5556,6 +5690,9 @@
       <c r="AH45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AI45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5668,6 +5805,9 @@
       <c r="AH46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AI46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5780,6 +5920,9 @@
       <c r="AH47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AI47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5892,6 +6035,9 @@
       <c r="AH48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AI48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6004,6 +6150,9 @@
       <c r="AH49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AI49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6116,6 +6265,9 @@
       <c r="AH50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AI50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6228,6 +6380,9 @@
       <c r="AH51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AI51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6338,6 +6493,9 @@
         <v>1299.95</v>
       </c>
       <c r="AH52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AI52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI52"/>
+  <dimension ref="A1:AJ52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,6 +597,11 @@
           <t>2026-02-17 07:46:34</t>
         </is>
       </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>2026-02-17 08:39:14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -712,6 +717,9 @@
       <c r="AI2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -827,6 +835,9 @@
       <c r="AI3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -942,6 +953,9 @@
       <c r="AI4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1057,6 +1071,9 @@
       <c r="AI5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1172,6 +1189,9 @@
       <c r="AI6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1287,6 +1307,9 @@
       <c r="AI7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1402,6 +1425,9 @@
       <c r="AI8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1517,6 +1543,9 @@
       <c r="AI9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1636,6 +1665,9 @@
       <c r="AI10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1755,6 +1787,9 @@
       <c r="AI11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1874,6 +1909,9 @@
       <c r="AI12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1993,6 +2031,9 @@
       <c r="AI13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2108,6 +2149,9 @@
       <c r="AI14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2223,6 +2267,9 @@
       <c r="AI15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2338,6 +2385,9 @@
       <c r="AI16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2453,6 +2503,9 @@
       <c r="AI17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2572,6 +2625,9 @@
       <c r="AI18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2691,6 +2747,9 @@
       <c r="AI19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2806,6 +2865,9 @@
       <c r="AI20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2925,6 +2987,9 @@
       <c r="AI21" t="n">
         <v>249.95</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3044,6 +3109,9 @@
       <c r="AI22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3163,6 +3231,9 @@
       <c r="AI23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3278,6 +3349,9 @@
       <c r="AI24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3393,6 +3467,9 @@
       <c r="AI25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3508,6 +3585,9 @@
       <c r="AI26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3623,6 +3703,9 @@
       <c r="AI27" t="n">
         <v>279.95</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3738,6 +3821,9 @@
       <c r="AI28" t="n">
         <v>299.95</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3853,6 +3939,9 @@
       <c r="AI29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3968,6 +4057,9 @@
       <c r="AI30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4083,6 +4175,9 @@
       <c r="AI31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4198,6 +4293,9 @@
       <c r="AI32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4313,6 +4411,9 @@
       <c r="AI33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4428,6 +4529,9 @@
       <c r="AI34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AJ34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4543,6 +4647,9 @@
       <c r="AI35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AJ35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4658,6 +4765,9 @@
       <c r="AI36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AJ36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4773,6 +4883,9 @@
       <c r="AI37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AJ37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4888,6 +5001,9 @@
       <c r="AI38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AJ38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5003,6 +5119,9 @@
       <c r="AI39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AJ39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5118,6 +5237,9 @@
       <c r="AI40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AJ40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5233,6 +5355,9 @@
       <c r="AI41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AJ41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5348,6 +5473,9 @@
       <c r="AI42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AJ42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5463,6 +5591,9 @@
       <c r="AI43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AJ43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5578,6 +5709,9 @@
       <c r="AI44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AJ44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5693,6 +5827,9 @@
       <c r="AI45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AJ45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5808,6 +5945,9 @@
       <c r="AI46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AJ46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5923,6 +6063,9 @@
       <c r="AI47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6038,6 +6181,9 @@
       <c r="AI48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AJ48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6153,6 +6299,9 @@
       <c r="AI49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AJ49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6268,6 +6417,9 @@
       <c r="AI50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AJ50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6383,6 +6535,9 @@
       <c r="AI51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AJ51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6496,6 +6651,9 @@
         <v>1299.95</v>
       </c>
       <c r="AI52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AJ52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ52"/>
+  <dimension ref="A1:AK52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,6 +602,11 @@
           <t>2026-02-17 08:39:14</t>
         </is>
       </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>2026-02-17 09:42:46</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -720,6 +725,9 @@
       <c r="AJ2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AK2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -838,6 +846,9 @@
       <c r="AJ3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AK3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -956,6 +967,9 @@
       <c r="AJ4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AK4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1074,6 +1088,9 @@
       <c r="AJ5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AK5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1192,6 +1209,9 @@
       <c r="AJ6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AK6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1310,6 +1330,9 @@
       <c r="AJ7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AK7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1428,6 +1451,9 @@
       <c r="AJ8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AK8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1546,6 +1572,9 @@
       <c r="AJ9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AK9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1668,6 +1697,9 @@
       <c r="AJ10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AK10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1790,6 +1822,9 @@
       <c r="AJ11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AK11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1912,6 +1947,9 @@
       <c r="AJ12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AK12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2034,6 +2072,9 @@
       <c r="AJ13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AK13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2152,6 +2193,9 @@
       <c r="AJ14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AK14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2270,6 +2314,9 @@
       <c r="AJ15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AK15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2388,6 +2435,9 @@
       <c r="AJ16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AK16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2506,6 +2556,9 @@
       <c r="AJ17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AK17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2628,6 +2681,9 @@
       <c r="AJ18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AK18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2750,6 +2806,9 @@
       <c r="AJ19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AK19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2868,6 +2927,9 @@
       <c r="AJ20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AK20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2990,6 +3052,9 @@
       <c r="AJ21" t="n">
         <v>249.95</v>
       </c>
+      <c r="AK21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3112,6 +3177,9 @@
       <c r="AJ22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AK22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3234,6 +3302,9 @@
       <c r="AJ23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AK23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3352,6 +3423,9 @@
       <c r="AJ24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AK24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3470,6 +3544,9 @@
       <c r="AJ25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AK25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3588,6 +3665,9 @@
       <c r="AJ26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AK26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3706,6 +3786,9 @@
       <c r="AJ27" t="n">
         <v>279.95</v>
       </c>
+      <c r="AK27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3824,6 +3907,9 @@
       <c r="AJ28" t="n">
         <v>299.95</v>
       </c>
+      <c r="AK28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3942,6 +4028,9 @@
       <c r="AJ29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AK29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4060,6 +4149,9 @@
       <c r="AJ30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AK30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4178,6 +4270,9 @@
       <c r="AJ31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AK31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4296,6 +4391,9 @@
       <c r="AJ32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AK32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4414,6 +4512,9 @@
       <c r="AJ33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AK33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4532,6 +4633,9 @@
       <c r="AJ34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AK34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4650,6 +4754,9 @@
       <c r="AJ35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AK35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4768,6 +4875,9 @@
       <c r="AJ36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AK36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4886,6 +4996,9 @@
       <c r="AJ37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AK37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5004,6 +5117,9 @@
       <c r="AJ38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AK38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5122,6 +5238,9 @@
       <c r="AJ39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AK39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5240,6 +5359,9 @@
       <c r="AJ40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AK40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5358,6 +5480,9 @@
       <c r="AJ41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AK41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5476,6 +5601,9 @@
       <c r="AJ42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AK42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5594,6 +5722,9 @@
       <c r="AJ43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AK43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5712,6 +5843,9 @@
       <c r="AJ44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AK44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5830,6 +5964,9 @@
       <c r="AJ45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AK45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5948,6 +6085,9 @@
       <c r="AJ46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AK46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6066,6 +6206,9 @@
       <c r="AJ47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AK47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6184,6 +6327,9 @@
       <c r="AJ48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AK48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6302,6 +6448,9 @@
       <c r="AJ49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AK49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6420,6 +6569,9 @@
       <c r="AJ50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AK50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6538,6 +6690,9 @@
       <c r="AJ51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AK51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6654,6 +6809,9 @@
         <v>1299.95</v>
       </c>
       <c r="AJ52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AK52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK52"/>
+  <dimension ref="A1:AL52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,6 +607,11 @@
           <t>2026-02-17 09:42:46</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>2026-02-17 10:40:02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -728,6 +733,9 @@
       <c r="AK2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AL2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -849,6 +857,9 @@
       <c r="AK3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AL3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -970,6 +981,9 @@
       <c r="AK4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AL4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1091,6 +1105,9 @@
       <c r="AK5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AL5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1212,6 +1229,9 @@
       <c r="AK6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AL6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1333,6 +1353,9 @@
       <c r="AK7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AL7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1454,6 +1477,9 @@
       <c r="AK8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AL8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1575,6 +1601,9 @@
       <c r="AK9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AL9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1700,6 +1729,9 @@
       <c r="AK10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AL10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1825,6 +1857,9 @@
       <c r="AK11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AL11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1950,6 +1985,9 @@
       <c r="AK12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AL12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2075,6 +2113,9 @@
       <c r="AK13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AL13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2196,6 +2237,9 @@
       <c r="AK14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AL14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2317,6 +2361,9 @@
       <c r="AK15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AL15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2438,6 +2485,9 @@
       <c r="AK16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AL16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2559,6 +2609,9 @@
       <c r="AK17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AL17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2684,6 +2737,9 @@
       <c r="AK18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AL18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2809,6 +2865,9 @@
       <c r="AK19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AL19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2930,6 +2989,9 @@
       <c r="AK20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AL20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3055,6 +3117,9 @@
       <c r="AK21" t="n">
         <v>249.95</v>
       </c>
+      <c r="AL21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3180,6 +3245,9 @@
       <c r="AK22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AL22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3305,6 +3373,9 @@
       <c r="AK23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AL23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3426,6 +3497,9 @@
       <c r="AK24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AL24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3547,6 +3621,9 @@
       <c r="AK25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AL25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3668,6 +3745,9 @@
       <c r="AK26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AL26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3789,6 +3869,9 @@
       <c r="AK27" t="n">
         <v>279.95</v>
       </c>
+      <c r="AL27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3910,6 +3993,9 @@
       <c r="AK28" t="n">
         <v>299.95</v>
       </c>
+      <c r="AL28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4031,6 +4117,9 @@
       <c r="AK29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AL29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4152,6 +4241,9 @@
       <c r="AK30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AL30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4273,6 +4365,9 @@
       <c r="AK31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AL31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4394,6 +4489,9 @@
       <c r="AK32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AL32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4515,6 +4613,9 @@
       <c r="AK33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AL33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4636,6 +4737,9 @@
       <c r="AK34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AL34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4757,6 +4861,9 @@
       <c r="AK35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AL35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4878,6 +4985,9 @@
       <c r="AK36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AL36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4999,6 +5109,9 @@
       <c r="AK37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AL37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5120,6 +5233,9 @@
       <c r="AK38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AL38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5241,6 +5357,9 @@
       <c r="AK39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AL39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5362,6 +5481,9 @@
       <c r="AK40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AL40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5483,6 +5605,9 @@
       <c r="AK41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AL41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5604,6 +5729,9 @@
       <c r="AK42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AL42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5725,6 +5853,9 @@
       <c r="AK43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AL43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5846,6 +5977,9 @@
       <c r="AK44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AL44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5967,6 +6101,9 @@
       <c r="AK45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AL45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6088,6 +6225,9 @@
       <c r="AK46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AL46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6209,6 +6349,9 @@
       <c r="AK47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AL47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6330,6 +6473,9 @@
       <c r="AK48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AL48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6451,6 +6597,9 @@
       <c r="AK49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AL49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6572,6 +6721,9 @@
       <c r="AK50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AL50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6693,6 +6845,9 @@
       <c r="AK51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AL51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6812,6 +6967,9 @@
         <v>1299.95</v>
       </c>
       <c r="AK52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AL52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL52"/>
+  <dimension ref="A1:AM52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,6 +612,11 @@
           <t>2026-02-17 10:40:02</t>
         </is>
       </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>2026-02-17 11:36:21</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -736,6 +741,9 @@
       <c r="AL2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AM2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -860,6 +868,9 @@
       <c r="AL3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AM3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -984,6 +995,9 @@
       <c r="AL4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AM4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1108,6 +1122,9 @@
       <c r="AL5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AM5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1232,6 +1249,9 @@
       <c r="AL6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AM6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1356,6 +1376,9 @@
       <c r="AL7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AM7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1480,6 +1503,9 @@
       <c r="AL8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AM8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1604,6 +1630,9 @@
       <c r="AL9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AM9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1732,6 +1761,9 @@
       <c r="AL10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AM10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1860,6 +1892,9 @@
       <c r="AL11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AM11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1988,6 +2023,9 @@
       <c r="AL12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AM12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2116,6 +2154,9 @@
       <c r="AL13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AM13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2240,6 +2281,9 @@
       <c r="AL14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AM14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2364,6 +2408,9 @@
       <c r="AL15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AM15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2488,6 +2535,9 @@
       <c r="AL16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AM16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2612,6 +2662,9 @@
       <c r="AL17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AM17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2740,6 +2793,9 @@
       <c r="AL18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AM18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2868,6 +2924,9 @@
       <c r="AL19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AM19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2992,6 +3051,9 @@
       <c r="AL20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AM20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3120,6 +3182,9 @@
       <c r="AL21" t="n">
         <v>249.95</v>
       </c>
+      <c r="AM21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3248,6 +3313,9 @@
       <c r="AL22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AM22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3376,6 +3444,9 @@
       <c r="AL23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AM23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3500,6 +3571,9 @@
       <c r="AL24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AM24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3624,6 +3698,9 @@
       <c r="AL25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AM25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3748,6 +3825,9 @@
       <c r="AL26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AM26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3872,6 +3952,9 @@
       <c r="AL27" t="n">
         <v>279.95</v>
       </c>
+      <c r="AM27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3996,6 +4079,9 @@
       <c r="AL28" t="n">
         <v>299.95</v>
       </c>
+      <c r="AM28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4120,6 +4206,9 @@
       <c r="AL29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AM29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4244,6 +4333,9 @@
       <c r="AL30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AM30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4368,6 +4460,9 @@
       <c r="AL31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AM31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4492,6 +4587,9 @@
       <c r="AL32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AM32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4616,6 +4714,9 @@
       <c r="AL33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AM33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4740,6 +4841,9 @@
       <c r="AL34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AM34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4864,6 +4968,9 @@
       <c r="AL35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AM35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4988,6 +5095,9 @@
       <c r="AL36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AM36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5112,6 +5222,9 @@
       <c r="AL37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AM37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5236,6 +5349,9 @@
       <c r="AL38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AM38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5360,6 +5476,9 @@
       <c r="AL39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AM39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5484,6 +5603,9 @@
       <c r="AL40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AM40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5608,6 +5730,9 @@
       <c r="AL41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AM41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5732,6 +5857,9 @@
       <c r="AL42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AM42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5856,6 +5984,9 @@
       <c r="AL43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AM43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5980,6 +6111,9 @@
       <c r="AL44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AM44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6104,6 +6238,9 @@
       <c r="AL45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AM45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6228,6 +6365,9 @@
       <c r="AL46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AM46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6352,6 +6492,9 @@
       <c r="AL47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AM47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6476,6 +6619,9 @@
       <c r="AL48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AM48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6600,6 +6746,9 @@
       <c r="AL49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AM49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6724,6 +6873,9 @@
       <c r="AL50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AM50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6848,6 +7000,9 @@
       <c r="AL51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AM51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6970,6 +7125,9 @@
         <v>1299.95</v>
       </c>
       <c r="AL52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AM52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM52"/>
+  <dimension ref="A1:AN52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,6 +617,11 @@
           <t>2026-02-17 11:36:21</t>
         </is>
       </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>2026-02-17 12:51:05</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -744,6 +749,9 @@
       <c r="AM2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AN2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -871,6 +879,9 @@
       <c r="AM3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AN3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -998,6 +1009,9 @@
       <c r="AM4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AN4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1125,6 +1139,9 @@
       <c r="AM5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AN5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1252,6 +1269,9 @@
       <c r="AM6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AN6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1379,6 +1399,9 @@
       <c r="AM7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AN7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1506,6 +1529,9 @@
       <c r="AM8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AN8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1633,6 +1659,9 @@
       <c r="AM9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AN9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1764,6 +1793,9 @@
       <c r="AM10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AN10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1895,6 +1927,9 @@
       <c r="AM11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AN11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2026,6 +2061,9 @@
       <c r="AM12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AN12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2157,6 +2195,9 @@
       <c r="AM13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AN13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2284,6 +2325,9 @@
       <c r="AM14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AN14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2411,6 +2455,9 @@
       <c r="AM15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AN15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2538,6 +2585,9 @@
       <c r="AM16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AN16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2665,6 +2715,9 @@
       <c r="AM17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AN17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2796,6 +2849,9 @@
       <c r="AM18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AN18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2927,6 +2983,9 @@
       <c r="AM19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AN19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3054,6 +3113,9 @@
       <c r="AM20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AN20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3185,6 +3247,9 @@
       <c r="AM21" t="n">
         <v>249.95</v>
       </c>
+      <c r="AN21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3316,6 +3381,9 @@
       <c r="AM22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AN22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3447,6 +3515,9 @@
       <c r="AM23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AN23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3574,6 +3645,9 @@
       <c r="AM24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AN24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3701,6 +3775,9 @@
       <c r="AM25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AN25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3828,6 +3905,9 @@
       <c r="AM26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AN26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3955,6 +4035,9 @@
       <c r="AM27" t="n">
         <v>279.95</v>
       </c>
+      <c r="AN27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4082,6 +4165,9 @@
       <c r="AM28" t="n">
         <v>299.95</v>
       </c>
+      <c r="AN28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4209,6 +4295,9 @@
       <c r="AM29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AN29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4336,6 +4425,9 @@
       <c r="AM30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AN30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4463,6 +4555,9 @@
       <c r="AM31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AN31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4590,6 +4685,9 @@
       <c r="AM32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AN32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4717,6 +4815,9 @@
       <c r="AM33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AN33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4844,6 +4945,9 @@
       <c r="AM34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AN34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4971,6 +5075,9 @@
       <c r="AM35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AN35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5098,6 +5205,9 @@
       <c r="AM36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AN36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5225,6 +5335,9 @@
       <c r="AM37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AN37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5352,6 +5465,9 @@
       <c r="AM38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AN38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5479,6 +5595,9 @@
       <c r="AM39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AN39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5606,6 +5725,9 @@
       <c r="AM40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AN40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5733,6 +5855,9 @@
       <c r="AM41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AN41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5860,6 +5985,9 @@
       <c r="AM42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AN42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5987,6 +6115,9 @@
       <c r="AM43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AN43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6114,6 +6245,9 @@
       <c r="AM44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AN44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6241,6 +6375,9 @@
       <c r="AM45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AN45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6368,6 +6505,9 @@
       <c r="AM46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AN46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6495,6 +6635,9 @@
       <c r="AM47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AN47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6622,6 +6765,9 @@
       <c r="AM48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AN48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6749,6 +6895,9 @@
       <c r="AM49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AN49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6876,6 +7025,9 @@
       <c r="AM50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AN50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7003,6 +7155,9 @@
       <c r="AM51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AN51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7128,6 +7283,9 @@
         <v>1299.95</v>
       </c>
       <c r="AM52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AN52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN52"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,6 +622,11 @@
           <t>2026-02-17 12:51:05</t>
         </is>
       </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>2026-02-17 14:04:32</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -752,6 +757,9 @@
       <c r="AN2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AO2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -882,6 +890,9 @@
       <c r="AN3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AO3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1012,6 +1023,9 @@
       <c r="AN4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AO4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1142,6 +1156,9 @@
       <c r="AN5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AO5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1272,6 +1289,9 @@
       <c r="AN6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AO6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1402,6 +1422,9 @@
       <c r="AN7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AO7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1532,6 +1555,9 @@
       <c r="AN8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AO8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1662,6 +1688,9 @@
       <c r="AN9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AO9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1796,6 +1825,9 @@
       <c r="AN10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AO10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1930,6 +1962,9 @@
       <c r="AN11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AO11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2064,6 +2099,9 @@
       <c r="AN12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AO12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2198,6 +2236,9 @@
       <c r="AN13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AO13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2328,6 +2369,9 @@
       <c r="AN14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AO14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2458,6 +2502,9 @@
       <c r="AN15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AO15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2588,6 +2635,9 @@
       <c r="AN16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AO16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2718,6 +2768,9 @@
       <c r="AN17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AO17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2852,6 +2905,9 @@
       <c r="AN18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AO18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2986,6 +3042,9 @@
       <c r="AN19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AO19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3116,6 +3175,9 @@
       <c r="AN20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AO20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3250,6 +3312,9 @@
       <c r="AN21" t="n">
         <v>249.95</v>
       </c>
+      <c r="AO21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3384,6 +3449,9 @@
       <c r="AN22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AO22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3518,6 +3586,9 @@
       <c r="AN23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AO23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3648,6 +3719,9 @@
       <c r="AN24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AO24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3778,6 +3852,9 @@
       <c r="AN25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AO25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3908,6 +3985,9 @@
       <c r="AN26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AO26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4038,6 +4118,9 @@
       <c r="AN27" t="n">
         <v>279.95</v>
       </c>
+      <c r="AO27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4168,6 +4251,9 @@
       <c r="AN28" t="n">
         <v>299.95</v>
       </c>
+      <c r="AO28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4298,6 +4384,9 @@
       <c r="AN29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AO29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4428,6 +4517,9 @@
       <c r="AN30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AO30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4558,6 +4650,9 @@
       <c r="AN31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AO31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4688,6 +4783,9 @@
       <c r="AN32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AO32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4818,6 +4916,9 @@
       <c r="AN33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AO33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4948,6 +5049,9 @@
       <c r="AN34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AO34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5078,6 +5182,9 @@
       <c r="AN35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AO35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5208,6 +5315,9 @@
       <c r="AN36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AO36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5338,6 +5448,9 @@
       <c r="AN37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AO37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5468,6 +5581,9 @@
       <c r="AN38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AO38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5598,6 +5714,9 @@
       <c r="AN39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AO39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5728,6 +5847,9 @@
       <c r="AN40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AO40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5858,6 +5980,9 @@
       <c r="AN41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AO41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5988,6 +6113,9 @@
       <c r="AN42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AO42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6118,6 +6246,9 @@
       <c r="AN43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AO43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6248,6 +6379,9 @@
       <c r="AN44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AO44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6378,6 +6512,9 @@
       <c r="AN45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AO45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6508,6 +6645,9 @@
       <c r="AN46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AO46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6638,6 +6778,9 @@
       <c r="AN47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AO47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6768,6 +6911,9 @@
       <c r="AN48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AO48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6898,6 +7044,9 @@
       <c r="AN49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AO49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7028,6 +7177,9 @@
       <c r="AN50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AO50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7158,6 +7310,9 @@
       <c r="AN51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AO51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7286,6 +7441,9 @@
         <v>1299.95</v>
       </c>
       <c r="AN52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AO52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:AP52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,6 +627,11 @@
           <t>2026-02-17 14:04:32</t>
         </is>
       </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>2026-02-17 15:46:48</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -760,6 +765,9 @@
       <c r="AO2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AP2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -893,6 +901,9 @@
       <c r="AO3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AP3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1026,6 +1037,9 @@
       <c r="AO4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AP4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1159,6 +1173,9 @@
       <c r="AO5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AP5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1292,6 +1309,9 @@
       <c r="AO6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AP6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1425,6 +1445,9 @@
       <c r="AO7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AP7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1558,6 +1581,9 @@
       <c r="AO8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AP8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1691,6 +1717,9 @@
       <c r="AO9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AP9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1828,6 +1857,9 @@
       <c r="AO10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AP10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1965,6 +1997,9 @@
       <c r="AO11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AP11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2102,6 +2137,9 @@
       <c r="AO12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AP12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2239,6 +2277,9 @@
       <c r="AO13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AP13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2372,6 +2413,9 @@
       <c r="AO14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AP14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2505,6 +2549,9 @@
       <c r="AO15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AP15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2638,6 +2685,9 @@
       <c r="AO16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AP16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2771,6 +2821,9 @@
       <c r="AO17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AP17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2908,6 +2961,9 @@
       <c r="AO18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AP18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3045,6 +3101,9 @@
       <c r="AO19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AP19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3178,6 +3237,9 @@
       <c r="AO20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AP20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3315,6 +3377,9 @@
       <c r="AO21" t="n">
         <v>249.95</v>
       </c>
+      <c r="AP21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3452,6 +3517,9 @@
       <c r="AO22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AP22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3589,6 +3657,9 @@
       <c r="AO23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AP23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3722,6 +3793,9 @@
       <c r="AO24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AP24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3855,6 +3929,9 @@
       <c r="AO25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AP25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3988,6 +4065,9 @@
       <c r="AO26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AP26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4121,6 +4201,9 @@
       <c r="AO27" t="n">
         <v>279.95</v>
       </c>
+      <c r="AP27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4254,6 +4337,9 @@
       <c r="AO28" t="n">
         <v>299.95</v>
       </c>
+      <c r="AP28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4387,6 +4473,9 @@
       <c r="AO29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AP29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4520,6 +4609,9 @@
       <c r="AO30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AP30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4653,6 +4745,9 @@
       <c r="AO31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AP31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4786,6 +4881,9 @@
       <c r="AO32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AP32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4919,6 +5017,9 @@
       <c r="AO33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AP33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5052,6 +5153,9 @@
       <c r="AO34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AP34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5071,7 +5175,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -5185,6 +5289,9 @@
       <c r="AO35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AP35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5204,7 +5311,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -5318,6 +5425,9 @@
       <c r="AO36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AP36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5451,6 +5561,9 @@
       <c r="AO37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AP37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5584,6 +5697,9 @@
       <c r="AO38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AP38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5717,6 +5833,9 @@
       <c r="AO39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AP39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5850,6 +5969,9 @@
       <c r="AO40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AP40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5869,7 +5991,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -5983,6 +6105,9 @@
       <c r="AO41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AP41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6002,7 +6127,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -6116,6 +6241,9 @@
       <c r="AO42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AP42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6249,6 +6377,9 @@
       <c r="AO43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AP43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6382,6 +6513,9 @@
       <c r="AO44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AP44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6515,6 +6649,9 @@
       <c r="AO45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AP45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6648,6 +6785,9 @@
       <c r="AO46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AP46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6781,6 +6921,9 @@
       <c r="AO47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AP47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6914,6 +7057,9 @@
       <c r="AO48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AP48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7047,6 +7193,9 @@
       <c r="AO49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AP49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7180,6 +7329,9 @@
       <c r="AO50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AP50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7313,6 +7465,9 @@
       <c r="AO51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AP51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7444,6 +7599,9 @@
         <v>1299.95</v>
       </c>
       <c r="AO52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AP52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP52"/>
+  <dimension ref="A1:AQ52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,6 +632,11 @@
           <t>2026-02-17 15:46:48</t>
         </is>
       </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>2026-02-17 16:51:45</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -768,6 +773,9 @@
       <c r="AP2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -904,6 +912,9 @@
       <c r="AP3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1040,6 +1051,9 @@
       <c r="AP4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1176,6 +1190,9 @@
       <c r="AP5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1312,6 +1329,9 @@
       <c r="AP6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1448,6 +1468,9 @@
       <c r="AP7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1584,6 +1607,9 @@
       <c r="AP8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AQ8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1720,6 +1746,9 @@
       <c r="AP9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AQ9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1860,6 +1889,9 @@
       <c r="AP10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AQ10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2000,6 +2032,9 @@
       <c r="AP11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AQ11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2140,6 +2175,9 @@
       <c r="AP12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AQ12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2280,6 +2318,9 @@
       <c r="AP13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AQ13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2416,6 +2457,9 @@
       <c r="AP14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AQ14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2552,6 +2596,9 @@
       <c r="AP15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AQ15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2688,6 +2735,9 @@
       <c r="AP16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AQ16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2824,6 +2874,9 @@
       <c r="AP17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AQ17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2964,6 +3017,9 @@
       <c r="AP18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AQ18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3104,6 +3160,9 @@
       <c r="AP19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AQ19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3240,6 +3299,9 @@
       <c r="AP20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AQ20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3380,6 +3442,9 @@
       <c r="AP21" t="n">
         <v>249.95</v>
       </c>
+      <c r="AQ21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3520,6 +3585,9 @@
       <c r="AP22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AQ22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3660,6 +3728,9 @@
       <c r="AP23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AQ23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3796,6 +3867,9 @@
       <c r="AP24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AQ24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3932,6 +4006,9 @@
       <c r="AP25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AQ25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4068,6 +4145,9 @@
       <c r="AP26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AQ26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4204,6 +4284,9 @@
       <c r="AP27" t="n">
         <v>279.95</v>
       </c>
+      <c r="AQ27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4340,6 +4423,9 @@
       <c r="AP28" t="n">
         <v>299.95</v>
       </c>
+      <c r="AQ28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4476,6 +4562,9 @@
       <c r="AP29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AQ29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4612,6 +4701,9 @@
       <c r="AP30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AQ30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4748,6 +4840,9 @@
       <c r="AP31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AQ31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4884,6 +4979,9 @@
       <c r="AP32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AQ32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5020,6 +5118,9 @@
       <c r="AP33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AQ33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5156,6 +5257,9 @@
       <c r="AP34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AQ34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5292,6 +5396,9 @@
       <c r="AP35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AQ35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5428,6 +5535,9 @@
       <c r="AP36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AQ36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5564,6 +5674,9 @@
       <c r="AP37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AQ37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5700,6 +5813,9 @@
       <c r="AP38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AQ38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5836,6 +5952,9 @@
       <c r="AP39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AQ39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5972,6 +6091,9 @@
       <c r="AP40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AQ40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6108,6 +6230,9 @@
       <c r="AP41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AQ41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6244,6 +6369,9 @@
       <c r="AP42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AQ42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6380,6 +6508,9 @@
       <c r="AP43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AQ43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6516,6 +6647,9 @@
       <c r="AP44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AQ44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6652,6 +6786,9 @@
       <c r="AP45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AQ45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6788,6 +6925,9 @@
       <c r="AP46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AQ46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6924,6 +7064,9 @@
       <c r="AP47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AQ47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7060,6 +7203,9 @@
       <c r="AP48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AQ48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7196,6 +7342,9 @@
       <c r="AP49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AQ49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7332,6 +7481,9 @@
       <c r="AP50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AQ50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7468,6 +7620,9 @@
       <c r="AP51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AQ51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7602,6 +7757,9 @@
         <v>1299.95</v>
       </c>
       <c r="AP52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AQ52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ52"/>
+  <dimension ref="A1:AR52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,6 +637,11 @@
           <t>2026-02-17 16:51:45</t>
         </is>
       </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>2026-02-17 17:52:50</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -776,6 +781,9 @@
       <c r="AQ2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AR2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -915,6 +923,9 @@
       <c r="AQ3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AR3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1054,6 +1065,9 @@
       <c r="AQ4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AR4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1193,6 +1207,9 @@
       <c r="AQ5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AR5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1332,6 +1349,9 @@
       <c r="AQ6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AR6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1471,6 +1491,9 @@
       <c r="AQ7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AR7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1610,6 +1633,9 @@
       <c r="AQ8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AR8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1749,6 +1775,9 @@
       <c r="AQ9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AR9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1892,6 +1921,9 @@
       <c r="AQ10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AR10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2035,6 +2067,9 @@
       <c r="AQ11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AR11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2178,6 +2213,9 @@
       <c r="AQ12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AR12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2321,6 +2359,9 @@
       <c r="AQ13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AR13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2460,6 +2501,9 @@
       <c r="AQ14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AR14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2599,6 +2643,9 @@
       <c r="AQ15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AR15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2738,6 +2785,9 @@
       <c r="AQ16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AR16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2877,6 +2927,9 @@
       <c r="AQ17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AR17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3020,6 +3073,9 @@
       <c r="AQ18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AR18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3163,6 +3219,9 @@
       <c r="AQ19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AR19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3302,16 +3361,19 @@
       <c r="AQ20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AR20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PB00703904</t>
+          <t>PB00659414</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 15 5G Gris (8 Go / 256 Go)</t>
+          <t>Xiaomi Redmi Note 14 5G Noir (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3324,137 +3386,136 @@
           <t>En stock</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>10</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00703904.html</t>
+          <t>https://www.ldlc.com/fiche/PB00659414.html</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="J21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="K21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="L21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="M21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="N21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="O21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="P21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="Q21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="R21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="S21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="T21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="U21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="V21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="W21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="X21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="Y21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="Z21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="AA21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="AB21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="AC21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="AD21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="AE21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="AF21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="AG21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="AH21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="AI21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="AJ21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="AK21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="AL21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="AM21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="AN21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="AO21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="AP21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
       </c>
       <c r="AQ21" t="n">
-        <v>249.95</v>
+        <v>299.95</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>248.62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PB00703905</t>
+          <t>PB00703904</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 15 5G Noir (8 Go / 256 Go)</t>
+          <t>Xiaomi Redmi 15 5G Gris (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3480,7 +3541,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00703905.html</t>
+          <t>https://www.ldlc.com/fiche/PB00703904.html</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -3586,18 +3647,21 @@
         <v>249.95</v>
       </c>
       <c r="AQ22" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="AR22" t="n">
         <v>249.95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PB00703906</t>
+          <t>PB00703905</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 15 5G Vert (8 Go / 256 Go)</t>
+          <t>Xiaomi Redmi 15 5G Noir (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3623,7 +3687,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00703906.html</t>
+          <t>https://www.ldlc.com/fiche/PB00703905.html</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -3729,18 +3793,21 @@
         <v>249.95</v>
       </c>
       <c r="AQ23" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="AR23" t="n">
         <v>249.95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PB00721694</t>
+          <t>PB00703906</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 15 4G Bleu (8 Go / 256 Go)</t>
+          <t>Xiaomi Redmi 15 5G Vert (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3753,16 +3820,20 @@
           <t>En stock</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00721694.html</t>
+          <t>https://www.ldlc.com/fiche/PB00703906.html</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -3868,18 +3939,21 @@
         <v>249.95</v>
       </c>
       <c r="AQ24" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="AR24" t="n">
         <v>249.95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PB00721693</t>
+          <t>PB00721694</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 15 4G Noir (8 Go / 256 Go)</t>
+          <t>Xiaomi Redmi Note 15 4G Bleu (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3901,7 +3975,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00721693.html</t>
+          <t>https://www.ldlc.com/fiche/PB00721694.html</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -4007,18 +4081,21 @@
         <v>249.95</v>
       </c>
       <c r="AQ25" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="AR25" t="n">
         <v>249.95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PB00721692</t>
+          <t>PB00721693</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 15 4G Vert (8 Go / 256 Go)</t>
+          <t>Xiaomi Redmi Note 15 4G Noir (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4040,7 +4117,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00721692.html</t>
+          <t>https://www.ldlc.com/fiche/PB00721693.html</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -4146,18 +4223,21 @@
         <v>249.95</v>
       </c>
       <c r="AQ26" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="AR26" t="n">
         <v>249.95</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PB00721698</t>
+          <t>PB00721692</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 15 5G Noir (6 Go / 128 Go)</t>
+          <t>Xiaomi Redmi Note 15 4G Vert (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4179,124 +4259,127 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00721698.html</t>
+          <t>https://www.ldlc.com/fiche/PB00721692.html</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="J27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="K27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="L27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="M27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="N27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="O27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="P27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="Q27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="R27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="S27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="T27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="U27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="V27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="W27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="X27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="Y27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="Z27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="AA27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="AB27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="AC27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="AD27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="AE27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="AF27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="AG27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="AH27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="AI27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="AJ27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="AK27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="AL27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="AM27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="AN27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="AO27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="AP27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
       </c>
       <c r="AQ27" t="n">
-        <v>279.95</v>
+        <v>249.95</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>249.95</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PB00659414</t>
+          <t>PB00721698</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 14 5G Noir (8 Go / 256 Go)</t>
+          <t>Xiaomi Redmi Note 15 5G Noir (6 Go / 128 Go)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4318,113 +4401,116 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00659414.html</t>
+          <t>https://www.ldlc.com/fiche/PB00721698.html</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="J28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="K28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="L28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="M28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="N28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="O28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="P28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="Q28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="R28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="S28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="T28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="U28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="V28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="W28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="X28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="Y28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="Z28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="AA28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="AB28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="AC28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="AD28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="AE28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="AF28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="AG28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="AH28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="AI28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="AJ28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="AK28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="AL28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="AM28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="AN28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="AO28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="AP28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
       </c>
       <c r="AQ28" t="n">
-        <v>299.95</v>
+        <v>279.95</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>279.95</v>
       </c>
     </row>
     <row r="29">
@@ -4565,6 +4651,9 @@
       <c r="AQ29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AR29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4704,6 +4793,9 @@
       <c r="AQ30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AR30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4843,6 +4935,9 @@
       <c r="AQ31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AR31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4982,6 +5077,9 @@
       <c r="AQ32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AR32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5121,6 +5219,9 @@
       <c r="AQ33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AR33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5260,6 +5361,9 @@
       <c r="AQ34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AR34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5399,6 +5503,9 @@
       <c r="AQ35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AR35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5538,6 +5645,9 @@
       <c r="AQ36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AR36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5677,6 +5787,9 @@
       <c r="AQ37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AR37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5816,6 +5929,9 @@
       <c r="AQ38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AR38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5955,6 +6071,9 @@
       <c r="AQ39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AR39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6094,6 +6213,9 @@
       <c r="AQ40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AR40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6233,6 +6355,9 @@
       <c r="AQ41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AR41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6372,6 +6497,9 @@
       <c r="AQ42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AR42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6511,6 +6639,9 @@
       <c r="AQ43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AR43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6650,6 +6781,9 @@
       <c r="AQ44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AR44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6789,6 +6923,9 @@
       <c r="AQ45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AR45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6928,6 +7065,9 @@
       <c r="AQ46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AR46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7067,6 +7207,9 @@
       <c r="AQ47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AR47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7206,6 +7349,9 @@
       <c r="AQ48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AR48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7345,6 +7491,9 @@
       <c r="AQ49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AR49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7484,6 +7633,9 @@
       <c r="AQ50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AR50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7623,6 +7775,9 @@
       <c r="AQ51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AR51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7760,6 +7915,9 @@
         <v>1299.95</v>
       </c>
       <c r="AQ52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AR52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR52"/>
+  <dimension ref="A1:AS52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,6 +642,11 @@
           <t>2026-02-17 17:52:50</t>
         </is>
       </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>2026-02-17 18:50:16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -784,6 +789,9 @@
       <c r="AR2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AS2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -926,6 +934,9 @@
       <c r="AR3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AS3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1068,6 +1079,9 @@
       <c r="AR4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AS4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1210,6 +1224,9 @@
       <c r="AR5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AS5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1352,6 +1369,9 @@
       <c r="AR6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AS6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1494,6 +1514,9 @@
       <c r="AR7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AS7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1636,6 +1659,9 @@
       <c r="AR8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AS8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1778,6 +1804,9 @@
       <c r="AR9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AS9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1924,6 +1953,9 @@
       <c r="AR10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AS10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2070,6 +2102,9 @@
       <c r="AR11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AS11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2216,6 +2251,9 @@
       <c r="AR12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AS12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2362,6 +2400,9 @@
       <c r="AR13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AS13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2504,6 +2545,9 @@
       <c r="AR14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AS14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2646,6 +2690,9 @@
       <c r="AR15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AS15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2788,6 +2835,9 @@
       <c r="AR16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AS16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2930,6 +2980,9 @@
       <c r="AR17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AS17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3076,6 +3129,9 @@
       <c r="AR18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AS18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3222,6 +3278,9 @@
       <c r="AR19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AS19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3364,6 +3423,9 @@
       <c r="AR20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AS20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3506,6 +3568,9 @@
       <c r="AR21" t="n">
         <v>248.62</v>
       </c>
+      <c r="AS21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3652,6 +3717,9 @@
       <c r="AR22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AS22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3798,6 +3866,9 @@
       <c r="AR23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AS23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3944,6 +4015,9 @@
       <c r="AR24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AS24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4086,6 +4160,9 @@
       <c r="AR25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AS25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4228,6 +4305,9 @@
       <c r="AR26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AS26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4370,6 +4450,9 @@
       <c r="AR27" t="n">
         <v>249.95</v>
       </c>
+      <c r="AS27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4512,6 +4595,9 @@
       <c r="AR28" t="n">
         <v>279.95</v>
       </c>
+      <c r="AS28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4654,6 +4740,9 @@
       <c r="AR29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AS29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4796,6 +4885,9 @@
       <c r="AR30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AS30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4938,6 +5030,9 @@
       <c r="AR31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AS31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5080,6 +5175,9 @@
       <c r="AR32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AS32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5222,6 +5320,9 @@
       <c r="AR33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AS33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5364,6 +5465,9 @@
       <c r="AR34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AS34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5506,6 +5610,9 @@
       <c r="AR35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AS35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5648,6 +5755,9 @@
       <c r="AR36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AS36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5790,6 +5900,9 @@
       <c r="AR37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AS37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5932,6 +6045,9 @@
       <c r="AR38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AS38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6074,6 +6190,9 @@
       <c r="AR39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AS39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6216,6 +6335,9 @@
       <c r="AR40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AS40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6358,6 +6480,9 @@
       <c r="AR41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AS41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6500,6 +6625,9 @@
       <c r="AR42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AS42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6642,6 +6770,9 @@
       <c r="AR43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AS43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6784,6 +6915,9 @@
       <c r="AR44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AS44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6926,6 +7060,9 @@
       <c r="AR45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AS45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7068,6 +7205,9 @@
       <c r="AR46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AS46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7210,6 +7350,9 @@
       <c r="AR47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AS47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7352,6 +7495,9 @@
       <c r="AR48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AS48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7494,6 +7640,9 @@
       <c r="AR49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AS49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7636,6 +7785,9 @@
       <c r="AR50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AS50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7778,6 +7930,9 @@
       <c r="AR51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AS51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7918,6 +8073,9 @@
         <v>1299.95</v>
       </c>
       <c r="AR52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AS52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS52"/>
+  <dimension ref="A1:AT52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,6 +647,11 @@
           <t>2026-02-17 18:50:16</t>
         </is>
       </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>2026-02-17 19:43:54</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -792,6 +797,9 @@
       <c r="AS2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AT2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -937,6 +945,9 @@
       <c r="AS3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AT3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1082,6 +1093,9 @@
       <c r="AS4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AT4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1227,6 +1241,9 @@
       <c r="AS5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AT5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1372,6 +1389,9 @@
       <c r="AS6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AT6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1517,6 +1537,9 @@
       <c r="AS7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AT7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1662,6 +1685,9 @@
       <c r="AS8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AT8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1807,6 +1833,9 @@
       <c r="AS9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AT9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1956,6 +1985,9 @@
       <c r="AS10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AT10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2105,6 +2137,9 @@
       <c r="AS11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AT11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2254,6 +2289,9 @@
       <c r="AS12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AT12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2403,6 +2441,9 @@
       <c r="AS13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AT13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2548,6 +2589,9 @@
       <c r="AS14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AT14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2693,6 +2737,9 @@
       <c r="AS15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AT15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2838,6 +2885,9 @@
       <c r="AS16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AT16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2983,6 +3033,9 @@
       <c r="AS17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AT17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3132,6 +3185,9 @@
       <c r="AS18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AT18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3281,6 +3337,9 @@
       <c r="AS19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AT19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3426,6 +3485,9 @@
       <c r="AS20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AT20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3571,6 +3633,9 @@
       <c r="AS21" t="n">
         <v>248.62</v>
       </c>
+      <c r="AT21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3720,6 +3785,9 @@
       <c r="AS22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AT22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3869,6 +3937,9 @@
       <c r="AS23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AT23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4018,6 +4089,9 @@
       <c r="AS24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AT24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4163,6 +4237,9 @@
       <c r="AS25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AT25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4308,6 +4385,9 @@
       <c r="AS26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AT26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4453,6 +4533,9 @@
       <c r="AS27" t="n">
         <v>249.95</v>
       </c>
+      <c r="AT27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4598,6 +4681,9 @@
       <c r="AS28" t="n">
         <v>279.95</v>
       </c>
+      <c r="AT28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4743,6 +4829,9 @@
       <c r="AS29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AT29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4888,6 +4977,9 @@
       <c r="AS30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AT30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5033,6 +5125,9 @@
       <c r="AS31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AT31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5178,6 +5273,9 @@
       <c r="AS32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AT32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5323,6 +5421,9 @@
       <c r="AS33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AT33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5468,6 +5569,9 @@
       <c r="AS34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AT34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5613,6 +5717,9 @@
       <c r="AS35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AT35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5758,6 +5865,9 @@
       <c r="AS36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AT36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5903,6 +6013,9 @@
       <c r="AS37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AT37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6048,6 +6161,9 @@
       <c r="AS38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AT38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6193,6 +6309,9 @@
       <c r="AS39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AT39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6338,6 +6457,9 @@
       <c r="AS40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AT40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6483,6 +6605,9 @@
       <c r="AS41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AT41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6628,6 +6753,9 @@
       <c r="AS42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AT42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6773,6 +6901,9 @@
       <c r="AS43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AT43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6918,6 +7049,9 @@
       <c r="AS44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AT44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7063,6 +7197,9 @@
       <c r="AS45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AT45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7208,6 +7345,9 @@
       <c r="AS46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AT46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7353,6 +7493,9 @@
       <c r="AS47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AT47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7498,6 +7641,9 @@
       <c r="AS48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AT48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7643,6 +7789,9 @@
       <c r="AS49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AT49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7788,6 +7937,9 @@
       <c r="AS50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AT50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7933,6 +8085,9 @@
       <c r="AS51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AT51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8076,6 +8231,9 @@
         <v>1299.95</v>
       </c>
       <c r="AS52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AT52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT52"/>
+  <dimension ref="A1:AU52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,6 +652,11 @@
           <t>2026-02-17 19:43:54</t>
         </is>
       </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>2026-02-17 20:31:28</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -800,6 +805,9 @@
       <c r="AT2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AU2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -948,6 +956,9 @@
       <c r="AT3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AU3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1096,6 +1107,9 @@
       <c r="AT4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AU4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1244,6 +1258,9 @@
       <c r="AT5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AU5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1392,6 +1409,9 @@
       <c r="AT6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AU6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1540,6 +1560,9 @@
       <c r="AT7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AU7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1688,6 +1711,9 @@
       <c r="AT8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AU8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1836,6 +1862,9 @@
       <c r="AT9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AU9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1988,6 +2017,9 @@
       <c r="AT10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AU10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2140,6 +2172,9 @@
       <c r="AT11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AU11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2292,6 +2327,9 @@
       <c r="AT12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AU12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2444,6 +2482,9 @@
       <c r="AT13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AU13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2592,6 +2633,9 @@
       <c r="AT14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AU14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2740,6 +2784,9 @@
       <c r="AT15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AU15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2888,6 +2935,9 @@
       <c r="AT16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AU16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3036,6 +3086,9 @@
       <c r="AT17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AU17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3188,6 +3241,9 @@
       <c r="AT18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AU18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3340,6 +3396,9 @@
       <c r="AT19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AU19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3488,6 +3547,9 @@
       <c r="AT20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AU20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3636,6 +3698,9 @@
       <c r="AT21" t="n">
         <v>248.62</v>
       </c>
+      <c r="AU21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3788,6 +3853,9 @@
       <c r="AT22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AU22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3940,6 +4008,9 @@
       <c r="AT23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AU23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4092,6 +4163,9 @@
       <c r="AT24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AU24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4240,6 +4314,9 @@
       <c r="AT25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AU25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4388,6 +4465,9 @@
       <c r="AT26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AU26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4536,6 +4616,9 @@
       <c r="AT27" t="n">
         <v>249.95</v>
       </c>
+      <c r="AU27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4684,6 +4767,9 @@
       <c r="AT28" t="n">
         <v>279.95</v>
       </c>
+      <c r="AU28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4832,6 +4918,9 @@
       <c r="AT29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AU29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4980,6 +5069,9 @@
       <c r="AT30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AU30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5128,6 +5220,9 @@
       <c r="AT31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AU31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5276,6 +5371,9 @@
       <c r="AT32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AU32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5424,6 +5522,9 @@
       <c r="AT33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AU33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5572,6 +5673,9 @@
       <c r="AT34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AU34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5720,6 +5824,9 @@
       <c r="AT35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AU35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5868,6 +5975,9 @@
       <c r="AT36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AU36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6016,6 +6126,9 @@
       <c r="AT37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AU37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6164,6 +6277,9 @@
       <c r="AT38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AU38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6312,6 +6428,9 @@
       <c r="AT39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AU39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6460,6 +6579,9 @@
       <c r="AT40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AU40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6608,6 +6730,9 @@
       <c r="AT41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AU41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6756,6 +6881,9 @@
       <c r="AT42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AU42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6904,6 +7032,9 @@
       <c r="AT43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AU43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7052,6 +7183,9 @@
       <c r="AT44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AU44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7200,6 +7334,9 @@
       <c r="AT45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AU45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7348,6 +7485,9 @@
       <c r="AT46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AU46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7496,6 +7636,9 @@
       <c r="AT47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AU47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7644,6 +7787,9 @@
       <c r="AT48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AU48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7792,6 +7938,9 @@
       <c r="AT49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AU49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7940,6 +8089,9 @@
       <c r="AT50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AU50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8088,6 +8240,9 @@
       <c r="AT51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AU51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8234,6 +8389,9 @@
         <v>1299.95</v>
       </c>
       <c r="AT52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AU52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU52"/>
+  <dimension ref="A1:AV52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,6 +657,11 @@
           <t>2026-02-17 20:31:28</t>
         </is>
       </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>2026-02-17 22:25:55</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -808,6 +813,9 @@
       <c r="AU2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AV2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -959,6 +967,9 @@
       <c r="AU3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AV3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1110,6 +1121,9 @@
       <c r="AU4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AV4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1261,6 +1275,9 @@
       <c r="AU5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AV5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1412,6 +1429,9 @@
       <c r="AU6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AV6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1563,6 +1583,9 @@
       <c r="AU7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AV7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1714,6 +1737,9 @@
       <c r="AU8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AV8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1865,6 +1891,9 @@
       <c r="AU9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AV9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2020,6 +2049,9 @@
       <c r="AU10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AV10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2175,6 +2207,9 @@
       <c r="AU11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AV11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2330,6 +2365,9 @@
       <c r="AU12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AV12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2485,6 +2523,9 @@
       <c r="AU13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AV13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2636,6 +2677,9 @@
       <c r="AU14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AV14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2787,6 +2831,9 @@
       <c r="AU15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AV15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2938,6 +2985,9 @@
       <c r="AU16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AV16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3089,6 +3139,9 @@
       <c r="AU17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AV17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3244,6 +3297,9 @@
       <c r="AU18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AV18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3399,6 +3455,9 @@
       <c r="AU19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AV19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3550,6 +3609,9 @@
       <c r="AU20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AV20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3701,6 +3763,9 @@
       <c r="AU21" t="n">
         <v>248.62</v>
       </c>
+      <c r="AV21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3856,6 +3921,9 @@
       <c r="AU22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AV22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4011,6 +4079,9 @@
       <c r="AU23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AV23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4166,6 +4237,9 @@
       <c r="AU24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AV24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4317,6 +4391,9 @@
       <c r="AU25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AV25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4468,6 +4545,9 @@
       <c r="AU26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AV26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4619,6 +4699,9 @@
       <c r="AU27" t="n">
         <v>249.95</v>
       </c>
+      <c r="AV27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4770,6 +4853,9 @@
       <c r="AU28" t="n">
         <v>279.95</v>
       </c>
+      <c r="AV28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4921,6 +5007,9 @@
       <c r="AU29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AV29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5072,6 +5161,9 @@
       <c r="AU30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AV30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5223,6 +5315,9 @@
       <c r="AU31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AV31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5374,6 +5469,9 @@
       <c r="AU32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AV32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5525,6 +5623,9 @@
       <c r="AU33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AV33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5676,6 +5777,9 @@
       <c r="AU34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AV34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5827,6 +5931,9 @@
       <c r="AU35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AV35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5978,6 +6085,9 @@
       <c r="AU36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AV36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6129,6 +6239,9 @@
       <c r="AU37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AV37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6280,6 +6393,9 @@
       <c r="AU38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AV38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6431,6 +6547,9 @@
       <c r="AU39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AV39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6582,6 +6701,9 @@
       <c r="AU40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AV40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6733,6 +6855,9 @@
       <c r="AU41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AV41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6884,6 +7009,9 @@
       <c r="AU42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AV42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7035,6 +7163,9 @@
       <c r="AU43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AV43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7186,6 +7317,9 @@
       <c r="AU44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AV44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7337,6 +7471,9 @@
       <c r="AU45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AV45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7488,6 +7625,9 @@
       <c r="AU46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AV46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7639,6 +7779,9 @@
       <c r="AU47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AV47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7790,6 +7933,9 @@
       <c r="AU48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AV48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7941,6 +8087,9 @@
       <c r="AU49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AV49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8092,6 +8241,9 @@
       <c r="AU50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AV50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8243,6 +8395,9 @@
       <c r="AU51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AV51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8392,6 +8547,9 @@
         <v>1299.95</v>
       </c>
       <c r="AU52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AV52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV52"/>
+  <dimension ref="A1:AW52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,6 +662,11 @@
           <t>2026-02-17 22:25:55</t>
         </is>
       </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>2026-02-17 23:23:59</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -816,6 +821,9 @@
       <c r="AV2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AW2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -970,6 +978,9 @@
       <c r="AV3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AW3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1124,6 +1135,9 @@
       <c r="AV4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AW4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1278,6 +1292,9 @@
       <c r="AV5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AW5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1432,6 +1449,9 @@
       <c r="AV6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AW6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1586,6 +1606,9 @@
       <c r="AV7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AW7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1740,6 +1763,9 @@
       <c r="AV8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AW8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1894,6 +1920,9 @@
       <c r="AV9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AW9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2052,6 +2081,9 @@
       <c r="AV10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AW10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2210,6 +2242,9 @@
       <c r="AV11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AW11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2368,6 +2403,9 @@
       <c r="AV12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AW12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2526,6 +2564,9 @@
       <c r="AV13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AW13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2680,6 +2721,9 @@
       <c r="AV14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AW14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2834,6 +2878,9 @@
       <c r="AV15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AW15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2988,6 +3035,9 @@
       <c r="AV16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AW16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3142,6 +3192,9 @@
       <c r="AV17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AW17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3300,6 +3353,9 @@
       <c r="AV18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AW18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3458,6 +3514,9 @@
       <c r="AV19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AW19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3612,6 +3671,9 @@
       <c r="AV20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AW20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3766,6 +3828,9 @@
       <c r="AV21" t="n">
         <v>248.62</v>
       </c>
+      <c r="AW21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3924,6 +3989,9 @@
       <c r="AV22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AW22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4082,6 +4150,9 @@
       <c r="AV23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AW23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4240,6 +4311,9 @@
       <c r="AV24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AW24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4394,6 +4468,9 @@
       <c r="AV25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AW25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4548,6 +4625,9 @@
       <c r="AV26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AW26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4702,6 +4782,9 @@
       <c r="AV27" t="n">
         <v>249.95</v>
       </c>
+      <c r="AW27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4856,6 +4939,9 @@
       <c r="AV28" t="n">
         <v>279.95</v>
       </c>
+      <c r="AW28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5010,6 +5096,9 @@
       <c r="AV29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AW29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5164,6 +5253,9 @@
       <c r="AV30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AW30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5318,6 +5410,9 @@
       <c r="AV31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AW31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5472,6 +5567,9 @@
       <c r="AV32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AW32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5626,6 +5724,9 @@
       <c r="AV33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AW33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5780,6 +5881,9 @@
       <c r="AV34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AW34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5934,6 +6038,9 @@
       <c r="AV35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AW35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6088,6 +6195,9 @@
       <c r="AV36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AW36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6242,6 +6352,9 @@
       <c r="AV37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AW37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6396,6 +6509,9 @@
       <c r="AV38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AW38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6550,6 +6666,9 @@
       <c r="AV39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AW39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6704,6 +6823,9 @@
       <c r="AV40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AW40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6858,6 +6980,9 @@
       <c r="AV41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AW41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7012,6 +7137,9 @@
       <c r="AV42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AW42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7166,6 +7294,9 @@
       <c r="AV43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AW43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7320,6 +7451,9 @@
       <c r="AV44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AW44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7474,6 +7608,9 @@
       <c r="AV45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AW45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7628,6 +7765,9 @@
       <c r="AV46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AW46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7782,6 +7922,9 @@
       <c r="AV47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AW47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7936,6 +8079,9 @@
       <c r="AV48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AW48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8090,6 +8236,9 @@
       <c r="AV49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AW49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8244,6 +8393,9 @@
       <c r="AV50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AW50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8398,6 +8550,9 @@
       <c r="AV51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AW51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8550,6 +8705,9 @@
         <v>1299.95</v>
       </c>
       <c r="AV52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AW52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW52"/>
+  <dimension ref="A1:AX52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,6 +667,11 @@
           <t>2026-02-17 23:23:59</t>
         </is>
       </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>2026-02-18 01:45:35</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -824,6 +829,9 @@
       <c r="AW2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AX2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -981,6 +989,9 @@
       <c r="AW3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AX3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1138,6 +1149,9 @@
       <c r="AW4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AX4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1295,6 +1309,9 @@
       <c r="AW5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AX5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1452,6 +1469,9 @@
       <c r="AW6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AX6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1609,6 +1629,9 @@
       <c r="AW7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AX7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1766,6 +1789,9 @@
       <c r="AW8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AX8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1923,6 +1949,9 @@
       <c r="AW9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AX9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2084,6 +2113,9 @@
       <c r="AW10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AX10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2245,6 +2277,9 @@
       <c r="AW11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AX11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2406,6 +2441,9 @@
       <c r="AW12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AX12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2567,6 +2605,9 @@
       <c r="AW13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AX13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2724,6 +2765,9 @@
       <c r="AW14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AX14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2881,6 +2925,9 @@
       <c r="AW15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AX15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3038,6 +3085,9 @@
       <c r="AW16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AX16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3195,6 +3245,9 @@
       <c r="AW17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AX17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3356,6 +3409,9 @@
       <c r="AW18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AX18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3517,6 +3573,9 @@
       <c r="AW19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AX19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3674,6 +3733,9 @@
       <c r="AW20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AX20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3831,6 +3893,9 @@
       <c r="AW21" t="n">
         <v>248.62</v>
       </c>
+      <c r="AX21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3992,6 +4057,9 @@
       <c r="AW22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AX22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4153,6 +4221,9 @@
       <c r="AW23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AX23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4314,6 +4385,9 @@
       <c r="AW24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AX24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4471,6 +4545,9 @@
       <c r="AW25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AX25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4628,6 +4705,9 @@
       <c r="AW26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AX26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4785,6 +4865,9 @@
       <c r="AW27" t="n">
         <v>249.95</v>
       </c>
+      <c r="AX27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4942,6 +5025,9 @@
       <c r="AW28" t="n">
         <v>279.95</v>
       </c>
+      <c r="AX28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5099,6 +5185,9 @@
       <c r="AW29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AX29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5256,6 +5345,9 @@
       <c r="AW30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AX30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5413,6 +5505,9 @@
       <c r="AW31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AX31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5570,6 +5665,9 @@
       <c r="AW32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AX32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5727,6 +5825,9 @@
       <c r="AW33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AX33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5884,6 +5985,9 @@
       <c r="AW34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AX34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6041,6 +6145,9 @@
       <c r="AW35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AX35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6198,6 +6305,9 @@
       <c r="AW36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AX36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6355,6 +6465,9 @@
       <c r="AW37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AX37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6512,6 +6625,9 @@
       <c r="AW38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AX38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6669,6 +6785,9 @@
       <c r="AW39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AX39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6826,6 +6945,9 @@
       <c r="AW40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AX40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6983,6 +7105,9 @@
       <c r="AW41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AX41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7140,6 +7265,9 @@
       <c r="AW42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AX42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7297,6 +7425,9 @@
       <c r="AW43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AX43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7454,6 +7585,9 @@
       <c r="AW44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AX44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7611,6 +7745,9 @@
       <c r="AW45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AX45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7768,6 +7905,9 @@
       <c r="AW46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AX46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7925,6 +8065,9 @@
       <c r="AW47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AX47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8082,6 +8225,9 @@
       <c r="AW48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AX48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8239,6 +8385,9 @@
       <c r="AW49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AX49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8396,6 +8545,9 @@
       <c r="AW50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AX50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8553,6 +8705,9 @@
       <c r="AW51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AX51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8708,6 +8863,9 @@
         <v>1299.95</v>
       </c>
       <c r="AW52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AX52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX52"/>
+  <dimension ref="A1:AY52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,6 +672,11 @@
           <t>2026-02-18 01:45:35</t>
         </is>
       </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>2026-02-18 04:16:53</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -832,6 +837,9 @@
       <c r="AX2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AY2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -992,6 +1000,9 @@
       <c r="AX3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AY3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1152,6 +1163,9 @@
       <c r="AX4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AY4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1312,6 +1326,9 @@
       <c r="AX5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AY5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1472,6 +1489,9 @@
       <c r="AX6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AY6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1632,6 +1652,9 @@
       <c r="AX7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AY7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1792,6 +1815,9 @@
       <c r="AX8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AY8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1952,6 +1978,9 @@
       <c r="AX9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AY9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2116,6 +2145,9 @@
       <c r="AX10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AY10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2280,6 +2312,9 @@
       <c r="AX11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AY11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2444,6 +2479,9 @@
       <c r="AX12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AY12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2608,6 +2646,9 @@
       <c r="AX13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AY13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2768,6 +2809,9 @@
       <c r="AX14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AY14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2928,6 +2972,9 @@
       <c r="AX15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AY15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3088,6 +3135,9 @@
       <c r="AX16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AY16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3248,6 +3298,9 @@
       <c r="AX17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AY17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3412,6 +3465,9 @@
       <c r="AX18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AY18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3576,6 +3632,9 @@
       <c r="AX19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AY19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3736,6 +3795,9 @@
       <c r="AX20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AY20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3896,6 +3958,9 @@
       <c r="AX21" t="n">
         <v>248.62</v>
       </c>
+      <c r="AY21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4060,6 +4125,9 @@
       <c r="AX22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AY22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4224,6 +4292,9 @@
       <c r="AX23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AY23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4388,6 +4459,9 @@
       <c r="AX24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AY24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4548,6 +4622,9 @@
       <c r="AX25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AY25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4708,6 +4785,9 @@
       <c r="AX26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AY26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4868,6 +4948,9 @@
       <c r="AX27" t="n">
         <v>249.95</v>
       </c>
+      <c r="AY27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5028,6 +5111,9 @@
       <c r="AX28" t="n">
         <v>279.95</v>
       </c>
+      <c r="AY28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5188,6 +5274,9 @@
       <c r="AX29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AY29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5348,6 +5437,9 @@
       <c r="AX30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AY30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5508,6 +5600,9 @@
       <c r="AX31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AY31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5668,6 +5763,9 @@
       <c r="AX32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AY32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5828,6 +5926,9 @@
       <c r="AX33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AY33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5988,6 +6089,9 @@
       <c r="AX34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AY34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6148,6 +6252,9 @@
       <c r="AX35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AY35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6308,6 +6415,9 @@
       <c r="AX36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AY36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6468,6 +6578,9 @@
       <c r="AX37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AY37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6628,6 +6741,9 @@
       <c r="AX38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AY38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6788,6 +6904,9 @@
       <c r="AX39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AY39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6948,6 +7067,9 @@
       <c r="AX40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AY40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7108,6 +7230,9 @@
       <c r="AX41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AY41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7268,6 +7393,9 @@
       <c r="AX42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AY42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7428,6 +7556,9 @@
       <c r="AX43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AY43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7588,6 +7719,9 @@
       <c r="AX44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AY44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7748,6 +7882,9 @@
       <c r="AX45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AY45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7908,6 +8045,9 @@
       <c r="AX46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AY46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8068,6 +8208,9 @@
       <c r="AX47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AY47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8087,7 +8230,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (18/02/2026)</t>
+          <t>En stock sous 7 jours (19/02/2026)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -8228,6 +8371,9 @@
       <c r="AX48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AY48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8388,6 +8534,9 @@
       <c r="AX49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AY49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8548,6 +8697,9 @@
       <c r="AX50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AY50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8708,6 +8860,9 @@
       <c r="AX51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AY51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8866,6 +9021,9 @@
         <v>1299.95</v>
       </c>
       <c r="AX52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AY52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY52"/>
+  <dimension ref="A1:AZ52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +677,11 @@
           <t>2026-02-18 04:16:53</t>
         </is>
       </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>2026-02-18 05:57:31</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -840,6 +845,9 @@
       <c r="AY2" t="n">
         <v>129.95</v>
       </c>
+      <c r="AZ2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1003,6 +1011,9 @@
       <c r="AY3" t="n">
         <v>149.95</v>
       </c>
+      <c r="AZ3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1166,6 +1177,9 @@
       <c r="AY4" t="n">
         <v>149.95</v>
       </c>
+      <c r="AZ4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1329,6 +1343,9 @@
       <c r="AY5" t="n">
         <v>149.95</v>
       </c>
+      <c r="AZ5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1492,6 +1509,9 @@
       <c r="AY6" t="n">
         <v>149.95</v>
       </c>
+      <c r="AZ6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1655,6 +1675,9 @@
       <c r="AY7" t="n">
         <v>149.95</v>
       </c>
+      <c r="AZ7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1818,6 +1841,9 @@
       <c r="AY8" t="n">
         <v>149.95</v>
       </c>
+      <c r="AZ8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1981,6 +2007,9 @@
       <c r="AY9" t="n">
         <v>168.95</v>
       </c>
+      <c r="AZ9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2148,6 +2177,9 @@
       <c r="AY10" t="n">
         <v>179.95</v>
       </c>
+      <c r="AZ10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2315,6 +2347,9 @@
       <c r="AY11" t="n">
         <v>179.95</v>
       </c>
+      <c r="AZ11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2482,6 +2517,9 @@
       <c r="AY12" t="n">
         <v>179.95</v>
       </c>
+      <c r="AZ12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2649,6 +2687,9 @@
       <c r="AY13" t="n">
         <v>179.95</v>
       </c>
+      <c r="AZ13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2812,6 +2853,9 @@
       <c r="AY14" t="n">
         <v>179.95</v>
       </c>
+      <c r="AZ14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2975,6 +3019,9 @@
       <c r="AY15" t="n">
         <v>179.95</v>
       </c>
+      <c r="AZ15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3138,6 +3185,9 @@
       <c r="AY16" t="n">
         <v>179.95</v>
       </c>
+      <c r="AZ16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3301,6 +3351,9 @@
       <c r="AY17" t="n">
         <v>189.95</v>
       </c>
+      <c r="AZ17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3468,6 +3521,9 @@
       <c r="AY18" t="n">
         <v>209.95</v>
       </c>
+      <c r="AZ18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3635,6 +3691,9 @@
       <c r="AY19" t="n">
         <v>209.95</v>
       </c>
+      <c r="AZ19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3798,6 +3857,9 @@
       <c r="AY20" t="n">
         <v>219.95</v>
       </c>
+      <c r="AZ20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3961,6 +4023,9 @@
       <c r="AY21" t="n">
         <v>248.62</v>
       </c>
+      <c r="AZ21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4128,6 +4193,9 @@
       <c r="AY22" t="n">
         <v>249.95</v>
       </c>
+      <c r="AZ22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4295,6 +4363,9 @@
       <c r="AY23" t="n">
         <v>249.95</v>
       </c>
+      <c r="AZ23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4462,6 +4533,9 @@
       <c r="AY24" t="n">
         <v>249.95</v>
       </c>
+      <c r="AZ24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4625,6 +4699,9 @@
       <c r="AY25" t="n">
         <v>249.95</v>
       </c>
+      <c r="AZ25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4788,6 +4865,9 @@
       <c r="AY26" t="n">
         <v>249.95</v>
       </c>
+      <c r="AZ26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4951,6 +5031,9 @@
       <c r="AY27" t="n">
         <v>249.95</v>
       </c>
+      <c r="AZ27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5114,6 +5197,9 @@
       <c r="AY28" t="n">
         <v>279.95</v>
       </c>
+      <c r="AZ28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5277,6 +5363,9 @@
       <c r="AY29" t="n">
         <v>299.95</v>
       </c>
+      <c r="AZ29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5440,6 +5529,9 @@
       <c r="AY30" t="n">
         <v>299.95</v>
       </c>
+      <c r="AZ30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5603,6 +5695,9 @@
       <c r="AY31" t="n">
         <v>299.95</v>
       </c>
+      <c r="AZ31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5766,6 +5861,9 @@
       <c r="AY32" t="n">
         <v>399.95</v>
       </c>
+      <c r="AZ32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5929,6 +6027,9 @@
       <c r="AY33" t="n">
         <v>399.95</v>
       </c>
+      <c r="AZ33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6092,6 +6193,9 @@
       <c r="AY34" t="n">
         <v>399.95</v>
       </c>
+      <c r="AZ34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6255,6 +6359,9 @@
       <c r="AY35" t="n">
         <v>429.95</v>
       </c>
+      <c r="AZ35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6418,6 +6525,9 @@
       <c r="AY36" t="n">
         <v>429.95</v>
       </c>
+      <c r="AZ36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6581,6 +6691,9 @@
       <c r="AY37" t="n">
         <v>429.95</v>
       </c>
+      <c r="AZ37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6744,6 +6857,9 @@
       <c r="AY38" t="n">
         <v>499.95</v>
       </c>
+      <c r="AZ38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6907,6 +7023,9 @@
       <c r="AY39" t="n">
         <v>499.95</v>
       </c>
+      <c r="AZ39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7070,6 +7189,9 @@
       <c r="AY40" t="n">
         <v>499.95</v>
       </c>
+      <c r="AZ40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7233,6 +7355,9 @@
       <c r="AY41" t="n">
         <v>549.95</v>
       </c>
+      <c r="AZ41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7396,6 +7521,9 @@
       <c r="AY42" t="n">
         <v>549.95</v>
       </c>
+      <c r="AZ42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7559,6 +7687,9 @@
       <c r="AY43" t="n">
         <v>549.95</v>
       </c>
+      <c r="AZ43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7722,6 +7853,9 @@
       <c r="AY44" t="n">
         <v>649.95</v>
       </c>
+      <c r="AZ44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7885,6 +8019,9 @@
       <c r="AY45" t="n">
         <v>649.95</v>
       </c>
+      <c r="AZ45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8048,6 +8185,9 @@
       <c r="AY46" t="n">
         <v>649.95</v>
       </c>
+      <c r="AZ46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8211,6 +8351,9 @@
       <c r="AY47" t="n">
         <v>899.95</v>
       </c>
+      <c r="AZ47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8374,6 +8517,9 @@
       <c r="AY48" t="n">
         <v>899.95</v>
       </c>
+      <c r="AZ48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8537,6 +8683,9 @@
       <c r="AY49" t="n">
         <v>899.95</v>
       </c>
+      <c r="AZ49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8700,6 +8849,9 @@
       <c r="AY50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AZ50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8863,6 +9015,9 @@
       <c r="AY51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="AZ51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9024,6 +9179,9 @@
         <v>1299.95</v>
       </c>
       <c r="AY52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="AZ52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ52"/>
+  <dimension ref="A1:BA52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,6 +682,11 @@
           <t>2026-02-18 05:57:31</t>
         </is>
       </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>2026-02-18 07:00:55</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -848,6 +853,9 @@
       <c r="AZ2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BA2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1014,6 +1022,9 @@
       <c r="AZ3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BA3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1180,6 +1191,9 @@
       <c r="AZ4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BA4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1346,6 +1360,9 @@
       <c r="AZ5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BA5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1512,6 +1529,9 @@
       <c r="AZ6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BA6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1678,6 +1698,9 @@
       <c r="AZ7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BA7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1844,6 +1867,9 @@
       <c r="AZ8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BA8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2010,6 +2036,9 @@
       <c r="AZ9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BA9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2180,6 +2209,9 @@
       <c r="AZ10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BA10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2350,6 +2382,9 @@
       <c r="AZ11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BA11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2520,6 +2555,9 @@
       <c r="AZ12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BA12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2690,6 +2728,9 @@
       <c r="AZ13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BA13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2856,6 +2897,9 @@
       <c r="AZ14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BA14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3022,6 +3066,9 @@
       <c r="AZ15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BA15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3188,6 +3235,9 @@
       <c r="AZ16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BA16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3354,6 +3404,9 @@
       <c r="AZ17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BA17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3524,6 +3577,9 @@
       <c r="AZ18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BA18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3694,6 +3750,9 @@
       <c r="AZ19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BA19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3860,6 +3919,9 @@
       <c r="AZ20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BA20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4026,6 +4088,9 @@
       <c r="AZ21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BA21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4196,6 +4261,9 @@
       <c r="AZ22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BA22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4366,6 +4434,9 @@
       <c r="AZ23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BA23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4536,6 +4607,9 @@
       <c r="AZ24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BA24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4702,6 +4776,9 @@
       <c r="AZ25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BA25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4868,6 +4945,9 @@
       <c r="AZ26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BA26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5034,6 +5114,9 @@
       <c r="AZ27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BA27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5200,6 +5283,9 @@
       <c r="AZ28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BA28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5366,6 +5452,9 @@
       <c r="AZ29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BA29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5532,6 +5621,9 @@
       <c r="AZ30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BA30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5698,6 +5790,9 @@
       <c r="AZ31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BA31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5864,6 +5959,9 @@
       <c r="AZ32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BA32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6030,6 +6128,9 @@
       <c r="AZ33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BA33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6196,6 +6297,9 @@
       <c r="AZ34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BA34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6362,6 +6466,9 @@
       <c r="AZ35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BA35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6528,6 +6635,9 @@
       <c r="AZ36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BA36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6694,6 +6804,9 @@
       <c r="AZ37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BA37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6860,6 +6973,9 @@
       <c r="AZ38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BA38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7026,6 +7142,9 @@
       <c r="AZ39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BA39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7192,6 +7311,9 @@
       <c r="AZ40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BA40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7358,6 +7480,9 @@
       <c r="AZ41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BA41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7524,6 +7649,9 @@
       <c r="AZ42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BA42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7690,6 +7818,9 @@
       <c r="AZ43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BA43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7856,6 +7987,9 @@
       <c r="AZ44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BA44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8022,6 +8156,9 @@
       <c r="AZ45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BA45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8188,6 +8325,9 @@
       <c r="AZ46" t="n">
         <v>649.95</v>
       </c>
+      <c r="BA46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8354,6 +8494,9 @@
       <c r="AZ47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BA47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8520,6 +8663,9 @@
       <c r="AZ48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BA48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8686,6 +8832,9 @@
       <c r="AZ49" t="n">
         <v>899.95</v>
       </c>
+      <c r="BA49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8852,6 +9001,9 @@
       <c r="AZ50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BA50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9018,6 +9170,9 @@
       <c r="AZ51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BA51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9182,6 +9337,9 @@
         <v>1299.95</v>
       </c>
       <c r="AZ52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BA52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA52"/>
+  <dimension ref="A1:BB52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,6 +687,11 @@
           <t>2026-02-18 07:00:55</t>
         </is>
       </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>2026-02-18 07:56:13</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -856,6 +861,9 @@
       <c r="BA2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BB2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1025,6 +1033,9 @@
       <c r="BA3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BB3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1194,6 +1205,9 @@
       <c r="BA4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BB4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1363,6 +1377,9 @@
       <c r="BA5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BB5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1532,6 +1549,9 @@
       <c r="BA6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BB6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1701,6 +1721,9 @@
       <c r="BA7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BB7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1870,6 +1893,9 @@
       <c r="BA8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BB8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2039,6 +2065,9 @@
       <c r="BA9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BB9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2212,6 +2241,9 @@
       <c r="BA10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BB10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2385,6 +2417,9 @@
       <c r="BA11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BB11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2558,6 +2593,9 @@
       <c r="BA12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BB12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2731,6 +2769,9 @@
       <c r="BA13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BB13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2900,6 +2941,9 @@
       <c r="BA14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BB14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3069,6 +3113,9 @@
       <c r="BA15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BB15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3238,6 +3285,9 @@
       <c r="BA16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BB16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3407,6 +3457,9 @@
       <c r="BA17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BB17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3580,6 +3633,9 @@
       <c r="BA18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BB18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3753,6 +3809,9 @@
       <c r="BA19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BB19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3922,6 +3981,9 @@
       <c r="BA20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BB20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4091,6 +4153,9 @@
       <c r="BA21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BB21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4264,6 +4329,9 @@
       <c r="BA22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BB22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4437,6 +4505,9 @@
       <c r="BA23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BB23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4610,6 +4681,9 @@
       <c r="BA24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BB24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4779,6 +4853,9 @@
       <c r="BA25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BB25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4948,6 +5025,9 @@
       <c r="BA26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BB26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5117,6 +5197,9 @@
       <c r="BA27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BB27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5286,6 +5369,9 @@
       <c r="BA28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BB28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5455,6 +5541,9 @@
       <c r="BA29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BB29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5624,6 +5713,9 @@
       <c r="BA30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BB30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5793,6 +5885,9 @@
       <c r="BA31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BB31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5962,6 +6057,9 @@
       <c r="BA32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BB32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6131,6 +6229,9 @@
       <c r="BA33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BB33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6300,6 +6401,9 @@
       <c r="BA34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BB34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6469,6 +6573,9 @@
       <c r="BA35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BB35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6638,6 +6745,9 @@
       <c r="BA36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BB36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6807,6 +6917,9 @@
       <c r="BA37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BB37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6976,6 +7089,9 @@
       <c r="BA38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BB38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7145,6 +7261,9 @@
       <c r="BA39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BB39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7314,6 +7433,9 @@
       <c r="BA40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BB40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7483,6 +7605,9 @@
       <c r="BA41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BB41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7652,6 +7777,9 @@
       <c r="BA42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BB42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7821,6 +7949,9 @@
       <c r="BA43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BB43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7990,6 +8121,9 @@
       <c r="BA44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BB44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8159,6 +8293,9 @@
       <c r="BA45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BB45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8328,6 +8465,9 @@
       <c r="BA46" t="n">
         <v>649.95</v>
       </c>
+      <c r="BB46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8497,6 +8637,9 @@
       <c r="BA47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BB47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8666,6 +8809,9 @@
       <c r="BA48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BB48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8835,6 +8981,9 @@
       <c r="BA49" t="n">
         <v>899.95</v>
       </c>
+      <c r="BB49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9004,6 +9153,9 @@
       <c r="BA50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BB50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9173,6 +9325,9 @@
       <c r="BA51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BB51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9340,6 +9495,9 @@
         <v>1299.95</v>
       </c>
       <c r="BA52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BB52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB52"/>
+  <dimension ref="A1:BC52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,6 +692,11 @@
           <t>2026-02-18 07:56:13</t>
         </is>
       </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>2026-02-18 08:39:26</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -864,6 +869,9 @@
       <c r="BB2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BC2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1036,6 +1044,9 @@
       <c r="BB3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BC3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1208,6 +1219,9 @@
       <c r="BB4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BC4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1380,6 +1394,9 @@
       <c r="BB5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BC5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1552,6 +1569,9 @@
       <c r="BB6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BC6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1724,6 +1744,9 @@
       <c r="BB7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BC7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1896,6 +1919,9 @@
       <c r="BB8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BC8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2068,6 +2094,9 @@
       <c r="BB9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BC9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2244,6 +2273,9 @@
       <c r="BB10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BC10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2420,6 +2452,9 @@
       <c r="BB11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BC11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2596,6 +2631,9 @@
       <c r="BB12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BC12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2772,6 +2810,9 @@
       <c r="BB13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BC13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2944,6 +2985,9 @@
       <c r="BB14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BC14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3116,6 +3160,9 @@
       <c r="BB15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BC15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3288,6 +3335,9 @@
       <c r="BB16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BC16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3460,6 +3510,9 @@
       <c r="BB17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BC17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3636,6 +3689,9 @@
       <c r="BB18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BC18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3812,6 +3868,9 @@
       <c r="BB19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BC19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3984,6 +4043,9 @@
       <c r="BB20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BC20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4156,6 +4218,9 @@
       <c r="BB21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BC21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4332,6 +4397,9 @@
       <c r="BB22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BC22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4508,6 +4576,9 @@
       <c r="BB23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BC23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4684,6 +4755,9 @@
       <c r="BB24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BC24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4856,6 +4930,9 @@
       <c r="BB25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BC25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5028,6 +5105,9 @@
       <c r="BB26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BC26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5200,6 +5280,9 @@
       <c r="BB27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BC27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5372,6 +5455,9 @@
       <c r="BB28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BC28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5544,6 +5630,9 @@
       <c r="BB29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BC29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5716,6 +5805,9 @@
       <c r="BB30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BC30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5888,6 +5980,9 @@
       <c r="BB31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BC31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6060,6 +6155,9 @@
       <c r="BB32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BC32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6232,6 +6330,9 @@
       <c r="BB33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BC33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6404,6 +6505,9 @@
       <c r="BB34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BC34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6576,6 +6680,9 @@
       <c r="BB35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BC35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6748,6 +6855,9 @@
       <c r="BB36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BC36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6920,6 +7030,9 @@
       <c r="BB37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BC37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7092,6 +7205,9 @@
       <c r="BB38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BC38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7264,6 +7380,9 @@
       <c r="BB39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BC39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7436,6 +7555,9 @@
       <c r="BB40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BC40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7608,6 +7730,9 @@
       <c r="BB41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BC41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7780,6 +7905,9 @@
       <c r="BB42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BC42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7952,6 +8080,9 @@
       <c r="BB43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BC43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8124,6 +8255,9 @@
       <c r="BB44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BC44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8296,6 +8430,9 @@
       <c r="BB45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BC45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8468,6 +8605,9 @@
       <c r="BB46" t="n">
         <v>649.95</v>
       </c>
+      <c r="BC46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8640,6 +8780,9 @@
       <c r="BB47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BC47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8812,6 +8955,9 @@
       <c r="BB48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BC48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8984,6 +9130,9 @@
       <c r="BB49" t="n">
         <v>899.95</v>
       </c>
+      <c r="BC49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9156,6 +9305,9 @@
       <c r="BB50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BC50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9328,6 +9480,9 @@
       <c r="BB51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BC51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9498,6 +9653,9 @@
         <v>1299.95</v>
       </c>
       <c r="BB52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BC52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC52"/>
+  <dimension ref="A1:BD52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,6 +697,11 @@
           <t>2026-02-18 08:39:26</t>
         </is>
       </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>2026-02-18 09:41:31</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -872,6 +877,9 @@
       <c r="BC2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BD2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1047,6 +1055,9 @@
       <c r="BC3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BD3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1222,6 +1233,9 @@
       <c r="BC4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BD4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1397,6 +1411,9 @@
       <c r="BC5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BD5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1572,6 +1589,9 @@
       <c r="BC6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BD6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1747,6 +1767,9 @@
       <c r="BC7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BD7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1922,6 +1945,9 @@
       <c r="BC8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BD8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2097,6 +2123,9 @@
       <c r="BC9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BD9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2276,6 +2305,9 @@
       <c r="BC10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BD10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2455,6 +2487,9 @@
       <c r="BC11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BD11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2634,6 +2669,9 @@
       <c r="BC12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BD12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2813,6 +2851,9 @@
       <c r="BC13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BD13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2988,6 +3029,9 @@
       <c r="BC14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BD14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3163,6 +3207,9 @@
       <c r="BC15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BD15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3338,6 +3385,9 @@
       <c r="BC16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BD16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3513,6 +3563,9 @@
       <c r="BC17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BD17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3692,6 +3745,9 @@
       <c r="BC18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BD18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3871,6 +3927,9 @@
       <c r="BC19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BD19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4046,6 +4105,9 @@
       <c r="BC20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BD20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4221,6 +4283,9 @@
       <c r="BC21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BD21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4400,6 +4465,9 @@
       <c r="BC22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BD22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4579,6 +4647,9 @@
       <c r="BC23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BD23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4758,6 +4829,9 @@
       <c r="BC24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BD24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4933,6 +5007,9 @@
       <c r="BC25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BD25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5108,6 +5185,9 @@
       <c r="BC26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BD26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5283,6 +5363,9 @@
       <c r="BC27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BD27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5458,6 +5541,9 @@
       <c r="BC28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BD28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5633,6 +5719,9 @@
       <c r="BC29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BD29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5808,6 +5897,9 @@
       <c r="BC30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BD30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5983,6 +6075,9 @@
       <c r="BC31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BD31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6158,6 +6253,9 @@
       <c r="BC32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BD32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6333,6 +6431,9 @@
       <c r="BC33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BD33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6508,6 +6609,9 @@
       <c r="BC34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BD34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6683,6 +6787,9 @@
       <c r="BC35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BD35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6858,6 +6965,9 @@
       <c r="BC36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BD36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7033,6 +7143,9 @@
       <c r="BC37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BD37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7208,6 +7321,9 @@
       <c r="BC38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BD38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7383,6 +7499,9 @@
       <c r="BC39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BD39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7558,6 +7677,9 @@
       <c r="BC40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BD40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7733,6 +7855,9 @@
       <c r="BC41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BD41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7908,6 +8033,9 @@
       <c r="BC42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BD42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8083,6 +8211,9 @@
       <c r="BC43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BD43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8258,6 +8389,9 @@
       <c r="BC44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BD44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8433,6 +8567,9 @@
       <c r="BC45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BD45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8608,6 +8745,9 @@
       <c r="BC46" t="n">
         <v>649.95</v>
       </c>
+      <c r="BD46" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8783,6 +8923,9 @@
       <c r="BC47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BD47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8958,6 +9101,9 @@
       <c r="BC48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BD48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9133,6 +9279,9 @@
       <c r="BC49" t="n">
         <v>899.95</v>
       </c>
+      <c r="BD49" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9308,6 +9457,9 @@
       <c r="BC50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BD50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9483,6 +9635,9 @@
       <c r="BC51" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BD51" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9656,6 +9811,9 @@
         <v>1299.95</v>
       </c>
       <c r="BC52" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BD52" t="n">
         <v>1299.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD52"/>
+  <dimension ref="A1:BE52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -702,6 +702,11 @@
           <t>2026-02-18 09:41:31</t>
         </is>
       </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>2026-02-18 10:39:29</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -880,6 +885,9 @@
       <c r="BD2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BE2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1058,6 +1066,9 @@
       <c r="BD3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BE3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1236,6 +1247,9 @@
       <c r="BD4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BE4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1414,6 +1428,9 @@
       <c r="BD5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BE5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1592,6 +1609,9 @@
       <c r="BD6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BE6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1770,6 +1790,9 @@
       <c r="BD7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BE7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1948,6 +1971,9 @@
       <c r="BD8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BE8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2126,6 +2152,9 @@
       <c r="BD9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BE9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2308,6 +2337,9 @@
       <c r="BD10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BE10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2490,6 +2522,9 @@
       <c r="BD11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BE11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2672,6 +2707,9 @@
       <c r="BD12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BE12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2854,6 +2892,9 @@
       <c r="BD13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BE13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3032,6 +3073,9 @@
       <c r="BD14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BE14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3210,6 +3254,9 @@
       <c r="BD15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BE15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3388,6 +3435,9 @@
       <c r="BD16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BE16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3566,6 +3616,9 @@
       <c r="BD17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BE17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3748,6 +3801,9 @@
       <c r="BD18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BE18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3930,6 +3986,9 @@
       <c r="BD19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BE19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4108,6 +4167,9 @@
       <c r="BD20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BE20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4286,6 +4348,9 @@
       <c r="BD21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BE21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4468,6 +4533,9 @@
       <c r="BD22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BE22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4650,6 +4718,9 @@
       <c r="BD23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BE23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4832,6 +4903,9 @@
       <c r="BD24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BE24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5010,6 +5084,9 @@
       <c r="BD25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BE25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5188,6 +5265,9 @@
       <c r="BD26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BE26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5366,6 +5446,9 @@
       <c r="BD27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BE27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5544,6 +5627,9 @@
       <c r="BD28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BE28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5722,6 +5808,9 @@
       <c r="BD29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BE29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5900,6 +5989,9 @@
       <c r="BD30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BE30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6078,6 +6170,9 @@
       <c r="BD31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BE31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6256,6 +6351,9 @@
       <c r="BD32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BE32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6434,6 +6532,9 @@
       <c r="BD33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BE33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6612,6 +6713,9 @@
       <c r="BD34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BE34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6790,6 +6894,9 @@
       <c r="BD35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BE35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6968,6 +7075,9 @@
       <c r="BD36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BE36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7146,6 +7256,9 @@
       <c r="BD37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BE37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7324,6 +7437,9 @@
       <c r="BD38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BE38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7502,6 +7618,9 @@
       <c r="BD39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BE39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7680,6 +7799,9 @@
       <c r="BD40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BE40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7858,6 +7980,9 @@
       <c r="BD41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BE41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8036,6 +8161,9 @@
       <c r="BD42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BE42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8214,6 +8342,9 @@
       <c r="BD43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BE43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8392,6 +8523,9 @@
       <c r="BD44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BE44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8570,16 +8704,19 @@
       <c r="BD45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BE45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PB00706163</t>
+          <t>PB00706169</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Xiaomi 15T Conçu avec Leica Rose (12 Go / 256 Go)</t>
+          <t>Xiaomi 15T Pro Conçu avec Leica Gris (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -8589,7 +8726,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -8601,163 +8738,166 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00706163.html</t>
+          <t>https://www.ldlc.com/fiche/PB00706169.html</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="J46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="K46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="L46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="M46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="N46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="O46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="P46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="Q46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="R46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="S46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="T46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="U46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="V46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="W46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="X46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="Y46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="Z46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AA46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AB46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AC46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AD46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AE46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AF46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AG46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AH46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AI46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AJ46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AK46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AL46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AM46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AN46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AO46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AP46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AQ46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AR46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AS46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AT46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AU46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AV46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AW46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AX46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AY46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="AZ46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="BA46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="BB46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="BC46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
       </c>
       <c r="BD46" t="n">
-        <v>649.95</v>
+        <v>899.95</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>899.95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PB00706169</t>
+          <t>PB00706170</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Xiaomi 15T Pro Conçu avec Leica Gris (12 Go / 512 Go)</t>
+          <t>Xiaomi 15T Pro Conçu avec Leica Mocha (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -8767,7 +8907,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock sous 7 jours (19/02/2026)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -8779,7 +8919,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00706169.html</t>
+          <t>https://www.ldlc.com/fiche/PB00706170.html</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -8924,18 +9064,21 @@
         <v>899.95</v>
       </c>
       <c r="BD47" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="BE47" t="n">
         <v>899.95</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PB00706170</t>
+          <t>PB00706167</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Xiaomi 15T Pro Conçu avec Leica Mocha (12 Go / 512 Go)</t>
+          <t>Xiaomi 15T Pro Conçu avec Leica Noir (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -8945,7 +9088,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (19/02/2026)</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -8957,7 +9100,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00706170.html</t>
+          <t>https://www.ldlc.com/fiche/PB00706167.html</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -9102,18 +9245,21 @@
         <v>899.95</v>
       </c>
       <c r="BD48" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="BE48" t="n">
         <v>899.95</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PB00706167</t>
+          <t>PB00669902</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Xiaomi 15T Pro Conçu avec Leica Noir (12 Go / 512 Go)</t>
+          <t>Xiaomi 15 Conçu avec Leica Blanc (12 Go / 512 Go)1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -9130,168 +9276,171 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00706167.html</t>
+          <t>https://www.ldlc.com/fiche/PB00669902.html</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="J49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="K49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="L49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="M49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="N49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="O49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="P49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="Q49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="R49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="S49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="T49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="U49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="V49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="W49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="X49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="Y49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="Z49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AA49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AB49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AC49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AD49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AE49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AF49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AG49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AH49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AI49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AJ49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AK49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AL49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AM49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AN49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AO49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AP49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AQ49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AR49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AS49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AT49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AU49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AV49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AW49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AX49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AY49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="AZ49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="BA49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="BB49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="BC49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
       </c>
       <c r="BD49" t="n">
-        <v>899.95</v>
+        <v>1119.95</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>1119.95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PB00669902</t>
+          <t>PB00669901</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Xiaomi 15 Conçu avec Leica Blanc (12 Go / 512 Go)1</t>
+          <t>Xiaomi 15 Conçu avec Leica Vert (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -9313,7 +9462,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00669902.html</t>
+          <t>https://www.ldlc.com/fiche/PB00669901.html</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -9458,18 +9607,21 @@
         <v>1119.95</v>
       </c>
       <c r="BD50" t="n">
+        <v>1119.95</v>
+      </c>
+      <c r="BE50" t="n">
         <v>1119.95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PB00669901</t>
+          <t>PB00661911</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Xiaomi 15 Conçu avec Leica Vert (12 Go / 512 Go)</t>
+          <t>Xiaomi MIX Flip Noir1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -9479,175 +9631,178 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00669901.html</t>
+          <t>https://www.ldlc.com/fiche/PB00661911.html</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="J51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="K51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="L51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="M51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="N51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="O51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="P51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="Q51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="R51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="S51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="T51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="U51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="V51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="W51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="X51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="Y51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="Z51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AA51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AB51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AC51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AD51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AE51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AF51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AG51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AH51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AI51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AK51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AL51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AM51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AN51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AO51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AP51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AR51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AS51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AT51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AU51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AV51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AW51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AX51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AY51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="AZ51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="BA51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="BB51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="BC51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
       </c>
       <c r="BD51" t="n">
-        <v>1119.95</v>
+        <v>1299.95</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>1299.95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PB00661911</t>
+          <t>PB00706163</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Xiaomi MIX Flip Noir1</t>
+          <t>Xiaomi 15T Conçu avec Leica Rose (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -9657,7 +9812,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -9669,153 +9824,154 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00661911.html</t>
+          <t>https://www.ldlc.com/fiche/PB00706163.html</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="J52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="K52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="L52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="M52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="N52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="O52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="P52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="Q52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="R52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="S52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="T52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="U52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="V52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="W52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="X52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="Y52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="Z52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AA52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AB52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AC52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AD52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AE52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AF52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AG52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AH52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AI52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AK52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AL52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AM52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AN52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AO52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AP52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AR52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AS52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AT52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AU52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AV52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AW52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AX52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AY52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="AZ52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="BA52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="BB52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="BC52" t="n">
-        <v>1299.95</v>
+        <v>649.95</v>
       </c>
       <c r="BD52" t="n">
-        <v>1299.95</v>
-      </c>
+        <v>649.95</v>
+      </c>
+      <c r="BE52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE52"/>
+  <dimension ref="A1:BF52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,6 +707,11 @@
           <t>2026-02-18 10:39:29</t>
         </is>
       </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>2026-02-18 11:35:22</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -888,6 +893,9 @@
       <c r="BE2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BF2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1069,6 +1077,9 @@
       <c r="BE3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BF3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1250,6 +1261,9 @@
       <c r="BE4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BF4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1431,6 +1445,9 @@
       <c r="BE5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BF5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1612,6 +1629,9 @@
       <c r="BE6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BF6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1793,6 +1813,9 @@
       <c r="BE7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BF7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1974,6 +1997,9 @@
       <c r="BE8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BF8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2155,6 +2181,9 @@
       <c r="BE9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BF9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2340,6 +2369,9 @@
       <c r="BE10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BF10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2525,6 +2557,9 @@
       <c r="BE11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BF11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2710,6 +2745,9 @@
       <c r="BE12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BF12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2895,6 +2933,9 @@
       <c r="BE13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BF13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3076,6 +3117,9 @@
       <c r="BE14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BF14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3257,6 +3301,9 @@
       <c r="BE15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BF15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3438,6 +3485,9 @@
       <c r="BE16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BF16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3619,6 +3669,9 @@
       <c r="BE17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BF17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3804,6 +3857,9 @@
       <c r="BE18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BF18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3989,6 +4045,9 @@
       <c r="BE19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BF19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4170,6 +4229,9 @@
       <c r="BE20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BF20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4351,6 +4413,9 @@
       <c r="BE21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BF21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4536,6 +4601,9 @@
       <c r="BE22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BF22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4721,6 +4789,9 @@
       <c r="BE23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BF23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4906,6 +4977,9 @@
       <c r="BE24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BF24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5087,6 +5161,9 @@
       <c r="BE25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BF25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5268,6 +5345,9 @@
       <c r="BE26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BF26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5449,6 +5529,9 @@
       <c r="BE27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BF27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5630,6 +5713,9 @@
       <c r="BE28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BF28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5811,6 +5897,9 @@
       <c r="BE29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BF29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5992,6 +6081,9 @@
       <c r="BE30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BF30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6173,6 +6265,9 @@
       <c r="BE31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BF31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6354,6 +6449,9 @@
       <c r="BE32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BF32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6535,6 +6633,9 @@
       <c r="BE33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BF33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6716,6 +6817,9 @@
       <c r="BE34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BF34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6897,6 +7001,9 @@
       <c r="BE35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BF35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7078,6 +7185,9 @@
       <c r="BE36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BF36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7259,6 +7369,9 @@
       <c r="BE37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BF37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7440,6 +7553,9 @@
       <c r="BE38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BF38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7621,6 +7737,9 @@
       <c r="BE39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BF39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7802,6 +7921,9 @@
       <c r="BE40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BF40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7983,6 +8105,9 @@
       <c r="BE41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BF41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8164,6 +8289,9 @@
       <c r="BE42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BF42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8345,6 +8473,9 @@
       <c r="BE43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BF43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8526,6 +8657,9 @@
       <c r="BE44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BF44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8707,6 +8841,9 @@
       <c r="BE45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BF45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8888,6 +9025,9 @@
       <c r="BE46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BF46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9069,6 +9209,9 @@
       <c r="BE47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BF47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9250,6 +9393,9 @@
       <c r="BE48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BF48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9431,6 +9577,9 @@
       <c r="BE49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BF49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9612,6 +9761,9 @@
       <c r="BE50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BF50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9793,6 +9945,9 @@
       <c r="BE51" t="n">
         <v>1299.95</v>
       </c>
+      <c r="BF51" t="n">
+        <v>1299.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9972,6 +10127,7 @@
         <v>649.95</v>
       </c>
       <c r="BE52" t="inlineStr"/>
+      <c r="BF52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF52"/>
+  <dimension ref="A1:BG52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>2026-02-18 11:35:22</t>
         </is>
       </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>2026-02-18 12:52:50</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -896,6 +901,9 @@
       <c r="BF2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BG2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1080,6 +1088,9 @@
       <c r="BF3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BG3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1264,6 +1275,9 @@
       <c r="BF4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BG4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1448,6 +1462,9 @@
       <c r="BF5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BG5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1632,6 +1649,9 @@
       <c r="BF6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BG6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1816,6 +1836,9 @@
       <c r="BF7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BG7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2000,6 +2023,9 @@
       <c r="BF8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BG8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2184,6 +2210,9 @@
       <c r="BF9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BG9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2372,6 +2401,9 @@
       <c r="BF10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BG10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2560,6 +2592,9 @@
       <c r="BF11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BG11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2748,6 +2783,9 @@
       <c r="BF12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BG12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2936,6 +2974,9 @@
       <c r="BF13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BG13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3120,6 +3161,9 @@
       <c r="BF14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BG14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3304,6 +3348,9 @@
       <c r="BF15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BG15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3488,6 +3535,9 @@
       <c r="BF16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BG16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3672,6 +3722,9 @@
       <c r="BF17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BG17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3860,6 +3913,9 @@
       <c r="BF18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BG18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4048,6 +4104,9 @@
       <c r="BF19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BG19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4232,6 +4291,9 @@
       <c r="BF20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BG20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4416,6 +4478,9 @@
       <c r="BF21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BG21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4604,6 +4669,9 @@
       <c r="BF22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BG22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4792,6 +4860,9 @@
       <c r="BF23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BG23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4980,6 +5051,9 @@
       <c r="BF24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BG24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5164,6 +5238,9 @@
       <c r="BF25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BG25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5348,6 +5425,9 @@
       <c r="BF26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BG26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5532,6 +5612,9 @@
       <c r="BF27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BG27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5716,6 +5799,9 @@
       <c r="BF28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BG28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5900,6 +5986,9 @@
       <c r="BF29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BG29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6084,6 +6173,9 @@
       <c r="BF30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BG30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6268,6 +6360,9 @@
       <c r="BF31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BG31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6452,6 +6547,9 @@
       <c r="BF32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BG32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6636,6 +6734,9 @@
       <c r="BF33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BG33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6820,6 +6921,9 @@
       <c r="BF34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BG34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7004,6 +7108,9 @@
       <c r="BF35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BG35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7188,6 +7295,9 @@
       <c r="BF36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BG36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7372,6 +7482,9 @@
       <c r="BF37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BG37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7556,6 +7669,9 @@
       <c r="BF38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BG38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7740,6 +7856,9 @@
       <c r="BF39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BG39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7924,6 +8043,9 @@
       <c r="BF40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BG40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8108,6 +8230,9 @@
       <c r="BF41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BG41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8292,6 +8417,9 @@
       <c r="BF42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BG42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8476,6 +8604,9 @@
       <c r="BF43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BG43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8660,6 +8791,9 @@
       <c r="BF44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BG44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8844,6 +8978,9 @@
       <c r="BF45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BG45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9028,6 +9165,9 @@
       <c r="BF46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BG46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9212,6 +9352,9 @@
       <c r="BF47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BG47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9396,6 +9539,9 @@
       <c r="BF48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BG48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9580,6 +9726,9 @@
       <c r="BF49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BG49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9764,6 +9913,9 @@
       <c r="BF50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BG50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9948,6 +10100,9 @@
       <c r="BF51" t="n">
         <v>1299.95</v>
       </c>
+      <c r="BG51" t="n">
+        <v>1299.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10128,6 +10283,7 @@
       </c>
       <c r="BE52" t="inlineStr"/>
       <c r="BF52" t="inlineStr"/>
+      <c r="BG52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG52"/>
+  <dimension ref="A1:BH52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,6 +717,11 @@
           <t>2026-02-18 12:52:50</t>
         </is>
       </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>2026-02-18 14:05:32</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -904,6 +909,9 @@
       <c r="BG2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BH2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1091,6 +1099,9 @@
       <c r="BG3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BH3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1278,6 +1289,9 @@
       <c r="BG4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BH4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1465,6 +1479,9 @@
       <c r="BG5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BH5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1652,6 +1669,9 @@
       <c r="BG6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BH6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1839,6 +1859,9 @@
       <c r="BG7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BH7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2026,6 +2049,9 @@
       <c r="BG8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BH8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2213,6 +2239,9 @@
       <c r="BG9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BH9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2404,6 +2433,9 @@
       <c r="BG10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BH10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2595,6 +2627,9 @@
       <c r="BG11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BH11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2786,6 +2821,9 @@
       <c r="BG12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BH12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2977,6 +3015,9 @@
       <c r="BG13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BH13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3164,6 +3205,9 @@
       <c r="BG14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BH14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3351,6 +3395,9 @@
       <c r="BG15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BH15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3538,6 +3585,9 @@
       <c r="BG16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BH16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3725,6 +3775,9 @@
       <c r="BG17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BH17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3916,6 +3969,9 @@
       <c r="BG18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BH18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4107,6 +4163,9 @@
       <c r="BG19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BH19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4294,6 +4353,9 @@
       <c r="BG20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BH20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4481,6 +4543,9 @@
       <c r="BG21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BH21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4672,6 +4737,9 @@
       <c r="BG22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BH22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4863,6 +4931,9 @@
       <c r="BG23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BH23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5054,6 +5125,9 @@
       <c r="BG24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BH24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5241,6 +5315,9 @@
       <c r="BG25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BH25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5428,6 +5505,9 @@
       <c r="BG26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BH26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5615,6 +5695,9 @@
       <c r="BG27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BH27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5802,6 +5885,9 @@
       <c r="BG28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BH28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5989,6 +6075,9 @@
       <c r="BG29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BH29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6176,6 +6265,9 @@
       <c r="BG30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BH30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6363,6 +6455,9 @@
       <c r="BG31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BH31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6550,6 +6645,9 @@
       <c r="BG32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BH32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6737,6 +6835,9 @@
       <c r="BG33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BH33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6924,6 +7025,9 @@
       <c r="BG34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BH34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7111,6 +7215,9 @@
       <c r="BG35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BH35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7298,6 +7405,9 @@
       <c r="BG36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BH36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7485,6 +7595,9 @@
       <c r="BG37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BH37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7672,6 +7785,9 @@
       <c r="BG38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BH38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7859,6 +7975,9 @@
       <c r="BG39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BH39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8046,6 +8165,9 @@
       <c r="BG40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BH40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8233,6 +8355,9 @@
       <c r="BG41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BH41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8420,6 +8545,9 @@
       <c r="BG42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BH42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8607,6 +8735,9 @@
       <c r="BG43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BH43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8794,6 +8925,9 @@
       <c r="BG44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BH44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8981,6 +9115,9 @@
       <c r="BG45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BH45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9168,6 +9305,9 @@
       <c r="BG46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BH46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9355,6 +9495,9 @@
       <c r="BG47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BH47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9542,6 +9685,9 @@
       <c r="BG48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BH48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9729,6 +9875,9 @@
       <c r="BG49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BH49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9916,6 +10065,9 @@
       <c r="BG50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BH50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10103,6 +10255,9 @@
       <c r="BG51" t="n">
         <v>1299.95</v>
       </c>
+      <c r="BH51" t="n">
+        <v>1299.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10284,6 +10439,7 @@
       <c r="BE52" t="inlineStr"/>
       <c r="BF52" t="inlineStr"/>
       <c r="BG52" t="inlineStr"/>
+      <c r="BH52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH52"/>
+  <dimension ref="A1:BI52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,11 @@
           <t>2026-02-18 14:05:32</t>
         </is>
       </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>2026-02-18 15:45:22</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -912,6 +917,9 @@
       <c r="BH2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BI2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1102,6 +1110,9 @@
       <c r="BH3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BI3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1292,6 +1303,9 @@
       <c r="BH4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BI4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1482,6 +1496,9 @@
       <c r="BH5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BI5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1672,6 +1689,9 @@
       <c r="BH6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BI6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1862,6 +1882,9 @@
       <c r="BH7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BI7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2052,6 +2075,9 @@
       <c r="BH8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BI8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2242,6 +2268,9 @@
       <c r="BH9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BI9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2436,6 +2465,9 @@
       <c r="BH10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BI10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2630,6 +2662,9 @@
       <c r="BH11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BI11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2824,6 +2859,9 @@
       <c r="BH12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BI12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3018,6 +3056,9 @@
       <c r="BH13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BI13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3208,6 +3249,9 @@
       <c r="BH14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BI14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3398,6 +3442,9 @@
       <c r="BH15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BI15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3588,6 +3635,9 @@
       <c r="BH16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BI16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3778,6 +3828,9 @@
       <c r="BH17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BI17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3972,6 +4025,9 @@
       <c r="BH18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BI18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4166,6 +4222,9 @@
       <c r="BH19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BI19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4356,6 +4415,9 @@
       <c r="BH20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BI20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4546,6 +4608,9 @@
       <c r="BH21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BI21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4740,6 +4805,9 @@
       <c r="BH22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BI22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4934,6 +5002,9 @@
       <c r="BH23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BI23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5128,6 +5199,9 @@
       <c r="BH24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BI24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5318,6 +5392,9 @@
       <c r="BH25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BI25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5508,6 +5585,9 @@
       <c r="BH26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BI26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5698,6 +5778,9 @@
       <c r="BH27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BI27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5888,6 +5971,9 @@
       <c r="BH28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BI28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6078,6 +6164,9 @@
       <c r="BH29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BI29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6268,6 +6357,9 @@
       <c r="BH30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BI30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6458,6 +6550,9 @@
       <c r="BH31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BI31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6648,6 +6743,9 @@
       <c r="BH32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BI32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6838,6 +6936,9 @@
       <c r="BH33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BI33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7028,6 +7129,9 @@
       <c r="BH34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BI34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7218,6 +7322,9 @@
       <c r="BH35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BI35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7408,6 +7515,9 @@
       <c r="BH36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BI36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7598,6 +7708,9 @@
       <c r="BH37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BI37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7788,6 +7901,9 @@
       <c r="BH38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BI38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7978,6 +8094,9 @@
       <c r="BH39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BI39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8168,6 +8287,9 @@
       <c r="BH40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BI40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8358,6 +8480,9 @@
       <c r="BH41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BI41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8548,6 +8673,9 @@
       <c r="BH42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BI42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8738,6 +8866,9 @@
       <c r="BH43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BI43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8928,6 +9059,9 @@
       <c r="BH44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BI44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9118,6 +9252,9 @@
       <c r="BH45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BI45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9308,6 +9445,9 @@
       <c r="BH46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BI46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9498,6 +9638,9 @@
       <c r="BH47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BI47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9688,6 +9831,9 @@
       <c r="BH48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BI48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9878,6 +10024,9 @@
       <c r="BH49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BI49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10068,6 +10217,9 @@
       <c r="BH50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BI50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10256,6 +10408,9 @@
         <v>1299.95</v>
       </c>
       <c r="BH51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BI51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -10440,6 +10595,7 @@
       <c r="BF52" t="inlineStr"/>
       <c r="BG52" t="inlineStr"/>
       <c r="BH52" t="inlineStr"/>
+      <c r="BI52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI52"/>
+  <dimension ref="A1:BJ52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,6 +727,11 @@
           <t>2026-02-18 15:45:22</t>
         </is>
       </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>2026-02-18 16:57:45</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -920,6 +925,9 @@
       <c r="BI2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BJ2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1113,6 +1121,9 @@
       <c r="BI3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BJ3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1306,6 +1317,9 @@
       <c r="BI4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BJ4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1499,6 +1513,9 @@
       <c r="BI5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BJ5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1692,6 +1709,9 @@
       <c r="BI6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BJ6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1885,6 +1905,9 @@
       <c r="BI7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BJ7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2078,6 +2101,9 @@
       <c r="BI8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BJ8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2271,6 +2297,9 @@
       <c r="BI9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BJ9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2468,6 +2497,9 @@
       <c r="BI10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BJ10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2665,6 +2697,9 @@
       <c r="BI11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BJ11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2862,6 +2897,9 @@
       <c r="BI12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BJ12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3059,6 +3097,9 @@
       <c r="BI13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BJ13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3252,6 +3293,9 @@
       <c r="BI14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BJ14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3445,6 +3489,9 @@
       <c r="BI15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BJ15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3638,6 +3685,9 @@
       <c r="BI16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BJ16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3831,6 +3881,9 @@
       <c r="BI17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BJ17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4028,6 +4081,9 @@
       <c r="BI18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BJ18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4225,6 +4281,9 @@
       <c r="BI19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BJ19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4418,6 +4477,9 @@
       <c r="BI20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BJ20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4611,6 +4673,9 @@
       <c r="BI21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BJ21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4808,6 +4873,9 @@
       <c r="BI22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BJ22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5005,6 +5073,9 @@
       <c r="BI23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BJ23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5202,6 +5273,9 @@
       <c r="BI24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BJ24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5395,6 +5469,9 @@
       <c r="BI25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BJ25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5588,6 +5665,9 @@
       <c r="BI26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BJ26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5781,6 +5861,9 @@
       <c r="BI27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BJ27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5974,6 +6057,9 @@
       <c r="BI28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BJ28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6167,6 +6253,9 @@
       <c r="BI29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BJ29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6360,6 +6449,9 @@
       <c r="BI30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BJ30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6553,6 +6645,9 @@
       <c r="BI31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BJ31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6746,6 +6841,9 @@
       <c r="BI32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BJ32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6939,6 +7037,9 @@
       <c r="BI33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BJ33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7132,6 +7233,9 @@
       <c r="BI34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BJ34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7325,6 +7429,9 @@
       <c r="BI35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BJ35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7518,6 +7625,9 @@
       <c r="BI36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BJ36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7711,6 +7821,9 @@
       <c r="BI37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BJ37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7904,6 +8017,9 @@
       <c r="BI38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BJ38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8097,6 +8213,9 @@
       <c r="BI39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BJ39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8290,6 +8409,9 @@
       <c r="BI40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BJ40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8483,6 +8605,9 @@
       <c r="BI41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BJ41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8676,6 +8801,9 @@
       <c r="BI42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BJ42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8869,6 +8997,9 @@
       <c r="BI43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BJ43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9062,6 +9193,9 @@
       <c r="BI44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BJ44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9255,6 +9389,9 @@
       <c r="BI45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BJ45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9448,6 +9585,9 @@
       <c r="BI46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BJ46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9641,6 +9781,9 @@
       <c r="BI47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BJ47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9834,6 +9977,9 @@
       <c r="BI48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BJ48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10027,6 +10173,9 @@
       <c r="BI49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BJ49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10220,6 +10369,9 @@
       <c r="BI50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BJ50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10411,6 +10563,9 @@
         <v>1299.95</v>
       </c>
       <c r="BI51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BJ51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -10596,6 +10751,7 @@
       <c r="BG52" t="inlineStr"/>
       <c r="BH52" t="inlineStr"/>
       <c r="BI52" t="inlineStr"/>
+      <c r="BJ52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ52"/>
+  <dimension ref="A1:BK52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,6 +732,11 @@
           <t>2026-02-18 16:57:45</t>
         </is>
       </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t>2026-02-18 17:52:26</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -928,6 +933,9 @@
       <c r="BJ2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BK2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1124,6 +1132,9 @@
       <c r="BJ3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BK3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1320,6 +1331,9 @@
       <c r="BJ4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BK4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1516,6 +1530,9 @@
       <c r="BJ5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BK5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1712,6 +1729,9 @@
       <c r="BJ6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BK6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1908,6 +1928,9 @@
       <c r="BJ7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BK7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2104,6 +2127,9 @@
       <c r="BJ8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BK8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2300,6 +2326,9 @@
       <c r="BJ9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BK9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2500,6 +2529,9 @@
       <c r="BJ10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BK10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2700,6 +2732,9 @@
       <c r="BJ11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BK11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2900,6 +2935,9 @@
       <c r="BJ12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BK12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3100,6 +3138,9 @@
       <c r="BJ13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BK13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3296,6 +3337,9 @@
       <c r="BJ14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BK14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3492,6 +3536,9 @@
       <c r="BJ15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BK15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3688,6 +3735,9 @@
       <c r="BJ16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BK16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3884,6 +3934,9 @@
       <c r="BJ17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BK17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4084,6 +4137,9 @@
       <c r="BJ18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BK18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4284,6 +4340,9 @@
       <c r="BJ19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BK19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4480,6 +4539,9 @@
       <c r="BJ20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BK20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4676,6 +4738,9 @@
       <c r="BJ21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BK21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4876,6 +4941,9 @@
       <c r="BJ22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BK22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5076,6 +5144,9 @@
       <c r="BJ23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BK23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5276,6 +5347,9 @@
       <c r="BJ24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BK24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5472,6 +5546,9 @@
       <c r="BJ25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BK25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5668,6 +5745,9 @@
       <c r="BJ26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BK26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5864,6 +5944,9 @@
       <c r="BJ27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BK27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6060,6 +6143,9 @@
       <c r="BJ28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BK28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6256,6 +6342,9 @@
       <c r="BJ29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BK29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6452,6 +6541,9 @@
       <c r="BJ30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BK30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6648,6 +6740,9 @@
       <c r="BJ31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BK31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6844,6 +6939,9 @@
       <c r="BJ32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BK32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7040,6 +7138,9 @@
       <c r="BJ33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BK33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7236,6 +7337,9 @@
       <c r="BJ34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BK34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7432,6 +7536,9 @@
       <c r="BJ35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BK35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7628,6 +7735,9 @@
       <c r="BJ36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BK36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7824,6 +7934,9 @@
       <c r="BJ37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BK37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8020,6 +8133,9 @@
       <c r="BJ38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BK38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8216,6 +8332,9 @@
       <c r="BJ39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BK39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8412,6 +8531,9 @@
       <c r="BJ40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BK40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8608,6 +8730,9 @@
       <c r="BJ41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BK41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8804,6 +8929,9 @@
       <c r="BJ42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BK42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9000,6 +9128,9 @@
       <c r="BJ43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BK43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9196,6 +9327,9 @@
       <c r="BJ44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BK44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9392,6 +9526,9 @@
       <c r="BJ45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BK45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9588,6 +9725,9 @@
       <c r="BJ46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BK46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9784,6 +9924,9 @@
       <c r="BJ47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BK47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9980,6 +10123,9 @@
       <c r="BJ48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BK48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10176,6 +10322,9 @@
       <c r="BJ49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BK49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10372,6 +10521,9 @@
       <c r="BJ50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BK50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10566,6 +10718,9 @@
         <v>1299.95</v>
       </c>
       <c r="BJ51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BK51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -10752,6 +10907,7 @@
       <c r="BH52" t="inlineStr"/>
       <c r="BI52" t="inlineStr"/>
       <c r="BJ52" t="inlineStr"/>
+      <c r="BK52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK52"/>
+  <dimension ref="A1:BL52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,11 @@
           <t>2026-02-18 17:52:26</t>
         </is>
       </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>2026-02-18 18:44:54</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -936,6 +941,9 @@
       <c r="BK2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BL2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1135,6 +1143,9 @@
       <c r="BK3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BL3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1334,6 +1345,9 @@
       <c r="BK4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BL4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1533,6 +1547,9 @@
       <c r="BK5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BL5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1732,6 +1749,9 @@
       <c r="BK6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BL6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1931,6 +1951,9 @@
       <c r="BK7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BL7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2130,6 +2153,9 @@
       <c r="BK8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BL8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2329,6 +2355,9 @@
       <c r="BK9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BL9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2532,6 +2561,9 @@
       <c r="BK10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BL10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2735,6 +2767,9 @@
       <c r="BK11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BL11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2938,6 +2973,9 @@
       <c r="BK12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BL12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3141,6 +3179,9 @@
       <c r="BK13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BL13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3340,6 +3381,9 @@
       <c r="BK14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BL14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3539,6 +3583,9 @@
       <c r="BK15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BL15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3738,6 +3785,9 @@
       <c r="BK16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BL16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3937,6 +3987,9 @@
       <c r="BK17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BL17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4140,6 +4193,9 @@
       <c r="BK18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BL18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4343,6 +4399,9 @@
       <c r="BK19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BL19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4542,6 +4601,9 @@
       <c r="BK20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BL20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4741,6 +4803,9 @@
       <c r="BK21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BL21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4944,6 +5009,9 @@
       <c r="BK22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BL22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5147,6 +5215,9 @@
       <c r="BK23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BL23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5350,6 +5421,9 @@
       <c r="BK24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BL24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5549,6 +5623,9 @@
       <c r="BK25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BL25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5748,6 +5825,9 @@
       <c r="BK26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BL26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5947,6 +6027,9 @@
       <c r="BK27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BL27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6146,6 +6229,9 @@
       <c r="BK28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BL28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6345,6 +6431,9 @@
       <c r="BK29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BL29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6544,6 +6633,9 @@
       <c r="BK30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BL30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6743,6 +6835,9 @@
       <c r="BK31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BL31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6942,6 +7037,9 @@
       <c r="BK32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BL32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7141,6 +7239,9 @@
       <c r="BK33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BL33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7340,6 +7441,9 @@
       <c r="BK34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BL34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7539,6 +7643,9 @@
       <c r="BK35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BL35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7738,6 +7845,9 @@
       <c r="BK36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BL36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7937,6 +8047,9 @@
       <c r="BK37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BL37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8136,6 +8249,9 @@
       <c r="BK38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BL38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8335,6 +8451,9 @@
       <c r="BK39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BL39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8534,6 +8653,9 @@
       <c r="BK40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BL40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8733,6 +8855,9 @@
       <c r="BK41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BL41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8932,6 +9057,9 @@
       <c r="BK42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BL42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9131,6 +9259,9 @@
       <c r="BK43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BL43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9330,6 +9461,9 @@
       <c r="BK44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BL44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9529,6 +9663,9 @@
       <c r="BK45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BL45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9728,6 +9865,9 @@
       <c r="BK46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BL46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9927,6 +10067,9 @@
       <c r="BK47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BL47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10126,6 +10269,9 @@
       <c r="BK48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BL48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10325,6 +10471,9 @@
       <c r="BK49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BL49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10524,6 +10673,9 @@
       <c r="BK50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BL50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10721,6 +10873,9 @@
         <v>1299.95</v>
       </c>
       <c r="BK51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BL51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -10908,6 +11063,7 @@
       <c r="BI52" t="inlineStr"/>
       <c r="BJ52" t="inlineStr"/>
       <c r="BK52" t="inlineStr"/>
+      <c r="BL52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BL52"/>
+  <dimension ref="A1:BM52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,6 +742,11 @@
           <t>2026-02-18 18:44:54</t>
         </is>
       </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>2026-02-18 19:44:21</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -944,6 +949,9 @@
       <c r="BL2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BM2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1146,6 +1154,9 @@
       <c r="BL3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BM3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1348,6 +1359,9 @@
       <c r="BL4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BM4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1550,6 +1564,9 @@
       <c r="BL5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BM5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1752,6 +1769,9 @@
       <c r="BL6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BM6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1954,6 +1974,9 @@
       <c r="BL7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BM7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2156,6 +2179,9 @@
       <c r="BL8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BM8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2358,6 +2384,9 @@
       <c r="BL9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BM9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2564,6 +2593,9 @@
       <c r="BL10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BM10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2770,6 +2802,9 @@
       <c r="BL11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BM11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2976,6 +3011,9 @@
       <c r="BL12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BM12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3182,6 +3220,9 @@
       <c r="BL13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BM13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3384,6 +3425,9 @@
       <c r="BL14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BM14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3586,6 +3630,9 @@
       <c r="BL15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BM15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3788,6 +3835,9 @@
       <c r="BL16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BM16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3990,6 +4040,9 @@
       <c r="BL17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BM17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4196,6 +4249,9 @@
       <c r="BL18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BM18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4402,6 +4458,9 @@
       <c r="BL19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BM19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4604,6 +4663,9 @@
       <c r="BL20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BM20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4806,6 +4868,9 @@
       <c r="BL21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BM21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5012,6 +5077,9 @@
       <c r="BL22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BM22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5218,6 +5286,9 @@
       <c r="BL23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BM23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5424,6 +5495,9 @@
       <c r="BL24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BM24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5626,6 +5700,9 @@
       <c r="BL25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BM25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5828,6 +5905,9 @@
       <c r="BL26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BM26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6030,6 +6110,9 @@
       <c r="BL27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BM27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6232,6 +6315,9 @@
       <c r="BL28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BM28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6434,6 +6520,9 @@
       <c r="BL29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BM29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6636,6 +6725,9 @@
       <c r="BL30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BM30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6838,6 +6930,9 @@
       <c r="BL31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BM31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7040,6 +7135,9 @@
       <c r="BL32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BM32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7242,6 +7340,9 @@
       <c r="BL33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BM33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7444,6 +7545,9 @@
       <c r="BL34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BM34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7646,6 +7750,9 @@
       <c r="BL35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BM35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7848,6 +7955,9 @@
       <c r="BL36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BM36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8050,6 +8160,9 @@
       <c r="BL37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BM37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8252,6 +8365,9 @@
       <c r="BL38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BM38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8454,6 +8570,9 @@
       <c r="BL39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BM39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8656,6 +8775,9 @@
       <c r="BL40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BM40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8858,6 +8980,9 @@
       <c r="BL41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BM41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9060,6 +9185,9 @@
       <c r="BL42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BM42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9262,6 +9390,9 @@
       <c r="BL43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BM43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9464,6 +9595,9 @@
       <c r="BL44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BM44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9666,6 +9800,9 @@
       <c r="BL45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BM45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9868,6 +10005,9 @@
       <c r="BL46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BM46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10070,6 +10210,9 @@
       <c r="BL47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BM47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10272,6 +10415,9 @@
       <c r="BL48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BM48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10474,6 +10620,9 @@
       <c r="BL49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BM49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10676,6 +10825,9 @@
       <c r="BL50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BM50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10876,6 +11028,9 @@
         <v>1299.95</v>
       </c>
       <c r="BL51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BM51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -11064,6 +11219,7 @@
       <c r="BJ52" t="inlineStr"/>
       <c r="BK52" t="inlineStr"/>
       <c r="BL52" t="inlineStr"/>
+      <c r="BM52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM52"/>
+  <dimension ref="A1:BN52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,6 +747,11 @@
           <t>2026-02-18 19:44:21</t>
         </is>
       </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t>2026-02-18 20:33:33</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -952,6 +957,9 @@
       <c r="BM2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BN2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1157,6 +1165,9 @@
       <c r="BM3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BN3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1362,6 +1373,9 @@
       <c r="BM4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BN4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1567,6 +1581,9 @@
       <c r="BM5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BN5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1772,6 +1789,9 @@
       <c r="BM6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BN6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1977,6 +1997,9 @@
       <c r="BM7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BN7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2182,6 +2205,9 @@
       <c r="BM8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BN8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2387,6 +2413,9 @@
       <c r="BM9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BN9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2596,6 +2625,9 @@
       <c r="BM10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BN10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2805,6 +2837,9 @@
       <c r="BM11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BN11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3014,6 +3049,9 @@
       <c r="BM12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BN12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3223,6 +3261,9 @@
       <c r="BM13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BN13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3428,6 +3469,9 @@
       <c r="BM14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BN14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3633,6 +3677,9 @@
       <c r="BM15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BN15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3838,6 +3885,9 @@
       <c r="BM16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BN16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4043,6 +4093,9 @@
       <c r="BM17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BN17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4252,6 +4305,9 @@
       <c r="BM18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BN18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4461,6 +4517,9 @@
       <c r="BM19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BN19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4666,6 +4725,9 @@
       <c r="BM20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BN20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4871,6 +4933,9 @@
       <c r="BM21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BN21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5080,6 +5145,9 @@
       <c r="BM22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BN22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5289,6 +5357,9 @@
       <c r="BM23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BN23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5498,6 +5569,9 @@
       <c r="BM24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BN24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5703,6 +5777,9 @@
       <c r="BM25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BN25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5908,6 +5985,9 @@
       <c r="BM26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BN26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6113,6 +6193,9 @@
       <c r="BM27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BN27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6318,6 +6401,9 @@
       <c r="BM28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BN28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6523,6 +6609,9 @@
       <c r="BM29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BN29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6728,6 +6817,9 @@
       <c r="BM30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BN30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6933,6 +7025,9 @@
       <c r="BM31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BN31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7138,6 +7233,9 @@
       <c r="BM32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BN32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7343,6 +7441,9 @@
       <c r="BM33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BN33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7548,6 +7649,9 @@
       <c r="BM34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BN34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7753,6 +7857,9 @@
       <c r="BM35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BN35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7958,6 +8065,9 @@
       <c r="BM36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BN36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8163,6 +8273,9 @@
       <c r="BM37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BN37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8368,6 +8481,9 @@
       <c r="BM38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BN38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8573,6 +8689,9 @@
       <c r="BM39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BN39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8778,6 +8897,9 @@
       <c r="BM40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BN40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8983,6 +9105,9 @@
       <c r="BM41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BN41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9188,6 +9313,9 @@
       <c r="BM42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BN42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9393,6 +9521,9 @@
       <c r="BM43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BN43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9598,6 +9729,9 @@
       <c r="BM44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BN44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9803,6 +9937,9 @@
       <c r="BM45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BN45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10008,6 +10145,9 @@
       <c r="BM46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BN46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10213,6 +10353,9 @@
       <c r="BM47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BN47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10418,6 +10561,9 @@
       <c r="BM48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BN48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10623,6 +10769,9 @@
       <c r="BM49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BN49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10828,6 +10977,9 @@
       <c r="BM50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BN50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11031,6 +11183,9 @@
         <v>1299.95</v>
       </c>
       <c r="BM51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BN51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -11220,6 +11375,7 @@
       <c r="BK52" t="inlineStr"/>
       <c r="BL52" t="inlineStr"/>
       <c r="BM52" t="inlineStr"/>
+      <c r="BN52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN52"/>
+  <dimension ref="A1:BO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,6 +752,11 @@
           <t>2026-02-18 20:33:33</t>
         </is>
       </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>2026-02-18 21:31:16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -960,6 +965,9 @@
       <c r="BN2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BO2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1168,6 +1176,9 @@
       <c r="BN3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BO3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1376,6 +1387,9 @@
       <c r="BN4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BO4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1584,6 +1598,9 @@
       <c r="BN5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BO5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1792,6 +1809,9 @@
       <c r="BN6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BO6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2000,6 +2020,9 @@
       <c r="BN7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BO7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2208,6 +2231,9 @@
       <c r="BN8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BO8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2416,6 +2442,9 @@
       <c r="BN9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BO9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2628,6 +2657,9 @@
       <c r="BN10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BO10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2840,6 +2872,9 @@
       <c r="BN11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BO11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3052,6 +3087,9 @@
       <c r="BN12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BO12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3264,6 +3302,9 @@
       <c r="BN13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BO13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3472,6 +3513,9 @@
       <c r="BN14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BO14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3680,6 +3724,9 @@
       <c r="BN15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BO15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3888,6 +3935,9 @@
       <c r="BN16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BO16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4096,6 +4146,9 @@
       <c r="BN17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BO17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4308,6 +4361,9 @@
       <c r="BN18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BO18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4520,6 +4576,9 @@
       <c r="BN19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BO19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4728,6 +4787,9 @@
       <c r="BN20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BO20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4936,6 +4998,9 @@
       <c r="BN21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BO21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5148,6 +5213,9 @@
       <c r="BN22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BO22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5360,6 +5428,9 @@
       <c r="BN23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BO23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5572,6 +5643,9 @@
       <c r="BN24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BO24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5780,6 +5854,9 @@
       <c r="BN25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BO25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5988,6 +6065,9 @@
       <c r="BN26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BO26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6196,6 +6276,9 @@
       <c r="BN27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BO27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6404,6 +6487,9 @@
       <c r="BN28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BO28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6612,6 +6698,9 @@
       <c r="BN29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BO29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6820,6 +6909,9 @@
       <c r="BN30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BO30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7028,6 +7120,9 @@
       <c r="BN31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BO31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7236,6 +7331,9 @@
       <c r="BN32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BO32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7444,6 +7542,9 @@
       <c r="BN33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BO33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7652,6 +7753,9 @@
       <c r="BN34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BO34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7860,6 +7964,9 @@
       <c r="BN35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BO35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8068,6 +8175,9 @@
       <c r="BN36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BO36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8276,6 +8386,9 @@
       <c r="BN37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BO37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8484,6 +8597,9 @@
       <c r="BN38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BO38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8692,6 +8808,9 @@
       <c r="BN39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BO39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8900,6 +9019,9 @@
       <c r="BN40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BO40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9108,6 +9230,9 @@
       <c r="BN41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BO41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9316,6 +9441,9 @@
       <c r="BN42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BO42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9524,6 +9652,9 @@
       <c r="BN43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BO43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9732,6 +9863,9 @@
       <c r="BN44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BO44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9940,6 +10074,9 @@
       <c r="BN45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BO45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10148,6 +10285,9 @@
       <c r="BN46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BO46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10356,6 +10496,9 @@
       <c r="BN47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BO47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10564,6 +10707,9 @@
       <c r="BN48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BO48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10772,6 +10918,9 @@
       <c r="BN49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BO49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10980,6 +11129,9 @@
       <c r="BN50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BO50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11186,6 +11338,9 @@
         <v>1299.95</v>
       </c>
       <c r="BN51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BO51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -11376,6 +11531,7 @@
       <c r="BL52" t="inlineStr"/>
       <c r="BM52" t="inlineStr"/>
       <c r="BN52" t="inlineStr"/>
+      <c r="BO52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO52"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,6 +757,11 @@
           <t>2026-02-18 21:31:16</t>
         </is>
       </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t>2026-02-18 22:28:06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -968,6 +973,9 @@
       <c r="BO2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BP2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1179,6 +1187,9 @@
       <c r="BO3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BP3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1390,6 +1401,9 @@
       <c r="BO4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BP4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1601,6 +1615,9 @@
       <c r="BO5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BP5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1812,6 +1829,9 @@
       <c r="BO6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BP6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2023,6 +2043,9 @@
       <c r="BO7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BP7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2234,6 +2257,9 @@
       <c r="BO8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BP8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2445,6 +2471,9 @@
       <c r="BO9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BP9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2660,6 +2689,9 @@
       <c r="BO10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BP10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2875,6 +2907,9 @@
       <c r="BO11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BP11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3090,6 +3125,9 @@
       <c r="BO12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BP12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3305,6 +3343,9 @@
       <c r="BO13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BP13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3516,6 +3557,9 @@
       <c r="BO14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BP14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3727,6 +3771,9 @@
       <c r="BO15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BP15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3938,6 +3985,9 @@
       <c r="BO16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BP16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4149,6 +4199,9 @@
       <c r="BO17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BP17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4364,6 +4417,9 @@
       <c r="BO18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BP18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4579,6 +4635,9 @@
       <c r="BO19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BP19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4790,6 +4849,9 @@
       <c r="BO20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BP20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5001,6 +5063,9 @@
       <c r="BO21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BP21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5216,6 +5281,9 @@
       <c r="BO22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BP22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5431,6 +5499,9 @@
       <c r="BO23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BP23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5646,6 +5717,9 @@
       <c r="BO24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BP24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5857,6 +5931,9 @@
       <c r="BO25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BP25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6068,6 +6145,9 @@
       <c r="BO26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BP26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6279,6 +6359,9 @@
       <c r="BO27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BP27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6490,6 +6573,9 @@
       <c r="BO28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BP28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6701,6 +6787,9 @@
       <c r="BO29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BP29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6912,6 +7001,9 @@
       <c r="BO30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BP30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7123,6 +7215,9 @@
       <c r="BO31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BP31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7334,6 +7429,9 @@
       <c r="BO32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BP32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7545,6 +7643,9 @@
       <c r="BO33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BP33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7756,6 +7857,9 @@
       <c r="BO34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BP34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7967,6 +8071,9 @@
       <c r="BO35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BP35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8178,6 +8285,9 @@
       <c r="BO36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BP36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8389,6 +8499,9 @@
       <c r="BO37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BP37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8600,6 +8713,9 @@
       <c r="BO38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BP38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8811,6 +8927,9 @@
       <c r="BO39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BP39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9022,6 +9141,9 @@
       <c r="BO40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BP40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9233,6 +9355,9 @@
       <c r="BO41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BP41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9444,6 +9569,9 @@
       <c r="BO42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BP42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9655,6 +9783,9 @@
       <c r="BO43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BP43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9866,6 +9997,9 @@
       <c r="BO44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BP44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10077,6 +10211,9 @@
       <c r="BO45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BP45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10288,6 +10425,9 @@
       <c r="BO46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BP46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10499,6 +10639,9 @@
       <c r="BO47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BP47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10710,6 +10853,9 @@
       <c r="BO48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BP48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10921,6 +11067,9 @@
       <c r="BO49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BP49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11132,6 +11281,9 @@
       <c r="BO50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BP50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11341,6 +11493,9 @@
         <v>1299.95</v>
       </c>
       <c r="BO51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BP51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -11532,6 +11687,7 @@
       <c r="BM52" t="inlineStr"/>
       <c r="BN52" t="inlineStr"/>
       <c r="BO52" t="inlineStr"/>
+      <c r="BP52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BQ52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,6 +762,11 @@
           <t>2026-02-18 22:28:06</t>
         </is>
       </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t>2026-02-18 23:25:06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -976,6 +981,9 @@
       <c r="BP2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BQ2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1190,6 +1198,9 @@
       <c r="BP3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BQ3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1404,6 +1415,9 @@
       <c r="BP4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BQ4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1618,6 +1632,9 @@
       <c r="BP5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BQ5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1832,6 +1849,9 @@
       <c r="BP6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BQ6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2046,6 +2066,9 @@
       <c r="BP7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BQ7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2260,6 +2283,9 @@
       <c r="BP8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BQ8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2474,6 +2500,9 @@
       <c r="BP9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BQ9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2692,6 +2721,9 @@
       <c r="BP10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BQ10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2910,6 +2942,9 @@
       <c r="BP11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BQ11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3128,6 +3163,9 @@
       <c r="BP12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BQ12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3346,6 +3384,9 @@
       <c r="BP13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BQ13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3560,6 +3601,9 @@
       <c r="BP14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BQ14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3774,6 +3818,9 @@
       <c r="BP15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BQ15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3988,6 +4035,9 @@
       <c r="BP16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BQ16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4202,6 +4252,9 @@
       <c r="BP17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BQ17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4420,6 +4473,9 @@
       <c r="BP18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BQ18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4638,6 +4694,9 @@
       <c r="BP19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BQ19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4852,6 +4911,9 @@
       <c r="BP20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BQ20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5066,6 +5128,9 @@
       <c r="BP21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BQ21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5284,6 +5349,9 @@
       <c r="BP22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BQ22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5502,6 +5570,9 @@
       <c r="BP23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BQ23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5720,6 +5791,9 @@
       <c r="BP24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BQ24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5934,6 +6008,9 @@
       <c r="BP25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BQ25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6148,6 +6225,9 @@
       <c r="BP26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BQ26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6362,6 +6442,9 @@
       <c r="BP27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BQ27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6576,6 +6659,9 @@
       <c r="BP28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BQ28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6790,6 +6876,9 @@
       <c r="BP29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BQ29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7004,6 +7093,9 @@
       <c r="BP30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BQ30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7218,6 +7310,9 @@
       <c r="BP31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BQ31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7432,6 +7527,9 @@
       <c r="BP32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BQ32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7646,6 +7744,9 @@
       <c r="BP33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BQ33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7860,6 +7961,9 @@
       <c r="BP34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BQ34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8074,6 +8178,9 @@
       <c r="BP35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BQ35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8288,6 +8395,9 @@
       <c r="BP36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BQ36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8502,6 +8612,9 @@
       <c r="BP37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BQ37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8716,6 +8829,9 @@
       <c r="BP38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BQ38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8930,6 +9046,9 @@
       <c r="BP39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BQ39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9144,6 +9263,9 @@
       <c r="BP40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BQ40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9358,6 +9480,9 @@
       <c r="BP41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BQ41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9572,6 +9697,9 @@
       <c r="BP42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BQ42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9786,6 +9914,9 @@
       <c r="BP43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BQ43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10000,6 +10131,9 @@
       <c r="BP44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BQ44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10214,6 +10348,9 @@
       <c r="BP45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BQ45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10428,6 +10565,9 @@
       <c r="BP46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BQ46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10642,6 +10782,9 @@
       <c r="BP47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BQ47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10856,6 +10999,9 @@
       <c r="BP48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BQ48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11070,6 +11216,9 @@
       <c r="BP49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BQ49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11284,6 +11433,9 @@
       <c r="BP50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BQ50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11496,6 +11648,9 @@
         <v>1299.95</v>
       </c>
       <c r="BP51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BQ51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -11688,6 +11843,7 @@
       <c r="BN52" t="inlineStr"/>
       <c r="BO52" t="inlineStr"/>
       <c r="BP52" t="inlineStr"/>
+      <c r="BQ52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ52"/>
+  <dimension ref="A1:BR52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -767,6 +767,11 @@
           <t>2026-02-18 23:25:06</t>
         </is>
       </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t>2026-02-19 01:45:03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -984,6 +989,9 @@
       <c r="BQ2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BR2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1201,6 +1209,9 @@
       <c r="BQ3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BR3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1418,6 +1429,9 @@
       <c r="BQ4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BR4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1635,6 +1649,9 @@
       <c r="BQ5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BR5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1852,6 +1869,9 @@
       <c r="BQ6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BR6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2069,6 +2089,9 @@
       <c r="BQ7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BR7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2286,6 +2309,9 @@
       <c r="BQ8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BR8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2503,6 +2529,9 @@
       <c r="BQ9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BR9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2724,6 +2753,9 @@
       <c r="BQ10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BR10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2945,6 +2977,9 @@
       <c r="BQ11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BR11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3166,6 +3201,9 @@
       <c r="BQ12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BR12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3387,6 +3425,9 @@
       <c r="BQ13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BR13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3604,6 +3645,9 @@
       <c r="BQ14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BR14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3821,6 +3865,9 @@
       <c r="BQ15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BR15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4038,6 +4085,9 @@
       <c r="BQ16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BR16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4255,6 +4305,9 @@
       <c r="BQ17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BR17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4476,6 +4529,9 @@
       <c r="BQ18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BR18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4697,6 +4753,9 @@
       <c r="BQ19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BR19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4914,6 +4973,9 @@
       <c r="BQ20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BR20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5131,6 +5193,9 @@
       <c r="BQ21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BR21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5352,6 +5417,9 @@
       <c r="BQ22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BR22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5573,6 +5641,9 @@
       <c r="BQ23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BR23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5794,6 +5865,9 @@
       <c r="BQ24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BR24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6011,6 +6085,9 @@
       <c r="BQ25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BR25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6228,6 +6305,9 @@
       <c r="BQ26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BR26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6445,6 +6525,9 @@
       <c r="BQ27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BR27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6662,6 +6745,9 @@
       <c r="BQ28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BR28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6879,6 +6965,9 @@
       <c r="BQ29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BR29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7096,6 +7185,9 @@
       <c r="BQ30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BR30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7313,6 +7405,9 @@
       <c r="BQ31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BR31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7530,6 +7625,9 @@
       <c r="BQ32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BR32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7747,6 +7845,9 @@
       <c r="BQ33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BR33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7964,6 +8065,9 @@
       <c r="BQ34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BR34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8181,6 +8285,9 @@
       <c r="BQ35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BR35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8398,6 +8505,9 @@
       <c r="BQ36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BR36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8615,6 +8725,9 @@
       <c r="BQ37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BR37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8832,6 +8945,9 @@
       <c r="BQ38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BR38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9049,6 +9165,9 @@
       <c r="BQ39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BR39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9266,6 +9385,9 @@
       <c r="BQ40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BR40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9483,6 +9605,9 @@
       <c r="BQ41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BR41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9700,6 +9825,9 @@
       <c r="BQ42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BR42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9917,6 +10045,9 @@
       <c r="BQ43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BR43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10134,6 +10265,9 @@
       <c r="BQ44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BR44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10351,6 +10485,9 @@
       <c r="BQ45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BR45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10568,6 +10705,9 @@
       <c r="BQ46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BR46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10785,6 +10925,9 @@
       <c r="BQ47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BR47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11002,6 +11145,9 @@
       <c r="BQ48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BR48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11219,6 +11365,9 @@
       <c r="BQ49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BR49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11436,6 +11585,9 @@
       <c r="BQ50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BR50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11651,6 +11803,9 @@
         <v>1299.95</v>
       </c>
       <c r="BQ51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BR51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -11844,6 +11999,7 @@
       <c r="BO52" t="inlineStr"/>
       <c r="BP52" t="inlineStr"/>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR52"/>
+  <dimension ref="A1:BS52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,6 +772,11 @@
           <t>2026-02-19 01:45:03</t>
         </is>
       </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t>2026-02-19 04:15:33</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -992,6 +997,9 @@
       <c r="BR2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BS2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1212,6 +1220,9 @@
       <c r="BR3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BS3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1432,6 +1443,9 @@
       <c r="BR4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BS4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1652,6 +1666,9 @@
       <c r="BR5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BS5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1872,6 +1889,9 @@
       <c r="BR6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BS6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2092,6 +2112,9 @@
       <c r="BR7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BS7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2312,6 +2335,9 @@
       <c r="BR8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BS8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2532,6 +2558,9 @@
       <c r="BR9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BS9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2756,6 +2785,9 @@
       <c r="BR10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BS10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2980,6 +3012,9 @@
       <c r="BR11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BS11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3204,6 +3239,9 @@
       <c r="BR12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BS12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3428,6 +3466,9 @@
       <c r="BR13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BS13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3648,6 +3689,9 @@
       <c r="BR14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BS14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3868,6 +3912,9 @@
       <c r="BR15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BS15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4088,6 +4135,9 @@
       <c r="BR16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BS16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4308,6 +4358,9 @@
       <c r="BR17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BS17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4532,6 +4585,9 @@
       <c r="BR18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BS18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4756,6 +4812,9 @@
       <c r="BR19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BS19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4976,6 +5035,9 @@
       <c r="BR20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BS20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5196,6 +5258,9 @@
       <c r="BR21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BS21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5420,6 +5485,9 @@
       <c r="BR22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BS22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5644,6 +5712,9 @@
       <c r="BR23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BS23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5868,6 +5939,9 @@
       <c r="BR24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BS24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6088,6 +6162,9 @@
       <c r="BR25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BS25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6308,6 +6385,9 @@
       <c r="BR26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BS26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6528,6 +6608,9 @@
       <c r="BR27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BS27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6748,6 +6831,9 @@
       <c r="BR28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BS28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6968,6 +7054,9 @@
       <c r="BR29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BS29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7188,6 +7277,9 @@
       <c r="BR30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BS30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7408,6 +7500,9 @@
       <c r="BR31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BS31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7628,6 +7723,9 @@
       <c r="BR32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BS32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7848,6 +7946,9 @@
       <c r="BR33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BS33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8068,6 +8169,9 @@
       <c r="BR34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BS34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8288,6 +8392,9 @@
       <c r="BR35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BS35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8508,6 +8615,9 @@
       <c r="BR36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BS36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8728,6 +8838,9 @@
       <c r="BR37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BS37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8948,6 +9061,9 @@
       <c r="BR38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BS38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9168,6 +9284,9 @@
       <c r="BR39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BS39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9388,6 +9507,9 @@
       <c r="BR40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BS40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9608,6 +9730,9 @@
       <c r="BR41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BS41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9828,6 +9953,9 @@
       <c r="BR42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BS42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10048,6 +10176,9 @@
       <c r="BR43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BS43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10268,6 +10399,9 @@
       <c r="BR44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BS44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10488,6 +10622,9 @@
       <c r="BR45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BS45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10708,6 +10845,9 @@
       <c r="BR46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BS46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10928,6 +11068,9 @@
       <c r="BR47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BS47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11148,6 +11291,9 @@
       <c r="BR48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BS48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11368,6 +11514,9 @@
       <c r="BR49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BS49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11588,6 +11737,9 @@
       <c r="BR50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BS50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11806,6 +11958,9 @@
         <v>1299.95</v>
       </c>
       <c r="BR51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BS51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -12000,6 +12155,7 @@
       <c r="BP52" t="inlineStr"/>
       <c r="BQ52" t="inlineStr"/>
       <c r="BR52" t="inlineStr"/>
+      <c r="BS52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS52"/>
+  <dimension ref="A1:BT52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,6 +777,11 @@
           <t>2026-02-19 04:15:33</t>
         </is>
       </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t>2026-02-19 05:56:06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1000,6 +1005,9 @@
       <c r="BS2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BT2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1223,6 +1231,9 @@
       <c r="BS3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BT3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1446,6 +1457,9 @@
       <c r="BS4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BT4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1669,6 +1683,9 @@
       <c r="BS5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BT5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1892,6 +1909,9 @@
       <c r="BS6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BT6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2115,6 +2135,9 @@
       <c r="BS7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BT7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2338,6 +2361,9 @@
       <c r="BS8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BT8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2561,6 +2587,9 @@
       <c r="BS9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BT9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2788,6 +2817,9 @@
       <c r="BS10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BT10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3015,6 +3047,9 @@
       <c r="BS11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BT11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3242,6 +3277,9 @@
       <c r="BS12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BT12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3469,6 +3507,9 @@
       <c r="BS13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BT13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3692,6 +3733,9 @@
       <c r="BS14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BT14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3915,6 +3959,9 @@
       <c r="BS15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BT15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4138,6 +4185,9 @@
       <c r="BS16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BT16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4361,6 +4411,9 @@
       <c r="BS17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BT17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4588,6 +4641,9 @@
       <c r="BS18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BT18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4815,6 +4871,9 @@
       <c r="BS19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BT19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5038,6 +5097,9 @@
       <c r="BS20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BT20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5261,6 +5323,9 @@
       <c r="BS21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BT21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5488,6 +5553,9 @@
       <c r="BS22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BT22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5715,6 +5783,9 @@
       <c r="BS23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BT23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5942,6 +6013,9 @@
       <c r="BS24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BT24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6165,6 +6239,9 @@
       <c r="BS25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BT25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6388,6 +6465,9 @@
       <c r="BS26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BT26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6611,6 +6691,9 @@
       <c r="BS27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BT27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6834,6 +6917,9 @@
       <c r="BS28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BT28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7057,6 +7143,9 @@
       <c r="BS29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BT29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7280,6 +7369,9 @@
       <c r="BS30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BT30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7503,6 +7595,9 @@
       <c r="BS31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BT31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7726,6 +7821,9 @@
       <c r="BS32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BT32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7949,6 +8047,9 @@
       <c r="BS33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BT33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8172,6 +8273,9 @@
       <c r="BS34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BT34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8395,6 +8499,9 @@
       <c r="BS35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BT35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8618,6 +8725,9 @@
       <c r="BS36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BT36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8841,6 +8951,9 @@
       <c r="BS37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BT37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9064,6 +9177,9 @@
       <c r="BS38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BT38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9287,6 +9403,9 @@
       <c r="BS39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BT39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9510,6 +9629,9 @@
       <c r="BS40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BT40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9733,6 +9855,9 @@
       <c r="BS41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BT41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9956,6 +10081,9 @@
       <c r="BS42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BT42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10179,6 +10307,9 @@
       <c r="BS43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BT43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10402,6 +10533,9 @@
       <c r="BS44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BT44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10625,6 +10759,9 @@
       <c r="BS45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BT45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10848,6 +10985,9 @@
       <c r="BS46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BT46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10867,7 +11007,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (19/02/2026)</t>
+          <t>En stock sous 7 jours (20/02/2026)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -11071,6 +11211,9 @@
       <c r="BS47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BT47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11294,6 +11437,9 @@
       <c r="BS48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BT48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11517,6 +11663,9 @@
       <c r="BS49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BT49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11740,6 +11889,9 @@
       <c r="BS50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BT50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11961,6 +12113,9 @@
         <v>1299.95</v>
       </c>
       <c r="BS51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BT51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -12156,6 +12311,7 @@
       <c r="BQ52" t="inlineStr"/>
       <c r="BR52" t="inlineStr"/>
       <c r="BS52" t="inlineStr"/>
+      <c r="BT52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT52"/>
+  <dimension ref="A1:BU52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>2026-02-19 05:56:06</t>
         </is>
       </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t>2026-02-19 07:46:25</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1008,6 +1013,9 @@
       <c r="BT2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BU2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1234,6 +1242,9 @@
       <c r="BT3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BU3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1460,6 +1471,9 @@
       <c r="BT4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BU4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1686,6 +1700,9 @@
       <c r="BT5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BU5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1912,6 +1929,9 @@
       <c r="BT6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BU6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2138,6 +2158,9 @@
       <c r="BT7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BU7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2364,6 +2387,9 @@
       <c r="BT8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BU8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2590,6 +2616,9 @@
       <c r="BT9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BU9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2820,6 +2849,9 @@
       <c r="BT10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BU10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3050,6 +3082,9 @@
       <c r="BT11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BU11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3280,6 +3315,9 @@
       <c r="BT12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BU12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3510,6 +3548,9 @@
       <c r="BT13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BU13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3736,6 +3777,9 @@
       <c r="BT14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BU14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3962,6 +4006,9 @@
       <c r="BT15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BU15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4188,6 +4235,9 @@
       <c r="BT16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BU16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4414,6 +4464,9 @@
       <c r="BT17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BU17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4644,6 +4697,9 @@
       <c r="BT18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BU18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4874,6 +4930,9 @@
       <c r="BT19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BU19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5100,6 +5159,9 @@
       <c r="BT20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BU20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5326,6 +5388,9 @@
       <c r="BT21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BU21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5556,6 +5621,9 @@
       <c r="BT22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BU22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5786,6 +5854,9 @@
       <c r="BT23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BU23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6016,6 +6087,9 @@
       <c r="BT24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BU24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6242,6 +6316,9 @@
       <c r="BT25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BU25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6468,6 +6545,9 @@
       <c r="BT26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BU26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6694,6 +6774,9 @@
       <c r="BT27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BU27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6920,6 +7003,9 @@
       <c r="BT28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BU28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7146,6 +7232,9 @@
       <c r="BT29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BU29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7372,6 +7461,9 @@
       <c r="BT30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BU30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7598,6 +7690,9 @@
       <c r="BT31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BU31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7824,6 +7919,9 @@
       <c r="BT32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BU32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8050,6 +8148,9 @@
       <c r="BT33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BU33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8276,6 +8377,9 @@
       <c r="BT34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BU34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8502,6 +8606,9 @@
       <c r="BT35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BU35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8728,6 +8835,9 @@
       <c r="BT36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BU36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8954,6 +9064,9 @@
       <c r="BT37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BU37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9180,6 +9293,9 @@
       <c r="BT38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BU38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9406,6 +9522,9 @@
       <c r="BT39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BU39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9632,6 +9751,9 @@
       <c r="BT40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BU40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9858,6 +9980,9 @@
       <c r="BT41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BU41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10084,6 +10209,9 @@
       <c r="BT42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BU42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10310,6 +10438,9 @@
       <c r="BT43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BU43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10536,6 +10667,9 @@
       <c r="BT44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BU44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10762,6 +10896,9 @@
       <c r="BT45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BU45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10988,6 +11125,9 @@
       <c r="BT46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BU46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11214,6 +11354,9 @@
       <c r="BT47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BU47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11440,6 +11583,9 @@
       <c r="BT48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BU48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11666,6 +11812,9 @@
       <c r="BT49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BU49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11892,6 +12041,9 @@
       <c r="BT50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BU50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12116,6 +12268,9 @@
         <v>1299.95</v>
       </c>
       <c r="BT51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BU51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -12312,6 +12467,7 @@
       <c r="BR52" t="inlineStr"/>
       <c r="BS52" t="inlineStr"/>
       <c r="BT52" t="inlineStr"/>
+      <c r="BU52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU52"/>
+  <dimension ref="A1:BV52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,6 +787,11 @@
           <t>2026-02-19 07:46:25</t>
         </is>
       </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t>2026-02-19 08:37:29</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1016,6 +1021,9 @@
       <c r="BU2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BV2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1245,6 +1253,9 @@
       <c r="BU3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BV3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1474,6 +1485,9 @@
       <c r="BU4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BV4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1703,6 +1717,9 @@
       <c r="BU5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BV5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1932,6 +1949,9 @@
       <c r="BU6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BV6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2161,6 +2181,9 @@
       <c r="BU7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BV7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2390,6 +2413,9 @@
       <c r="BU8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BV8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2619,6 +2645,9 @@
       <c r="BU9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BV9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2852,6 +2881,9 @@
       <c r="BU10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BV10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3085,6 +3117,9 @@
       <c r="BU11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BV11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3318,6 +3353,9 @@
       <c r="BU12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BV12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3551,6 +3589,9 @@
       <c r="BU13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BV13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3780,6 +3821,9 @@
       <c r="BU14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BV14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4009,6 +4053,9 @@
       <c r="BU15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BV15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4238,6 +4285,9 @@
       <c r="BU16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BV16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4467,6 +4517,9 @@
       <c r="BU17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BV17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4700,6 +4753,9 @@
       <c r="BU18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BV18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4933,6 +4989,9 @@
       <c r="BU19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BV19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5162,6 +5221,9 @@
       <c r="BU20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BV20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5391,6 +5453,9 @@
       <c r="BU21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BV21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5624,6 +5689,9 @@
       <c r="BU22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BV22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5857,6 +5925,9 @@
       <c r="BU23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BV23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6090,6 +6161,9 @@
       <c r="BU24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BV24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6319,6 +6393,9 @@
       <c r="BU25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BV25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6548,6 +6625,9 @@
       <c r="BU26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BV26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6777,6 +6857,9 @@
       <c r="BU27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BV27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7006,6 +7089,9 @@
       <c r="BU28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BV28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7235,6 +7321,9 @@
       <c r="BU29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BV29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7464,6 +7553,9 @@
       <c r="BU30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BV30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7693,6 +7785,9 @@
       <c r="BU31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BV31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7922,6 +8017,9 @@
       <c r="BU32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BV32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8151,6 +8249,9 @@
       <c r="BU33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BV33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8380,6 +8481,9 @@
       <c r="BU34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BV34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8609,6 +8713,9 @@
       <c r="BU35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BV35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8838,6 +8945,9 @@
       <c r="BU36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BV36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9067,6 +9177,9 @@
       <c r="BU37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BV37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9296,6 +9409,9 @@
       <c r="BU38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BV38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9525,6 +9641,9 @@
       <c r="BU39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BV39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9754,6 +9873,9 @@
       <c r="BU40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BV40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9983,6 +10105,9 @@
       <c r="BU41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BV41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10212,6 +10337,9 @@
       <c r="BU42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BV42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10441,6 +10569,9 @@
       <c r="BU43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BV43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10670,6 +10801,9 @@
       <c r="BU44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BV44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10899,6 +11033,9 @@
       <c r="BU45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BV45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11128,6 +11265,9 @@
       <c r="BU46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BV46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11147,7 +11287,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (20/02/2026)</t>
+          <t>En stock sous 7 jours (23/02/2026)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -11357,6 +11497,9 @@
       <c r="BU47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BV47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11586,6 +11729,9 @@
       <c r="BU48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BV48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11815,6 +11961,9 @@
       <c r="BU49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BV49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12044,6 +12193,9 @@
       <c r="BU50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BV50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12271,6 +12423,9 @@
         <v>1299.95</v>
       </c>
       <c r="BU51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BV51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -12468,6 +12623,7 @@
       <c r="BS52" t="inlineStr"/>
       <c r="BT52" t="inlineStr"/>
       <c r="BU52" t="inlineStr"/>
+      <c r="BV52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV52"/>
+  <dimension ref="A1:BW52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,6 +792,11 @@
           <t>2026-02-19 08:37:29</t>
         </is>
       </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t>2026-02-19 09:39:44</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1024,6 +1029,9 @@
       <c r="BV2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BW2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1256,6 +1264,9 @@
       <c r="BV3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BW3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1488,6 +1499,9 @@
       <c r="BV4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BW4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1720,6 +1734,9 @@
       <c r="BV5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BW5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1952,6 +1969,9 @@
       <c r="BV6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BW6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2184,6 +2204,9 @@
       <c r="BV7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BW7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2416,6 +2439,9 @@
       <c r="BV8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BW8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2648,6 +2674,9 @@
       <c r="BV9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BW9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2884,6 +2913,9 @@
       <c r="BV10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BW10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3120,6 +3152,9 @@
       <c r="BV11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BW11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3356,6 +3391,9 @@
       <c r="BV12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BW12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3592,6 +3630,9 @@
       <c r="BV13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BW13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3824,6 +3865,9 @@
       <c r="BV14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BW14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4056,6 +4100,9 @@
       <c r="BV15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BW15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4288,6 +4335,9 @@
       <c r="BV16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BW16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4520,6 +4570,9 @@
       <c r="BV17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BW17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4756,6 +4809,9 @@
       <c r="BV18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BW18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4992,6 +5048,9 @@
       <c r="BV19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BW19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5224,6 +5283,9 @@
       <c r="BV20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BW20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5456,6 +5518,9 @@
       <c r="BV21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BW21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5692,6 +5757,9 @@
       <c r="BV22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BW22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5928,6 +5996,9 @@
       <c r="BV23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BW23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6164,6 +6235,9 @@
       <c r="BV24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BW24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6396,6 +6470,9 @@
       <c r="BV25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BW25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6628,6 +6705,9 @@
       <c r="BV26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BW26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6860,6 +6940,9 @@
       <c r="BV27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BW27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7092,6 +7175,9 @@
       <c r="BV28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BW28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7324,6 +7410,9 @@
       <c r="BV29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BW29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7556,6 +7645,9 @@
       <c r="BV30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BW30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7788,6 +7880,9 @@
       <c r="BV31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BW31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8020,6 +8115,9 @@
       <c r="BV32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BW32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8252,6 +8350,9 @@
       <c r="BV33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BW33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8484,6 +8585,9 @@
       <c r="BV34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BW34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8716,6 +8820,9 @@
       <c r="BV35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BW35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8948,6 +9055,9 @@
       <c r="BV36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BW36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9180,6 +9290,9 @@
       <c r="BV37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BW37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9412,6 +9525,9 @@
       <c r="BV38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BW38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9644,6 +9760,9 @@
       <c r="BV39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BW39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9876,6 +9995,9 @@
       <c r="BV40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BW40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10108,6 +10230,9 @@
       <c r="BV41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BW41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10340,6 +10465,9 @@
       <c r="BV42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BW42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10572,6 +10700,9 @@
       <c r="BV43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BW43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10804,6 +10935,9 @@
       <c r="BV44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BW44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11036,6 +11170,9 @@
       <c r="BV45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BW45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11268,6 +11405,9 @@
       <c r="BV46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BW46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11500,6 +11640,9 @@
       <c r="BV47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BW47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11732,6 +11875,9 @@
       <c r="BV48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BW48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11964,6 +12110,9 @@
       <c r="BV49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BW49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12196,6 +12345,9 @@
       <c r="BV50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BW50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12426,6 +12578,9 @@
         <v>1299.95</v>
       </c>
       <c r="BV51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BW51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -12624,6 +12779,7 @@
       <c r="BT52" t="inlineStr"/>
       <c r="BU52" t="inlineStr"/>
       <c r="BV52" t="inlineStr"/>
+      <c r="BW52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW52"/>
+  <dimension ref="A1:BX52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,6 +797,11 @@
           <t>2026-02-19 09:39:44</t>
         </is>
       </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t>2026-02-19 10:38:11</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1032,6 +1037,9 @@
       <c r="BW2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BX2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1267,6 +1275,9 @@
       <c r="BW3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BX3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1502,6 +1513,9 @@
       <c r="BW4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BX4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1737,6 +1751,9 @@
       <c r="BW5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BX5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1972,6 +1989,9 @@
       <c r="BW6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BX6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2207,6 +2227,9 @@
       <c r="BW7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BX7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2442,6 +2465,9 @@
       <c r="BW8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BX8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2677,6 +2703,9 @@
       <c r="BW9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BX9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2916,6 +2945,9 @@
       <c r="BW10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BX10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3155,6 +3187,9 @@
       <c r="BW11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BX11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3394,6 +3429,9 @@
       <c r="BW12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BX12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3633,6 +3671,9 @@
       <c r="BW13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BX13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3868,6 +3909,9 @@
       <c r="BW14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BX14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4103,6 +4147,9 @@
       <c r="BW15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BX15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4338,6 +4385,9 @@
       <c r="BW16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BX16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4573,6 +4623,9 @@
       <c r="BW17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BX17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4812,6 +4865,9 @@
       <c r="BW18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BX18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5051,6 +5107,9 @@
       <c r="BW19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BX19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5286,6 +5345,9 @@
       <c r="BW20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BX20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5521,6 +5583,9 @@
       <c r="BW21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BX21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5760,6 +5825,9 @@
       <c r="BW22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BX22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5999,6 +6067,9 @@
       <c r="BW23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BX23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6238,6 +6309,9 @@
       <c r="BW24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BX24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6473,6 +6547,9 @@
       <c r="BW25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BX25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6708,6 +6785,9 @@
       <c r="BW26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BX26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6943,6 +7023,9 @@
       <c r="BW27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BX27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7178,6 +7261,9 @@
       <c r="BW28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BX28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7413,6 +7499,9 @@
       <c r="BW29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BX29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7648,6 +7737,9 @@
       <c r="BW30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BX30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7883,6 +7975,9 @@
       <c r="BW31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BX31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8118,6 +8213,9 @@
       <c r="BW32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BX32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8353,6 +8451,9 @@
       <c r="BW33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BX33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8588,6 +8689,9 @@
       <c r="BW34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BX34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8823,6 +8927,9 @@
       <c r="BW35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BX35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9058,6 +9165,9 @@
       <c r="BW36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BX36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9293,6 +9403,9 @@
       <c r="BW37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BX37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9528,6 +9641,9 @@
       <c r="BW38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BX38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9763,6 +9879,9 @@
       <c r="BW39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BX39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9998,6 +10117,9 @@
       <c r="BW40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BX40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10233,6 +10355,9 @@
       <c r="BW41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BX41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10468,6 +10593,9 @@
       <c r="BW42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BX42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10703,6 +10831,9 @@
       <c r="BW43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BX43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10938,6 +11069,9 @@
       <c r="BW44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BX44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11173,6 +11307,9 @@
       <c r="BW45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BX45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11408,6 +11545,9 @@
       <c r="BW46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BX46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11643,6 +11783,9 @@
       <c r="BW47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BX47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11878,6 +12021,9 @@
       <c r="BW48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BX48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12113,6 +12259,9 @@
       <c r="BW49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BX49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12348,6 +12497,9 @@
       <c r="BW50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BX50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12581,6 +12733,9 @@
         <v>1299.95</v>
       </c>
       <c r="BW51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BX51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -12780,6 +12935,7 @@
       <c r="BU52" t="inlineStr"/>
       <c r="BV52" t="inlineStr"/>
       <c r="BW52" t="inlineStr"/>
+      <c r="BX52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BX52"/>
+  <dimension ref="A1:BY52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,6 +802,11 @@
           <t>2026-02-19 10:38:11</t>
         </is>
       </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t>2026-02-19 11:35:16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1040,6 +1045,9 @@
       <c r="BX2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BY2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1278,6 +1286,9 @@
       <c r="BX3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BY3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1516,6 +1527,9 @@
       <c r="BX4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BY4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1754,6 +1768,9 @@
       <c r="BX5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BY5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1992,6 +2009,9 @@
       <c r="BX6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BY6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2230,6 +2250,9 @@
       <c r="BX7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BY7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2468,6 +2491,9 @@
       <c r="BX8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BY8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2706,6 +2732,9 @@
       <c r="BX9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BY9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2948,6 +2977,9 @@
       <c r="BX10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BY10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3190,6 +3222,9 @@
       <c r="BX11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BY11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3432,6 +3467,9 @@
       <c r="BX12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BY12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3674,6 +3712,9 @@
       <c r="BX13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BY13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3912,6 +3953,9 @@
       <c r="BX14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BY14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4150,6 +4194,9 @@
       <c r="BX15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BY15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4388,6 +4435,9 @@
       <c r="BX16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BY16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4626,6 +4676,9 @@
       <c r="BX17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BY17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4868,6 +4921,9 @@
       <c r="BX18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BY18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5110,6 +5166,9 @@
       <c r="BX19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BY19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5348,6 +5407,9 @@
       <c r="BX20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BY20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5586,6 +5648,9 @@
       <c r="BX21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BY21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5828,6 +5893,9 @@
       <c r="BX22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BY22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6070,6 +6138,9 @@
       <c r="BX23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BY23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6312,6 +6383,9 @@
       <c r="BX24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BY24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6550,6 +6624,9 @@
       <c r="BX25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BY25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6788,6 +6865,9 @@
       <c r="BX26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BY26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7026,6 +7106,9 @@
       <c r="BX27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BY27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7264,6 +7347,9 @@
       <c r="BX28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BY28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7502,6 +7588,9 @@
       <c r="BX29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BY29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7740,6 +7829,9 @@
       <c r="BX30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BY30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7978,6 +8070,9 @@
       <c r="BX31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BY31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8216,6 +8311,9 @@
       <c r="BX32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BY32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8454,6 +8552,9 @@
       <c r="BX33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BY33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8692,6 +8793,9 @@
       <c r="BX34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BY34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8930,6 +9034,9 @@
       <c r="BX35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BY35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9168,6 +9275,9 @@
       <c r="BX36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BY36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9406,6 +9516,9 @@
       <c r="BX37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BY37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9644,6 +9757,9 @@
       <c r="BX38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BY38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9882,6 +9998,9 @@
       <c r="BX39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BY39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10120,6 +10239,9 @@
       <c r="BX40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BY40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10358,6 +10480,9 @@
       <c r="BX41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BY41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10596,6 +10721,9 @@
       <c r="BX42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BY42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10834,6 +10962,9 @@
       <c r="BX43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BY43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11072,6 +11203,9 @@
       <c r="BX44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BY44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11310,6 +11444,9 @@
       <c r="BX45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BY45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11548,6 +11685,9 @@
       <c r="BX46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BY46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11567,7 +11707,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (23/02/2026)</t>
+          <t>En stock sous 7 jours (20/02/2026)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -11786,6 +11926,9 @@
       <c r="BX47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BY47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12024,6 +12167,9 @@
       <c r="BX48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BY48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12262,6 +12408,9 @@
       <c r="BX49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BY49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12500,6 +12649,9 @@
       <c r="BX50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BY50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12736,6 +12888,9 @@
         <v>1299.95</v>
       </c>
       <c r="BX51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BY51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -12936,6 +13091,7 @@
       <c r="BV52" t="inlineStr"/>
       <c r="BW52" t="inlineStr"/>
       <c r="BX52" t="inlineStr"/>
+      <c r="BY52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BY52"/>
+  <dimension ref="A1:BZ52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,6 +807,11 @@
           <t>2026-02-19 11:35:16</t>
         </is>
       </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t>2026-02-19 12:53:09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1048,6 +1053,9 @@
       <c r="BY2" t="n">
         <v>129.95</v>
       </c>
+      <c r="BZ2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1289,6 +1297,9 @@
       <c r="BY3" t="n">
         <v>149.95</v>
       </c>
+      <c r="BZ3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1530,6 +1541,9 @@
       <c r="BY4" t="n">
         <v>149.95</v>
       </c>
+      <c r="BZ4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1771,6 +1785,9 @@
       <c r="BY5" t="n">
         <v>149.95</v>
       </c>
+      <c r="BZ5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2012,6 +2029,9 @@
       <c r="BY6" t="n">
         <v>149.95</v>
       </c>
+      <c r="BZ6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2253,6 +2273,9 @@
       <c r="BY7" t="n">
         <v>149.95</v>
       </c>
+      <c r="BZ7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2494,6 +2517,9 @@
       <c r="BY8" t="n">
         <v>149.95</v>
       </c>
+      <c r="BZ8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2735,6 +2761,9 @@
       <c r="BY9" t="n">
         <v>168.95</v>
       </c>
+      <c r="BZ9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2980,6 +3009,9 @@
       <c r="BY10" t="n">
         <v>179.95</v>
       </c>
+      <c r="BZ10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3225,6 +3257,9 @@
       <c r="BY11" t="n">
         <v>179.95</v>
       </c>
+      <c r="BZ11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3470,6 +3505,9 @@
       <c r="BY12" t="n">
         <v>179.95</v>
       </c>
+      <c r="BZ12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3715,6 +3753,9 @@
       <c r="BY13" t="n">
         <v>179.95</v>
       </c>
+      <c r="BZ13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3956,6 +3997,9 @@
       <c r="BY14" t="n">
         <v>179.95</v>
       </c>
+      <c r="BZ14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4197,6 +4241,9 @@
       <c r="BY15" t="n">
         <v>179.95</v>
       </c>
+      <c r="BZ15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4438,6 +4485,9 @@
       <c r="BY16" t="n">
         <v>179.95</v>
       </c>
+      <c r="BZ16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4679,6 +4729,9 @@
       <c r="BY17" t="n">
         <v>189.95</v>
       </c>
+      <c r="BZ17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4924,6 +4977,9 @@
       <c r="BY18" t="n">
         <v>209.95</v>
       </c>
+      <c r="BZ18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5169,6 +5225,9 @@
       <c r="BY19" t="n">
         <v>209.95</v>
       </c>
+      <c r="BZ19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5410,6 +5469,9 @@
       <c r="BY20" t="n">
         <v>219.95</v>
       </c>
+      <c r="BZ20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5651,6 +5713,9 @@
       <c r="BY21" t="n">
         <v>248.62</v>
       </c>
+      <c r="BZ21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5896,6 +5961,9 @@
       <c r="BY22" t="n">
         <v>249.95</v>
       </c>
+      <c r="BZ22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6141,6 +6209,9 @@
       <c r="BY23" t="n">
         <v>249.95</v>
       </c>
+      <c r="BZ23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6386,6 +6457,9 @@
       <c r="BY24" t="n">
         <v>249.95</v>
       </c>
+      <c r="BZ24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6627,6 +6701,9 @@
       <c r="BY25" t="n">
         <v>249.95</v>
       </c>
+      <c r="BZ25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6868,6 +6945,9 @@
       <c r="BY26" t="n">
         <v>249.95</v>
       </c>
+      <c r="BZ26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7109,6 +7189,9 @@
       <c r="BY27" t="n">
         <v>249.95</v>
       </c>
+      <c r="BZ27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7350,6 +7433,9 @@
       <c r="BY28" t="n">
         <v>279.95</v>
       </c>
+      <c r="BZ28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7591,6 +7677,9 @@
       <c r="BY29" t="n">
         <v>299.95</v>
       </c>
+      <c r="BZ29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7832,6 +7921,9 @@
       <c r="BY30" t="n">
         <v>299.95</v>
       </c>
+      <c r="BZ30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8073,6 +8165,9 @@
       <c r="BY31" t="n">
         <v>299.95</v>
       </c>
+      <c r="BZ31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8314,6 +8409,9 @@
       <c r="BY32" t="n">
         <v>399.95</v>
       </c>
+      <c r="BZ32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8555,6 +8653,9 @@
       <c r="BY33" t="n">
         <v>399.95</v>
       </c>
+      <c r="BZ33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8796,6 +8897,9 @@
       <c r="BY34" t="n">
         <v>399.95</v>
       </c>
+      <c r="BZ34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9037,6 +9141,9 @@
       <c r="BY35" t="n">
         <v>429.95</v>
       </c>
+      <c r="BZ35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9278,6 +9385,9 @@
       <c r="BY36" t="n">
         <v>429.95</v>
       </c>
+      <c r="BZ36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9519,6 +9629,9 @@
       <c r="BY37" t="n">
         <v>429.95</v>
       </c>
+      <c r="BZ37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9760,6 +9873,9 @@
       <c r="BY38" t="n">
         <v>499.95</v>
       </c>
+      <c r="BZ38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10001,6 +10117,9 @@
       <c r="BY39" t="n">
         <v>499.95</v>
       </c>
+      <c r="BZ39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10242,6 +10361,9 @@
       <c r="BY40" t="n">
         <v>499.95</v>
       </c>
+      <c r="BZ40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10483,6 +10605,9 @@
       <c r="BY41" t="n">
         <v>549.95</v>
       </c>
+      <c r="BZ41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10724,6 +10849,9 @@
       <c r="BY42" t="n">
         <v>549.95</v>
       </c>
+      <c r="BZ42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10965,6 +11093,9 @@
       <c r="BY43" t="n">
         <v>549.95</v>
       </c>
+      <c r="BZ43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11206,6 +11337,9 @@
       <c r="BY44" t="n">
         <v>649.95</v>
       </c>
+      <c r="BZ44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11447,6 +11581,9 @@
       <c r="BY45" t="n">
         <v>649.95</v>
       </c>
+      <c r="BZ45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11688,6 +11825,9 @@
       <c r="BY46" t="n">
         <v>899.95</v>
       </c>
+      <c r="BZ46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11929,6 +12069,9 @@
       <c r="BY47" t="n">
         <v>899.95</v>
       </c>
+      <c r="BZ47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12170,6 +12313,9 @@
       <c r="BY48" t="n">
         <v>899.95</v>
       </c>
+      <c r="BZ48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12411,6 +12557,9 @@
       <c r="BY49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BZ49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12652,6 +12801,9 @@
       <c r="BY50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="BZ50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12891,6 +13043,9 @@
         <v>1299.95</v>
       </c>
       <c r="BY51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="BZ51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -13092,6 +13247,7 @@
       <c r="BW52" t="inlineStr"/>
       <c r="BX52" t="inlineStr"/>
       <c r="BY52" t="inlineStr"/>
+      <c r="BZ52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BZ52"/>
+  <dimension ref="A1:CA52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,6 +812,11 @@
           <t>2026-02-19 12:53:09</t>
         </is>
       </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:06:54</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1056,6 +1061,9 @@
       <c r="BZ2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CA2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1300,6 +1308,9 @@
       <c r="BZ3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CA3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1544,6 +1555,9 @@
       <c r="BZ4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CA4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1788,6 +1802,9 @@
       <c r="BZ5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CA5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2032,6 +2049,9 @@
       <c r="BZ6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CA6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2276,6 +2296,9 @@
       <c r="BZ7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CA7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2520,6 +2543,9 @@
       <c r="BZ8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CA8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2764,6 +2790,9 @@
       <c r="BZ9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CA9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3012,6 +3041,9 @@
       <c r="BZ10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CA10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3260,6 +3292,9 @@
       <c r="BZ11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CA11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3508,6 +3543,9 @@
       <c r="BZ12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CA12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3756,6 +3794,9 @@
       <c r="BZ13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CA13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4000,6 +4041,9 @@
       <c r="BZ14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CA14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4244,6 +4288,9 @@
       <c r="BZ15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CA15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4488,6 +4535,9 @@
       <c r="BZ16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CA16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4732,6 +4782,9 @@
       <c r="BZ17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CA17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4980,6 +5033,9 @@
       <c r="BZ18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CA18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5228,6 +5284,9 @@
       <c r="BZ19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CA19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5472,6 +5531,9 @@
       <c r="BZ20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CA20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5716,6 +5778,9 @@
       <c r="BZ21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CA21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5964,6 +6029,9 @@
       <c r="BZ22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CA22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6212,6 +6280,9 @@
       <c r="BZ23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CA23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6460,6 +6531,9 @@
       <c r="BZ24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CA24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6704,6 +6778,9 @@
       <c r="BZ25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CA25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6948,6 +7025,9 @@
       <c r="BZ26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CA26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7192,6 +7272,9 @@
       <c r="BZ27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CA27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7436,6 +7519,9 @@
       <c r="BZ28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CA28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7680,6 +7766,9 @@
       <c r="BZ29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CA29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7924,6 +8013,9 @@
       <c r="BZ30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CA30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8168,6 +8260,9 @@
       <c r="BZ31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CA31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8412,6 +8507,9 @@
       <c r="BZ32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CA32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8656,6 +8754,9 @@
       <c r="BZ33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CA33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8900,6 +9001,9 @@
       <c r="BZ34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CA34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9144,6 +9248,9 @@
       <c r="BZ35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CA35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9388,6 +9495,9 @@
       <c r="BZ36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CA36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9632,6 +9742,9 @@
       <c r="BZ37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CA37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9876,6 +9989,9 @@
       <c r="BZ38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CA38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10120,6 +10236,9 @@
       <c r="BZ39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CA39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10364,6 +10483,9 @@
       <c r="BZ40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CA40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10608,6 +10730,9 @@
       <c r="BZ41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CA41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10852,6 +10977,9 @@
       <c r="BZ42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CA42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11096,6 +11224,9 @@
       <c r="BZ43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CA43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11340,6 +11471,9 @@
       <c r="BZ44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CA44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11584,6 +11718,9 @@
       <c r="BZ45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CA45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11828,6 +11965,9 @@
       <c r="BZ46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CA46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12072,6 +12212,9 @@
       <c r="BZ47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CA47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12316,6 +12459,9 @@
       <c r="BZ48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CA48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12560,6 +12706,9 @@
       <c r="BZ49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CA49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12804,6 +12953,9 @@
       <c r="BZ50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CA50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13046,6 +13198,9 @@
         <v>1299.95</v>
       </c>
       <c r="BZ51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CA51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -13248,6 +13403,7 @@
       <c r="BX52" t="inlineStr"/>
       <c r="BY52" t="inlineStr"/>
       <c r="BZ52" t="inlineStr"/>
+      <c r="CA52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CA52"/>
+  <dimension ref="A1:CB52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,6 +817,11 @@
           <t>2026-02-19 14:06:54</t>
         </is>
       </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:43:11</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1064,6 +1069,9 @@
       <c r="CA2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CB2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1311,6 +1319,9 @@
       <c r="CA3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CB3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1558,6 +1569,9 @@
       <c r="CA4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CB4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1805,6 +1819,9 @@
       <c r="CA5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CB5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2052,6 +2069,9 @@
       <c r="CA6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CB6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2299,6 +2319,9 @@
       <c r="CA7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CB7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2546,6 +2569,9 @@
       <c r="CA8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CB8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2793,6 +2819,9 @@
       <c r="CA9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CB9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3044,6 +3073,9 @@
       <c r="CA10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CB10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3295,6 +3327,9 @@
       <c r="CA11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CB11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3546,6 +3581,9 @@
       <c r="CA12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CB12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3797,6 +3835,9 @@
       <c r="CA13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CB13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4044,6 +4085,9 @@
       <c r="CA14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CB14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4291,6 +4335,9 @@
       <c r="CA15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CB15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4538,6 +4585,9 @@
       <c r="CA16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CB16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4785,6 +4835,9 @@
       <c r="CA17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CB17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5036,6 +5089,9 @@
       <c r="CA18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CB18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5287,6 +5343,9 @@
       <c r="CA19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CB19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5534,6 +5593,9 @@
       <c r="CA20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CB20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5781,6 +5843,9 @@
       <c r="CA21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CB21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6032,6 +6097,9 @@
       <c r="CA22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CB22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6283,6 +6351,9 @@
       <c r="CA23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CB23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6534,6 +6605,9 @@
       <c r="CA24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CB24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6781,6 +6855,9 @@
       <c r="CA25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CB25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7028,6 +7105,9 @@
       <c r="CA26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CB26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7275,6 +7355,9 @@
       <c r="CA27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CB27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7522,6 +7605,9 @@
       <c r="CA28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CB28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7769,6 +7855,9 @@
       <c r="CA29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CB29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8016,6 +8105,9 @@
       <c r="CA30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CB30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8263,6 +8355,9 @@
       <c r="CA31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CB31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8510,6 +8605,9 @@
       <c r="CA32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CB32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8757,6 +8855,9 @@
       <c r="CA33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CB33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9004,6 +9105,9 @@
       <c r="CA34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CB34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9251,6 +9355,9 @@
       <c r="CA35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CB35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9498,6 +9605,9 @@
       <c r="CA36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CB36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9745,6 +9855,9 @@
       <c r="CA37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CB37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9992,6 +10105,9 @@
       <c r="CA38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CB38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10239,6 +10355,9 @@
       <c r="CA39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CB39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10486,6 +10605,9 @@
       <c r="CA40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CB40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10733,6 +10855,9 @@
       <c r="CA41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CB41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10980,6 +11105,9 @@
       <c r="CA42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CB42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11227,6 +11355,9 @@
       <c r="CA43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CB43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11474,6 +11605,9 @@
       <c r="CA44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CB44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11721,6 +11855,9 @@
       <c r="CA45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CB45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11968,6 +12105,9 @@
       <c r="CA46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CB46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12215,6 +12355,9 @@
       <c r="CA47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CB47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12462,6 +12605,9 @@
       <c r="CA48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CB48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12709,6 +12855,9 @@
       <c r="CA49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CB49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12956,6 +13105,9 @@
       <c r="CA50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CB50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13201,6 +13353,9 @@
         <v>1299.95</v>
       </c>
       <c r="CA51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CB51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -13404,6 +13559,7 @@
       <c r="BY52" t="inlineStr"/>
       <c r="BZ52" t="inlineStr"/>
       <c r="CA52" t="inlineStr"/>
+      <c r="CB52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CB52"/>
+  <dimension ref="A1:CC52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,6 +822,11 @@
           <t>2026-02-19 15:43:11</t>
         </is>
       </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t>2026-02-19 16:44:53</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1072,6 +1077,9 @@
       <c r="CB2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CC2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1322,6 +1330,9 @@
       <c r="CB3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CC3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1572,6 +1583,9 @@
       <c r="CB4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CC4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1822,6 +1836,9 @@
       <c r="CB5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CC5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2072,6 +2089,9 @@
       <c r="CB6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CC6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2322,6 +2342,9 @@
       <c r="CB7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CC7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2572,6 +2595,9 @@
       <c r="CB8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CC8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2822,6 +2848,9 @@
       <c r="CB9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CC9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3076,6 +3105,9 @@
       <c r="CB10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CC10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3330,6 +3362,9 @@
       <c r="CB11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CC11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3584,6 +3619,9 @@
       <c r="CB12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CC12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3838,6 +3876,9 @@
       <c r="CB13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CC13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4088,6 +4129,9 @@
       <c r="CB14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CC14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4338,6 +4382,9 @@
       <c r="CB15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CC15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4588,6 +4635,9 @@
       <c r="CB16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CC16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4838,6 +4888,9 @@
       <c r="CB17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CC17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5092,6 +5145,9 @@
       <c r="CB18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CC18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5346,6 +5402,9 @@
       <c r="CB19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CC19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5596,6 +5655,9 @@
       <c r="CB20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CC20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5846,6 +5908,9 @@
       <c r="CB21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CC21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6100,6 +6165,9 @@
       <c r="CB22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CC22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6354,6 +6422,9 @@
       <c r="CB23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CC23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6608,6 +6679,9 @@
       <c r="CB24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CC24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6858,6 +6932,9 @@
       <c r="CB25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CC25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7108,6 +7185,9 @@
       <c r="CB26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CC26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7358,6 +7438,9 @@
       <c r="CB27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CC27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7608,6 +7691,9 @@
       <c r="CB28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CC28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7858,6 +7944,9 @@
       <c r="CB29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CC29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8108,6 +8197,9 @@
       <c r="CB30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CC30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8358,6 +8450,9 @@
       <c r="CB31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CC31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8608,6 +8703,9 @@
       <c r="CB32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CC32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8858,6 +8956,9 @@
       <c r="CB33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CC33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9108,6 +9209,9 @@
       <c r="CB34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CC34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9358,6 +9462,9 @@
       <c r="CB35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CC35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9608,6 +9715,9 @@
       <c r="CB36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CC36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9858,6 +9968,9 @@
       <c r="CB37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CC37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10108,6 +10221,9 @@
       <c r="CB38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CC38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10358,6 +10474,9 @@
       <c r="CB39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CC39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10608,6 +10727,9 @@
       <c r="CB40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CC40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10858,6 +10980,9 @@
       <c r="CB41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CC41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11108,6 +11233,9 @@
       <c r="CB42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CC42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11358,6 +11486,9 @@
       <c r="CB43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CC43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11608,6 +11739,9 @@
       <c r="CB44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CC44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11858,6 +11992,9 @@
       <c r="CB45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CC45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12108,6 +12245,9 @@
       <c r="CB46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CC46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12127,7 +12267,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (20/02/2026)</t>
+          <t>En stock sous 7 jours (23/02/2026)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -12358,6 +12498,9 @@
       <c r="CB47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CC47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12608,6 +12751,9 @@
       <c r="CB48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CC48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12858,6 +13004,9 @@
       <c r="CB49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CC49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13108,6 +13257,9 @@
       <c r="CB50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CC50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13356,6 +13508,9 @@
         <v>1299.95</v>
       </c>
       <c r="CB51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CC51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -13560,6 +13715,7 @@
       <c r="BZ52" t="inlineStr"/>
       <c r="CA52" t="inlineStr"/>
       <c r="CB52" t="inlineStr"/>
+      <c r="CC52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CC52"/>
+  <dimension ref="A1:CD52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,6 +827,11 @@
           <t>2026-02-19 16:44:53</t>
         </is>
       </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t>2026-02-19 17:46:09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1080,6 +1085,9 @@
       <c r="CC2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CD2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1333,6 +1341,9 @@
       <c r="CC3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CD3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1586,6 +1597,9 @@
       <c r="CC4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CD4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1839,6 +1853,9 @@
       <c r="CC5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CD5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2092,6 +2109,9 @@
       <c r="CC6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CD6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2345,6 +2365,9 @@
       <c r="CC7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CD7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2598,6 +2621,9 @@
       <c r="CC8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CD8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2851,6 +2877,9 @@
       <c r="CC9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CD9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3108,6 +3137,9 @@
       <c r="CC10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CD10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3365,6 +3397,9 @@
       <c r="CC11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CD11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3622,6 +3657,9 @@
       <c r="CC12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CD12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3879,6 +3917,9 @@
       <c r="CC13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CD13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4132,6 +4173,9 @@
       <c r="CC14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CD14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4385,6 +4429,9 @@
       <c r="CC15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CD15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4638,6 +4685,9 @@
       <c r="CC16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CD16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4891,6 +4941,9 @@
       <c r="CC17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CD17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5148,6 +5201,9 @@
       <c r="CC18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CD18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5405,6 +5461,9 @@
       <c r="CC19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CD19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5658,6 +5717,9 @@
       <c r="CC20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CD20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5911,6 +5973,9 @@
       <c r="CC21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CD21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6168,6 +6233,9 @@
       <c r="CC22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CD22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6425,6 +6493,9 @@
       <c r="CC23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CD23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6682,6 +6753,9 @@
       <c r="CC24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CD24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6935,6 +7009,9 @@
       <c r="CC25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CD25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7188,6 +7265,9 @@
       <c r="CC26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CD26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7441,6 +7521,9 @@
       <c r="CC27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CD27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7694,6 +7777,9 @@
       <c r="CC28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CD28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7947,6 +8033,9 @@
       <c r="CC29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CD29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8200,6 +8289,9 @@
       <c r="CC30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CD30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8453,6 +8545,9 @@
       <c r="CC31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CD31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8706,6 +8801,9 @@
       <c r="CC32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CD32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8959,6 +9057,9 @@
       <c r="CC33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CD33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9212,6 +9313,9 @@
       <c r="CC34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CD34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9465,6 +9569,9 @@
       <c r="CC35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CD35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9718,6 +9825,9 @@
       <c r="CC36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CD36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9971,6 +10081,9 @@
       <c r="CC37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CD37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10224,6 +10337,9 @@
       <c r="CC38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CD38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10477,6 +10593,9 @@
       <c r="CC39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CD39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10730,6 +10849,9 @@
       <c r="CC40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CD40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10983,6 +11105,9 @@
       <c r="CC41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CD41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11236,6 +11361,9 @@
       <c r="CC42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CD42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11489,6 +11617,9 @@
       <c r="CC43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CD43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11742,6 +11873,9 @@
       <c r="CC44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CD44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11995,6 +12129,9 @@
       <c r="CC45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CD45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12248,6 +12385,9 @@
       <c r="CC46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CD46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12501,6 +12641,9 @@
       <c r="CC47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CD47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12754,6 +12897,9 @@
       <c r="CC48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CD48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13007,6 +13153,9 @@
       <c r="CC49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CD49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13260,6 +13409,9 @@
       <c r="CC50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CD50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13511,6 +13663,9 @@
         <v>1299.95</v>
       </c>
       <c r="CC51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CD51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -13716,6 +13871,7 @@
       <c r="CA52" t="inlineStr"/>
       <c r="CB52" t="inlineStr"/>
       <c r="CC52" t="inlineStr"/>
+      <c r="CD52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CD52"/>
+  <dimension ref="A1:CE52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,6 +832,11 @@
           <t>2026-02-19 17:46:09</t>
         </is>
       </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t>2026-02-19 18:44:05</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1088,6 +1093,9 @@
       <c r="CD2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CE2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1344,6 +1352,9 @@
       <c r="CD3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CE3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1600,6 +1611,9 @@
       <c r="CD4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CE4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1856,6 +1870,9 @@
       <c r="CD5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CE5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2112,6 +2129,9 @@
       <c r="CD6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CE6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2368,6 +2388,9 @@
       <c r="CD7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CE7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2624,6 +2647,9 @@
       <c r="CD8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CE8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2880,6 +2906,9 @@
       <c r="CD9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CE9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3140,6 +3169,9 @@
       <c r="CD10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CE10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3400,6 +3432,9 @@
       <c r="CD11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CE11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3660,6 +3695,9 @@
       <c r="CD12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CE12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3920,6 +3958,9 @@
       <c r="CD13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CE13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4176,6 +4217,9 @@
       <c r="CD14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CE14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4432,6 +4476,9 @@
       <c r="CD15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CE15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4688,6 +4735,9 @@
       <c r="CD16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CE16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4944,6 +4994,9 @@
       <c r="CD17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CE17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5204,6 +5257,9 @@
       <c r="CD18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CE18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5464,6 +5520,9 @@
       <c r="CD19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CE19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5720,6 +5779,9 @@
       <c r="CD20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CE20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5976,6 +6038,9 @@
       <c r="CD21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CE21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6236,6 +6301,9 @@
       <c r="CD22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CE22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6496,6 +6564,9 @@
       <c r="CD23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CE23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6756,6 +6827,9 @@
       <c r="CD24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CE24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7012,6 +7086,9 @@
       <c r="CD25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CE25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7268,6 +7345,9 @@
       <c r="CD26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CE26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7524,6 +7604,9 @@
       <c r="CD27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CE27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7780,6 +7863,9 @@
       <c r="CD28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CE28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8036,6 +8122,9 @@
       <c r="CD29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CE29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8292,6 +8381,9 @@
       <c r="CD30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CE30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8548,6 +8640,9 @@
       <c r="CD31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CE31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8804,6 +8899,9 @@
       <c r="CD32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CE32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9060,6 +9158,9 @@
       <c r="CD33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CE33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9316,6 +9417,9 @@
       <c r="CD34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CE34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9572,6 +9676,9 @@
       <c r="CD35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CE35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9828,6 +9935,9 @@
       <c r="CD36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CE36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10084,6 +10194,9 @@
       <c r="CD37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CE37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10340,6 +10453,9 @@
       <c r="CD38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CE38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10596,6 +10712,9 @@
       <c r="CD39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CE39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10852,6 +10971,9 @@
       <c r="CD40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CE40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11108,6 +11230,9 @@
       <c r="CD41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CE41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11364,6 +11489,9 @@
       <c r="CD42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CE42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11620,6 +11748,9 @@
       <c r="CD43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CE43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11876,6 +12007,9 @@
       <c r="CD44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CE44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12132,6 +12266,9 @@
       <c r="CD45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CE45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12388,6 +12525,9 @@
       <c r="CD46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CE46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12644,6 +12784,9 @@
       <c r="CD47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CE47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12900,6 +13043,9 @@
       <c r="CD48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CE48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13156,6 +13302,9 @@
       <c r="CD49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CE49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13412,6 +13561,9 @@
       <c r="CD50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CE50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13666,6 +13818,9 @@
         <v>1299.95</v>
       </c>
       <c r="CD51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CE51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -13872,6 +14027,7 @@
       <c r="CB52" t="inlineStr"/>
       <c r="CC52" t="inlineStr"/>
       <c r="CD52" t="inlineStr"/>
+      <c r="CE52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE52"/>
+  <dimension ref="A1:CF52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,6 +837,11 @@
           <t>2026-02-19 18:44:05</t>
         </is>
       </c>
+      <c r="CF1" t="inlineStr">
+        <is>
+          <t>2026-02-19 19:36:35</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1096,6 +1101,9 @@
       <c r="CE2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CF2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1355,6 +1363,9 @@
       <c r="CE3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CF3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1614,6 +1625,9 @@
       <c r="CE4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CF4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1873,6 +1887,9 @@
       <c r="CE5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CF5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2132,6 +2149,9 @@
       <c r="CE6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CF6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2391,6 +2411,9 @@
       <c r="CE7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CF7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2650,6 +2673,9 @@
       <c r="CE8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CF8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2909,6 +2935,9 @@
       <c r="CE9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CF9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3172,6 +3201,9 @@
       <c r="CE10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CF10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3435,6 +3467,9 @@
       <c r="CE11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CF11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3698,6 +3733,9 @@
       <c r="CE12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CF12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3961,6 +3999,9 @@
       <c r="CE13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CF13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4220,6 +4261,9 @@
       <c r="CE14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CF14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4479,6 +4523,9 @@
       <c r="CE15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CF15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4738,6 +4785,9 @@
       <c r="CE16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CF16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4997,6 +5047,9 @@
       <c r="CE17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CF17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5260,6 +5313,9 @@
       <c r="CE18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CF18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5523,6 +5579,9 @@
       <c r="CE19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CF19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5782,6 +5841,9 @@
       <c r="CE20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CF20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6041,6 +6103,9 @@
       <c r="CE21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CF21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6304,6 +6369,9 @@
       <c r="CE22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CF22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6567,6 +6635,9 @@
       <c r="CE23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CF23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6830,6 +6901,9 @@
       <c r="CE24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CF24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7089,6 +7163,9 @@
       <c r="CE25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CF25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7348,6 +7425,9 @@
       <c r="CE26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CF26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7607,6 +7687,9 @@
       <c r="CE27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CF27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7866,6 +7949,9 @@
       <c r="CE28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CF28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8125,6 +8211,9 @@
       <c r="CE29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CF29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8384,6 +8473,9 @@
       <c r="CE30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CF30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8643,6 +8735,9 @@
       <c r="CE31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CF31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8902,6 +8997,9 @@
       <c r="CE32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CF32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9161,6 +9259,9 @@
       <c r="CE33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CF33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9420,6 +9521,9 @@
       <c r="CE34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CF34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9679,6 +9783,9 @@
       <c r="CE35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CF35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9938,6 +10045,9 @@
       <c r="CE36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CF36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10197,6 +10307,9 @@
       <c r="CE37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CF37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10456,6 +10569,9 @@
       <c r="CE38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CF38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10715,6 +10831,9 @@
       <c r="CE39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CF39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10974,6 +11093,9 @@
       <c r="CE40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CF40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11233,6 +11355,9 @@
       <c r="CE41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CF41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11492,6 +11617,9 @@
       <c r="CE42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CF42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11751,6 +11879,9 @@
       <c r="CE43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CF43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12010,6 +12141,9 @@
       <c r="CE44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CF44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12269,6 +12403,9 @@
       <c r="CE45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CF45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12528,6 +12665,9 @@
       <c r="CE46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CF46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12787,6 +12927,9 @@
       <c r="CE47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CF47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13046,6 +13189,9 @@
       <c r="CE48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CF48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13305,6 +13451,9 @@
       <c r="CE49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CF49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13564,6 +13713,9 @@
       <c r="CE50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CF50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13821,6 +13973,9 @@
         <v>1299.95</v>
       </c>
       <c r="CE51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CF51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -14028,6 +14183,7 @@
       <c r="CC52" t="inlineStr"/>
       <c r="CD52" t="inlineStr"/>
       <c r="CE52" t="inlineStr"/>
+      <c r="CF52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CF52"/>
+  <dimension ref="A1:CG52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,6 +842,11 @@
           <t>2026-02-19 19:36:35</t>
         </is>
       </c>
+      <c r="CG1" t="inlineStr">
+        <is>
+          <t>2026-02-19 20:26:30</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1104,6 +1109,9 @@
       <c r="CF2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CG2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1366,6 +1374,9 @@
       <c r="CF3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CG3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1628,6 +1639,9 @@
       <c r="CF4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CG4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1890,6 +1904,9 @@
       <c r="CF5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CG5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2152,6 +2169,9 @@
       <c r="CF6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CG6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2414,6 +2434,9 @@
       <c r="CF7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CG7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2676,6 +2699,9 @@
       <c r="CF8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CG8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2938,6 +2964,9 @@
       <c r="CF9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CG9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3204,6 +3233,9 @@
       <c r="CF10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CG10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3470,6 +3502,9 @@
       <c r="CF11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CG11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3736,6 +3771,9 @@
       <c r="CF12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CG12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4002,6 +4040,9 @@
       <c r="CF13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CG13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4264,6 +4305,9 @@
       <c r="CF14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CG14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4526,6 +4570,9 @@
       <c r="CF15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CG15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4788,6 +4835,9 @@
       <c r="CF16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CG16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5050,6 +5100,9 @@
       <c r="CF17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CG17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5316,6 +5369,9 @@
       <c r="CF18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CG18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5582,6 +5638,9 @@
       <c r="CF19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CG19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5844,6 +5903,9 @@
       <c r="CF20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CG20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6106,6 +6168,9 @@
       <c r="CF21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CG21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6372,6 +6437,9 @@
       <c r="CF22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CG22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6638,6 +6706,9 @@
       <c r="CF23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CG23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6904,6 +6975,9 @@
       <c r="CF24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CG24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7166,6 +7240,9 @@
       <c r="CF25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CG25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7428,6 +7505,9 @@
       <c r="CF26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CG26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7690,6 +7770,9 @@
       <c r="CF27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CG27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7952,6 +8035,9 @@
       <c r="CF28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CG28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8214,6 +8300,9 @@
       <c r="CF29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CG29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8476,6 +8565,9 @@
       <c r="CF30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CG30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8738,6 +8830,9 @@
       <c r="CF31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CG31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9000,6 +9095,9 @@
       <c r="CF32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CG32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9262,6 +9360,9 @@
       <c r="CF33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CG33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9524,6 +9625,9 @@
       <c r="CF34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CG34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9786,6 +9890,9 @@
       <c r="CF35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CG35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10048,6 +10155,9 @@
       <c r="CF36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CG36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10310,6 +10420,9 @@
       <c r="CF37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CG37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10572,6 +10685,9 @@
       <c r="CF38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CG38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10834,6 +10950,9 @@
       <c r="CF39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CG39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11096,6 +11215,9 @@
       <c r="CF40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CG40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11358,6 +11480,9 @@
       <c r="CF41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CG41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11620,6 +11745,9 @@
       <c r="CF42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CG42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11882,6 +12010,9 @@
       <c r="CF43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CG43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12144,6 +12275,9 @@
       <c r="CF44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CG44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12406,6 +12540,9 @@
       <c r="CF45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CG45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12668,6 +12805,9 @@
       <c r="CF46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CG46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12687,7 +12827,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (23/02/2026)</t>
+          <t>En stock sous 7 jours (20/02/2026)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -12930,6 +13070,9 @@
       <c r="CF47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CG47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13192,6 +13335,9 @@
       <c r="CF48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CG48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13454,6 +13600,9 @@
       <c r="CF49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CG49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13716,6 +13865,9 @@
       <c r="CF50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CG50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13976,6 +14128,9 @@
         <v>1299.95</v>
       </c>
       <c r="CF51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CG51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -14184,6 +14339,7 @@
       <c r="CD52" t="inlineStr"/>
       <c r="CE52" t="inlineStr"/>
       <c r="CF52" t="inlineStr"/>
+      <c r="CG52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG52"/>
+  <dimension ref="A1:CH52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,6 +847,11 @@
           <t>2026-02-19 20:26:30</t>
         </is>
       </c>
+      <c r="CH1" t="inlineStr">
+        <is>
+          <t>2026-02-19 21:27:21</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1112,6 +1117,9 @@
       <c r="CG2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CH2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1377,6 +1385,9 @@
       <c r="CG3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CH3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1642,6 +1653,9 @@
       <c r="CG4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CH4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1907,6 +1921,9 @@
       <c r="CG5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CH5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2172,6 +2189,9 @@
       <c r="CG6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CH6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2437,6 +2457,9 @@
       <c r="CG7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CH7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2702,6 +2725,9 @@
       <c r="CG8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CH8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2967,6 +2993,9 @@
       <c r="CG9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CH9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3236,6 +3265,9 @@
       <c r="CG10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CH10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3505,6 +3537,9 @@
       <c r="CG11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CH11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3774,6 +3809,9 @@
       <c r="CG12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CH12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4043,6 +4081,9 @@
       <c r="CG13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CH13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4308,6 +4349,9 @@
       <c r="CG14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CH14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4573,6 +4617,9 @@
       <c r="CG15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CH15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4838,6 +4885,9 @@
       <c r="CG16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CH16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5103,6 +5153,9 @@
       <c r="CG17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CH17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5372,6 +5425,9 @@
       <c r="CG18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CH18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5641,6 +5697,9 @@
       <c r="CG19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CH19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5906,6 +5965,9 @@
       <c r="CG20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CH20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6171,6 +6233,9 @@
       <c r="CG21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CH21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6440,6 +6505,9 @@
       <c r="CG22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CH22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6709,6 +6777,9 @@
       <c r="CG23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CH23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6978,6 +7049,9 @@
       <c r="CG24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CH24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7243,6 +7317,9 @@
       <c r="CG25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CH25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7508,6 +7585,9 @@
       <c r="CG26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CH26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7773,6 +7853,9 @@
       <c r="CG27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CH27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8038,6 +8121,9 @@
       <c r="CG28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CH28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8303,6 +8389,9 @@
       <c r="CG29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CH29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8568,6 +8657,9 @@
       <c r="CG30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CH30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8833,6 +8925,9 @@
       <c r="CG31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CH31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9098,6 +9193,9 @@
       <c r="CG32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CH32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9363,6 +9461,9 @@
       <c r="CG33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CH33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9628,6 +9729,9 @@
       <c r="CG34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CH34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9893,6 +9997,9 @@
       <c r="CG35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CH35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10158,6 +10265,9 @@
       <c r="CG36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CH36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10423,6 +10533,9 @@
       <c r="CG37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CH37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10688,6 +10801,9 @@
       <c r="CG38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CH38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10953,6 +11069,9 @@
       <c r="CG39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CH39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11218,6 +11337,9 @@
       <c r="CG40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CH40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11483,6 +11605,9 @@
       <c r="CG41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CH41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11748,6 +11873,9 @@
       <c r="CG42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CH42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12013,6 +12141,9 @@
       <c r="CG43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CH43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12278,6 +12409,9 @@
       <c r="CG44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CH44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12543,6 +12677,9 @@
       <c r="CG45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CH45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12808,6 +12945,9 @@
       <c r="CG46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CH46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12827,7 +12967,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (20/02/2026)</t>
+          <t>En stock sous 7 jours (23/02/2026)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -13073,6 +13213,9 @@
       <c r="CG47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CH47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13338,6 +13481,9 @@
       <c r="CG48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CH48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13603,6 +13749,9 @@
       <c r="CG49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CH49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13868,6 +14017,9 @@
       <c r="CG50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CH50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -14131,6 +14283,9 @@
         <v>1299.95</v>
       </c>
       <c r="CG51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CH51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -14340,6 +14495,7 @@
       <c r="CE52" t="inlineStr"/>
       <c r="CF52" t="inlineStr"/>
       <c r="CG52" t="inlineStr"/>
+      <c r="CH52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CH52"/>
+  <dimension ref="A1:CI52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -852,6 +852,11 @@
           <t>2026-02-19 21:27:21</t>
         </is>
       </c>
+      <c r="CI1" t="inlineStr">
+        <is>
+          <t>2026-02-19 22:26:34</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1120,6 +1125,9 @@
       <c r="CH2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CI2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1388,6 +1396,9 @@
       <c r="CH3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CI3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1656,6 +1667,9 @@
       <c r="CH4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CI4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1924,6 +1938,9 @@
       <c r="CH5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CI5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2192,6 +2209,9 @@
       <c r="CH6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CI6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2460,6 +2480,9 @@
       <c r="CH7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CI7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2728,6 +2751,9 @@
       <c r="CH8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CI8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2996,6 +3022,9 @@
       <c r="CH9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CI9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3268,6 +3297,9 @@
       <c r="CH10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CI10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3540,6 +3572,9 @@
       <c r="CH11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CI11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3812,6 +3847,9 @@
       <c r="CH12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CI12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4084,6 +4122,9 @@
       <c r="CH13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CI13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4352,6 +4393,9 @@
       <c r="CH14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CI14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4620,6 +4664,9 @@
       <c r="CH15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CI15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4888,6 +4935,9 @@
       <c r="CH16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CI16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5156,6 +5206,9 @@
       <c r="CH17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CI17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5428,6 +5481,9 @@
       <c r="CH18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CI18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5700,6 +5756,9 @@
       <c r="CH19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CI19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5968,6 +6027,9 @@
       <c r="CH20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CI20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6236,6 +6298,9 @@
       <c r="CH21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CI21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6508,6 +6573,9 @@
       <c r="CH22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CI22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6780,6 +6848,9 @@
       <c r="CH23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CI23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7052,6 +7123,9 @@
       <c r="CH24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CI24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7320,6 +7394,9 @@
       <c r="CH25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CI25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7588,6 +7665,9 @@
       <c r="CH26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CI26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7856,6 +7936,9 @@
       <c r="CH27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CI27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8124,6 +8207,9 @@
       <c r="CH28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CI28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8392,6 +8478,9 @@
       <c r="CH29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CI29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8660,6 +8749,9 @@
       <c r="CH30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CI30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8928,6 +9020,9 @@
       <c r="CH31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CI31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9196,6 +9291,9 @@
       <c r="CH32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CI32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9464,6 +9562,9 @@
       <c r="CH33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CI33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9732,6 +9833,9 @@
       <c r="CH34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CI34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10000,6 +10104,9 @@
       <c r="CH35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CI35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10268,6 +10375,9 @@
       <c r="CH36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CI36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10536,6 +10646,9 @@
       <c r="CH37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CI37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10804,6 +10917,9 @@
       <c r="CH38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CI38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11072,6 +11188,9 @@
       <c r="CH39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CI39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11340,6 +11459,9 @@
       <c r="CH40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CI40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11608,6 +11730,9 @@
       <c r="CH41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CI41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11876,6 +12001,9 @@
       <c r="CH42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CI42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12144,6 +12272,9 @@
       <c r="CH43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CI43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12412,6 +12543,9 @@
       <c r="CH44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CI44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12680,6 +12814,9 @@
       <c r="CH45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CI45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12948,6 +13085,9 @@
       <c r="CH46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CI46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12967,7 +13107,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (23/02/2026)</t>
+          <t>En stock sous 7 jours (20/02/2026)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -13216,6 +13356,9 @@
       <c r="CH47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CI47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13484,6 +13627,9 @@
       <c r="CH48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CI48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13752,6 +13898,9 @@
       <c r="CH49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CI49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -14020,6 +14169,9 @@
       <c r="CH50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CI50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -14286,6 +14438,9 @@
         <v>1299.95</v>
       </c>
       <c r="CH51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CI51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -14496,6 +14651,7 @@
       <c r="CF52" t="inlineStr"/>
       <c r="CG52" t="inlineStr"/>
       <c r="CH52" t="inlineStr"/>
+      <c r="CI52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI52"/>
+  <dimension ref="A1:CJ52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -857,6 +857,11 @@
           <t>2026-02-19 22:26:34</t>
         </is>
       </c>
+      <c r="CJ1" t="inlineStr">
+        <is>
+          <t>2026-02-19 23:25:23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1128,6 +1133,9 @@
       <c r="CI2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CJ2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1399,6 +1407,9 @@
       <c r="CI3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CJ3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1670,6 +1681,9 @@
       <c r="CI4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CJ4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1941,6 +1955,9 @@
       <c r="CI5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CJ5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2212,6 +2229,9 @@
       <c r="CI6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CJ6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2483,6 +2503,9 @@
       <c r="CI7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CJ7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2754,6 +2777,9 @@
       <c r="CI8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CJ8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3025,6 +3051,9 @@
       <c r="CI9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CJ9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3300,6 +3329,9 @@
       <c r="CI10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CJ10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3575,6 +3607,9 @@
       <c r="CI11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CJ11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3850,6 +3885,9 @@
       <c r="CI12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CJ12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4125,6 +4163,9 @@
       <c r="CI13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CJ13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4396,6 +4437,9 @@
       <c r="CI14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CJ14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4667,6 +4711,9 @@
       <c r="CI15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CJ15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4938,6 +4985,9 @@
       <c r="CI16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CJ16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5209,6 +5259,9 @@
       <c r="CI17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CJ17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5484,6 +5537,9 @@
       <c r="CI18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CJ18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5759,6 +5815,9 @@
       <c r="CI19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CJ19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6030,6 +6089,9 @@
       <c r="CI20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CJ20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6301,6 +6363,9 @@
       <c r="CI21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CJ21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6576,6 +6641,9 @@
       <c r="CI22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CJ22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6851,6 +6919,9 @@
       <c r="CI23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CJ23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7126,6 +7197,9 @@
       <c r="CI24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CJ24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7397,6 +7471,9 @@
       <c r="CI25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CJ25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7668,6 +7745,9 @@
       <c r="CI26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CJ26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7939,6 +8019,9 @@
       <c r="CI27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CJ27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8210,6 +8293,9 @@
       <c r="CI28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CJ28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8481,6 +8567,9 @@
       <c r="CI29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CJ29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8752,6 +8841,9 @@
       <c r="CI30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CJ30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9023,6 +9115,9 @@
       <c r="CI31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CJ31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9294,6 +9389,9 @@
       <c r="CI32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CJ32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9565,6 +9663,9 @@
       <c r="CI33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CJ33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9836,6 +9937,9 @@
       <c r="CI34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CJ34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10107,6 +10211,9 @@
       <c r="CI35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CJ35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10378,6 +10485,9 @@
       <c r="CI36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CJ36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10649,6 +10759,9 @@
       <c r="CI37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CJ37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10920,6 +11033,9 @@
       <c r="CI38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CJ38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11191,6 +11307,9 @@
       <c r="CI39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CJ39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11462,6 +11581,9 @@
       <c r="CI40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CJ40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11733,6 +11855,9 @@
       <c r="CI41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CJ41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -12004,6 +12129,9 @@
       <c r="CI42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CJ42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12275,6 +12403,9 @@
       <c r="CI43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CJ43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12546,6 +12677,9 @@
       <c r="CI44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CJ44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12817,6 +12951,9 @@
       <c r="CI45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CJ45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -13088,6 +13225,9 @@
       <c r="CI46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CJ46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -13107,7 +13247,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (20/02/2026)</t>
+          <t>En stock sous 7 jours (23/02/2026)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -13359,6 +13499,9 @@
       <c r="CI47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CJ47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13630,6 +13773,9 @@
       <c r="CI48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CJ48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13901,6 +14047,9 @@
       <c r="CI49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CJ49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -14172,6 +14321,9 @@
       <c r="CI50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CJ50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -14441,6 +14593,9 @@
         <v>1299.95</v>
       </c>
       <c r="CI51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CJ51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -14652,6 +14807,7 @@
       <c r="CG52" t="inlineStr"/>
       <c r="CH52" t="inlineStr"/>
       <c r="CI52" t="inlineStr"/>
+      <c r="CJ52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CJ52"/>
+  <dimension ref="A1:CK52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,6 +862,11 @@
           <t>2026-02-19 23:25:23</t>
         </is>
       </c>
+      <c r="CK1" t="inlineStr">
+        <is>
+          <t>2026-02-20 01:28:24</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1136,6 +1141,9 @@
       <c r="CJ2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CK2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1410,6 +1418,9 @@
       <c r="CJ3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CK3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1684,6 +1695,9 @@
       <c r="CJ4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CK4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1958,6 +1972,9 @@
       <c r="CJ5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CK5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2232,6 +2249,9 @@
       <c r="CJ6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CK6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2506,6 +2526,9 @@
       <c r="CJ7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CK7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2780,6 +2803,9 @@
       <c r="CJ8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CK8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3054,6 +3080,9 @@
       <c r="CJ9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CK9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3332,6 +3361,9 @@
       <c r="CJ10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CK10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3610,6 +3642,9 @@
       <c r="CJ11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CK11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3888,6 +3923,9 @@
       <c r="CJ12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CK12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4166,6 +4204,9 @@
       <c r="CJ13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CK13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4440,6 +4481,9 @@
       <c r="CJ14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CK14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4714,6 +4758,9 @@
       <c r="CJ15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CK15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4988,6 +5035,9 @@
       <c r="CJ16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CK16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5262,6 +5312,9 @@
       <c r="CJ17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CK17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5540,6 +5593,9 @@
       <c r="CJ18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CK18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5818,6 +5874,9 @@
       <c r="CJ19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CK19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6092,6 +6151,9 @@
       <c r="CJ20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CK20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6366,6 +6428,9 @@
       <c r="CJ21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CK21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6644,6 +6709,9 @@
       <c r="CJ22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CK22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6922,6 +6990,9 @@
       <c r="CJ23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CK23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7200,6 +7271,9 @@
       <c r="CJ24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CK24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7474,6 +7548,9 @@
       <c r="CJ25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CK25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7748,6 +7825,9 @@
       <c r="CJ26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CK26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8022,6 +8102,9 @@
       <c r="CJ27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CK27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8296,6 +8379,9 @@
       <c r="CJ28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CK28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8570,6 +8656,9 @@
       <c r="CJ29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CK29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8844,6 +8933,9 @@
       <c r="CJ30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CK30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9118,6 +9210,9 @@
       <c r="CJ31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CK31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9392,6 +9487,9 @@
       <c r="CJ32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CK32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9666,6 +9764,9 @@
       <c r="CJ33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CK33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9940,6 +10041,9 @@
       <c r="CJ34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CK34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10214,6 +10318,9 @@
       <c r="CJ35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CK35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10488,6 +10595,9 @@
       <c r="CJ36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CK36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10762,6 +10872,9 @@
       <c r="CJ37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CK37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11036,6 +11149,9 @@
       <c r="CJ38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CK38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11310,6 +11426,9 @@
       <c r="CJ39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CK39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11584,6 +11703,9 @@
       <c r="CJ40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CK40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11858,6 +11980,9 @@
       <c r="CJ41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CK41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -12132,6 +12257,9 @@
       <c r="CJ42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CK42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12406,6 +12534,9 @@
       <c r="CJ43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CK43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12680,6 +12811,9 @@
       <c r="CJ44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CK44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12954,6 +13088,9 @@
       <c r="CJ45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CK45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -13228,6 +13365,9 @@
       <c r="CJ46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CK46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -13502,6 +13642,9 @@
       <c r="CJ47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CK47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13776,6 +13919,9 @@
       <c r="CJ48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CK48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -14050,6 +14196,9 @@
       <c r="CJ49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CK49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -14324,6 +14473,9 @@
       <c r="CJ50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CK50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -14596,6 +14748,9 @@
         <v>1299.95</v>
       </c>
       <c r="CJ51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CK51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -14808,6 +14963,7 @@
       <c r="CH52" t="inlineStr"/>
       <c r="CI52" t="inlineStr"/>
       <c r="CJ52" t="inlineStr"/>
+      <c r="CK52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CK52"/>
+  <dimension ref="A1:CL52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -867,6 +867,11 @@
           <t>2026-02-20 01:28:24</t>
         </is>
       </c>
+      <c r="CL1" t="inlineStr">
+        <is>
+          <t>2026-02-20 04:10:48</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1144,6 +1149,9 @@
       <c r="CK2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CL2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1421,6 +1429,9 @@
       <c r="CK3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CL3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1698,6 +1709,9 @@
       <c r="CK4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CL4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1975,6 +1989,9 @@
       <c r="CK5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CL5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2252,6 +2269,9 @@
       <c r="CK6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CL6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2529,6 +2549,9 @@
       <c r="CK7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CL7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2806,6 +2829,9 @@
       <c r="CK8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CL8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3083,6 +3109,9 @@
       <c r="CK9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CL9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3364,6 +3393,9 @@
       <c r="CK10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CL10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3645,6 +3677,9 @@
       <c r="CK11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CL11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3926,6 +3961,9 @@
       <c r="CK12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CL12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4207,6 +4245,9 @@
       <c r="CK13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CL13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4484,6 +4525,9 @@
       <c r="CK14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CL14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4761,6 +4805,9 @@
       <c r="CK15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CL15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5038,6 +5085,9 @@
       <c r="CK16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CL16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5315,6 +5365,9 @@
       <c r="CK17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CL17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5596,6 +5649,9 @@
       <c r="CK18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CL18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5877,6 +5933,9 @@
       <c r="CK19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CL19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6154,6 +6213,9 @@
       <c r="CK20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CL20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6431,6 +6493,9 @@
       <c r="CK21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CL21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6712,6 +6777,9 @@
       <c r="CK22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CL22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6993,6 +7061,9 @@
       <c r="CK23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CL23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7274,6 +7345,9 @@
       <c r="CK24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CL24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7551,6 +7625,9 @@
       <c r="CK25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CL25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7828,6 +7905,9 @@
       <c r="CK26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CL26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8105,6 +8185,9 @@
       <c r="CK27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CL27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8382,6 +8465,9 @@
       <c r="CK28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CL28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8659,6 +8745,9 @@
       <c r="CK29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CL29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8936,6 +9025,9 @@
       <c r="CK30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CL30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9213,6 +9305,9 @@
       <c r="CK31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CL31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9490,6 +9585,9 @@
       <c r="CK32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CL32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9767,6 +9865,9 @@
       <c r="CK33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CL33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10044,6 +10145,9 @@
       <c r="CK34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CL34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10321,6 +10425,9 @@
       <c r="CK35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CL35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10598,6 +10705,9 @@
       <c r="CK36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CL36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10875,6 +10985,9 @@
       <c r="CK37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CL37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11152,6 +11265,9 @@
       <c r="CK38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CL38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11429,6 +11545,9 @@
       <c r="CK39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CL39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11706,6 +11825,9 @@
       <c r="CK40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CL40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11983,6 +12105,9 @@
       <c r="CK41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CL41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -12260,6 +12385,9 @@
       <c r="CK42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CL42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12537,6 +12665,9 @@
       <c r="CK43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CL43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12814,6 +12945,9 @@
       <c r="CK44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CL44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -13091,6 +13225,9 @@
       <c r="CK45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CL45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -13368,6 +13505,9 @@
       <c r="CK46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CL46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -13645,6 +13785,9 @@
       <c r="CK47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CL47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13922,6 +14065,9 @@
       <c r="CK48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CL48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -14199,6 +14345,9 @@
       <c r="CK49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CL49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -14476,6 +14625,9 @@
       <c r="CK50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CL50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -14751,6 +14903,9 @@
         <v>1299.95</v>
       </c>
       <c r="CK51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CL51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -14964,6 +15119,7 @@
       <c r="CI52" t="inlineStr"/>
       <c r="CJ52" t="inlineStr"/>
       <c r="CK52" t="inlineStr"/>
+      <c r="CL52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CL52"/>
+  <dimension ref="A1:CM52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,6 +872,11 @@
           <t>2026-02-20 04:10:48</t>
         </is>
       </c>
+      <c r="CM1" t="inlineStr">
+        <is>
+          <t>2026-02-20 05:49:38</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1152,6 +1157,9 @@
       <c r="CL2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CM2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1432,6 +1440,9 @@
       <c r="CL3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CM3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1712,6 +1723,9 @@
       <c r="CL4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CM4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1992,6 +2006,9 @@
       <c r="CL5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CM5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2272,6 +2289,9 @@
       <c r="CL6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CM6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2552,6 +2572,9 @@
       <c r="CL7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CM7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2832,6 +2855,9 @@
       <c r="CL8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CM8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3112,6 +3138,9 @@
       <c r="CL9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CM9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3396,6 +3425,9 @@
       <c r="CL10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CM10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3680,6 +3712,9 @@
       <c r="CL11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CM11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3964,6 +3999,9 @@
       <c r="CL12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CM12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4248,6 +4286,9 @@
       <c r="CL13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CM13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4528,6 +4569,9 @@
       <c r="CL14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CM14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4808,6 +4852,9 @@
       <c r="CL15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CM15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5088,6 +5135,9 @@
       <c r="CL16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CM16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5368,6 +5418,9 @@
       <c r="CL17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CM17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5652,6 +5705,9 @@
       <c r="CL18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CM18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5936,6 +5992,9 @@
       <c r="CL19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CM19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6216,6 +6275,9 @@
       <c r="CL20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CM20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6496,6 +6558,9 @@
       <c r="CL21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CM21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6780,6 +6845,9 @@
       <c r="CL22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CM22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7064,6 +7132,9 @@
       <c r="CL23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CM23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7348,6 +7419,9 @@
       <c r="CL24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CM24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7628,6 +7702,9 @@
       <c r="CL25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CM25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7908,6 +7985,9 @@
       <c r="CL26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CM26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8188,6 +8268,9 @@
       <c r="CL27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CM27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8468,6 +8551,9 @@
       <c r="CL28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CM28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8748,6 +8834,9 @@
       <c r="CL29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CM29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9028,6 +9117,9 @@
       <c r="CL30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CM30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9308,6 +9400,9 @@
       <c r="CL31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CM31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9588,6 +9683,9 @@
       <c r="CL32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CM32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9868,6 +9966,9 @@
       <c r="CL33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CM33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10148,6 +10249,9 @@
       <c r="CL34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CM34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10428,6 +10532,9 @@
       <c r="CL35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CM35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10708,6 +10815,9 @@
       <c r="CL36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CM36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10988,6 +11098,9 @@
       <c r="CL37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CM37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11268,6 +11381,9 @@
       <c r="CL38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CM38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11548,6 +11664,9 @@
       <c r="CL39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CM39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11828,6 +11947,9 @@
       <c r="CL40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CM40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -12108,6 +12230,9 @@
       <c r="CL41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CM41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -12388,6 +12513,9 @@
       <c r="CL42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CM42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12668,6 +12796,9 @@
       <c r="CL43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CM43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12948,6 +13079,9 @@
       <c r="CL44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CM44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -13228,6 +13362,9 @@
       <c r="CL45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CM45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -13508,6 +13645,9 @@
       <c r="CL46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CM46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -13527,7 +13667,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (23/02/2026)</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -13788,6 +13928,9 @@
       <c r="CL47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CM47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -14068,6 +14211,9 @@
       <c r="CL48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CM48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -14348,6 +14494,9 @@
       <c r="CL49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CM49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -14628,6 +14777,9 @@
       <c r="CL50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CM50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -14906,6 +15058,9 @@
         <v>1299.95</v>
       </c>
       <c r="CL51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CM51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -15120,6 +15275,7 @@
       <c r="CJ52" t="inlineStr"/>
       <c r="CK52" t="inlineStr"/>
       <c r="CL52" t="inlineStr"/>
+      <c r="CM52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM52"/>
+  <dimension ref="A1:CN52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,6 +877,11 @@
           <t>2026-02-20 05:49:38</t>
         </is>
       </c>
+      <c r="CN1" t="inlineStr">
+        <is>
+          <t>2026-02-20 06:48:24</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1160,6 +1165,9 @@
       <c r="CM2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CN2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1443,6 +1451,9 @@
       <c r="CM3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CN3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1726,6 +1737,9 @@
       <c r="CM4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CN4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2009,6 +2023,9 @@
       <c r="CM5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CN5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2292,6 +2309,9 @@
       <c r="CM6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CN6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2575,6 +2595,9 @@
       <c r="CM7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CN7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2858,6 +2881,9 @@
       <c r="CM8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CN8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3141,6 +3167,9 @@
       <c r="CM9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CN9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3428,6 +3457,9 @@
       <c r="CM10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CN10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3715,6 +3747,9 @@
       <c r="CM11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CN11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4002,6 +4037,9 @@
       <c r="CM12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CN12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4289,6 +4327,9 @@
       <c r="CM13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CN13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4572,6 +4613,9 @@
       <c r="CM14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CN14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4855,6 +4899,9 @@
       <c r="CM15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CN15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5138,6 +5185,9 @@
       <c r="CM16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CN16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5421,6 +5471,9 @@
       <c r="CM17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CN17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5708,6 +5761,9 @@
       <c r="CM18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CN18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5995,6 +6051,9 @@
       <c r="CM19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CN19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6278,6 +6337,9 @@
       <c r="CM20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CN20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6561,6 +6623,9 @@
       <c r="CM21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CN21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6848,6 +6913,9 @@
       <c r="CM22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CN22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7135,6 +7203,9 @@
       <c r="CM23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CN23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7422,6 +7493,9 @@
       <c r="CM24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CN24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7705,6 +7779,9 @@
       <c r="CM25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CN25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7988,6 +8065,9 @@
       <c r="CM26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CN26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8271,6 +8351,9 @@
       <c r="CM27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CN27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8554,6 +8637,9 @@
       <c r="CM28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CN28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8837,6 +8923,9 @@
       <c r="CM29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CN29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9120,6 +9209,9 @@
       <c r="CM30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CN30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9403,6 +9495,9 @@
       <c r="CM31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CN31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9686,6 +9781,9 @@
       <c r="CM32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CN32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9969,6 +10067,9 @@
       <c r="CM33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CN33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10252,6 +10353,9 @@
       <c r="CM34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CN34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10535,6 +10639,9 @@
       <c r="CM35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CN35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10818,6 +10925,9 @@
       <c r="CM36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CN36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11101,6 +11211,9 @@
       <c r="CM37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CN37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11384,6 +11497,9 @@
       <c r="CM38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CN38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11667,6 +11783,9 @@
       <c r="CM39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CN39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11950,6 +12069,9 @@
       <c r="CM40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CN40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -12233,6 +12355,9 @@
       <c r="CM41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CN41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -12516,6 +12641,9 @@
       <c r="CM42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CN42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12799,6 +12927,9 @@
       <c r="CM43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CN43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -13082,6 +13213,9 @@
       <c r="CM44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CN44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -13365,6 +13499,9 @@
       <c r="CM45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CN45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -13648,6 +13785,9 @@
       <c r="CM46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CN46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -13931,6 +14071,9 @@
       <c r="CM47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CN47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -14214,6 +14357,9 @@
       <c r="CM48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CN48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -14497,6 +14643,9 @@
       <c r="CM49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CN49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -14780,6 +14929,9 @@
       <c r="CM50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CN50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -15061,6 +15213,9 @@
         <v>1299.95</v>
       </c>
       <c r="CM51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CN51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -15276,6 +15431,7 @@
       <c r="CK52" t="inlineStr"/>
       <c r="CL52" t="inlineStr"/>
       <c r="CM52" t="inlineStr"/>
+      <c r="CN52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CN52"/>
+  <dimension ref="A1:CO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,6 +882,11 @@
           <t>2026-02-20 06:48:24</t>
         </is>
       </c>
+      <c r="CO1" t="inlineStr">
+        <is>
+          <t>2026-02-20 07:44:08</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1168,6 +1173,9 @@
       <c r="CN2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CO2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1454,6 +1462,9 @@
       <c r="CN3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CO3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1740,6 +1751,9 @@
       <c r="CN4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CO4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2026,6 +2040,9 @@
       <c r="CN5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CO5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2312,6 +2329,9 @@
       <c r="CN6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CO6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2598,6 +2618,9 @@
       <c r="CN7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CO7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2884,6 +2907,9 @@
       <c r="CN8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CO8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3170,6 +3196,9 @@
       <c r="CN9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CO9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3460,6 +3489,9 @@
       <c r="CN10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CO10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3750,6 +3782,9 @@
       <c r="CN11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CO11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4040,6 +4075,9 @@
       <c r="CN12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CO12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4330,6 +4368,9 @@
       <c r="CN13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CO13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4616,6 +4657,9 @@
       <c r="CN14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CO14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4902,6 +4946,9 @@
       <c r="CN15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CO15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5188,6 +5235,9 @@
       <c r="CN16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CO16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5474,6 +5524,9 @@
       <c r="CN17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CO17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5764,6 +5817,9 @@
       <c r="CN18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CO18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6054,6 +6110,9 @@
       <c r="CN19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CO19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6340,6 +6399,9 @@
       <c r="CN20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CO20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6626,6 +6688,9 @@
       <c r="CN21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CO21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6916,6 +6981,9 @@
       <c r="CN22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CO22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7206,6 +7274,9 @@
       <c r="CN23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CO23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7496,6 +7567,9 @@
       <c r="CN24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CO24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7782,6 +7856,9 @@
       <c r="CN25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CO25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8068,6 +8145,9 @@
       <c r="CN26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CO26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8354,6 +8434,9 @@
       <c r="CN27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CO27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8640,6 +8723,9 @@
       <c r="CN28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CO28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8926,6 +9012,9 @@
       <c r="CN29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CO29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9212,6 +9301,9 @@
       <c r="CN30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CO30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9498,6 +9590,9 @@
       <c r="CN31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CO31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9784,6 +9879,9 @@
       <c r="CN32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CO32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10070,6 +10168,9 @@
       <c r="CN33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CO33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10356,6 +10457,9 @@
       <c r="CN34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CO34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10642,6 +10746,9 @@
       <c r="CN35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CO35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10928,6 +11035,9 @@
       <c r="CN36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CO36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11214,6 +11324,9 @@
       <c r="CN37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CO37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11500,6 +11613,9 @@
       <c r="CN38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CO38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11786,6 +11902,9 @@
       <c r="CN39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CO39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -12072,6 +12191,9 @@
       <c r="CN40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CO40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -12358,6 +12480,9 @@
       <c r="CN41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CO41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -12644,6 +12769,9 @@
       <c r="CN42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CO42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12930,6 +13058,9 @@
       <c r="CN43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CO43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -13216,6 +13347,9 @@
       <c r="CN44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CO44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -13502,6 +13636,9 @@
       <c r="CN45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CO45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -13788,6 +13925,9 @@
       <c r="CN46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CO46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -14074,6 +14214,9 @@
       <c r="CN47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CO47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -14360,6 +14503,9 @@
       <c r="CN48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CO48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -14646,6 +14792,9 @@
       <c r="CN49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CO49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -14932,6 +15081,9 @@
       <c r="CN50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CO50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -15216,6 +15368,9 @@
         <v>1299.95</v>
       </c>
       <c r="CN51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CO51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -15432,6 +15587,7 @@
       <c r="CL52" t="inlineStr"/>
       <c r="CM52" t="inlineStr"/>
       <c r="CN52" t="inlineStr"/>
+      <c r="CO52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CO52"/>
+  <dimension ref="A1:CP52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,6 +887,11 @@
           <t>2026-02-20 07:44:08</t>
         </is>
       </c>
+      <c r="CP1" t="inlineStr">
+        <is>
+          <t>2026-02-20 08:35:14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1176,6 +1181,9 @@
       <c r="CO2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CP2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1465,6 +1473,9 @@
       <c r="CO3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CP3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1754,6 +1765,9 @@
       <c r="CO4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CP4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2043,6 +2057,9 @@
       <c r="CO5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CP5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2332,6 +2349,9 @@
       <c r="CO6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CP6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2621,6 +2641,9 @@
       <c r="CO7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CP7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2910,6 +2933,9 @@
       <c r="CO8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CP8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3199,6 +3225,9 @@
       <c r="CO9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CP9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3492,6 +3521,9 @@
       <c r="CO10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CP10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3785,6 +3817,9 @@
       <c r="CO11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CP11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4078,6 +4113,9 @@
       <c r="CO12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CP12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4371,6 +4409,9 @@
       <c r="CO13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CP13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4660,6 +4701,9 @@
       <c r="CO14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CP14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4949,6 +4993,9 @@
       <c r="CO15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CP15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5238,6 +5285,9 @@
       <c r="CO16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CP16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5527,6 +5577,9 @@
       <c r="CO17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CP17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5820,6 +5873,9 @@
       <c r="CO18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CP18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6113,6 +6169,9 @@
       <c r="CO19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CP19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6402,6 +6461,9 @@
       <c r="CO20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CP20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6691,6 +6753,9 @@
       <c r="CO21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CP21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6984,6 +7049,9 @@
       <c r="CO22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CP22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7277,6 +7345,9 @@
       <c r="CO23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CP23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7570,6 +7641,9 @@
       <c r="CO24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CP24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7859,6 +7933,9 @@
       <c r="CO25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CP25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8148,6 +8225,9 @@
       <c r="CO26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CP26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8437,6 +8517,9 @@
       <c r="CO27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CP27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8726,6 +8809,9 @@
       <c r="CO28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CP28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9015,6 +9101,9 @@
       <c r="CO29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CP29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9304,6 +9393,9 @@
       <c r="CO30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CP30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9593,6 +9685,9 @@
       <c r="CO31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CP31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9882,6 +9977,9 @@
       <c r="CO32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CP32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10171,6 +10269,9 @@
       <c r="CO33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CP33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10460,6 +10561,9 @@
       <c r="CO34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CP34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10749,6 +10853,9 @@
       <c r="CO35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CP35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11038,6 +11145,9 @@
       <c r="CO36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CP36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11327,6 +11437,9 @@
       <c r="CO37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CP37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11616,6 +11729,9 @@
       <c r="CO38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CP38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11905,6 +12021,9 @@
       <c r="CO39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CP39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -12194,6 +12313,9 @@
       <c r="CO40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CP40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -12483,6 +12605,9 @@
       <c r="CO41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CP41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -12772,6 +12897,9 @@
       <c r="CO42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CP42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -13061,6 +13189,9 @@
       <c r="CO43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CP43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -13350,6 +13481,9 @@
       <c r="CO44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CP44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -13639,6 +13773,9 @@
       <c r="CO45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CP45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -13928,6 +14065,9 @@
       <c r="CO46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CP46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -14217,6 +14357,9 @@
       <c r="CO47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CP47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -14506,6 +14649,9 @@
       <c r="CO48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CP48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -14795,6 +14941,9 @@
       <c r="CO49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CP49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -15084,6 +15233,9 @@
       <c r="CO50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CP50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -15371,6 +15523,9 @@
         <v>1299.95</v>
       </c>
       <c r="CO51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CP51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -15588,6 +15743,7 @@
       <c r="CM52" t="inlineStr"/>
       <c r="CN52" t="inlineStr"/>
       <c r="CO52" t="inlineStr"/>
+      <c r="CP52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP52"/>
+  <dimension ref="A1:CQ52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -892,6 +892,11 @@
           <t>2026-02-20 08:35:14</t>
         </is>
       </c>
+      <c r="CQ1" t="inlineStr">
+        <is>
+          <t>2026-02-20 09:35:51</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1184,6 +1189,9 @@
       <c r="CP2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CQ2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1476,6 +1484,9 @@
       <c r="CP3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CQ3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1768,6 +1779,9 @@
       <c r="CP4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CQ4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2060,6 +2074,9 @@
       <c r="CP5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CQ5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2352,6 +2369,9 @@
       <c r="CP6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CQ6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2644,6 +2664,9 @@
       <c r="CP7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CQ7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2936,6 +2959,9 @@
       <c r="CP8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CQ8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3228,6 +3254,9 @@
       <c r="CP9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CQ9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3524,6 +3553,9 @@
       <c r="CP10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CQ10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3820,6 +3852,9 @@
       <c r="CP11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CQ11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4116,6 +4151,9 @@
       <c r="CP12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CQ12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4412,6 +4450,9 @@
       <c r="CP13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CQ13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4704,6 +4745,9 @@
       <c r="CP14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CQ14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4996,6 +5040,9 @@
       <c r="CP15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CQ15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5288,6 +5335,9 @@
       <c r="CP16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CQ16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5580,6 +5630,9 @@
       <c r="CP17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CQ17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5876,6 +5929,9 @@
       <c r="CP18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CQ18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6172,6 +6228,9 @@
       <c r="CP19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CQ19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6464,6 +6523,9 @@
       <c r="CP20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CQ20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6756,6 +6818,9 @@
       <c r="CP21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CQ21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7052,6 +7117,9 @@
       <c r="CP22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CQ22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7348,6 +7416,9 @@
       <c r="CP23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CQ23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7644,6 +7715,9 @@
       <c r="CP24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CQ24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7936,6 +8010,9 @@
       <c r="CP25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CQ25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8228,6 +8305,9 @@
       <c r="CP26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CQ26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8520,6 +8600,9 @@
       <c r="CP27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CQ27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8812,6 +8895,9 @@
       <c r="CP28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CQ28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9104,6 +9190,9 @@
       <c r="CP29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CQ29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9396,6 +9485,9 @@
       <c r="CP30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CQ30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9688,6 +9780,9 @@
       <c r="CP31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CQ31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9980,6 +10075,9 @@
       <c r="CP32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CQ32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10272,6 +10370,9 @@
       <c r="CP33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CQ33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10564,6 +10665,9 @@
       <c r="CP34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CQ34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10856,6 +10960,9 @@
       <c r="CP35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CQ35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11148,6 +11255,9 @@
       <c r="CP36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CQ36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11440,6 +11550,9 @@
       <c r="CP37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CQ37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11732,6 +11845,9 @@
       <c r="CP38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CQ38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -12024,6 +12140,9 @@
       <c r="CP39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CQ39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -12316,6 +12435,9 @@
       <c r="CP40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CQ40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -12608,6 +12730,9 @@
       <c r="CP41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CQ41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -12900,6 +13025,9 @@
       <c r="CP42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CQ42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -13192,6 +13320,9 @@
       <c r="CP43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CQ43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -13484,6 +13615,9 @@
       <c r="CP44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CQ44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -13776,6 +13910,9 @@
       <c r="CP45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CQ45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -14068,6 +14205,9 @@
       <c r="CP46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CQ46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -14360,6 +14500,9 @@
       <c r="CP47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CQ47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -14652,6 +14795,9 @@
       <c r="CP48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CQ48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -14944,6 +15090,9 @@
       <c r="CP49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CQ49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -15236,6 +15385,9 @@
       <c r="CP50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CQ50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -15526,6 +15678,9 @@
         <v>1299.95</v>
       </c>
       <c r="CP51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CQ51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -15744,6 +15899,7 @@
       <c r="CN52" t="inlineStr"/>
       <c r="CO52" t="inlineStr"/>
       <c r="CP52" t="inlineStr"/>
+      <c r="CQ52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQ52"/>
+  <dimension ref="A1:CR52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,6 +897,11 @@
           <t>2026-02-20 09:35:51</t>
         </is>
       </c>
+      <c r="CR1" t="inlineStr">
+        <is>
+          <t>2026-02-20 10:32:06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1192,6 +1197,9 @@
       <c r="CQ2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CR2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1487,6 +1495,9 @@
       <c r="CQ3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CR3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1782,6 +1793,9 @@
       <c r="CQ4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CR4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2077,6 +2091,9 @@
       <c r="CQ5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CR5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2372,6 +2389,9 @@
       <c r="CQ6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CR6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2667,6 +2687,9 @@
       <c r="CQ7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CR7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2962,6 +2985,9 @@
       <c r="CQ8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CR8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3257,6 +3283,9 @@
       <c r="CQ9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CR9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3556,6 +3585,9 @@
       <c r="CQ10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CR10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3855,6 +3887,9 @@
       <c r="CQ11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CR11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4154,6 +4189,9 @@
       <c r="CQ12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CR12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4453,6 +4491,9 @@
       <c r="CQ13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CR13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4748,6 +4789,9 @@
       <c r="CQ14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CR14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5043,6 +5087,9 @@
       <c r="CQ15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CR15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5338,6 +5385,9 @@
       <c r="CQ16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CR16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5633,6 +5683,9 @@
       <c r="CQ17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CR17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5932,6 +5985,9 @@
       <c r="CQ18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CR18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6231,6 +6287,9 @@
       <c r="CQ19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CR19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6526,6 +6585,9 @@
       <c r="CQ20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CR20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6821,6 +6883,9 @@
       <c r="CQ21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CR21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7120,6 +7185,9 @@
       <c r="CQ22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CR22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7419,6 +7487,9 @@
       <c r="CQ23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CR23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7718,6 +7789,9 @@
       <c r="CQ24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CR24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8013,6 +8087,9 @@
       <c r="CQ25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CR25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8308,6 +8385,9 @@
       <c r="CQ26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CR26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8603,6 +8683,9 @@
       <c r="CQ27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CR27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8898,6 +8981,9 @@
       <c r="CQ28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CR28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9193,6 +9279,9 @@
       <c r="CQ29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CR29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9488,6 +9577,9 @@
       <c r="CQ30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CR30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9783,6 +9875,9 @@
       <c r="CQ31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CR31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -10078,6 +10173,9 @@
       <c r="CQ32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CR32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10373,6 +10471,9 @@
       <c r="CQ33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CR33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10668,6 +10769,9 @@
       <c r="CQ34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CR34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10963,6 +11067,9 @@
       <c r="CQ35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CR35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11258,6 +11365,9 @@
       <c r="CQ36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CR36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11553,6 +11663,9 @@
       <c r="CQ37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CR37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11848,6 +11961,9 @@
       <c r="CQ38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CR38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -12143,6 +12259,9 @@
       <c r="CQ39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CR39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -12438,6 +12557,9 @@
       <c r="CQ40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CR40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -12733,6 +12855,9 @@
       <c r="CQ41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CR41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -13028,6 +13153,9 @@
       <c r="CQ42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CR42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -13323,6 +13451,9 @@
       <c r="CQ43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CR43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -13618,6 +13749,9 @@
       <c r="CQ44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CR44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -13913,6 +14047,9 @@
       <c r="CQ45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CR45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -14208,6 +14345,9 @@
       <c r="CQ46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CR46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -14503,6 +14643,9 @@
       <c r="CQ47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CR47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -14798,6 +14941,9 @@
       <c r="CQ48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CR48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -15093,6 +15239,9 @@
       <c r="CQ49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CR49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -15388,6 +15537,9 @@
       <c r="CQ50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CR50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -15681,6 +15833,9 @@
         <v>1299.95</v>
       </c>
       <c r="CQ51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CR51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -15900,6 +16055,7 @@
       <c r="CO52" t="inlineStr"/>
       <c r="CP52" t="inlineStr"/>
       <c r="CQ52" t="inlineStr"/>
+      <c r="CR52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CR52"/>
+  <dimension ref="A1:CS52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -902,6 +902,11 @@
           <t>2026-02-20 10:32:06</t>
         </is>
       </c>
+      <c r="CS1" t="inlineStr">
+        <is>
+          <t>2026-02-20 11:28:22</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1200,6 +1205,9 @@
       <c r="CR2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CS2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1498,6 +1506,9 @@
       <c r="CR3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CS3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1796,6 +1807,9 @@
       <c r="CR4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CS4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2094,6 +2108,9 @@
       <c r="CR5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CS5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2392,6 +2409,9 @@
       <c r="CR6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CS6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2690,6 +2710,9 @@
       <c r="CR7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CS7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2988,6 +3011,9 @@
       <c r="CR8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CS8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3286,6 +3312,9 @@
       <c r="CR9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CS9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3588,6 +3617,9 @@
       <c r="CR10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CS10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3890,6 +3922,9 @@
       <c r="CR11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CS11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4192,6 +4227,9 @@
       <c r="CR12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CS12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4494,6 +4532,9 @@
       <c r="CR13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CS13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4792,6 +4833,9 @@
       <c r="CR14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CS14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5090,6 +5134,9 @@
       <c r="CR15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CS15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5388,6 +5435,9 @@
       <c r="CR16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CS16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5686,6 +5736,9 @@
       <c r="CR17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CS17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5988,6 +6041,9 @@
       <c r="CR18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CS18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6290,6 +6346,9 @@
       <c r="CR19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CS19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6588,6 +6647,9 @@
       <c r="CR20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CS20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6886,6 +6948,9 @@
       <c r="CR21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CS21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7188,6 +7253,9 @@
       <c r="CR22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CS22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7490,6 +7558,9 @@
       <c r="CR23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CS23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7792,6 +7863,9 @@
       <c r="CR24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CS24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8090,6 +8164,9 @@
       <c r="CR25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CS25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8388,6 +8465,9 @@
       <c r="CR26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CS26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8686,6 +8766,9 @@
       <c r="CR27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CS27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8984,6 +9067,9 @@
       <c r="CR28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CS28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9282,6 +9368,9 @@
       <c r="CR29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CS29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9580,6 +9669,9 @@
       <c r="CR30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CS30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9878,6 +9970,9 @@
       <c r="CR31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CS31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -10176,6 +10271,9 @@
       <c r="CR32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CS32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10474,6 +10572,9 @@
       <c r="CR33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CS33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10772,6 +10873,9 @@
       <c r="CR34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CS34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11070,6 +11174,9 @@
       <c r="CR35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CS35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11368,6 +11475,9 @@
       <c r="CR36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CS36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11666,6 +11776,9 @@
       <c r="CR37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CS37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11964,6 +12077,9 @@
       <c r="CR38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CS38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -12262,6 +12378,9 @@
       <c r="CR39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CS39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -12560,6 +12679,9 @@
       <c r="CR40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CS40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -12858,6 +12980,9 @@
       <c r="CR41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CS41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -13156,6 +13281,9 @@
       <c r="CR42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CS42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -13454,6 +13582,9 @@
       <c r="CR43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CS43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -13752,6 +13883,9 @@
       <c r="CR44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CS44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -14050,6 +14184,9 @@
       <c r="CR45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CS45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -14348,6 +14485,9 @@
       <c r="CR46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CS46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -14646,6 +14786,9 @@
       <c r="CR47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CS47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -14944,6 +15087,9 @@
       <c r="CR48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CS48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -15242,6 +15388,9 @@
       <c r="CR49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CS49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -15540,6 +15689,9 @@
       <c r="CR50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CS50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -15836,6 +15988,9 @@
         <v>1299.95</v>
       </c>
       <c r="CR51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CS51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -16056,6 +16211,7 @@
       <c r="CP52" t="inlineStr"/>
       <c r="CQ52" t="inlineStr"/>
       <c r="CR52" t="inlineStr"/>
+      <c r="CS52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CS52"/>
+  <dimension ref="A1:CT52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,6 +907,11 @@
           <t>2026-02-20 11:28:22</t>
         </is>
       </c>
+      <c r="CT1" t="inlineStr">
+        <is>
+          <t>2026-02-20 12:44:22</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1208,6 +1213,9 @@
       <c r="CS2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CT2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1509,6 +1517,9 @@
       <c r="CS3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CT3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1810,6 +1821,9 @@
       <c r="CS4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CT4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2111,6 +2125,9 @@
       <c r="CS5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CT5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2412,6 +2429,9 @@
       <c r="CS6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CT6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2713,6 +2733,9 @@
       <c r="CS7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CT7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3014,6 +3037,9 @@
       <c r="CS8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CT8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3315,6 +3341,9 @@
       <c r="CS9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CT9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3620,6 +3649,9 @@
       <c r="CS10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CT10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3925,6 +3957,9 @@
       <c r="CS11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CT11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4230,6 +4265,9 @@
       <c r="CS12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CT12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4535,6 +4573,9 @@
       <c r="CS13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CT13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4836,6 +4877,9 @@
       <c r="CS14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CT14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5137,6 +5181,9 @@
       <c r="CS15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CT15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5438,6 +5485,9 @@
       <c r="CS16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CT16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5739,6 +5789,9 @@
       <c r="CS17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CT17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6044,6 +6097,9 @@
       <c r="CS18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CT18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6349,6 +6405,9 @@
       <c r="CS19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CT19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6650,6 +6709,9 @@
       <c r="CS20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CT20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6951,6 +7013,9 @@
       <c r="CS21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CT21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7256,6 +7321,9 @@
       <c r="CS22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CT22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7561,6 +7629,9 @@
       <c r="CS23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CT23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7866,6 +7937,9 @@
       <c r="CS24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CT24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8167,6 +8241,9 @@
       <c r="CS25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CT25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8468,6 +8545,9 @@
       <c r="CS26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CT26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8769,6 +8849,9 @@
       <c r="CS27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CT27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -9070,6 +9153,9 @@
       <c r="CS28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CT28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9371,6 +9457,9 @@
       <c r="CS29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CT29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9672,6 +9761,9 @@
       <c r="CS30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CT30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9973,6 +10065,9 @@
       <c r="CS31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CT31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -10274,6 +10369,9 @@
       <c r="CS32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CT32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10575,6 +10673,9 @@
       <c r="CS33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CT33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10876,6 +10977,9 @@
       <c r="CS34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CT34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11177,6 +11281,9 @@
       <c r="CS35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CT35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11478,6 +11585,9 @@
       <c r="CS36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CT36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11779,6 +11889,9 @@
       <c r="CS37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CT37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -12080,6 +12193,9 @@
       <c r="CS38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CT38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -12381,6 +12497,9 @@
       <c r="CS39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CT39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -12682,6 +12801,9 @@
       <c r="CS40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CT40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -12983,6 +13105,9 @@
       <c r="CS41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CT41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -13284,6 +13409,9 @@
       <c r="CS42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CT42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -13585,6 +13713,9 @@
       <c r="CS43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CT43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -13886,6 +14017,9 @@
       <c r="CS44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CT44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -14187,6 +14321,9 @@
       <c r="CS45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CT45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -14488,6 +14625,9 @@
       <c r="CS46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CT46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -14789,6 +14929,9 @@
       <c r="CS47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CT47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -15090,6 +15233,9 @@
       <c r="CS48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CT48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -15391,6 +15537,9 @@
       <c r="CS49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CT49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -15692,6 +15841,9 @@
       <c r="CS50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CT50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -15991,6 +16143,9 @@
         <v>1299.95</v>
       </c>
       <c r="CS51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CT51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -16212,6 +16367,7 @@
       <c r="CQ52" t="inlineStr"/>
       <c r="CR52" t="inlineStr"/>
       <c r="CS52" t="inlineStr"/>
+      <c r="CT52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CT52"/>
+  <dimension ref="A1:CU52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,6 +912,11 @@
           <t>2026-02-20 12:44:22</t>
         </is>
       </c>
+      <c r="CU1" t="inlineStr">
+        <is>
+          <t>2026-02-20 13:57:44</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1216,6 +1221,9 @@
       <c r="CT2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CU2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1520,6 +1528,9 @@
       <c r="CT3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CU3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1824,6 +1835,9 @@
       <c r="CT4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CU4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2128,6 +2142,9 @@
       <c r="CT5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CU5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2432,6 +2449,9 @@
       <c r="CT6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CU6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2736,6 +2756,9 @@
       <c r="CT7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CU7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3040,6 +3063,9 @@
       <c r="CT8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CU8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3344,6 +3370,9 @@
       <c r="CT9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CU9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3652,6 +3681,9 @@
       <c r="CT10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CU10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3960,6 +3992,9 @@
       <c r="CT11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CU11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4268,6 +4303,9 @@
       <c r="CT12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CU12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4576,6 +4614,9 @@
       <c r="CT13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CU13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4880,6 +4921,9 @@
       <c r="CT14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CU14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5184,6 +5228,9 @@
       <c r="CT15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CU15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5488,6 +5535,9 @@
       <c r="CT16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CU16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5792,6 +5842,9 @@
       <c r="CT17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CU17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6100,6 +6153,9 @@
       <c r="CT18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CU18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6408,6 +6464,9 @@
       <c r="CT19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CU19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6712,6 +6771,9 @@
       <c r="CT20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CU20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7016,6 +7078,9 @@
       <c r="CT21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CU21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7324,6 +7389,9 @@
       <c r="CT22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CU22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7632,6 +7700,9 @@
       <c r="CT23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CU23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7940,6 +8011,9 @@
       <c r="CT24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CU24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8244,6 +8318,9 @@
       <c r="CT25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CU25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8548,6 +8625,9 @@
       <c r="CT26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CU26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8852,6 +8932,9 @@
       <c r="CT27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CU27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -9156,6 +9239,9 @@
       <c r="CT28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CU28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9460,6 +9546,9 @@
       <c r="CT29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CU29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9764,6 +9853,9 @@
       <c r="CT30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CU30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -10068,6 +10160,9 @@
       <c r="CT31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CU31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -10372,6 +10467,9 @@
       <c r="CT32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CU32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10676,6 +10774,9 @@
       <c r="CT33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CU33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10980,6 +11081,9 @@
       <c r="CT34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CU34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11284,6 +11388,9 @@
       <c r="CT35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CU35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11588,6 +11695,9 @@
       <c r="CT36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CU36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11892,6 +12002,9 @@
       <c r="CT37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CU37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -12196,6 +12309,9 @@
       <c r="CT38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CU38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -12500,6 +12616,9 @@
       <c r="CT39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CU39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -12804,6 +12923,9 @@
       <c r="CT40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CU40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -13108,6 +13230,9 @@
       <c r="CT41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CU41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -13412,6 +13537,9 @@
       <c r="CT42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CU42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -13716,6 +13844,9 @@
       <c r="CT43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CU43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -14020,6 +14151,9 @@
       <c r="CT44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CU44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -14324,6 +14458,9 @@
       <c r="CT45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CU45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -14628,6 +14765,9 @@
       <c r="CT46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CU46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -14932,6 +15072,9 @@
       <c r="CT47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CU47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -15236,6 +15379,9 @@
       <c r="CT48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CU48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -15540,6 +15686,9 @@
       <c r="CT49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CU49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -15844,6 +15993,9 @@
       <c r="CT50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CU50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -16146,6 +16298,9 @@
         <v>1299.95</v>
       </c>
       <c r="CT51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CU51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -16368,6 +16523,7 @@
       <c r="CR52" t="inlineStr"/>
       <c r="CS52" t="inlineStr"/>
       <c r="CT52" t="inlineStr"/>
+      <c r="CU52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CU52"/>
+  <dimension ref="A1:CV52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,6 +917,11 @@
           <t>2026-02-20 13:57:44</t>
         </is>
       </c>
+      <c r="CV1" t="inlineStr">
+        <is>
+          <t>2026-02-20 14:39:06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1224,6 +1229,9 @@
       <c r="CU2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CV2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1531,6 +1539,9 @@
       <c r="CU3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CV3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1838,6 +1849,9 @@
       <c r="CU4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CV4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2145,6 +2159,9 @@
       <c r="CU5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CV5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2452,6 +2469,9 @@
       <c r="CU6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CV6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2759,6 +2779,9 @@
       <c r="CU7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CV7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3066,6 +3089,9 @@
       <c r="CU8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CV8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3373,6 +3399,9 @@
       <c r="CU9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CV9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3684,6 +3713,9 @@
       <c r="CU10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CV10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3995,6 +4027,9 @@
       <c r="CU11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CV11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4306,6 +4341,9 @@
       <c r="CU12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CV12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4617,6 +4655,9 @@
       <c r="CU13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CV13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4924,6 +4965,9 @@
       <c r="CU14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CV14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5231,6 +5275,9 @@
       <c r="CU15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CV15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5538,6 +5585,9 @@
       <c r="CU16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CV16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5845,6 +5895,9 @@
       <c r="CU17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CV17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6156,6 +6209,9 @@
       <c r="CU18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CV18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6467,6 +6523,9 @@
       <c r="CU19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CV19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6774,6 +6833,9 @@
       <c r="CU20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CV20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7081,6 +7143,9 @@
       <c r="CU21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CV21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7392,6 +7457,9 @@
       <c r="CU22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CV22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7703,6 +7771,9 @@
       <c r="CU23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CV23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8014,6 +8085,9 @@
       <c r="CU24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CV24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8321,6 +8395,9 @@
       <c r="CU25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CV25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8628,6 +8705,9 @@
       <c r="CU26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CV26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8935,6 +9015,9 @@
       <c r="CU27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CV27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -9242,6 +9325,9 @@
       <c r="CU28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CV28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9549,6 +9635,9 @@
       <c r="CU29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CV29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9856,6 +9945,9 @@
       <c r="CU30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CV30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -10163,6 +10255,9 @@
       <c r="CU31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CV31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -10470,6 +10565,9 @@
       <c r="CU32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CV32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10777,6 +10875,9 @@
       <c r="CU33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CV33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11084,6 +11185,9 @@
       <c r="CU34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CV34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11391,6 +11495,9 @@
       <c r="CU35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CV35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11698,6 +11805,9 @@
       <c r="CU36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CV36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -12005,6 +12115,9 @@
       <c r="CU37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CV37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -12312,6 +12425,9 @@
       <c r="CU38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CV38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -12619,6 +12735,9 @@
       <c r="CU39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CV39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -12926,6 +13045,9 @@
       <c r="CU40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CV40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -13233,6 +13355,9 @@
       <c r="CU41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CV41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -13540,6 +13665,9 @@
       <c r="CU42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CV42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -13847,6 +13975,9 @@
       <c r="CU43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CV43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -14154,6 +14285,9 @@
       <c r="CU44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CV44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -14461,6 +14595,9 @@
       <c r="CU45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CV45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -14768,6 +14905,9 @@
       <c r="CU46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CV46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -15075,6 +15215,9 @@
       <c r="CU47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CV47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -15382,6 +15525,9 @@
       <c r="CU48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CV48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -15689,6 +15835,9 @@
       <c r="CU49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CV49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -15996,6 +16145,9 @@
       <c r="CU50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CV50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -16301,6 +16453,9 @@
         <v>1299.95</v>
       </c>
       <c r="CU51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CV51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -16524,6 +16679,7 @@
       <c r="CS52" t="inlineStr"/>
       <c r="CT52" t="inlineStr"/>
       <c r="CU52" t="inlineStr"/>
+      <c r="CV52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV52"/>
+  <dimension ref="A1:CW52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,6 +922,11 @@
           <t>2026-02-20 14:39:06</t>
         </is>
       </c>
+      <c r="CW1" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:33:45</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1232,6 +1237,9 @@
       <c r="CV2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CW2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1542,6 +1550,9 @@
       <c r="CV3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CW3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1852,6 +1863,9 @@
       <c r="CV4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CW4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2162,6 +2176,9 @@
       <c r="CV5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CW5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2472,6 +2489,9 @@
       <c r="CV6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CW6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2782,6 +2802,9 @@
       <c r="CV7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CW7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3092,6 +3115,9 @@
       <c r="CV8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CW8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3402,6 +3428,9 @@
       <c r="CV9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CW9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3716,6 +3745,9 @@
       <c r="CV10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CW10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4030,6 +4062,9 @@
       <c r="CV11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CW11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4344,6 +4379,9 @@
       <c r="CV12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CW12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4658,6 +4696,9 @@
       <c r="CV13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CW13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4968,6 +5009,9 @@
       <c r="CV14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CW14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5278,6 +5322,9 @@
       <c r="CV15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CW15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5588,6 +5635,9 @@
       <c r="CV16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CW16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5898,6 +5948,9 @@
       <c r="CV17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CW17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6212,6 +6265,9 @@
       <c r="CV18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CW18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6526,6 +6582,9 @@
       <c r="CV19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CW19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6836,6 +6895,9 @@
       <c r="CV20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CW20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7146,6 +7208,9 @@
       <c r="CV21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CW21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7460,6 +7525,9 @@
       <c r="CV22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CW22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7774,6 +7842,9 @@
       <c r="CV23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CW23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8088,6 +8159,9 @@
       <c r="CV24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CW24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8398,6 +8472,9 @@
       <c r="CV25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CW25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8708,6 +8785,9 @@
       <c r="CV26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CW26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9018,6 +9098,9 @@
       <c r="CV27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CW27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -9328,6 +9411,9 @@
       <c r="CV28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CW28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9638,6 +9724,9 @@
       <c r="CV29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CW29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9948,6 +10037,9 @@
       <c r="CV30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CW30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -10258,6 +10350,9 @@
       <c r="CV31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CW31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -10568,6 +10663,9 @@
       <c r="CV32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CW32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10878,6 +10976,9 @@
       <c r="CV33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CW33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11188,6 +11289,9 @@
       <c r="CV34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CW34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11498,6 +11602,9 @@
       <c r="CV35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CW35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11808,6 +11915,9 @@
       <c r="CV36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CW36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -12118,6 +12228,9 @@
       <c r="CV37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CW37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -12428,6 +12541,9 @@
       <c r="CV38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CW38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -12738,6 +12854,9 @@
       <c r="CV39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CW39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -13048,6 +13167,9 @@
       <c r="CV40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CW40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -13358,6 +13480,9 @@
       <c r="CV41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CW41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -13668,6 +13793,9 @@
       <c r="CV42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CW42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -13978,6 +14106,9 @@
       <c r="CV43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CW43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -14288,6 +14419,9 @@
       <c r="CV44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CW44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -14598,6 +14732,9 @@
       <c r="CV45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CW45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -14908,6 +15045,9 @@
       <c r="CV46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CW46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -15218,6 +15358,9 @@
       <c r="CV47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CW47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -15528,6 +15671,9 @@
       <c r="CV48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CW48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -15838,6 +15984,9 @@
       <c r="CV49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CW49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -16148,6 +16297,9 @@
       <c r="CV50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CW50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -16456,6 +16608,9 @@
         <v>1299.95</v>
       </c>
       <c r="CV51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CW51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -16680,6 +16835,7 @@
       <c r="CT52" t="inlineStr"/>
       <c r="CU52" t="inlineStr"/>
       <c r="CV52" t="inlineStr"/>
+      <c r="CW52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW52"/>
+  <dimension ref="A1:CX52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -927,6 +927,11 @@
           <t>2026-02-20 15:33:45</t>
         </is>
       </c>
+      <c r="CX1" t="inlineStr">
+        <is>
+          <t>2026-02-20 16:31:41</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1240,6 +1245,9 @@
       <c r="CW2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CX2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1553,6 +1561,9 @@
       <c r="CW3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CX3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1866,6 +1877,9 @@
       <c r="CW4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CX4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2179,6 +2193,9 @@
       <c r="CW5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CX5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2492,6 +2509,9 @@
       <c r="CW6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CX6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2805,6 +2825,9 @@
       <c r="CW7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CX7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3118,6 +3141,9 @@
       <c r="CW8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CX8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3431,6 +3457,9 @@
       <c r="CW9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CX9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3748,6 +3777,9 @@
       <c r="CW10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CX10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4065,6 +4097,9 @@
       <c r="CW11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CX11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4382,6 +4417,9 @@
       <c r="CW12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CX12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4699,6 +4737,9 @@
       <c r="CW13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CX13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5012,6 +5053,9 @@
       <c r="CW14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CX14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5325,6 +5369,9 @@
       <c r="CW15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CX15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5638,6 +5685,9 @@
       <c r="CW16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CX16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5951,6 +6001,9 @@
       <c r="CW17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CX17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6268,6 +6321,9 @@
       <c r="CW18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CX18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6585,6 +6641,9 @@
       <c r="CW19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CX19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6898,6 +6957,9 @@
       <c r="CW20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CX20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7211,6 +7273,9 @@
       <c r="CW21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CX21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7528,6 +7593,9 @@
       <c r="CW22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CX22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7845,6 +7913,9 @@
       <c r="CW23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CX23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8162,6 +8233,9 @@
       <c r="CW24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CX24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8475,6 +8549,9 @@
       <c r="CW25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CX25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8788,6 +8865,9 @@
       <c r="CW26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CX26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9101,6 +9181,9 @@
       <c r="CW27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CX27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -9414,6 +9497,9 @@
       <c r="CW28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CX28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9727,6 +9813,9 @@
       <c r="CW29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CX29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -10040,6 +10129,9 @@
       <c r="CW30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CX30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -10353,6 +10445,9 @@
       <c r="CW31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CX31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -10666,6 +10761,9 @@
       <c r="CW32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CX32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10979,6 +11077,9 @@
       <c r="CW33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CX33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11292,6 +11393,9 @@
       <c r="CW34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CX34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11605,6 +11709,9 @@
       <c r="CW35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CX35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11918,6 +12025,9 @@
       <c r="CW36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CX36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -12231,6 +12341,9 @@
       <c r="CW37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CX37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -12544,6 +12657,9 @@
       <c r="CW38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CX38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -12857,6 +12973,9 @@
       <c r="CW39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CX39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -13170,6 +13289,9 @@
       <c r="CW40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CX40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -13483,6 +13605,9 @@
       <c r="CW41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CX41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -13796,6 +13921,9 @@
       <c r="CW42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CX42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -14109,6 +14237,9 @@
       <c r="CW43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CX43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -14422,6 +14553,9 @@
       <c r="CW44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CX44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -14735,6 +14869,9 @@
       <c r="CW45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CX45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -15048,6 +15185,9 @@
       <c r="CW46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CX46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -15361,6 +15501,9 @@
       <c r="CW47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CX47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -15674,6 +15817,9 @@
       <c r="CW48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CX48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -15987,6 +16133,9 @@
       <c r="CW49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CX49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -16300,6 +16449,9 @@
       <c r="CW50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CX50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -16611,6 +16763,9 @@
         <v>1299.95</v>
       </c>
       <c r="CW51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CX51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -16836,6 +16991,7 @@
       <c r="CU52" t="inlineStr"/>
       <c r="CV52" t="inlineStr"/>
       <c r="CW52" t="inlineStr"/>
+      <c r="CX52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX52"/>
+  <dimension ref="A1:CY52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -932,6 +932,11 @@
           <t>2026-02-20 16:31:41</t>
         </is>
       </c>
+      <c r="CY1" t="inlineStr">
+        <is>
+          <t>2026-02-20 17:33:34</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1248,6 +1253,9 @@
       <c r="CX2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CY2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1564,6 +1572,9 @@
       <c r="CX3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CY3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1880,6 +1891,9 @@
       <c r="CX4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CY4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2196,6 +2210,9 @@
       <c r="CX5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CY5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2512,6 +2529,9 @@
       <c r="CX6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CY6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2828,6 +2848,9 @@
       <c r="CX7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CY7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3144,6 +3167,9 @@
       <c r="CX8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CY8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3460,6 +3486,9 @@
       <c r="CX9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CY9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3780,6 +3809,9 @@
       <c r="CX10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CY10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4100,6 +4132,9 @@
       <c r="CX11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CY11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4420,6 +4455,9 @@
       <c r="CX12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CY12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4740,6 +4778,9 @@
       <c r="CX13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CY13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5056,6 +5097,9 @@
       <c r="CX14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CY14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5372,6 +5416,9 @@
       <c r="CX15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CY15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5688,6 +5735,9 @@
       <c r="CX16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CY16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6004,6 +6054,9 @@
       <c r="CX17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CY17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6324,6 +6377,9 @@
       <c r="CX18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CY18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6644,6 +6700,9 @@
       <c r="CX19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CY19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6960,6 +7019,9 @@
       <c r="CX20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CY20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7276,6 +7338,9 @@
       <c r="CX21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CY21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7596,6 +7661,9 @@
       <c r="CX22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CY22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7916,6 +7984,9 @@
       <c r="CX23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CY23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8236,6 +8307,9 @@
       <c r="CX24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CY24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8552,6 +8626,9 @@
       <c r="CX25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CY25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8868,6 +8945,9 @@
       <c r="CX26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CY26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9184,6 +9264,9 @@
       <c r="CX27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CY27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -9500,6 +9583,9 @@
       <c r="CX28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CY28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9816,6 +9902,9 @@
       <c r="CX29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CY29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -10132,6 +10221,9 @@
       <c r="CX30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CY30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -10448,6 +10540,9 @@
       <c r="CX31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CY31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -10764,6 +10859,9 @@
       <c r="CX32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CY32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11080,6 +11178,9 @@
       <c r="CX33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CY33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11396,6 +11497,9 @@
       <c r="CX34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CY34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11712,6 +11816,9 @@
       <c r="CX35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CY35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -12028,6 +12135,9 @@
       <c r="CX36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CY36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -12344,6 +12454,9 @@
       <c r="CX37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CY37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -12660,6 +12773,9 @@
       <c r="CX38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CY38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -12976,6 +13092,9 @@
       <c r="CX39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CY39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -13292,6 +13411,9 @@
       <c r="CX40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CY40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -13608,6 +13730,9 @@
       <c r="CX41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CY41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -13924,6 +14049,9 @@
       <c r="CX42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CY42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -14240,6 +14368,9 @@
       <c r="CX43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CY43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -14556,6 +14687,9 @@
       <c r="CX44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CY44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -14872,6 +15006,9 @@
       <c r="CX45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CY45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -15188,6 +15325,9 @@
       <c r="CX46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CY46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -15504,6 +15644,9 @@
       <c r="CX47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CY47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -15820,6 +15963,9 @@
       <c r="CX48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CY48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -16136,6 +16282,9 @@
       <c r="CX49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CY49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -16452,6 +16601,9 @@
       <c r="CX50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CY50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -16766,6 +16918,9 @@
         <v>1299.95</v>
       </c>
       <c r="CX51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CY51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -16992,6 +17147,7 @@
       <c r="CV52" t="inlineStr"/>
       <c r="CW52" t="inlineStr"/>
       <c r="CX52" t="inlineStr"/>
+      <c r="CY52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CY52"/>
+  <dimension ref="A1:CZ52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,6 +937,11 @@
           <t>2026-02-20 17:33:34</t>
         </is>
       </c>
+      <c r="CZ1" t="inlineStr">
+        <is>
+          <t>2026-02-20 18:40:58</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1256,6 +1261,9 @@
       <c r="CY2" t="n">
         <v>129.95</v>
       </c>
+      <c r="CZ2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1575,6 +1583,9 @@
       <c r="CY3" t="n">
         <v>149.95</v>
       </c>
+      <c r="CZ3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1894,6 +1905,9 @@
       <c r="CY4" t="n">
         <v>149.95</v>
       </c>
+      <c r="CZ4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2213,6 +2227,9 @@
       <c r="CY5" t="n">
         <v>149.95</v>
       </c>
+      <c r="CZ5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2532,6 +2549,9 @@
       <c r="CY6" t="n">
         <v>149.95</v>
       </c>
+      <c r="CZ6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2851,6 +2871,9 @@
       <c r="CY7" t="n">
         <v>149.95</v>
       </c>
+      <c r="CZ7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3170,6 +3193,9 @@
       <c r="CY8" t="n">
         <v>149.95</v>
       </c>
+      <c r="CZ8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3489,6 +3515,9 @@
       <c r="CY9" t="n">
         <v>168.95</v>
       </c>
+      <c r="CZ9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3812,6 +3841,9 @@
       <c r="CY10" t="n">
         <v>179.95</v>
       </c>
+      <c r="CZ10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4135,6 +4167,9 @@
       <c r="CY11" t="n">
         <v>179.95</v>
       </c>
+      <c r="CZ11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4458,6 +4493,9 @@
       <c r="CY12" t="n">
         <v>179.95</v>
       </c>
+      <c r="CZ12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4781,6 +4819,9 @@
       <c r="CY13" t="n">
         <v>179.95</v>
       </c>
+      <c r="CZ13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5100,6 +5141,9 @@
       <c r="CY14" t="n">
         <v>179.95</v>
       </c>
+      <c r="CZ14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5419,6 +5463,9 @@
       <c r="CY15" t="n">
         <v>179.95</v>
       </c>
+      <c r="CZ15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5738,6 +5785,9 @@
       <c r="CY16" t="n">
         <v>179.95</v>
       </c>
+      <c r="CZ16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6057,6 +6107,9 @@
       <c r="CY17" t="n">
         <v>189.95</v>
       </c>
+      <c r="CZ17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6380,6 +6433,9 @@
       <c r="CY18" t="n">
         <v>209.95</v>
       </c>
+      <c r="CZ18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6703,6 +6759,9 @@
       <c r="CY19" t="n">
         <v>209.95</v>
       </c>
+      <c r="CZ19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7022,6 +7081,9 @@
       <c r="CY20" t="n">
         <v>219.95</v>
       </c>
+      <c r="CZ20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7341,6 +7403,9 @@
       <c r="CY21" t="n">
         <v>248.62</v>
       </c>
+      <c r="CZ21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7664,6 +7729,9 @@
       <c r="CY22" t="n">
         <v>249.95</v>
       </c>
+      <c r="CZ22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7987,6 +8055,9 @@
       <c r="CY23" t="n">
         <v>249.95</v>
       </c>
+      <c r="CZ23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8310,6 +8381,9 @@
       <c r="CY24" t="n">
         <v>249.95</v>
       </c>
+      <c r="CZ24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8629,6 +8703,9 @@
       <c r="CY25" t="n">
         <v>249.95</v>
       </c>
+      <c r="CZ25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8948,6 +9025,9 @@
       <c r="CY26" t="n">
         <v>249.95</v>
       </c>
+      <c r="CZ26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9267,6 +9347,9 @@
       <c r="CY27" t="n">
         <v>249.95</v>
       </c>
+      <c r="CZ27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -9586,6 +9669,9 @@
       <c r="CY28" t="n">
         <v>279.95</v>
       </c>
+      <c r="CZ28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9905,6 +9991,9 @@
       <c r="CY29" t="n">
         <v>299.95</v>
       </c>
+      <c r="CZ29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -10224,6 +10313,9 @@
       <c r="CY30" t="n">
         <v>299.95</v>
       </c>
+      <c r="CZ30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -10543,6 +10635,9 @@
       <c r="CY31" t="n">
         <v>299.95</v>
       </c>
+      <c r="CZ31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -10862,6 +10957,9 @@
       <c r="CY32" t="n">
         <v>399.95</v>
       </c>
+      <c r="CZ32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11181,6 +11279,9 @@
       <c r="CY33" t="n">
         <v>399.95</v>
       </c>
+      <c r="CZ33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11500,6 +11601,9 @@
       <c r="CY34" t="n">
         <v>399.95</v>
       </c>
+      <c r="CZ34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11819,6 +11923,9 @@
       <c r="CY35" t="n">
         <v>429.95</v>
       </c>
+      <c r="CZ35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -12138,6 +12245,9 @@
       <c r="CY36" t="n">
         <v>429.95</v>
       </c>
+      <c r="CZ36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -12457,6 +12567,9 @@
       <c r="CY37" t="n">
         <v>429.95</v>
       </c>
+      <c r="CZ37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -12776,6 +12889,9 @@
       <c r="CY38" t="n">
         <v>499.95</v>
       </c>
+      <c r="CZ38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -13095,6 +13211,9 @@
       <c r="CY39" t="n">
         <v>499.95</v>
       </c>
+      <c r="CZ39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -13414,6 +13533,9 @@
       <c r="CY40" t="n">
         <v>499.95</v>
       </c>
+      <c r="CZ40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -13733,6 +13855,9 @@
       <c r="CY41" t="n">
         <v>549.95</v>
       </c>
+      <c r="CZ41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -14052,6 +14177,9 @@
       <c r="CY42" t="n">
         <v>549.95</v>
       </c>
+      <c r="CZ42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -14371,6 +14499,9 @@
       <c r="CY43" t="n">
         <v>549.95</v>
       </c>
+      <c r="CZ43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -14690,6 +14821,9 @@
       <c r="CY44" t="n">
         <v>649.95</v>
       </c>
+      <c r="CZ44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -15009,6 +15143,9 @@
       <c r="CY45" t="n">
         <v>649.95</v>
       </c>
+      <c r="CZ45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -15328,6 +15465,9 @@
       <c r="CY46" t="n">
         <v>899.95</v>
       </c>
+      <c r="CZ46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -15647,6 +15787,9 @@
       <c r="CY47" t="n">
         <v>899.95</v>
       </c>
+      <c r="CZ47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -15966,6 +16109,9 @@
       <c r="CY48" t="n">
         <v>899.95</v>
       </c>
+      <c r="CZ48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -16285,6 +16431,9 @@
       <c r="CY49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CZ49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -16604,6 +16753,9 @@
       <c r="CY50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="CZ50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -16921,6 +17073,9 @@
         <v>1299.95</v>
       </c>
       <c r="CY51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="CZ51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -17148,6 +17303,7 @@
       <c r="CW52" t="inlineStr"/>
       <c r="CX52" t="inlineStr"/>
       <c r="CY52" t="inlineStr"/>
+      <c r="CZ52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZ52"/>
+  <dimension ref="A1:DA52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +942,11 @@
           <t>2026-02-20 18:40:58</t>
         </is>
       </c>
+      <c r="DA1" t="inlineStr">
+        <is>
+          <t>2026-02-20 19:33:58</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1264,6 +1269,9 @@
       <c r="CZ2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DA2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1586,6 +1594,9 @@
       <c r="CZ3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DA3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1908,6 +1919,9 @@
       <c r="CZ4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DA4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2230,6 +2244,9 @@
       <c r="CZ5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DA5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2552,6 +2569,9 @@
       <c r="CZ6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DA6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2874,6 +2894,9 @@
       <c r="CZ7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DA7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3196,6 +3219,9 @@
       <c r="CZ8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DA8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3518,6 +3544,9 @@
       <c r="CZ9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DA9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3844,6 +3873,9 @@
       <c r="CZ10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DA10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4170,6 +4202,9 @@
       <c r="CZ11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DA11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4496,6 +4531,9 @@
       <c r="CZ12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DA12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4822,6 +4860,9 @@
       <c r="CZ13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DA13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5144,6 +5185,9 @@
       <c r="CZ14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DA14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5466,6 +5510,9 @@
       <c r="CZ15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DA15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5788,6 +5835,9 @@
       <c r="CZ16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DA16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6110,6 +6160,9 @@
       <c r="CZ17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DA17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6436,6 +6489,9 @@
       <c r="CZ18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DA18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6762,6 +6818,9 @@
       <c r="CZ19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DA19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7084,6 +7143,9 @@
       <c r="CZ20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DA20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7406,6 +7468,9 @@
       <c r="CZ21" t="n">
         <v>248.62</v>
       </c>
+      <c r="DA21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7732,6 +7797,9 @@
       <c r="CZ22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DA22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8058,6 +8126,9 @@
       <c r="CZ23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DA23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8384,6 +8455,9 @@
       <c r="CZ24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DA24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8706,6 +8780,9 @@
       <c r="CZ25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DA25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9028,6 +9105,9 @@
       <c r="CZ26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DA26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9350,6 +9430,9 @@
       <c r="CZ27" t="n">
         <v>249.95</v>
       </c>
+      <c r="DA27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -9672,6 +9755,9 @@
       <c r="CZ28" t="n">
         <v>279.95</v>
       </c>
+      <c r="DA28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9994,6 +10080,9 @@
       <c r="CZ29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DA29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -10316,6 +10405,9 @@
       <c r="CZ30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DA30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -10638,6 +10730,9 @@
       <c r="CZ31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DA31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -10960,6 +11055,9 @@
       <c r="CZ32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DA32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11282,6 +11380,9 @@
       <c r="CZ33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DA33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11604,6 +11705,9 @@
       <c r="CZ34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DA34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11926,6 +12030,9 @@
       <c r="CZ35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DA35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -12248,6 +12355,9 @@
       <c r="CZ36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DA36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -12570,6 +12680,9 @@
       <c r="CZ37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DA37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -12892,6 +13005,9 @@
       <c r="CZ38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DA38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -13214,6 +13330,9 @@
       <c r="CZ39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DA39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -13536,6 +13655,9 @@
       <c r="CZ40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DA40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -13858,6 +13980,9 @@
       <c r="CZ41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DA41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -14180,6 +14305,9 @@
       <c r="CZ42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DA42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -14502,6 +14630,9 @@
       <c r="CZ43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DA43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -14824,6 +14955,9 @@
       <c r="CZ44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DA44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -15146,6 +15280,9 @@
       <c r="CZ45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DA45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -15468,6 +15605,9 @@
       <c r="CZ46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DA46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -15790,6 +15930,9 @@
       <c r="CZ47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DA47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -16112,6 +16255,9 @@
       <c r="CZ48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DA48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -16434,6 +16580,9 @@
       <c r="CZ49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DA49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -16756,6 +16905,9 @@
       <c r="CZ50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DA50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -17076,6 +17228,9 @@
         <v>1299.95</v>
       </c>
       <c r="CZ51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DA51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -17304,6 +17459,7 @@
       <c r="CX52" t="inlineStr"/>
       <c r="CY52" t="inlineStr"/>
       <c r="CZ52" t="inlineStr"/>
+      <c r="DA52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DA52"/>
+  <dimension ref="A1:DB52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,6 +947,11 @@
           <t>2026-02-20 19:33:58</t>
         </is>
       </c>
+      <c r="DB1" t="inlineStr">
+        <is>
+          <t>2026-02-20 20:24:53</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1272,6 +1277,9 @@
       <c r="DA2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DB2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1597,6 +1605,9 @@
       <c r="DA3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DB3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1922,6 +1933,9 @@
       <c r="DA4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DB4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2247,6 +2261,9 @@
       <c r="DA5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DB5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2572,6 +2589,9 @@
       <c r="DA6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DB6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2897,6 +2917,9 @@
       <c r="DA7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DB7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3222,6 +3245,9 @@
       <c r="DA8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DB8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3547,6 +3573,9 @@
       <c r="DA9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DB9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3876,6 +3905,9 @@
       <c r="DA10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DB10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4205,6 +4237,9 @@
       <c r="DA11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DB11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4534,6 +4569,9 @@
       <c r="DA12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DB12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4863,6 +4901,9 @@
       <c r="DA13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DB13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5188,6 +5229,9 @@
       <c r="DA14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DB14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5513,6 +5557,9 @@
       <c r="DA15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DB15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5838,6 +5885,9 @@
       <c r="DA16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DB16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6163,6 +6213,9 @@
       <c r="DA17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DB17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6492,6 +6545,9 @@
       <c r="DA18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DB18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6821,6 +6877,9 @@
       <c r="DA19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DB19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7146,6 +7205,9 @@
       <c r="DA20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DB20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7471,6 +7533,9 @@
       <c r="DA21" t="n">
         <v>248.62</v>
       </c>
+      <c r="DB21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7800,6 +7865,9 @@
       <c r="DA22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DB22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8129,6 +8197,9 @@
       <c r="DA23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DB23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8458,6 +8529,9 @@
       <c r="DA24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DB24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8783,6 +8857,9 @@
       <c r="DA25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DB25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9108,6 +9185,9 @@
       <c r="DA26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DB26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9433,6 +9513,9 @@
       <c r="DA27" t="n">
         <v>249.95</v>
       </c>
+      <c r="DB27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -9758,6 +9841,9 @@
       <c r="DA28" t="n">
         <v>279.95</v>
       </c>
+      <c r="DB28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -10083,6 +10169,9 @@
       <c r="DA29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DB29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -10408,6 +10497,9 @@
       <c r="DA30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DB30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -10733,6 +10825,9 @@
       <c r="DA31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DB31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11058,6 +11153,9 @@
       <c r="DA32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DB32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11383,6 +11481,9 @@
       <c r="DA33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DB33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11708,6 +11809,9 @@
       <c r="DA34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DB34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -12033,6 +12137,9 @@
       <c r="DA35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DB35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -12358,6 +12465,9 @@
       <c r="DA36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DB36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -12683,6 +12793,9 @@
       <c r="DA37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DB37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -13008,6 +13121,9 @@
       <c r="DA38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DB38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -13333,6 +13449,9 @@
       <c r="DA39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DB39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -13658,6 +13777,9 @@
       <c r="DA40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DB40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -13983,6 +14105,9 @@
       <c r="DA41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DB41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -14308,6 +14433,9 @@
       <c r="DA42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DB42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -14633,6 +14761,9 @@
       <c r="DA43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DB43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -14958,6 +15089,9 @@
       <c r="DA44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DB44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -15283,6 +15417,9 @@
       <c r="DA45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DB45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -15608,6 +15745,9 @@
       <c r="DA46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DB46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -15933,6 +16073,9 @@
       <c r="DA47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DB47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -16258,6 +16401,9 @@
       <c r="DA48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DB48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -16583,6 +16729,9 @@
       <c r="DA49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DB49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -16908,6 +17057,9 @@
       <c r="DA50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DB50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -17231,6 +17383,9 @@
         <v>1299.95</v>
       </c>
       <c r="DA51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DB51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -17460,6 +17615,7 @@
       <c r="CY52" t="inlineStr"/>
       <c r="CZ52" t="inlineStr"/>
       <c r="DA52" t="inlineStr"/>
+      <c r="DB52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DB52"/>
+  <dimension ref="A1:DC52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -952,6 +952,11 @@
           <t>2026-02-20 20:24:53</t>
         </is>
       </c>
+      <c r="DC1" t="inlineStr">
+        <is>
+          <t>2026-02-20 21:19:33</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1280,6 +1285,9 @@
       <c r="DB2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DC2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1608,6 +1616,9 @@
       <c r="DB3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DC3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1936,6 +1947,9 @@
       <c r="DB4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DC4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2264,6 +2278,9 @@
       <c r="DB5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DC5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2592,6 +2609,9 @@
       <c r="DB6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DC6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2920,6 +2940,9 @@
       <c r="DB7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DC7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3248,6 +3271,9 @@
       <c r="DB8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DC8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3576,6 +3602,9 @@
       <c r="DB9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DC9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3908,6 +3937,9 @@
       <c r="DB10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DC10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4240,6 +4272,9 @@
       <c r="DB11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DC11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4572,6 +4607,9 @@
       <c r="DB12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DC12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4904,6 +4942,9 @@
       <c r="DB13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DC13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5232,6 +5273,9 @@
       <c r="DB14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DC14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5560,6 +5604,9 @@
       <c r="DB15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DC15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5888,6 +5935,9 @@
       <c r="DB16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DC16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6216,6 +6266,9 @@
       <c r="DB17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DC17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6548,6 +6601,9 @@
       <c r="DB18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DC18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6880,6 +6936,9 @@
       <c r="DB19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DC19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7208,6 +7267,9 @@
       <c r="DB20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DC20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7536,6 +7598,9 @@
       <c r="DB21" t="n">
         <v>248.62</v>
       </c>
+      <c r="DC21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7868,6 +7933,9 @@
       <c r="DB22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DC22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8200,6 +8268,9 @@
       <c r="DB23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DC23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8532,6 +8603,9 @@
       <c r="DB24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DC24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8860,6 +8934,9 @@
       <c r="DB25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DC25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9188,6 +9265,9 @@
       <c r="DB26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DC26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9516,6 +9596,9 @@
       <c r="DB27" t="n">
         <v>249.95</v>
       </c>
+      <c r="DC27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -9844,6 +9927,9 @@
       <c r="DB28" t="n">
         <v>279.95</v>
       </c>
+      <c r="DC28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -10172,6 +10258,9 @@
       <c r="DB29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DC29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -10500,6 +10589,9 @@
       <c r="DB30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DC30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -10828,6 +10920,9 @@
       <c r="DB31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DC31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11156,6 +11251,9 @@
       <c r="DB32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DC32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11484,6 +11582,9 @@
       <c r="DB33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DC33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11812,6 +11913,9 @@
       <c r="DB34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DC34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -12140,6 +12244,9 @@
       <c r="DB35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DC35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -12468,6 +12575,9 @@
       <c r="DB36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DC36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -12796,6 +12906,9 @@
       <c r="DB37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DC37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -13124,6 +13237,9 @@
       <c r="DB38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DC38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -13452,6 +13568,9 @@
       <c r="DB39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DC39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -13780,6 +13899,9 @@
       <c r="DB40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DC40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -14108,6 +14230,9 @@
       <c r="DB41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DC41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -14436,6 +14561,9 @@
       <c r="DB42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DC42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -14764,6 +14892,9 @@
       <c r="DB43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DC43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -15092,6 +15223,9 @@
       <c r="DB44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DC44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -15420,6 +15554,9 @@
       <c r="DB45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DC45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -15748,6 +15885,9 @@
       <c r="DB46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DC46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -16076,6 +16216,9 @@
       <c r="DB47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DC47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -16404,6 +16547,9 @@
       <c r="DB48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DC48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -16732,6 +16878,9 @@
       <c r="DB49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DC49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -17060,6 +17209,9 @@
       <c r="DB50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DC50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -17386,6 +17538,9 @@
         <v>1299.95</v>
       </c>
       <c r="DB51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DC51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -17616,6 +17771,7 @@
       <c r="CZ52" t="inlineStr"/>
       <c r="DA52" t="inlineStr"/>
       <c r="DB52" t="inlineStr"/>
+      <c r="DC52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DC52"/>
+  <dimension ref="A1:DD52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,6 +957,11 @@
           <t>2026-02-20 21:19:33</t>
         </is>
       </c>
+      <c r="DD1" t="inlineStr">
+        <is>
+          <t>2026-02-20 22:20:13</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1288,6 +1293,9 @@
       <c r="DC2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DD2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1619,6 +1627,9 @@
       <c r="DC3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DD3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1950,6 +1961,9 @@
       <c r="DC4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DD4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2281,6 +2295,9 @@
       <c r="DC5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DD5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2612,6 +2629,9 @@
       <c r="DC6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DD6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2943,6 +2963,9 @@
       <c r="DC7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DD7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3274,6 +3297,9 @@
       <c r="DC8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DD8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3605,6 +3631,9 @@
       <c r="DC9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DD9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3940,6 +3969,9 @@
       <c r="DC10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DD10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4275,6 +4307,9 @@
       <c r="DC11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DD11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4610,6 +4645,9 @@
       <c r="DC12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DD12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4945,6 +4983,9 @@
       <c r="DC13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DD13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5276,6 +5317,9 @@
       <c r="DC14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DD14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5607,6 +5651,9 @@
       <c r="DC15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DD15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5938,6 +5985,9 @@
       <c r="DC16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DD16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6269,6 +6319,9 @@
       <c r="DC17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DD17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6604,6 +6657,9 @@
       <c r="DC18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DD18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6939,6 +6995,9 @@
       <c r="DC19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DD19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7270,6 +7329,9 @@
       <c r="DC20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DD20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7601,6 +7663,9 @@
       <c r="DC21" t="n">
         <v>248.62</v>
       </c>
+      <c r="DD21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7936,6 +8001,9 @@
       <c r="DC22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DD22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8271,6 +8339,9 @@
       <c r="DC23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DD23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8606,6 +8677,9 @@
       <c r="DC24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DD24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8937,6 +9011,9 @@
       <c r="DC25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DD25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9268,6 +9345,9 @@
       <c r="DC26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DD26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9599,6 +9679,9 @@
       <c r="DC27" t="n">
         <v>249.95</v>
       </c>
+      <c r="DD27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -9930,6 +10013,9 @@
       <c r="DC28" t="n">
         <v>279.95</v>
       </c>
+      <c r="DD28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -10261,6 +10347,9 @@
       <c r="DC29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DD29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -10592,6 +10681,9 @@
       <c r="DC30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DD30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -10923,6 +11015,9 @@
       <c r="DC31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DD31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11254,6 +11349,9 @@
       <c r="DC32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DD32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11585,6 +11683,9 @@
       <c r="DC33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DD33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11916,6 +12017,9 @@
       <c r="DC34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DD34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -12247,6 +12351,9 @@
       <c r="DC35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DD35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -12578,6 +12685,9 @@
       <c r="DC36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DD36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -12909,6 +13019,9 @@
       <c r="DC37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DD37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -13240,6 +13353,9 @@
       <c r="DC38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DD38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -13571,6 +13687,9 @@
       <c r="DC39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DD39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -13902,6 +14021,9 @@
       <c r="DC40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DD40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -14233,6 +14355,9 @@
       <c r="DC41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DD41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -14564,6 +14689,9 @@
       <c r="DC42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DD42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -14895,6 +15023,9 @@
       <c r="DC43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DD43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -15226,6 +15357,9 @@
       <c r="DC44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DD44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -15557,6 +15691,9 @@
       <c r="DC45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DD45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -15888,6 +16025,9 @@
       <c r="DC46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DD46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -16219,6 +16359,9 @@
       <c r="DC47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DD47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -16550,6 +16693,9 @@
       <c r="DC48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DD48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -16881,6 +17027,9 @@
       <c r="DC49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DD49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -17212,6 +17361,9 @@
       <c r="DC50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DD50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -17541,6 +17693,9 @@
         <v>1299.95</v>
       </c>
       <c r="DC51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DD51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -17772,6 +17927,7 @@
       <c r="DA52" t="inlineStr"/>
       <c r="DB52" t="inlineStr"/>
       <c r="DC52" t="inlineStr"/>
+      <c r="DD52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DD52"/>
+  <dimension ref="A1:DE52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -962,6 +962,11 @@
           <t>2026-02-20 22:20:13</t>
         </is>
       </c>
+      <c r="DE1" t="inlineStr">
+        <is>
+          <t>2026-02-20 23:24:11</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1296,6 +1301,9 @@
       <c r="DD2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DE2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1630,6 +1638,9 @@
       <c r="DD3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DE3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1964,6 +1975,9 @@
       <c r="DD4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DE4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2298,6 +2312,9 @@
       <c r="DD5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DE5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2632,6 +2649,9 @@
       <c r="DD6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DE6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2966,6 +2986,9 @@
       <c r="DD7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DE7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3300,6 +3323,9 @@
       <c r="DD8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DE8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3634,6 +3660,9 @@
       <c r="DD9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DE9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3972,6 +4001,9 @@
       <c r="DD10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DE10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4310,6 +4342,9 @@
       <c r="DD11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DE11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4648,6 +4683,9 @@
       <c r="DD12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DE12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4986,6 +5024,9 @@
       <c r="DD13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DE13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5320,6 +5361,9 @@
       <c r="DD14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DE14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5654,6 +5698,9 @@
       <c r="DD15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DE15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5988,6 +6035,9 @@
       <c r="DD16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DE16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6322,6 +6372,9 @@
       <c r="DD17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DE17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6660,6 +6713,9 @@
       <c r="DD18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DE18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6998,6 +7054,9 @@
       <c r="DD19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DE19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7332,6 +7391,9 @@
       <c r="DD20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DE20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7666,6 +7728,9 @@
       <c r="DD21" t="n">
         <v>248.62</v>
       </c>
+      <c r="DE21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8004,6 +8069,9 @@
       <c r="DD22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DE22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8342,6 +8410,9 @@
       <c r="DD23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DE23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8680,6 +8751,9 @@
       <c r="DD24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DE24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9014,6 +9088,9 @@
       <c r="DD25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DE25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9348,6 +9425,9 @@
       <c r="DD26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DE26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9682,6 +9762,9 @@
       <c r="DD27" t="n">
         <v>249.95</v>
       </c>
+      <c r="DE27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -10016,6 +10099,9 @@
       <c r="DD28" t="n">
         <v>279.95</v>
       </c>
+      <c r="DE28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -10350,6 +10436,9 @@
       <c r="DD29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DE29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -10684,6 +10773,9 @@
       <c r="DD30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DE30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11018,6 +11110,9 @@
       <c r="DD31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DE31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11352,6 +11447,9 @@
       <c r="DD32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DE32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11686,6 +11784,9 @@
       <c r="DD33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DE33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -12020,6 +12121,9 @@
       <c r="DD34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DE34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -12354,6 +12458,9 @@
       <c r="DD35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DE35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -12688,6 +12795,9 @@
       <c r="DD36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DE36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -13022,6 +13132,9 @@
       <c r="DD37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DE37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -13356,6 +13469,9 @@
       <c r="DD38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DE38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -13690,6 +13806,9 @@
       <c r="DD39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DE39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -14024,6 +14143,9 @@
       <c r="DD40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DE40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -14358,6 +14480,9 @@
       <c r="DD41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DE41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -14692,6 +14817,9 @@
       <c r="DD42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DE42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -15026,6 +15154,9 @@
       <c r="DD43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DE43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -15360,6 +15491,9 @@
       <c r="DD44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DE44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -15694,6 +15828,9 @@
       <c r="DD45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DE45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -16028,6 +16165,9 @@
       <c r="DD46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DE46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -16362,6 +16502,9 @@
       <c r="DD47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DE47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -16696,6 +16839,9 @@
       <c r="DD48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DE48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -17030,6 +17176,9 @@
       <c r="DD49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DE49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -17364,6 +17513,9 @@
       <c r="DD50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DE50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -17696,6 +17848,9 @@
         <v>1299.95</v>
       </c>
       <c r="DD51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DE51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -17928,6 +18083,7 @@
       <c r="DB52" t="inlineStr"/>
       <c r="DC52" t="inlineStr"/>
       <c r="DD52" t="inlineStr"/>
+      <c r="DE52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DE52"/>
+  <dimension ref="A1:DF52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,6 +967,11 @@
           <t>2026-02-20 23:24:11</t>
         </is>
       </c>
+      <c r="DF1" t="inlineStr">
+        <is>
+          <t>2026-02-21 01:26:35</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1304,6 +1309,9 @@
       <c r="DE2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DF2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1641,6 +1649,9 @@
       <c r="DE3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DF3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1978,6 +1989,9 @@
       <c r="DE4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DF4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2315,6 +2329,9 @@
       <c r="DE5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DF5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2652,6 +2669,9 @@
       <c r="DE6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DF6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2989,6 +3009,9 @@
       <c r="DE7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DF7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3326,6 +3349,9 @@
       <c r="DE8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DF8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3663,6 +3689,9 @@
       <c r="DE9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DF9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4004,6 +4033,9 @@
       <c r="DE10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DF10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4345,6 +4377,9 @@
       <c r="DE11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DF11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4686,6 +4721,9 @@
       <c r="DE12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DF12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5027,6 +5065,9 @@
       <c r="DE13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DF13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5364,6 +5405,9 @@
       <c r="DE14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DF14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5701,6 +5745,9 @@
       <c r="DE15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DF15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6038,6 +6085,9 @@
       <c r="DE16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DF16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6375,6 +6425,9 @@
       <c r="DE17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DF17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6716,6 +6769,9 @@
       <c r="DE18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DF18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7057,6 +7113,9 @@
       <c r="DE19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DF19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7394,6 +7453,9 @@
       <c r="DE20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DF20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7731,6 +7793,9 @@
       <c r="DE21" t="n">
         <v>248.62</v>
       </c>
+      <c r="DF21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8072,6 +8137,9 @@
       <c r="DE22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DF22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8413,6 +8481,9 @@
       <c r="DE23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DF23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8754,6 +8825,9 @@
       <c r="DE24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DF24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9091,6 +9165,9 @@
       <c r="DE25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DF25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9428,6 +9505,9 @@
       <c r="DE26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DF26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9765,6 +9845,9 @@
       <c r="DE27" t="n">
         <v>249.95</v>
       </c>
+      <c r="DF27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -10102,6 +10185,9 @@
       <c r="DE28" t="n">
         <v>279.95</v>
       </c>
+      <c r="DF28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -10439,6 +10525,9 @@
       <c r="DE29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DF29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -10776,6 +10865,9 @@
       <c r="DE30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DF30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11113,6 +11205,9 @@
       <c r="DE31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DF31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11450,6 +11545,9 @@
       <c r="DE32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DF32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11787,6 +11885,9 @@
       <c r="DE33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DF33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -12124,6 +12225,9 @@
       <c r="DE34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DF34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -12461,6 +12565,9 @@
       <c r="DE35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DF35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -12798,6 +12905,9 @@
       <c r="DE36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DF36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -13135,6 +13245,9 @@
       <c r="DE37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DF37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -13472,6 +13585,9 @@
       <c r="DE38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DF38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -13809,6 +13925,9 @@
       <c r="DE39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DF39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -14146,6 +14265,9 @@
       <c r="DE40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DF40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -14483,6 +14605,9 @@
       <c r="DE41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DF41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -14820,6 +14945,9 @@
       <c r="DE42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DF42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -15157,6 +15285,9 @@
       <c r="DE43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DF43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -15494,6 +15625,9 @@
       <c r="DE44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DF44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -15831,6 +15965,9 @@
       <c r="DE45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DF45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -16168,6 +16305,9 @@
       <c r="DE46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DF46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -16505,6 +16645,9 @@
       <c r="DE47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DF47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -16842,6 +16985,9 @@
       <c r="DE48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DF48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -17179,6 +17325,9 @@
       <c r="DE49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DF49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -17516,6 +17665,9 @@
       <c r="DE50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DF50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -17851,6 +18003,9 @@
         <v>1299.95</v>
       </c>
       <c r="DE51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DF51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -18084,6 +18239,7 @@
       <c r="DC52" t="inlineStr"/>
       <c r="DD52" t="inlineStr"/>
       <c r="DE52" t="inlineStr"/>
+      <c r="DF52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DF52"/>
+  <dimension ref="A1:DG52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +972,11 @@
           <t>2026-02-21 01:26:35</t>
         </is>
       </c>
+      <c r="DG1" t="inlineStr">
+        <is>
+          <t>2026-02-21 04:02:12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1312,6 +1317,9 @@
       <c r="DF2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DG2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1652,6 +1660,9 @@
       <c r="DF3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DG3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1992,6 +2003,9 @@
       <c r="DF4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DG4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2332,6 +2346,9 @@
       <c r="DF5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DG5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2672,6 +2689,9 @@
       <c r="DF6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DG6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3012,6 +3032,9 @@
       <c r="DF7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DG7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3352,6 +3375,9 @@
       <c r="DF8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DG8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3692,6 +3718,9 @@
       <c r="DF9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DG9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4036,6 +4065,9 @@
       <c r="DF10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DG10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4380,6 +4412,9 @@
       <c r="DF11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DG11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4724,6 +4759,9 @@
       <c r="DF12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DG12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5068,6 +5106,9 @@
       <c r="DF13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DG13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5408,6 +5449,9 @@
       <c r="DF14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DG14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5748,6 +5792,9 @@
       <c r="DF15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DG15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6088,6 +6135,9 @@
       <c r="DF16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DG16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6428,6 +6478,9 @@
       <c r="DF17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DG17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6772,6 +6825,9 @@
       <c r="DF18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DG18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7116,6 +7172,9 @@
       <c r="DF19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DG19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7456,6 +7515,9 @@
       <c r="DF20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DG20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7796,6 +7858,9 @@
       <c r="DF21" t="n">
         <v>248.62</v>
       </c>
+      <c r="DG21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8140,6 +8205,9 @@
       <c r="DF22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DG22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8484,6 +8552,9 @@
       <c r="DF23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DG23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8828,6 +8899,9 @@
       <c r="DF24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DG24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9168,6 +9242,9 @@
       <c r="DF25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DG25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9508,6 +9585,9 @@
       <c r="DF26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DG26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9848,6 +9928,9 @@
       <c r="DF27" t="n">
         <v>249.95</v>
       </c>
+      <c r="DG27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -10188,6 +10271,9 @@
       <c r="DF28" t="n">
         <v>279.95</v>
       </c>
+      <c r="DG28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -10528,6 +10614,9 @@
       <c r="DF29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DG29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -10868,6 +10957,9 @@
       <c r="DF30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DG30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11208,6 +11300,9 @@
       <c r="DF31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DG31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11548,6 +11643,9 @@
       <c r="DF32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DG32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11888,6 +11986,9 @@
       <c r="DF33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DG33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -12228,6 +12329,9 @@
       <c r="DF34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DG34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -12568,6 +12672,9 @@
       <c r="DF35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DG35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -12908,6 +13015,9 @@
       <c r="DF36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DG36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -13248,6 +13358,9 @@
       <c r="DF37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DG37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -13588,6 +13701,9 @@
       <c r="DF38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DG38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -13928,6 +14044,9 @@
       <c r="DF39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DG39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -14268,6 +14387,9 @@
       <c r="DF40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DG40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -14608,6 +14730,9 @@
       <c r="DF41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DG41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -14948,6 +15073,9 @@
       <c r="DF42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DG42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -15288,6 +15416,9 @@
       <c r="DF43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DG43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -15628,6 +15759,9 @@
       <c r="DF44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DG44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -15968,6 +16102,9 @@
       <c r="DF45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DG45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -16308,6 +16445,9 @@
       <c r="DF46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DG46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -16648,6 +16788,9 @@
       <c r="DF47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DG47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -16988,6 +17131,9 @@
       <c r="DF48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DG48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -17328,6 +17474,9 @@
       <c r="DF49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DG49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -17668,6 +17817,9 @@
       <c r="DF50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DG50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -18006,6 +18158,9 @@
         <v>1299.95</v>
       </c>
       <c r="DF51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DG51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -18240,6 +18395,7 @@
       <c r="DD52" t="inlineStr"/>
       <c r="DE52" t="inlineStr"/>
       <c r="DF52" t="inlineStr"/>
+      <c r="DG52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DG52"/>
+  <dimension ref="A1:DH52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -977,6 +977,11 @@
           <t>2026-02-21 04:02:12</t>
         </is>
       </c>
+      <c r="DH1" t="inlineStr">
+        <is>
+          <t>2026-02-21 05:38:33</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1320,6 +1325,9 @@
       <c r="DG2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DH2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1663,6 +1671,9 @@
       <c r="DG3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DH3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2006,6 +2017,9 @@
       <c r="DG4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DH4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2349,6 +2363,9 @@
       <c r="DG5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DH5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2692,6 +2709,9 @@
       <c r="DG6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DH6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3035,6 +3055,9 @@
       <c r="DG7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DH7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3378,6 +3401,9 @@
       <c r="DG8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DH8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3721,6 +3747,9 @@
       <c r="DG9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DH9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4068,6 +4097,9 @@
       <c r="DG10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DH10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4415,6 +4447,9 @@
       <c r="DG11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DH11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4762,6 +4797,9 @@
       <c r="DG12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DH12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5109,6 +5147,9 @@
       <c r="DG13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DH13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5452,6 +5493,9 @@
       <c r="DG14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DH14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5795,6 +5839,9 @@
       <c r="DG15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DH15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6138,6 +6185,9 @@
       <c r="DG16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DH16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6481,6 +6531,9 @@
       <c r="DG17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DH17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6828,6 +6881,9 @@
       <c r="DG18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DH18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7175,6 +7231,9 @@
       <c r="DG19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DH19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7518,6 +7577,9 @@
       <c r="DG20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DH20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7861,6 +7923,9 @@
       <c r="DG21" t="n">
         <v>248.62</v>
       </c>
+      <c r="DH21" t="n">
+        <v>248.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8208,6 +8273,9 @@
       <c r="DG22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DH22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8555,6 +8623,9 @@
       <c r="DG23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DH23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8902,6 +8973,9 @@
       <c r="DG24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DH24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9245,6 +9319,9 @@
       <c r="DG25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DH25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9588,6 +9665,9 @@
       <c r="DG26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DH26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9931,6 +10011,9 @@
       <c r="DG27" t="n">
         <v>249.95</v>
       </c>
+      <c r="DH27" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -10274,6 +10357,9 @@
       <c r="DG28" t="n">
         <v>279.95</v>
       </c>
+      <c r="DH28" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -10617,6 +10703,9 @@
       <c r="DG29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DH29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -10960,6 +11049,9 @@
       <c r="DG30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DH30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11303,6 +11395,9 @@
       <c r="DG31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DH31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11646,6 +11741,9 @@
       <c r="DG32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DH32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11989,6 +12087,9 @@
       <c r="DG33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DH33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -12332,6 +12433,9 @@
       <c r="DG34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DH34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -12675,6 +12779,9 @@
       <c r="DG35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DH35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -13018,6 +13125,9 @@
       <c r="DG36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DH36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -13361,6 +13471,9 @@
       <c r="DG37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DH37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -13704,6 +13817,9 @@
       <c r="DG38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DH38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -14047,6 +14163,9 @@
       <c r="DG39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DH39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -14390,6 +14509,9 @@
       <c r="DG40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DH40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -14733,6 +14855,9 @@
       <c r="DG41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DH41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -15076,6 +15201,9 @@
       <c r="DG42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DH42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -15419,6 +15547,9 @@
       <c r="DG43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DH43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -15762,6 +15893,9 @@
       <c r="DG44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DH44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -16105,6 +16239,9 @@
       <c r="DG45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DH45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -16448,6 +16585,9 @@
       <c r="DG46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DH46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -16791,6 +16931,9 @@
       <c r="DG47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DH47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -17134,6 +17277,9 @@
       <c r="DG48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DH48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -17477,6 +17623,9 @@
       <c r="DG49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DH49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -17820,6 +17969,9 @@
       <c r="DG50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DH50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -18161,6 +18313,9 @@
         <v>1299.95</v>
       </c>
       <c r="DG51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DH51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -18396,6 +18551,7 @@
       <c r="DE52" t="inlineStr"/>
       <c r="DF52" t="inlineStr"/>
       <c r="DG52" t="inlineStr"/>
+      <c r="DH52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DH52"/>
+  <dimension ref="A1:DI52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -982,6 +982,11 @@
           <t>2026-02-21 05:38:33</t>
         </is>
       </c>
+      <c r="DI1" t="inlineStr">
+        <is>
+          <t>2026-02-21 06:35:52</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1328,6 +1333,9 @@
       <c r="DH2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DI2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1674,6 +1682,9 @@
       <c r="DH3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DI3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2020,6 +2031,9 @@
       <c r="DH4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DI4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2366,6 +2380,9 @@
       <c r="DH5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DI5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2712,6 +2729,9 @@
       <c r="DH6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DI6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3058,6 +3078,9 @@
       <c r="DH7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DI7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3404,6 +3427,9 @@
       <c r="DH8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DI8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3750,6 +3776,9 @@
       <c r="DH9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DI9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4100,6 +4129,9 @@
       <c r="DH10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DI10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4450,6 +4482,9 @@
       <c r="DH11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DI11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4800,6 +4835,9 @@
       <c r="DH12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DI12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5150,6 +5188,9 @@
       <c r="DH13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DI13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5496,6 +5537,9 @@
       <c r="DH14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DI14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5842,6 +5886,9 @@
       <c r="DH15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DI15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6188,6 +6235,9 @@
       <c r="DH16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DI16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6534,6 +6584,9 @@
       <c r="DH17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DI17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6884,6 +6937,9 @@
       <c r="DH18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DI18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7234,6 +7290,9 @@
       <c r="DH19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DI19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7580,16 +7639,19 @@
       <c r="DH20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DI20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PB00659414</t>
+          <t>PB00703904</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 14 5G Noir (8 Go / 256 Go)</t>
+          <t>Xiaomi Redmi 15 5G Gris (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -7602,340 +7664,347 @@
           <t>En stock</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00659414.html</t>
+          <t>https://www.ldlc.com/fiche/PB00703904.html</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="J21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="K21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="L21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="M21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="N21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="O21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="P21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="R21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="S21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="T21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="U21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="V21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="W21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="X21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="Y21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="Z21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="AA21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="AB21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="AC21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="AD21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="AE21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="AF21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="AG21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="AH21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="AI21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="AJ21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="AK21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="AL21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="AM21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="AN21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="AO21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="AP21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="AQ21" t="n">
-        <v>299.95</v>
+        <v>249.95</v>
       </c>
       <c r="AR21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="AS21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="AT21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="AU21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="AV21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="AW21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="AX21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="AY21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="AZ21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BA21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BB21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BC21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BD21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BE21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BF21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BG21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BH21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BI21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BJ21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BK21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BL21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BM21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BN21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BO21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BP21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BQ21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BR21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BS21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BT21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BU21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BV21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BW21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BX21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BY21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="BZ21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CA21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CB21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CC21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CD21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CE21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CF21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CG21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CH21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CI21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CJ21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CK21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CL21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CM21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CN21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CO21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CP21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CQ21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CR21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CS21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CT21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CU21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CV21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CW21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CX21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CY21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="CZ21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="DA21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="DB21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="DC21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="DD21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="DE21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="DF21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="DG21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
       </c>
       <c r="DH21" t="n">
-        <v>248.62</v>
+        <v>249.95</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>249.95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PB00703904</t>
+          <t>PB00703905</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 15 5G Gris (8 Go / 256 Go)</t>
+          <t>Xiaomi Redmi 15 5G Noir (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -7961,7 +8030,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00703904.html</t>
+          <t>https://www.ldlc.com/fiche/PB00703905.html</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -8274,18 +8343,21 @@
         <v>249.95</v>
       </c>
       <c r="DH22" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="DI22" t="n">
         <v>249.95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PB00703905</t>
+          <t>PB00703906</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 15 5G Noir (8 Go / 256 Go)</t>
+          <t>Xiaomi Redmi 15 5G Vert (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -8311,7 +8383,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00703905.html</t>
+          <t>https://www.ldlc.com/fiche/PB00703906.html</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -8624,18 +8696,21 @@
         <v>249.95</v>
       </c>
       <c r="DH23" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="DI23" t="n">
         <v>249.95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PB00703906</t>
+          <t>PB00721694</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 15 5G Vert (8 Go / 256 Go)</t>
+          <t>Xiaomi Redmi Note 15 4G Bleu (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -8648,20 +8723,16 @@
           <t>En stock</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>10</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00703906.html</t>
+          <t>https://www.ldlc.com/fiche/PB00721694.html</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -8974,18 +9045,21 @@
         <v>249.95</v>
       </c>
       <c r="DH24" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="DI24" t="n">
         <v>249.95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PB00721694</t>
+          <t>PB00721693</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 15 4G Bleu (8 Go / 256 Go)</t>
+          <t>Xiaomi Redmi Note 15 4G Noir (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -9007,7 +9081,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00721694.html</t>
+          <t>https://www.ldlc.com/fiche/PB00721693.html</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -9320,18 +9394,21 @@
         <v>249.95</v>
       </c>
       <c r="DH25" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="DI25" t="n">
         <v>249.95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PB00721693</t>
+          <t>PB00721692</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 15 4G Noir (8 Go / 256 Go)</t>
+          <t>Xiaomi Redmi Note 15 4G Vert (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -9353,7 +9430,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00721693.html</t>
+          <t>https://www.ldlc.com/fiche/PB00721692.html</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -9666,18 +9743,21 @@
         <v>249.95</v>
       </c>
       <c r="DH26" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="DI26" t="n">
         <v>249.95</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PB00721692</t>
+          <t>PB00721698</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 15 4G Vert (8 Go / 256 Go)</t>
+          <t>Xiaomi Redmi Note 15 5G Noir (6 Go / 128 Go)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -9699,331 +9779,334 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00721692.html</t>
+          <t>https://www.ldlc.com/fiche/PB00721698.html</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="J27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="K27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="L27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="M27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="N27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="O27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="P27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="Q27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="R27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="S27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="T27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="U27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="V27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="W27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="X27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="Y27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="Z27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AA27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AB27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AC27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AD27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AE27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AF27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AG27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AH27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AI27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AJ27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AK27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AL27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AM27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AN27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AO27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AP27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AQ27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AR27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AS27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AT27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AU27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AV27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AW27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AX27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AY27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="AZ27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BA27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BB27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BC27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BD27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BE27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BF27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BG27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BH27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BI27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BJ27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BK27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BL27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BM27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BN27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BO27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BP27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BQ27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BR27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BS27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BT27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BU27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BV27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BW27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BX27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BY27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="BZ27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CA27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CB27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CC27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CD27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CE27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CF27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CG27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CH27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CI27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CJ27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CK27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CL27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CM27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CN27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CO27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CP27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CQ27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CR27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CS27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CT27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CU27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CV27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CW27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CX27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CY27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="CZ27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="DA27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="DB27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="DC27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="DD27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="DE27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="DF27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="DG27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
       </c>
       <c r="DH27" t="n">
-        <v>249.95</v>
+        <v>279.95</v>
+      </c>
+      <c r="DI27" t="n">
+        <v>279.95</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PB00721698</t>
+          <t>PB00659414</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 15 5G Noir (6 Go / 128 Go)</t>
+          <t>Xiaomi Redmi Note 14 5G Noir (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -10045,320 +10128,323 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00721698.html</t>
+          <t>https://www.ldlc.com/fiche/PB00659414.html</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="J28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="K28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="L28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="M28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="N28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="O28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="P28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="Q28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="R28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="S28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="T28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="U28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="V28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="W28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="X28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="Y28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="Z28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="AA28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="AB28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="AC28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="AD28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="AE28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="AF28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="AG28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="AH28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="AI28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="AJ28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="AK28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="AL28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="AM28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="AN28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="AO28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="AP28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="AQ28" t="n">
-        <v>279.95</v>
+        <v>299.95</v>
       </c>
       <c r="AR28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="AS28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="AT28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="AU28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="AV28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="AW28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="AX28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="AY28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="AZ28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BA28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BB28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BC28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BD28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BE28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BF28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BG28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BH28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BI28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BJ28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BK28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BL28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BM28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BN28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BO28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BP28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BQ28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BR28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BS28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BT28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BU28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BV28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BW28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BX28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BY28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="BZ28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CA28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CB28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CC28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CD28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CE28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CF28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CG28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CH28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CI28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CJ28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CK28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CL28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CM28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CN28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CO28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CP28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CQ28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CR28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CS28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CT28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CU28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CV28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CW28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CX28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CY28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="CZ28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="DA28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="DB28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="DC28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="DD28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="DE28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="DF28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="DG28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
       </c>
       <c r="DH28" t="n">
-        <v>279.95</v>
+        <v>248.62</v>
+      </c>
+      <c r="DI28" t="n">
+        <v>299.95</v>
       </c>
     </row>
     <row r="29">
@@ -10706,6 +10792,9 @@
       <c r="DH29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DI29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11052,6 +11141,9 @@
       <c r="DH30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DI30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11398,6 +11490,9 @@
       <c r="DH31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DI31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11744,6 +11839,9 @@
       <c r="DH32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DI32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -12090,6 +12188,9 @@
       <c r="DH33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DI33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -12436,6 +12537,9 @@
       <c r="DH34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DI34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -12782,6 +12886,9 @@
       <c r="DH35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DI35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -13128,6 +13235,9 @@
       <c r="DH36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DI36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -13474,6 +13584,9 @@
       <c r="DH37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DI37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -13820,6 +13933,9 @@
       <c r="DH38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DI38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -14166,6 +14282,9 @@
       <c r="DH39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DI39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -14512,6 +14631,9 @@
       <c r="DH40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DI40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -14858,6 +14980,9 @@
       <c r="DH41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DI41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -15204,6 +15329,9 @@
       <c r="DH42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DI42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -15550,6 +15678,9 @@
       <c r="DH43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DI43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -15896,6 +16027,9 @@
       <c r="DH44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DI44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -16242,6 +16376,9 @@
       <c r="DH45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DI45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -16588,6 +16725,9 @@
       <c r="DH46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DI46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -16934,6 +17074,9 @@
       <c r="DH47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DI47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -17280,6 +17423,9 @@
       <c r="DH48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DI48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -17626,6 +17772,9 @@
       <c r="DH49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DI49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -17972,6 +18121,9 @@
       <c r="DH50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DI50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -18316,6 +18468,9 @@
         <v>1299.95</v>
       </c>
       <c r="DH51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DI51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -18552,6 +18707,7 @@
       <c r="DF52" t="inlineStr"/>
       <c r="DG52" t="inlineStr"/>
       <c r="DH52" t="inlineStr"/>
+      <c r="DI52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DI52"/>
+  <dimension ref="A1:DJ52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,6 +987,11 @@
           <t>2026-02-21 06:35:52</t>
         </is>
       </c>
+      <c r="DJ1" t="inlineStr">
+        <is>
+          <t>2026-02-21 07:30:19</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1336,6 +1341,9 @@
       <c r="DI2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DJ2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1685,6 +1693,9 @@
       <c r="DI3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DJ3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2034,6 +2045,9 @@
       <c r="DI4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DJ4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2383,6 +2397,9 @@
       <c r="DI5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DJ5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2732,6 +2749,9 @@
       <c r="DI6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DJ6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3081,6 +3101,9 @@
       <c r="DI7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DJ7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3430,6 +3453,9 @@
       <c r="DI8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DJ8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3779,6 +3805,9 @@
       <c r="DI9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DJ9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4132,6 +4161,9 @@
       <c r="DI10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DJ10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4485,6 +4517,9 @@
       <c r="DI11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DJ11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4838,6 +4873,9 @@
       <c r="DI12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DJ12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5191,6 +5229,9 @@
       <c r="DI13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DJ13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5540,6 +5581,9 @@
       <c r="DI14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DJ14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5889,6 +5933,9 @@
       <c r="DI15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DJ15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6238,6 +6285,9 @@
       <c r="DI16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DJ16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6587,6 +6637,9 @@
       <c r="DI17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DJ17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6940,6 +6993,9 @@
       <c r="DI18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DJ18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7293,6 +7349,9 @@
       <c r="DI19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DJ19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7642,6 +7701,9 @@
       <c r="DI20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DJ20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7995,6 +8057,9 @@
       <c r="DI21" t="n">
         <v>249.95</v>
       </c>
+      <c r="DJ21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8348,6 +8413,9 @@
       <c r="DI22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DJ22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8701,6 +8769,9 @@
       <c r="DI23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DJ23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9050,6 +9121,9 @@
       <c r="DI24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DJ24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9399,6 +9473,9 @@
       <c r="DI25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DJ25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9748,6 +9825,9 @@
       <c r="DI26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DJ26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10097,6 +10177,9 @@
       <c r="DI27" t="n">
         <v>279.95</v>
       </c>
+      <c r="DJ27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -10446,6 +10529,9 @@
       <c r="DI28" t="n">
         <v>299.95</v>
       </c>
+      <c r="DJ28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -10795,6 +10881,9 @@
       <c r="DI29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DJ29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11144,6 +11233,9 @@
       <c r="DI30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DJ30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11493,6 +11585,9 @@
       <c r="DI31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DJ31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11842,6 +11937,9 @@
       <c r="DI32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DJ32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -12191,6 +12289,9 @@
       <c r="DI33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DJ33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -12540,6 +12641,9 @@
       <c r="DI34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DJ34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -12889,6 +12993,9 @@
       <c r="DI35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DJ35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -13238,6 +13345,9 @@
       <c r="DI36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DJ36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -13587,6 +13697,9 @@
       <c r="DI37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DJ37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -13936,6 +14049,9 @@
       <c r="DI38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DJ38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -14285,6 +14401,9 @@
       <c r="DI39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DJ39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -14634,6 +14753,9 @@
       <c r="DI40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DJ40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -14983,6 +15105,9 @@
       <c r="DI41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DJ41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -15332,6 +15457,9 @@
       <c r="DI42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DJ42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -15681,6 +15809,9 @@
       <c r="DI43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DJ43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -16030,6 +16161,9 @@
       <c r="DI44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DJ44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -16379,6 +16513,9 @@
       <c r="DI45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DJ45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -16728,6 +16865,9 @@
       <c r="DI46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DJ46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -17077,6 +17217,9 @@
       <c r="DI47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DJ47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -17426,6 +17569,9 @@
       <c r="DI48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DJ48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -17775,6 +17921,9 @@
       <c r="DI49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DJ49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -18124,6 +18273,9 @@
       <c r="DI50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DJ50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -18471,6 +18623,9 @@
         <v>1299.95</v>
       </c>
       <c r="DI51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DJ51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -18708,6 +18863,7 @@
       <c r="DG52" t="inlineStr"/>
       <c r="DH52" t="inlineStr"/>
       <c r="DI52" t="inlineStr"/>
+      <c r="DJ52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DJ52"/>
+  <dimension ref="A1:DK52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -992,6 +992,11 @@
           <t>2026-02-21 07:30:19</t>
         </is>
       </c>
+      <c r="DK1" t="inlineStr">
+        <is>
+          <t>2026-02-21 08:24:02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1344,6 +1349,9 @@
       <c r="DJ2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DK2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1696,6 +1704,9 @@
       <c r="DJ3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DK3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2048,6 +2059,9 @@
       <c r="DJ4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DK4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2400,6 +2414,9 @@
       <c r="DJ5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DK5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2752,6 +2769,9 @@
       <c r="DJ6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DK6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3104,6 +3124,9 @@
       <c r="DJ7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DK7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3456,6 +3479,9 @@
       <c r="DJ8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DK8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3808,6 +3834,9 @@
       <c r="DJ9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DK9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4164,6 +4193,9 @@
       <c r="DJ10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DK10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4520,6 +4552,9 @@
       <c r="DJ11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DK11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4876,6 +4911,9 @@
       <c r="DJ12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DK12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5232,6 +5270,9 @@
       <c r="DJ13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DK13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5584,6 +5625,9 @@
       <c r="DJ14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DK14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5936,6 +5980,9 @@
       <c r="DJ15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DK15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6288,6 +6335,9 @@
       <c r="DJ16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DK16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6640,6 +6690,9 @@
       <c r="DJ17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DK17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6996,6 +7049,9 @@
       <c r="DJ18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DK18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7352,6 +7408,9 @@
       <c r="DJ19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DK19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7704,6 +7763,9 @@
       <c r="DJ20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DK20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8060,6 +8122,9 @@
       <c r="DJ21" t="n">
         <v>249.95</v>
       </c>
+      <c r="DK21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8416,6 +8481,9 @@
       <c r="DJ22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DK22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8772,6 +8840,9 @@
       <c r="DJ23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DK23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9124,6 +9195,9 @@
       <c r="DJ24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DK24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9476,6 +9550,9 @@
       <c r="DJ25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DK25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9828,6 +9905,9 @@
       <c r="DJ26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DK26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10180,6 +10260,9 @@
       <c r="DJ27" t="n">
         <v>279.95</v>
       </c>
+      <c r="DK27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -10532,6 +10615,9 @@
       <c r="DJ28" t="n">
         <v>299.95</v>
       </c>
+      <c r="DK28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -10884,6 +10970,9 @@
       <c r="DJ29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DK29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11236,6 +11325,9 @@
       <c r="DJ30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DK30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11588,6 +11680,9 @@
       <c r="DJ31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DK31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11940,6 +12035,9 @@
       <c r="DJ32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DK32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -12292,6 +12390,9 @@
       <c r="DJ33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DK33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -12644,6 +12745,9 @@
       <c r="DJ34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DK34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -12996,6 +13100,9 @@
       <c r="DJ35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DK35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -13348,6 +13455,9 @@
       <c r="DJ36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DK36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -13700,6 +13810,9 @@
       <c r="DJ37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DK37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -14052,6 +14165,9 @@
       <c r="DJ38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DK38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -14404,6 +14520,9 @@
       <c r="DJ39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DK39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -14756,6 +14875,9 @@
       <c r="DJ40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DK40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -15108,6 +15230,9 @@
       <c r="DJ41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DK41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -15460,6 +15585,9 @@
       <c r="DJ42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DK42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -15812,6 +15940,9 @@
       <c r="DJ43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DK43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -16164,6 +16295,9 @@
       <c r="DJ44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DK44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -16516,6 +16650,9 @@
       <c r="DJ45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DK45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -16868,6 +17005,9 @@
       <c r="DJ46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DK46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -17220,6 +17360,9 @@
       <c r="DJ47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DK47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -17572,6 +17715,9 @@
       <c r="DJ48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DK48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -17924,6 +18070,9 @@
       <c r="DJ49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DK49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -18276,6 +18425,9 @@
       <c r="DJ50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DK50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -18626,6 +18778,9 @@
         <v>1299.95</v>
       </c>
       <c r="DJ51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DK51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -18864,6 +19019,7 @@
       <c r="DH52" t="inlineStr"/>
       <c r="DI52" t="inlineStr"/>
       <c r="DJ52" t="inlineStr"/>
+      <c r="DK52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DK52"/>
+  <dimension ref="A1:DL52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,6 +997,11 @@
           <t>2026-02-21 08:24:02</t>
         </is>
       </c>
+      <c r="DL1" t="inlineStr">
+        <is>
+          <t>2026-02-21 09:25:39</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1352,6 +1357,9 @@
       <c r="DK2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DL2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1707,6 +1715,9 @@
       <c r="DK3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DL3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2062,6 +2073,9 @@
       <c r="DK4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DL4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2417,6 +2431,9 @@
       <c r="DK5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DL5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2772,6 +2789,9 @@
       <c r="DK6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DL6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3127,6 +3147,9 @@
       <c r="DK7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DL7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3482,6 +3505,9 @@
       <c r="DK8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DL8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3837,6 +3863,9 @@
       <c r="DK9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DL9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4196,6 +4225,9 @@
       <c r="DK10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DL10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4555,6 +4587,9 @@
       <c r="DK11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DL11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4914,6 +4949,9 @@
       <c r="DK12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DL12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5273,6 +5311,9 @@
       <c r="DK13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DL13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5628,6 +5669,9 @@
       <c r="DK14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DL14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5983,6 +6027,9 @@
       <c r="DK15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DL15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6338,6 +6385,9 @@
       <c r="DK16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DL16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6693,6 +6743,9 @@
       <c r="DK17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DL17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7052,6 +7105,9 @@
       <c r="DK18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DL18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7411,6 +7467,9 @@
       <c r="DK19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DL19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7766,6 +7825,9 @@
       <c r="DK20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DL20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8125,6 +8187,9 @@
       <c r="DK21" t="n">
         <v>249.95</v>
       </c>
+      <c r="DL21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8484,6 +8549,9 @@
       <c r="DK22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DL22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8843,6 +8911,9 @@
       <c r="DK23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DL23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9198,6 +9269,9 @@
       <c r="DK24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DL24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9553,6 +9627,9 @@
       <c r="DK25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DL25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9908,6 +9985,9 @@
       <c r="DK26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DL26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10263,6 +10343,9 @@
       <c r="DK27" t="n">
         <v>279.95</v>
       </c>
+      <c r="DL27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -10618,6 +10701,9 @@
       <c r="DK28" t="n">
         <v>299.95</v>
       </c>
+      <c r="DL28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -10973,6 +11059,9 @@
       <c r="DK29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DL29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11328,6 +11417,9 @@
       <c r="DK30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DL30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11683,6 +11775,9 @@
       <c r="DK31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DL31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -12038,6 +12133,9 @@
       <c r="DK32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DL32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -12393,6 +12491,9 @@
       <c r="DK33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DL33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -12748,6 +12849,9 @@
       <c r="DK34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DL34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -13103,6 +13207,9 @@
       <c r="DK35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DL35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -13458,6 +13565,9 @@
       <c r="DK36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DL36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -13813,6 +13923,9 @@
       <c r="DK37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DL37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -14168,6 +14281,9 @@
       <c r="DK38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DL38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -14523,6 +14639,9 @@
       <c r="DK39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DL39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -14878,6 +14997,9 @@
       <c r="DK40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DL40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -15233,6 +15355,9 @@
       <c r="DK41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DL41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -15588,6 +15713,9 @@
       <c r="DK42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DL42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -15943,6 +16071,9 @@
       <c r="DK43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DL43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -16298,6 +16429,9 @@
       <c r="DK44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DL44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -16653,6 +16787,9 @@
       <c r="DK45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DL45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -17008,6 +17145,9 @@
       <c r="DK46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DL46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -17363,6 +17503,9 @@
       <c r="DK47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DL47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -17718,6 +17861,9 @@
       <c r="DK48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DL48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -18073,6 +18219,9 @@
       <c r="DK49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DL49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -18428,6 +18577,9 @@
       <c r="DK50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DL50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -18781,6 +18933,9 @@
         <v>1299.95</v>
       </c>
       <c r="DK51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DL51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -19020,6 +19175,7 @@
       <c r="DI52" t="inlineStr"/>
       <c r="DJ52" t="inlineStr"/>
       <c r="DK52" t="inlineStr"/>
+      <c r="DL52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL52"/>
+  <dimension ref="A1:DM52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1002,6 +1002,11 @@
           <t>2026-02-21 09:25:39</t>
         </is>
       </c>
+      <c r="DM1" t="inlineStr">
+        <is>
+          <t>2026-02-21 10:20:36</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1360,6 +1365,9 @@
       <c r="DL2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DM2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1718,6 +1726,9 @@
       <c r="DL3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DM3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2076,6 +2087,9 @@
       <c r="DL4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DM4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2434,6 +2448,9 @@
       <c r="DL5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DM5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2792,6 +2809,9 @@
       <c r="DL6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DM6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3150,6 +3170,9 @@
       <c r="DL7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DM7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3508,6 +3531,9 @@
       <c r="DL8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DM8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3866,6 +3892,9 @@
       <c r="DL9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DM9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4228,6 +4257,9 @@
       <c r="DL10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DM10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4590,6 +4622,9 @@
       <c r="DL11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DM11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4952,6 +4987,9 @@
       <c r="DL12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DM12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5314,6 +5352,9 @@
       <c r="DL13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DM13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5672,6 +5713,9 @@
       <c r="DL14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DM14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6030,6 +6074,9 @@
       <c r="DL15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DM15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6388,6 +6435,9 @@
       <c r="DL16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DM16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6746,6 +6796,9 @@
       <c r="DL17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DM17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7108,6 +7161,9 @@
       <c r="DL18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DM18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7470,6 +7526,9 @@
       <c r="DL19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DM19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7828,6 +7887,9 @@
       <c r="DL20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DM20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8190,6 +8252,9 @@
       <c r="DL21" t="n">
         <v>249.95</v>
       </c>
+      <c r="DM21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8552,6 +8617,9 @@
       <c r="DL22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DM22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8914,6 +8982,9 @@
       <c r="DL23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DM23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9272,6 +9343,9 @@
       <c r="DL24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DM24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9630,6 +9704,9 @@
       <c r="DL25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DM25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9988,6 +10065,9 @@
       <c r="DL26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DM26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10346,6 +10426,9 @@
       <c r="DL27" t="n">
         <v>279.95</v>
       </c>
+      <c r="DM27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -10704,6 +10787,9 @@
       <c r="DL28" t="n">
         <v>299.95</v>
       </c>
+      <c r="DM28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11062,6 +11148,9 @@
       <c r="DL29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DM29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11420,6 +11509,9 @@
       <c r="DL30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DM30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11778,6 +11870,9 @@
       <c r="DL31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DM31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -12136,6 +12231,9 @@
       <c r="DL32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DM32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -12494,6 +12592,9 @@
       <c r="DL33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DM33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -12852,6 +12953,9 @@
       <c r="DL34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DM34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -13210,6 +13314,9 @@
       <c r="DL35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DM35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -13568,6 +13675,9 @@
       <c r="DL36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DM36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -13926,6 +14036,9 @@
       <c r="DL37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DM37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -14284,6 +14397,9 @@
       <c r="DL38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DM38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -14642,6 +14758,9 @@
       <c r="DL39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DM39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -15000,6 +15119,9 @@
       <c r="DL40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DM40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -15358,6 +15480,9 @@
       <c r="DL41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DM41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -15716,6 +15841,9 @@
       <c r="DL42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DM42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -16074,6 +16202,9 @@
       <c r="DL43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DM43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -16432,6 +16563,9 @@
       <c r="DL44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DM44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -16790,6 +16924,9 @@
       <c r="DL45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DM45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -17148,6 +17285,9 @@
       <c r="DL46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DM46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -17506,6 +17646,9 @@
       <c r="DL47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DM47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -17864,6 +18007,9 @@
       <c r="DL48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DM48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -18222,6 +18368,9 @@
       <c r="DL49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DM49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -18580,6 +18729,9 @@
       <c r="DL50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DM50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -18936,6 +19088,9 @@
         <v>1299.95</v>
       </c>
       <c r="DL51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DM51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -19176,6 +19331,7 @@
       <c r="DJ52" t="inlineStr"/>
       <c r="DK52" t="inlineStr"/>
       <c r="DL52" t="inlineStr"/>
+      <c r="DM52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM52"/>
+  <dimension ref="A1:DN52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,6 +1007,11 @@
           <t>2026-02-21 10:20:36</t>
         </is>
       </c>
+      <c r="DN1" t="inlineStr">
+        <is>
+          <t>2026-02-21 11:17:55</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1368,6 +1373,9 @@
       <c r="DM2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DN2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1729,6 +1737,9 @@
       <c r="DM3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DN3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2090,6 +2101,9 @@
       <c r="DM4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DN4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2451,6 +2465,9 @@
       <c r="DM5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DN5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2812,6 +2829,9 @@
       <c r="DM6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DN6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3173,6 +3193,9 @@
       <c r="DM7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DN7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3534,6 +3557,9 @@
       <c r="DM8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DN8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3895,6 +3921,9 @@
       <c r="DM9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DN9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4260,6 +4289,9 @@
       <c r="DM10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DN10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4625,6 +4657,9 @@
       <c r="DM11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DN11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4990,6 +5025,9 @@
       <c r="DM12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DN12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5355,6 +5393,9 @@
       <c r="DM13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DN13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5716,6 +5757,9 @@
       <c r="DM14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DN14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6077,6 +6121,9 @@
       <c r="DM15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DN15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6438,6 +6485,9 @@
       <c r="DM16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DN16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6799,6 +6849,9 @@
       <c r="DM17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DN17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7164,6 +7217,9 @@
       <c r="DM18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DN18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7529,6 +7585,9 @@
       <c r="DM19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DN19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7890,6 +7949,9 @@
       <c r="DM20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DN20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8255,6 +8317,9 @@
       <c r="DM21" t="n">
         <v>249.95</v>
       </c>
+      <c r="DN21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8620,6 +8685,9 @@
       <c r="DM22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DN22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8985,6 +9053,9 @@
       <c r="DM23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DN23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9346,6 +9417,9 @@
       <c r="DM24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DN24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9707,6 +9781,9 @@
       <c r="DM25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DN25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10068,6 +10145,9 @@
       <c r="DM26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DN26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10429,6 +10509,9 @@
       <c r="DM27" t="n">
         <v>279.95</v>
       </c>
+      <c r="DN27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -10790,6 +10873,9 @@
       <c r="DM28" t="n">
         <v>299.95</v>
       </c>
+      <c r="DN28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11151,6 +11237,9 @@
       <c r="DM29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DN29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11512,6 +11601,9 @@
       <c r="DM30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DN30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11873,6 +11965,9 @@
       <c r="DM31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DN31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -12234,6 +12329,9 @@
       <c r="DM32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DN32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -12595,6 +12693,9 @@
       <c r="DM33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DN33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -12956,6 +13057,9 @@
       <c r="DM34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DN34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -13317,6 +13421,9 @@
       <c r="DM35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DN35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -13678,6 +13785,9 @@
       <c r="DM36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DN36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -14039,6 +14149,9 @@
       <c r="DM37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DN37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -14400,6 +14513,9 @@
       <c r="DM38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DN38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -14761,6 +14877,9 @@
       <c r="DM39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DN39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -15122,6 +15241,9 @@
       <c r="DM40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DN40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -15483,6 +15605,9 @@
       <c r="DM41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DN41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -15844,6 +15969,9 @@
       <c r="DM42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DN42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -16205,6 +16333,9 @@
       <c r="DM43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DN43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -16566,6 +16697,9 @@
       <c r="DM44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DN44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -16927,6 +17061,9 @@
       <c r="DM45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DN45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -17288,6 +17425,9 @@
       <c r="DM46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DN46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -17649,6 +17789,9 @@
       <c r="DM47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DN47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -18010,6 +18153,9 @@
       <c r="DM48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DN48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -18371,6 +18517,9 @@
       <c r="DM49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DN49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -18732,6 +18881,9 @@
       <c r="DM50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DN50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -19091,6 +19243,9 @@
         <v>1299.95</v>
       </c>
       <c r="DM51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DN51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -19332,6 +19487,7 @@
       <c r="DK52" t="inlineStr"/>
       <c r="DL52" t="inlineStr"/>
       <c r="DM52" t="inlineStr"/>
+      <c r="DN52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DN52"/>
+  <dimension ref="A1:DO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,6 +1012,11 @@
           <t>2026-02-21 11:17:55</t>
         </is>
       </c>
+      <c r="DO1" t="inlineStr">
+        <is>
+          <t>2026-02-21 12:35:10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1376,6 +1381,9 @@
       <c r="DN2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DO2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1740,6 +1748,9 @@
       <c r="DN3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DO3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2104,6 +2115,9 @@
       <c r="DN4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DO4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2468,6 +2482,9 @@
       <c r="DN5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DO5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2832,6 +2849,9 @@
       <c r="DN6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DO6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3196,6 +3216,9 @@
       <c r="DN7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DO7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3560,6 +3583,9 @@
       <c r="DN8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DO8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3924,6 +3950,9 @@
       <c r="DN9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DO9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4292,6 +4321,9 @@
       <c r="DN10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DO10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4660,6 +4692,9 @@
       <c r="DN11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DO11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5028,6 +5063,9 @@
       <c r="DN12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DO12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5396,6 +5434,9 @@
       <c r="DN13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DO13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5760,6 +5801,9 @@
       <c r="DN14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DO14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6124,6 +6168,9 @@
       <c r="DN15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DO15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6488,6 +6535,9 @@
       <c r="DN16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DO16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6852,6 +6902,9 @@
       <c r="DN17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DO17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7220,6 +7273,9 @@
       <c r="DN18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DO18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7588,6 +7644,9 @@
       <c r="DN19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DO19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7952,6 +8011,9 @@
       <c r="DN20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DO20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8320,6 +8382,9 @@
       <c r="DN21" t="n">
         <v>249.95</v>
       </c>
+      <c r="DO21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8688,6 +8753,9 @@
       <c r="DN22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DO22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9056,6 +9124,9 @@
       <c r="DN23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DO23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9420,6 +9491,9 @@
       <c r="DN24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DO24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9784,6 +9858,9 @@
       <c r="DN25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DO25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10148,6 +10225,9 @@
       <c r="DN26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DO26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10512,6 +10592,9 @@
       <c r="DN27" t="n">
         <v>279.95</v>
       </c>
+      <c r="DO27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -10876,6 +10959,9 @@
       <c r="DN28" t="n">
         <v>299.95</v>
       </c>
+      <c r="DO28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11240,6 +11326,9 @@
       <c r="DN29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DO29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11604,6 +11693,9 @@
       <c r="DN30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DO30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11968,6 +12060,9 @@
       <c r="DN31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DO31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -12332,6 +12427,9 @@
       <c r="DN32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DO32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -12696,6 +12794,9 @@
       <c r="DN33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DO33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -13060,6 +13161,9 @@
       <c r="DN34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DO34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -13424,6 +13528,9 @@
       <c r="DN35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DO35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -13788,6 +13895,9 @@
       <c r="DN36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DO36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -14152,6 +14262,9 @@
       <c r="DN37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DO37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -14516,6 +14629,9 @@
       <c r="DN38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DO38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -14880,6 +14996,9 @@
       <c r="DN39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DO39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -15244,6 +15363,9 @@
       <c r="DN40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DO40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -15608,6 +15730,9 @@
       <c r="DN41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DO41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -15972,6 +16097,9 @@
       <c r="DN42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DO42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -16336,6 +16464,9 @@
       <c r="DN43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DO43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -16700,6 +16831,9 @@
       <c r="DN44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DO44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -17064,6 +17198,9 @@
       <c r="DN45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DO45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -17428,6 +17565,9 @@
       <c r="DN46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DO46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -17792,6 +17932,9 @@
       <c r="DN47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DO47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -18156,6 +18299,9 @@
       <c r="DN48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DO48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -18520,6 +18666,9 @@
       <c r="DN49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DO49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -18884,6 +19033,9 @@
       <c r="DN50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DO50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -19246,6 +19398,9 @@
         <v>1299.95</v>
       </c>
       <c r="DN51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DO51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -19488,6 +19643,7 @@
       <c r="DL52" t="inlineStr"/>
       <c r="DM52" t="inlineStr"/>
       <c r="DN52" t="inlineStr"/>
+      <c r="DO52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DO52"/>
+  <dimension ref="A1:DP52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1017,6 +1017,11 @@
           <t>2026-02-21 12:35:10</t>
         </is>
       </c>
+      <c r="DP1" t="inlineStr">
+        <is>
+          <t>2026-02-21 13:39:14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1384,6 +1389,9 @@
       <c r="DO2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DP2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1751,6 +1759,9 @@
       <c r="DO3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DP3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2118,6 +2129,9 @@
       <c r="DO4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DP4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2485,6 +2499,9 @@
       <c r="DO5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DP5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2852,6 +2869,9 @@
       <c r="DO6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DP6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3219,6 +3239,9 @@
       <c r="DO7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DP7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3586,6 +3609,9 @@
       <c r="DO8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DP8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3953,6 +3979,9 @@
       <c r="DO9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DP9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4324,6 +4353,9 @@
       <c r="DO10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DP10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4695,6 +4727,9 @@
       <c r="DO11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DP11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5066,6 +5101,9 @@
       <c r="DO12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DP12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5437,6 +5475,9 @@
       <c r="DO13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DP13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5804,6 +5845,9 @@
       <c r="DO14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DP14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6171,6 +6215,9 @@
       <c r="DO15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DP15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6538,6 +6585,9 @@
       <c r="DO16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DP16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6905,6 +6955,9 @@
       <c r="DO17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DP17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7276,6 +7329,9 @@
       <c r="DO18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DP18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7647,6 +7703,9 @@
       <c r="DO19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DP19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8014,6 +8073,9 @@
       <c r="DO20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DP20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8385,6 +8447,9 @@
       <c r="DO21" t="n">
         <v>249.95</v>
       </c>
+      <c r="DP21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8756,6 +8821,9 @@
       <c r="DO22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DP22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9127,6 +9195,9 @@
       <c r="DO23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DP23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9494,6 +9565,9 @@
       <c r="DO24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DP24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9861,6 +9935,9 @@
       <c r="DO25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DP25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10228,6 +10305,9 @@
       <c r="DO26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DP26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10595,6 +10675,9 @@
       <c r="DO27" t="n">
         <v>279.95</v>
       </c>
+      <c r="DP27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -10962,6 +11045,9 @@
       <c r="DO28" t="n">
         <v>299.95</v>
       </c>
+      <c r="DP28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11329,6 +11415,9 @@
       <c r="DO29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DP29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11696,6 +11785,9 @@
       <c r="DO30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DP30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -12063,6 +12155,9 @@
       <c r="DO31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DP31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -12430,6 +12525,9 @@
       <c r="DO32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DP32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -12797,6 +12895,9 @@
       <c r="DO33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DP33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -13164,6 +13265,9 @@
       <c r="DO34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DP34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -13531,6 +13635,9 @@
       <c r="DO35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DP35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -13898,6 +14005,9 @@
       <c r="DO36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DP36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -14265,6 +14375,9 @@
       <c r="DO37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DP37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -14632,6 +14745,9 @@
       <c r="DO38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DP38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -14999,6 +15115,9 @@
       <c r="DO39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DP39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -15366,6 +15485,9 @@
       <c r="DO40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DP40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -15733,6 +15855,9 @@
       <c r="DO41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DP41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -16100,6 +16225,9 @@
       <c r="DO42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DP42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -16467,6 +16595,9 @@
       <c r="DO43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DP43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -16834,6 +16965,9 @@
       <c r="DO44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DP44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -17201,6 +17335,9 @@
       <c r="DO45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DP45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -17568,6 +17705,9 @@
       <c r="DO46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DP46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -17935,6 +18075,9 @@
       <c r="DO47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DP47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -18302,6 +18445,9 @@
       <c r="DO48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DP48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -18669,6 +18815,9 @@
       <c r="DO49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DP49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -19036,6 +19185,9 @@
       <c r="DO50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DP50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -19401,6 +19553,9 @@
         <v>1299.95</v>
       </c>
       <c r="DO51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DP51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -19644,6 +19799,7 @@
       <c r="DM52" t="inlineStr"/>
       <c r="DN52" t="inlineStr"/>
       <c r="DO52" t="inlineStr"/>
+      <c r="DP52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DP52"/>
+  <dimension ref="A1:DQ52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,6 +1022,11 @@
           <t>2026-02-21 13:39:14</t>
         </is>
       </c>
+      <c r="DQ1" t="inlineStr">
+        <is>
+          <t>2026-02-21 14:21:50</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1392,6 +1397,9 @@
       <c r="DP2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DQ2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1762,6 +1770,9 @@
       <c r="DP3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DQ3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2132,6 +2143,9 @@
       <c r="DP4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DQ4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2502,6 +2516,9 @@
       <c r="DP5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DQ5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2872,6 +2889,9 @@
       <c r="DP6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DQ6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3242,6 +3262,9 @@
       <c r="DP7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DQ7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3612,6 +3635,9 @@
       <c r="DP8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DQ8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3982,6 +4008,9 @@
       <c r="DP9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DQ9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4356,6 +4385,9 @@
       <c r="DP10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DQ10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4730,6 +4762,9 @@
       <c r="DP11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DQ11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5104,6 +5139,9 @@
       <c r="DP12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DQ12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5478,6 +5516,9 @@
       <c r="DP13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DQ13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5848,6 +5889,9 @@
       <c r="DP14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DQ14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6218,6 +6262,9 @@
       <c r="DP15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DQ15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6588,6 +6635,9 @@
       <c r="DP16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DQ16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6958,6 +7008,9 @@
       <c r="DP17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DQ17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7332,6 +7385,9 @@
       <c r="DP18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DQ18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7706,6 +7762,9 @@
       <c r="DP19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DQ19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8076,6 +8135,9 @@
       <c r="DP20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DQ20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8450,6 +8512,9 @@
       <c r="DP21" t="n">
         <v>249.95</v>
       </c>
+      <c r="DQ21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8824,6 +8889,9 @@
       <c r="DP22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DQ22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9198,6 +9266,9 @@
       <c r="DP23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DQ23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9568,6 +9639,9 @@
       <c r="DP24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DQ24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9938,6 +10012,9 @@
       <c r="DP25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DQ25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10308,6 +10385,9 @@
       <c r="DP26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DQ26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10678,6 +10758,9 @@
       <c r="DP27" t="n">
         <v>279.95</v>
       </c>
+      <c r="DQ27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11048,6 +11131,9 @@
       <c r="DP28" t="n">
         <v>299.95</v>
       </c>
+      <c r="DQ28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11418,6 +11504,9 @@
       <c r="DP29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DQ29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11788,6 +11877,9 @@
       <c r="DP30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DQ30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -12158,6 +12250,9 @@
       <c r="DP31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DQ31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -12528,6 +12623,9 @@
       <c r="DP32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DQ32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -12898,6 +12996,9 @@
       <c r="DP33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DQ33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -13268,6 +13369,9 @@
       <c r="DP34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DQ34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -13638,6 +13742,9 @@
       <c r="DP35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DQ35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -14008,6 +14115,9 @@
       <c r="DP36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DQ36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -14378,6 +14488,9 @@
       <c r="DP37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DQ37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -14748,6 +14861,9 @@
       <c r="DP38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DQ38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -15118,6 +15234,9 @@
       <c r="DP39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DQ39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -15488,6 +15607,9 @@
       <c r="DP40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DQ40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -15858,6 +15980,9 @@
       <c r="DP41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DQ41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -16228,6 +16353,9 @@
       <c r="DP42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DQ42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -16598,6 +16726,9 @@
       <c r="DP43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DQ43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -16968,6 +17099,9 @@
       <c r="DP44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DQ44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -17338,6 +17472,9 @@
       <c r="DP45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DQ45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -17708,6 +17845,9 @@
       <c r="DP46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DQ46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -18078,6 +18218,9 @@
       <c r="DP47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DQ47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -18448,6 +18591,9 @@
       <c r="DP48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DQ48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -18818,6 +18964,9 @@
       <c r="DP49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DQ49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -19188,6 +19337,9 @@
       <c r="DP50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DQ50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -19556,6 +19708,9 @@
         <v>1299.95</v>
       </c>
       <c r="DP51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DQ51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -19800,6 +19955,7 @@
       <c r="DN52" t="inlineStr"/>
       <c r="DO52" t="inlineStr"/>
       <c r="DP52" t="inlineStr"/>
+      <c r="DQ52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ52"/>
+  <dimension ref="A1:DR52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,6 +1027,11 @@
           <t>2026-02-21 14:21:50</t>
         </is>
       </c>
+      <c r="DR1" t="inlineStr">
+        <is>
+          <t>2026-02-21 15:20:08</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1400,6 +1405,9 @@
       <c r="DQ2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DR2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1773,6 +1781,9 @@
       <c r="DQ3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DR3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2146,6 +2157,9 @@
       <c r="DQ4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DR4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2519,6 +2533,9 @@
       <c r="DQ5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DR5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2892,6 +2909,9 @@
       <c r="DQ6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DR6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3265,6 +3285,9 @@
       <c r="DQ7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DR7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3638,6 +3661,9 @@
       <c r="DQ8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DR8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4011,6 +4037,9 @@
       <c r="DQ9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DR9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4388,6 +4417,9 @@
       <c r="DQ10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DR10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4765,6 +4797,9 @@
       <c r="DQ11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DR11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5142,6 +5177,9 @@
       <c r="DQ12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DR12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5519,6 +5557,9 @@
       <c r="DQ13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DR13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5892,6 +5933,9 @@
       <c r="DQ14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DR14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6265,6 +6309,9 @@
       <c r="DQ15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DR15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6638,6 +6685,9 @@
       <c r="DQ16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DR16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7011,6 +7061,9 @@
       <c r="DQ17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DR17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7388,6 +7441,9 @@
       <c r="DQ18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DR18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7765,6 +7821,9 @@
       <c r="DQ19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DR19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8138,6 +8197,9 @@
       <c r="DQ20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DR20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8515,6 +8577,9 @@
       <c r="DQ21" t="n">
         <v>249.95</v>
       </c>
+      <c r="DR21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8892,6 +8957,9 @@
       <c r="DQ22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DR22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9269,6 +9337,9 @@
       <c r="DQ23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DR23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9642,6 +9713,9 @@
       <c r="DQ24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DR24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10015,6 +10089,9 @@
       <c r="DQ25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DR25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10388,6 +10465,9 @@
       <c r="DQ26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DR26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10761,6 +10841,9 @@
       <c r="DQ27" t="n">
         <v>279.95</v>
       </c>
+      <c r="DR27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11134,6 +11217,9 @@
       <c r="DQ28" t="n">
         <v>299.95</v>
       </c>
+      <c r="DR28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11507,6 +11593,9 @@
       <c r="DQ29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DR29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11880,6 +11969,9 @@
       <c r="DQ30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DR30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -12253,6 +12345,9 @@
       <c r="DQ31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DR31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -12626,6 +12721,9 @@
       <c r="DQ32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DR32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -12999,6 +13097,9 @@
       <c r="DQ33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DR33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -13372,6 +13473,9 @@
       <c r="DQ34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DR34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -13745,6 +13849,9 @@
       <c r="DQ35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DR35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -14118,6 +14225,9 @@
       <c r="DQ36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DR36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -14491,6 +14601,9 @@
       <c r="DQ37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DR37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -14864,6 +14977,9 @@
       <c r="DQ38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DR38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -15237,6 +15353,9 @@
       <c r="DQ39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DR39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -15610,6 +15729,9 @@
       <c r="DQ40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DR40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -15983,6 +16105,9 @@
       <c r="DQ41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DR41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -16356,6 +16481,9 @@
       <c r="DQ42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DR42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -16729,6 +16857,9 @@
       <c r="DQ43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DR43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -17102,6 +17233,9 @@
       <c r="DQ44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DR44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -17475,6 +17609,9 @@
       <c r="DQ45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DR45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -17848,6 +17985,9 @@
       <c r="DQ46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DR46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -18221,6 +18361,9 @@
       <c r="DQ47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DR47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -18594,6 +18737,9 @@
       <c r="DQ48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DR48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -18967,6 +19113,9 @@
       <c r="DQ49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DR49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -19340,6 +19489,9 @@
       <c r="DQ50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DR50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -19711,6 +19863,9 @@
         <v>1299.95</v>
       </c>
       <c r="DQ51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DR51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -19956,6 +20111,7 @@
       <c r="DO52" t="inlineStr"/>
       <c r="DP52" t="inlineStr"/>
       <c r="DQ52" t="inlineStr"/>
+      <c r="DR52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DR52"/>
+  <dimension ref="A1:DS52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,6 +1032,11 @@
           <t>2026-02-21 15:20:08</t>
         </is>
       </c>
+      <c r="DS1" t="inlineStr">
+        <is>
+          <t>2026-02-21 16:21:59</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1408,6 +1413,9 @@
       <c r="DR2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DS2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1784,6 +1792,9 @@
       <c r="DR3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DS3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2160,6 +2171,9 @@
       <c r="DR4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DS4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2536,6 +2550,9 @@
       <c r="DR5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DS5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2912,6 +2929,9 @@
       <c r="DR6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DS6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3288,6 +3308,9 @@
       <c r="DR7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DS7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3664,6 +3687,9 @@
       <c r="DR8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DS8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4040,6 +4066,9 @@
       <c r="DR9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DS9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4420,6 +4449,9 @@
       <c r="DR10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DS10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4800,6 +4832,9 @@
       <c r="DR11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DS11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5180,6 +5215,9 @@
       <c r="DR12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DS12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5560,6 +5598,9 @@
       <c r="DR13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DS13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5936,6 +5977,9 @@
       <c r="DR14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DS14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6312,6 +6356,9 @@
       <c r="DR15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DS15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6688,6 +6735,9 @@
       <c r="DR16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DS16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7064,6 +7114,9 @@
       <c r="DR17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DS17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7444,6 +7497,9 @@
       <c r="DR18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DS18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7824,6 +7880,9 @@
       <c r="DR19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DS19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8200,6 +8259,9 @@
       <c r="DR20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DS20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8580,6 +8642,9 @@
       <c r="DR21" t="n">
         <v>249.95</v>
       </c>
+      <c r="DS21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8960,6 +9025,9 @@
       <c r="DR22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DS22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9340,6 +9408,9 @@
       <c r="DR23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DS23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9716,6 +9787,9 @@
       <c r="DR24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DS24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10092,6 +10166,9 @@
       <c r="DR25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DS25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10468,6 +10545,9 @@
       <c r="DR26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DS26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10844,6 +10924,9 @@
       <c r="DR27" t="n">
         <v>279.95</v>
       </c>
+      <c r="DS27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11220,6 +11303,9 @@
       <c r="DR28" t="n">
         <v>299.95</v>
       </c>
+      <c r="DS28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11596,6 +11682,9 @@
       <c r="DR29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DS29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11972,6 +12061,9 @@
       <c r="DR30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DS30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -12348,6 +12440,9 @@
       <c r="DR31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DS31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -12724,6 +12819,9 @@
       <c r="DR32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DS32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -13100,6 +13198,9 @@
       <c r="DR33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DS33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -13476,6 +13577,9 @@
       <c r="DR34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DS34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -13852,6 +13956,9 @@
       <c r="DR35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DS35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -14228,6 +14335,9 @@
       <c r="DR36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DS36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -14604,6 +14714,9 @@
       <c r="DR37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DS37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -14980,6 +15093,9 @@
       <c r="DR38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DS38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -15356,6 +15472,9 @@
       <c r="DR39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DS39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -15732,6 +15851,9 @@
       <c r="DR40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DS40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -16108,6 +16230,9 @@
       <c r="DR41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DS41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -16484,6 +16609,9 @@
       <c r="DR42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DS42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -16503,7 +16631,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -16860,6 +16988,9 @@
       <c r="DR43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DS43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -17236,6 +17367,9 @@
       <c r="DR44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DS44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -17612,6 +17746,9 @@
       <c r="DR45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DS45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -17988,6 +18125,9 @@
       <c r="DR46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DS46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -18364,6 +18504,9 @@
       <c r="DR47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DS47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -18740,6 +18883,9 @@
       <c r="DR48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DS48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -19116,6 +19262,9 @@
       <c r="DR49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DS49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -19492,6 +19641,9 @@
       <c r="DR50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DS50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -19866,6 +20018,9 @@
         <v>1299.95</v>
       </c>
       <c r="DR51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DS51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -20112,6 +20267,7 @@
       <c r="DP52" t="inlineStr"/>
       <c r="DQ52" t="inlineStr"/>
       <c r="DR52" t="inlineStr"/>
+      <c r="DS52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DS52"/>
+  <dimension ref="A1:DT52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,6 +1037,11 @@
           <t>2026-02-21 16:21:59</t>
         </is>
       </c>
+      <c r="DT1" t="inlineStr">
+        <is>
+          <t>2026-02-21 17:21:07</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1416,6 +1421,9 @@
       <c r="DS2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DT2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1795,6 +1803,9 @@
       <c r="DS3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DT3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2174,6 +2185,9 @@
       <c r="DS4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DT4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2553,6 +2567,9 @@
       <c r="DS5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DT5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2932,6 +2949,9 @@
       <c r="DS6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DT6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3311,6 +3331,9 @@
       <c r="DS7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DT7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3690,6 +3713,9 @@
       <c r="DS8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DT8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4069,6 +4095,9 @@
       <c r="DS9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DT9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4452,6 +4481,9 @@
       <c r="DS10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DT10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4835,6 +4867,9 @@
       <c r="DS11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DT11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5218,6 +5253,9 @@
       <c r="DS12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DT12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5601,6 +5639,9 @@
       <c r="DS13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DT13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5980,6 +6021,9 @@
       <c r="DS14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DT14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6359,6 +6403,9 @@
       <c r="DS15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DT15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6738,6 +6785,9 @@
       <c r="DS16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DT16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7117,6 +7167,9 @@
       <c r="DS17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DT17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7500,6 +7553,9 @@
       <c r="DS18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DT18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7883,6 +7939,9 @@
       <c r="DS19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DT19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8262,6 +8321,9 @@
       <c r="DS20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DT20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8645,6 +8707,9 @@
       <c r="DS21" t="n">
         <v>249.95</v>
       </c>
+      <c r="DT21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9028,6 +9093,9 @@
       <c r="DS22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DT22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9411,6 +9479,9 @@
       <c r="DS23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DT23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9790,6 +9861,9 @@
       <c r="DS24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DT24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10169,6 +10243,9 @@
       <c r="DS25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DT25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10548,6 +10625,9 @@
       <c r="DS26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DT26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10927,6 +11007,9 @@
       <c r="DS27" t="n">
         <v>279.95</v>
       </c>
+      <c r="DT27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11306,6 +11389,9 @@
       <c r="DS28" t="n">
         <v>299.95</v>
       </c>
+      <c r="DT28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11685,6 +11771,9 @@
       <c r="DS29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DT29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -12064,6 +12153,9 @@
       <c r="DS30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DT30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -12443,6 +12535,9 @@
       <c r="DS31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DT31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -12822,6 +12917,9 @@
       <c r="DS32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DT32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -13201,6 +13299,9 @@
       <c r="DS33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DT33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -13580,6 +13681,9 @@
       <c r="DS34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DT34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -13959,6 +14063,9 @@
       <c r="DS35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DT35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -14338,6 +14445,9 @@
       <c r="DS36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DT36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -14717,6 +14827,9 @@
       <c r="DS37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DT37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -15096,6 +15209,9 @@
       <c r="DS38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DT38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -15475,6 +15591,9 @@
       <c r="DS39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DT39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -15854,6 +15973,9 @@
       <c r="DS40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DT40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -16233,6 +16355,9 @@
       <c r="DS41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DT41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -16612,6 +16737,9 @@
       <c r="DS42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DT42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -16991,6 +17119,9 @@
       <c r="DS43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DT43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -17370,6 +17501,9 @@
       <c r="DS44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DT44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -17749,6 +17883,9 @@
       <c r="DS45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DT45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -18128,6 +18265,9 @@
       <c r="DS46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DT46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -18507,6 +18647,9 @@
       <c r="DS47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DT47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -18886,6 +19029,9 @@
       <c r="DS48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DT48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -19265,6 +19411,9 @@
       <c r="DS49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DT49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -19644,6 +19793,9 @@
       <c r="DS50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DT50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -20021,6 +20173,9 @@
         <v>1299.95</v>
       </c>
       <c r="DS51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DT51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -20268,6 +20423,7 @@
       <c r="DQ52" t="inlineStr"/>
       <c r="DR52" t="inlineStr"/>
       <c r="DS52" t="inlineStr"/>
+      <c r="DT52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DT52"/>
+  <dimension ref="A1:DU52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1042,6 +1042,11 @@
           <t>2026-02-21 17:21:07</t>
         </is>
       </c>
+      <c r="DU1" t="inlineStr">
+        <is>
+          <t>2026-02-21 18:27:12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1424,6 +1429,9 @@
       <c r="DT2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DU2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1806,6 +1814,9 @@
       <c r="DT3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DU3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2188,6 +2199,9 @@
       <c r="DT4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DU4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2570,6 +2584,9 @@
       <c r="DT5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DU5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2952,6 +2969,9 @@
       <c r="DT6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DU6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3334,6 +3354,9 @@
       <c r="DT7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DU7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3716,6 +3739,9 @@
       <c r="DT8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DU8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4098,6 +4124,9 @@
       <c r="DT9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DU9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4484,6 +4513,9 @@
       <c r="DT10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DU10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4870,6 +4902,9 @@
       <c r="DT11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DU11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5256,6 +5291,9 @@
       <c r="DT12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DU12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5642,6 +5680,9 @@
       <c r="DT13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DU13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6024,6 +6065,9 @@
       <c r="DT14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DU14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6406,6 +6450,9 @@
       <c r="DT15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DU15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6788,6 +6835,9 @@
       <c r="DT16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DU16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7170,6 +7220,9 @@
       <c r="DT17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DU17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7556,6 +7609,9 @@
       <c r="DT18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DU18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7942,6 +7998,9 @@
       <c r="DT19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DU19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8324,6 +8383,9 @@
       <c r="DT20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DU20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8710,6 +8772,9 @@
       <c r="DT21" t="n">
         <v>249.95</v>
       </c>
+      <c r="DU21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9096,6 +9161,9 @@
       <c r="DT22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DU22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9482,6 +9550,9 @@
       <c r="DT23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DU23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9864,6 +9935,9 @@
       <c r="DT24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DU24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10246,6 +10320,9 @@
       <c r="DT25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DU25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10628,6 +10705,9 @@
       <c r="DT26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DU26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11010,6 +11090,9 @@
       <c r="DT27" t="n">
         <v>279.95</v>
       </c>
+      <c r="DU27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11392,6 +11475,9 @@
       <c r="DT28" t="n">
         <v>299.95</v>
       </c>
+      <c r="DU28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11774,6 +11860,9 @@
       <c r="DT29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DU29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -12156,6 +12245,9 @@
       <c r="DT30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DU30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -12538,6 +12630,9 @@
       <c r="DT31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DU31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -12920,6 +13015,9 @@
       <c r="DT32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DU32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -13302,6 +13400,9 @@
       <c r="DT33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DU33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -13684,6 +13785,9 @@
       <c r="DT34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DU34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -14066,6 +14170,9 @@
       <c r="DT35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DU35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -14448,6 +14555,9 @@
       <c r="DT36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DU36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -14830,6 +14940,9 @@
       <c r="DT37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DU37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -15212,6 +15325,9 @@
       <c r="DT38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DU38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -15594,6 +15710,9 @@
       <c r="DT39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DU39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -15976,6 +16095,9 @@
       <c r="DT40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DU40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -16358,6 +16480,9 @@
       <c r="DT41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DU41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -16740,6 +16865,9 @@
       <c r="DT42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DU42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -17122,6 +17250,9 @@
       <c r="DT43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DU43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -17504,6 +17635,9 @@
       <c r="DT44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DU44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -17886,6 +18020,9 @@
       <c r="DT45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DU45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -18268,6 +18405,9 @@
       <c r="DT46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DU46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -18650,6 +18790,9 @@
       <c r="DT47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DU47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -19032,6 +19175,9 @@
       <c r="DT48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DU48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -19414,6 +19560,9 @@
       <c r="DT49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DU49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -19796,6 +19945,9 @@
       <c r="DT50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DU50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -20176,6 +20328,9 @@
         <v>1299.95</v>
       </c>
       <c r="DT51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DU51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -20424,6 +20579,7 @@
       <c r="DR52" t="inlineStr"/>
       <c r="DS52" t="inlineStr"/>
       <c r="DT52" t="inlineStr"/>
+      <c r="DU52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU52"/>
+  <dimension ref="A1:DV52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1047,6 +1047,11 @@
           <t>2026-02-21 18:27:12</t>
         </is>
       </c>
+      <c r="DV1" t="inlineStr">
+        <is>
+          <t>2026-02-21 19:20:23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1432,6 +1437,9 @@
       <c r="DU2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DV2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1817,6 +1825,9 @@
       <c r="DU3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DV3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2202,6 +2213,9 @@
       <c r="DU4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DV4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2587,6 +2601,9 @@
       <c r="DU5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DV5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2972,6 +2989,9 @@
       <c r="DU6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DV6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3357,6 +3377,9 @@
       <c r="DU7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DV7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3742,6 +3765,9 @@
       <c r="DU8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DV8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4127,6 +4153,9 @@
       <c r="DU9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DV9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4516,6 +4545,9 @@
       <c r="DU10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DV10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4905,6 +4937,9 @@
       <c r="DU11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DV11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5294,6 +5329,9 @@
       <c r="DU12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DV12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5683,6 +5721,9 @@
       <c r="DU13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DV13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6068,6 +6109,9 @@
       <c r="DU14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DV14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6453,6 +6497,9 @@
       <c r="DU15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DV15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6838,6 +6885,9 @@
       <c r="DU16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DV16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7223,6 +7273,9 @@
       <c r="DU17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DV17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7612,6 +7665,9 @@
       <c r="DU18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DV18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8001,6 +8057,9 @@
       <c r="DU19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DV19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8386,6 +8445,9 @@
       <c r="DU20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DV20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8775,6 +8837,9 @@
       <c r="DU21" t="n">
         <v>249.95</v>
       </c>
+      <c r="DV21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9164,6 +9229,9 @@
       <c r="DU22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DV22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9553,6 +9621,9 @@
       <c r="DU23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DV23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9938,6 +10009,9 @@
       <c r="DU24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DV24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10323,6 +10397,9 @@
       <c r="DU25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DV25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10708,6 +10785,9 @@
       <c r="DU26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DV26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11093,6 +11173,9 @@
       <c r="DU27" t="n">
         <v>279.95</v>
       </c>
+      <c r="DV27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11478,6 +11561,9 @@
       <c r="DU28" t="n">
         <v>299.95</v>
       </c>
+      <c r="DV28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11863,6 +11949,9 @@
       <c r="DU29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DV29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -12248,6 +12337,9 @@
       <c r="DU30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DV30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -12633,6 +12725,9 @@
       <c r="DU31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DV31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -13018,6 +13113,9 @@
       <c r="DU32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DV32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -13403,6 +13501,9 @@
       <c r="DU33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DV33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -13788,6 +13889,9 @@
       <c r="DU34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DV34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -14173,6 +14277,9 @@
       <c r="DU35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DV35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -14558,6 +14665,9 @@
       <c r="DU36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DV36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -14943,6 +15053,9 @@
       <c r="DU37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DV37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -15328,6 +15441,9 @@
       <c r="DU38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DV38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -15713,6 +15829,9 @@
       <c r="DU39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DV39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -16098,6 +16217,9 @@
       <c r="DU40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DV40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -16483,6 +16605,9 @@
       <c r="DU41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DV41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -16868,6 +16993,9 @@
       <c r="DU42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DV42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -17253,6 +17381,9 @@
       <c r="DU43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DV43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -17638,6 +17769,9 @@
       <c r="DU44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DV44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -18023,6 +18157,9 @@
       <c r="DU45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DV45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -18408,6 +18545,9 @@
       <c r="DU46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DV46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -18793,6 +18933,9 @@
       <c r="DU47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DV47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -19178,6 +19321,9 @@
       <c r="DU48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DV48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -19563,6 +19709,9 @@
       <c r="DU49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DV49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -19948,6 +20097,9 @@
       <c r="DU50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DV50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -20331,6 +20483,9 @@
         <v>1299.95</v>
       </c>
       <c r="DU51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DV51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -20580,6 +20735,7 @@
       <c r="DS52" t="inlineStr"/>
       <c r="DT52" t="inlineStr"/>
       <c r="DU52" t="inlineStr"/>
+      <c r="DV52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DV52"/>
+  <dimension ref="A1:DW52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1052,6 +1052,11 @@
           <t>2026-02-21 19:20:23</t>
         </is>
       </c>
+      <c r="DW1" t="inlineStr">
+        <is>
+          <t>2026-02-21 20:18:46</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1440,6 +1445,9 @@
       <c r="DV2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DW2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1828,6 +1836,9 @@
       <c r="DV3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DW3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2216,6 +2227,9 @@
       <c r="DV4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DW4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2604,6 +2618,9 @@
       <c r="DV5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DW5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2992,6 +3009,9 @@
       <c r="DV6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DW6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3380,6 +3400,9 @@
       <c r="DV7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DW7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3768,6 +3791,9 @@
       <c r="DV8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DW8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4156,6 +4182,9 @@
       <c r="DV9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DW9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4548,6 +4577,9 @@
       <c r="DV10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DW10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4940,6 +4972,9 @@
       <c r="DV11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DW11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5332,6 +5367,9 @@
       <c r="DV12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DW12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5724,6 +5762,9 @@
       <c r="DV13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DW13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6112,6 +6153,9 @@
       <c r="DV14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DW14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6500,6 +6544,9 @@
       <c r="DV15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DW15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6888,6 +6935,9 @@
       <c r="DV16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DW16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7276,6 +7326,9 @@
       <c r="DV17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DW17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7668,6 +7721,9 @@
       <c r="DV18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DW18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8060,6 +8116,9 @@
       <c r="DV19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DW19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8448,6 +8507,9 @@
       <c r="DV20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DW20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8840,6 +8902,9 @@
       <c r="DV21" t="n">
         <v>249.95</v>
       </c>
+      <c r="DW21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9232,6 +9297,9 @@
       <c r="DV22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DW22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9624,6 +9692,9 @@
       <c r="DV23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DW23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10012,6 +10083,9 @@
       <c r="DV24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DW24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10400,6 +10474,9 @@
       <c r="DV25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DW25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10788,6 +10865,9 @@
       <c r="DV26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DW26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11176,6 +11256,9 @@
       <c r="DV27" t="n">
         <v>279.95</v>
       </c>
+      <c r="DW27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11564,6 +11647,9 @@
       <c r="DV28" t="n">
         <v>299.95</v>
       </c>
+      <c r="DW28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11952,6 +12038,9 @@
       <c r="DV29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DW29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -12340,6 +12429,9 @@
       <c r="DV30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DW30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -12728,6 +12820,9 @@
       <c r="DV31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DW31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -13116,6 +13211,9 @@
       <c r="DV32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DW32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -13504,6 +13602,9 @@
       <c r="DV33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DW33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -13892,6 +13993,9 @@
       <c r="DV34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DW34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -14280,6 +14384,9 @@
       <c r="DV35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DW35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -14668,6 +14775,9 @@
       <c r="DV36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DW36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -15056,6 +15166,9 @@
       <c r="DV37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DW37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -15444,6 +15557,9 @@
       <c r="DV38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DW38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -15832,6 +15948,9 @@
       <c r="DV39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DW39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -16220,6 +16339,9 @@
       <c r="DV40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DW40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -16608,6 +16730,9 @@
       <c r="DV41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DW41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -16996,6 +17121,9 @@
       <c r="DV42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DW42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -17384,6 +17512,9 @@
       <c r="DV43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DW43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -17772,6 +17903,9 @@
       <c r="DV44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DW44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -18160,6 +18294,9 @@
       <c r="DV45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DW45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -18548,6 +18685,9 @@
       <c r="DV46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DW46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -18936,6 +19076,9 @@
       <c r="DV47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DW47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -19324,6 +19467,9 @@
       <c r="DV48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DW48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -19712,6 +19858,9 @@
       <c r="DV49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DW49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -20100,6 +20249,9 @@
       <c r="DV50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DW50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -20486,6 +20638,9 @@
         <v>1299.95</v>
       </c>
       <c r="DV51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DW51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -20736,6 +20891,7 @@
       <c r="DT52" t="inlineStr"/>
       <c r="DU52" t="inlineStr"/>
       <c r="DV52" t="inlineStr"/>
+      <c r="DW52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DW52"/>
+  <dimension ref="A1:DX52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,6 +1057,11 @@
           <t>2026-02-21 20:18:46</t>
         </is>
       </c>
+      <c r="DX1" t="inlineStr">
+        <is>
+          <t>2026-02-21 21:18:26</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1448,6 +1453,9 @@
       <c r="DW2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DX2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1839,6 +1847,9 @@
       <c r="DW3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DX3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2230,6 +2241,9 @@
       <c r="DW4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DX4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2621,6 +2635,9 @@
       <c r="DW5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DX5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3012,6 +3029,9 @@
       <c r="DW6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DX6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3403,6 +3423,9 @@
       <c r="DW7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DX7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3794,6 +3817,9 @@
       <c r="DW8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DX8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4185,6 +4211,9 @@
       <c r="DW9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DX9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4580,6 +4609,9 @@
       <c r="DW10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DX10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4975,6 +5007,9 @@
       <c r="DW11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DX11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5370,6 +5405,9 @@
       <c r="DW12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DX12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5765,6 +5803,9 @@
       <c r="DW13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DX13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6156,6 +6197,9 @@
       <c r="DW14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DX14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6547,6 +6591,9 @@
       <c r="DW15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DX15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6938,6 +6985,9 @@
       <c r="DW16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DX16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7329,6 +7379,9 @@
       <c r="DW17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DX17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7724,6 +7777,9 @@
       <c r="DW18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DX18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8119,6 +8175,9 @@
       <c r="DW19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DX19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8510,6 +8569,9 @@
       <c r="DW20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DX20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8905,6 +8967,9 @@
       <c r="DW21" t="n">
         <v>249.95</v>
       </c>
+      <c r="DX21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9300,6 +9365,9 @@
       <c r="DW22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DX22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9695,6 +9763,9 @@
       <c r="DW23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DX23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10086,6 +10157,9 @@
       <c r="DW24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DX24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10477,6 +10551,9 @@
       <c r="DW25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DX25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10868,6 +10945,9 @@
       <c r="DW26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DX26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11259,6 +11339,9 @@
       <c r="DW27" t="n">
         <v>279.95</v>
       </c>
+      <c r="DX27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11650,6 +11733,9 @@
       <c r="DW28" t="n">
         <v>299.95</v>
       </c>
+      <c r="DX28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -12041,6 +12127,9 @@
       <c r="DW29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DX29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -12432,6 +12521,9 @@
       <c r="DW30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DX30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -12823,6 +12915,9 @@
       <c r="DW31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DX31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -13214,6 +13309,9 @@
       <c r="DW32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DX32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -13605,6 +13703,9 @@
       <c r="DW33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DX33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -13996,6 +14097,9 @@
       <c r="DW34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DX34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -14387,6 +14491,9 @@
       <c r="DW35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DX35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -14778,6 +14885,9 @@
       <c r="DW36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DX36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -15169,6 +15279,9 @@
       <c r="DW37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DX37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -15560,6 +15673,9 @@
       <c r="DW38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DX38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -15951,6 +16067,9 @@
       <c r="DW39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DX39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -16342,6 +16461,9 @@
       <c r="DW40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DX40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -16733,6 +16855,9 @@
       <c r="DW41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DX41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -17124,6 +17249,9 @@
       <c r="DW42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DX42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -17515,6 +17643,9 @@
       <c r="DW43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DX43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -17906,6 +18037,9 @@
       <c r="DW44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DX44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -18297,6 +18431,9 @@
       <c r="DW45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DX45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -18688,6 +18825,9 @@
       <c r="DW46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DX46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -19079,6 +19219,9 @@
       <c r="DW47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DX47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -19470,6 +19613,9 @@
       <c r="DW48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DX48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -19861,6 +20007,9 @@
       <c r="DW49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DX49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -20252,6 +20401,9 @@
       <c r="DW50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DX50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -20641,6 +20793,9 @@
         <v>1299.95</v>
       </c>
       <c r="DW51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DX51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -20892,6 +21047,7 @@
       <c r="DU52" t="inlineStr"/>
       <c r="DV52" t="inlineStr"/>
       <c r="DW52" t="inlineStr"/>
+      <c r="DX52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX52"/>
+  <dimension ref="A1:DY52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1062,6 +1062,11 @@
           <t>2026-02-21 21:18:26</t>
         </is>
       </c>
+      <c r="DY1" t="inlineStr">
+        <is>
+          <t>2026-02-21 22:18:14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1456,6 +1461,9 @@
       <c r="DX2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DY2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1850,6 +1858,9 @@
       <c r="DX3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DY3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2244,6 +2255,9 @@
       <c r="DX4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DY4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2638,6 +2652,9 @@
       <c r="DX5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DY5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3032,6 +3049,9 @@
       <c r="DX6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DY6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3426,6 +3446,9 @@
       <c r="DX7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DY7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3820,6 +3843,9 @@
       <c r="DX8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DY8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4214,6 +4240,9 @@
       <c r="DX9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DY9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4612,6 +4641,9 @@
       <c r="DX10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DY10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5010,6 +5042,9 @@
       <c r="DX11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DY11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5408,6 +5443,9 @@
       <c r="DX12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DY12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5806,6 +5844,9 @@
       <c r="DX13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DY13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6200,6 +6241,9 @@
       <c r="DX14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DY14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6594,6 +6638,9 @@
       <c r="DX15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DY15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6988,6 +7035,9 @@
       <c r="DX16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DY16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7382,6 +7432,9 @@
       <c r="DX17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DY17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7780,6 +7833,9 @@
       <c r="DX18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DY18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8178,6 +8234,9 @@
       <c r="DX19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DY19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8572,6 +8631,9 @@
       <c r="DX20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DY20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8970,6 +9032,9 @@
       <c r="DX21" t="n">
         <v>249.95</v>
       </c>
+      <c r="DY21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9368,6 +9433,9 @@
       <c r="DX22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DY22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9766,6 +9834,9 @@
       <c r="DX23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DY23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10160,6 +10231,9 @@
       <c r="DX24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DY24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10554,6 +10628,9 @@
       <c r="DX25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DY25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10948,6 +11025,9 @@
       <c r="DX26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DY26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11342,6 +11422,9 @@
       <c r="DX27" t="n">
         <v>279.95</v>
       </c>
+      <c r="DY27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11736,6 +11819,9 @@
       <c r="DX28" t="n">
         <v>299.95</v>
       </c>
+      <c r="DY28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -12130,6 +12216,9 @@
       <c r="DX29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DY29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -12524,6 +12613,9 @@
       <c r="DX30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DY30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -12918,6 +13010,9 @@
       <c r="DX31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DY31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -13312,6 +13407,9 @@
       <c r="DX32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DY32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -13706,6 +13804,9 @@
       <c r="DX33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DY33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -14100,6 +14201,9 @@
       <c r="DX34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DY34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -14494,6 +14598,9 @@
       <c r="DX35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DY35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -14888,6 +14995,9 @@
       <c r="DX36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DY36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -15282,6 +15392,9 @@
       <c r="DX37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DY37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -15676,6 +15789,9 @@
       <c r="DX38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DY38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -16070,6 +16186,9 @@
       <c r="DX39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DY39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -16464,6 +16583,9 @@
       <c r="DX40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DY40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -16858,6 +16980,9 @@
       <c r="DX41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DY41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -17252,6 +17377,9 @@
       <c r="DX42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DY42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -17646,6 +17774,9 @@
       <c r="DX43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DY43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -18040,6 +18171,9 @@
       <c r="DX44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DY44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -18434,6 +18568,9 @@
       <c r="DX45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DY45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -18828,6 +18965,9 @@
       <c r="DX46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DY46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -19222,6 +19362,9 @@
       <c r="DX47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DY47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -19616,6 +19759,9 @@
       <c r="DX48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DY48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -20010,6 +20156,9 @@
       <c r="DX49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DY49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -20404,6 +20553,9 @@
       <c r="DX50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DY50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -20796,6 +20948,9 @@
         <v>1299.95</v>
       </c>
       <c r="DX51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DY51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -21048,6 +21203,7 @@
       <c r="DV52" t="inlineStr"/>
       <c r="DW52" t="inlineStr"/>
       <c r="DX52" t="inlineStr"/>
+      <c r="DY52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DY52"/>
+  <dimension ref="A1:DZ52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,6 +1067,11 @@
           <t>2026-02-21 22:18:14</t>
         </is>
       </c>
+      <c r="DZ1" t="inlineStr">
+        <is>
+          <t>2026-02-21 23:19:38</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1464,6 +1469,9 @@
       <c r="DY2" t="n">
         <v>129.95</v>
       </c>
+      <c r="DZ2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1861,6 +1869,9 @@
       <c r="DY3" t="n">
         <v>149.95</v>
       </c>
+      <c r="DZ3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2258,6 +2269,9 @@
       <c r="DY4" t="n">
         <v>149.95</v>
       </c>
+      <c r="DZ4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2655,6 +2669,9 @@
       <c r="DY5" t="n">
         <v>149.95</v>
       </c>
+      <c r="DZ5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3052,6 +3069,9 @@
       <c r="DY6" t="n">
         <v>149.95</v>
       </c>
+      <c r="DZ6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3449,6 +3469,9 @@
       <c r="DY7" t="n">
         <v>149.95</v>
       </c>
+      <c r="DZ7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3846,6 +3869,9 @@
       <c r="DY8" t="n">
         <v>149.95</v>
       </c>
+      <c r="DZ8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4243,6 +4269,9 @@
       <c r="DY9" t="n">
         <v>168.95</v>
       </c>
+      <c r="DZ9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4644,6 +4673,9 @@
       <c r="DY10" t="n">
         <v>179.95</v>
       </c>
+      <c r="DZ10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5045,6 +5077,9 @@
       <c r="DY11" t="n">
         <v>179.95</v>
       </c>
+      <c r="DZ11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5446,6 +5481,9 @@
       <c r="DY12" t="n">
         <v>179.95</v>
       </c>
+      <c r="DZ12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5847,6 +5885,9 @@
       <c r="DY13" t="n">
         <v>179.95</v>
       </c>
+      <c r="DZ13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6244,6 +6285,9 @@
       <c r="DY14" t="n">
         <v>179.95</v>
       </c>
+      <c r="DZ14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6641,6 +6685,9 @@
       <c r="DY15" t="n">
         <v>179.95</v>
       </c>
+      <c r="DZ15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7038,6 +7085,9 @@
       <c r="DY16" t="n">
         <v>179.95</v>
       </c>
+      <c r="DZ16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7435,6 +7485,9 @@
       <c r="DY17" t="n">
         <v>189.95</v>
       </c>
+      <c r="DZ17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7836,6 +7889,9 @@
       <c r="DY18" t="n">
         <v>209.95</v>
       </c>
+      <c r="DZ18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8237,6 +8293,9 @@
       <c r="DY19" t="n">
         <v>209.95</v>
       </c>
+      <c r="DZ19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8634,6 +8693,9 @@
       <c r="DY20" t="n">
         <v>219.95</v>
       </c>
+      <c r="DZ20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9035,6 +9097,9 @@
       <c r="DY21" t="n">
         <v>249.95</v>
       </c>
+      <c r="DZ21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9436,6 +9501,9 @@
       <c r="DY22" t="n">
         <v>249.95</v>
       </c>
+      <c r="DZ22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9837,6 +9905,9 @@
       <c r="DY23" t="n">
         <v>249.95</v>
       </c>
+      <c r="DZ23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10234,6 +10305,9 @@
       <c r="DY24" t="n">
         <v>249.95</v>
       </c>
+      <c r="DZ24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10631,6 +10705,9 @@
       <c r="DY25" t="n">
         <v>249.95</v>
       </c>
+      <c r="DZ25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11028,6 +11105,9 @@
       <c r="DY26" t="n">
         <v>249.95</v>
       </c>
+      <c r="DZ26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11425,6 +11505,9 @@
       <c r="DY27" t="n">
         <v>279.95</v>
       </c>
+      <c r="DZ27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11822,6 +11905,9 @@
       <c r="DY28" t="n">
         <v>299.95</v>
       </c>
+      <c r="DZ28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -12219,6 +12305,9 @@
       <c r="DY29" t="n">
         <v>299.95</v>
       </c>
+      <c r="DZ29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -12616,6 +12705,9 @@
       <c r="DY30" t="n">
         <v>299.95</v>
       </c>
+      <c r="DZ30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -13013,6 +13105,9 @@
       <c r="DY31" t="n">
         <v>299.95</v>
       </c>
+      <c r="DZ31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -13410,6 +13505,9 @@
       <c r="DY32" t="n">
         <v>399.95</v>
       </c>
+      <c r="DZ32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -13807,6 +13905,9 @@
       <c r="DY33" t="n">
         <v>399.95</v>
       </c>
+      <c r="DZ33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -14204,6 +14305,9 @@
       <c r="DY34" t="n">
         <v>399.95</v>
       </c>
+      <c r="DZ34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -14601,6 +14705,9 @@
       <c r="DY35" t="n">
         <v>429.95</v>
       </c>
+      <c r="DZ35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -14998,6 +15105,9 @@
       <c r="DY36" t="n">
         <v>429.95</v>
       </c>
+      <c r="DZ36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -15395,6 +15505,9 @@
       <c r="DY37" t="n">
         <v>429.95</v>
       </c>
+      <c r="DZ37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -15792,6 +15905,9 @@
       <c r="DY38" t="n">
         <v>499.95</v>
       </c>
+      <c r="DZ38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -16189,6 +16305,9 @@
       <c r="DY39" t="n">
         <v>499.95</v>
       </c>
+      <c r="DZ39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -16586,6 +16705,9 @@
       <c r="DY40" t="n">
         <v>499.95</v>
       </c>
+      <c r="DZ40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -16983,6 +17105,9 @@
       <c r="DY41" t="n">
         <v>549.95</v>
       </c>
+      <c r="DZ41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -17380,6 +17505,9 @@
       <c r="DY42" t="n">
         <v>549.95</v>
       </c>
+      <c r="DZ42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -17777,6 +17905,9 @@
       <c r="DY43" t="n">
         <v>549.95</v>
       </c>
+      <c r="DZ43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -18174,6 +18305,9 @@
       <c r="DY44" t="n">
         <v>649.95</v>
       </c>
+      <c r="DZ44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -18571,6 +18705,9 @@
       <c r="DY45" t="n">
         <v>649.95</v>
       </c>
+      <c r="DZ45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -18968,6 +19105,9 @@
       <c r="DY46" t="n">
         <v>899.95</v>
       </c>
+      <c r="DZ46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -19365,6 +19505,9 @@
       <c r="DY47" t="n">
         <v>899.95</v>
       </c>
+      <c r="DZ47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -19762,6 +19905,9 @@
       <c r="DY48" t="n">
         <v>899.95</v>
       </c>
+      <c r="DZ48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -20159,6 +20305,9 @@
       <c r="DY49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DZ49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -20556,6 +20705,9 @@
       <c r="DY50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="DZ50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -20951,6 +21103,9 @@
         <v>1299.95</v>
       </c>
       <c r="DY51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="DZ51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -21204,6 +21359,7 @@
       <c r="DW52" t="inlineStr"/>
       <c r="DX52" t="inlineStr"/>
       <c r="DY52" t="inlineStr"/>
+      <c r="DZ52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DZ52"/>
+  <dimension ref="A1:EA52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,6 +1072,11 @@
           <t>2026-02-21 23:19:38</t>
         </is>
       </c>
+      <c r="EA1" t="inlineStr">
+        <is>
+          <t>2026-02-22 01:43:07</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1472,6 +1477,9 @@
       <c r="DZ2" t="n">
         <v>129.95</v>
       </c>
+      <c r="EA2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1872,6 +1880,9 @@
       <c r="DZ3" t="n">
         <v>149.95</v>
       </c>
+      <c r="EA3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2272,6 +2283,9 @@
       <c r="DZ4" t="n">
         <v>149.95</v>
       </c>
+      <c r="EA4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2672,6 +2686,9 @@
       <c r="DZ5" t="n">
         <v>149.95</v>
       </c>
+      <c r="EA5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3072,6 +3089,9 @@
       <c r="DZ6" t="n">
         <v>149.95</v>
       </c>
+      <c r="EA6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3472,6 +3492,9 @@
       <c r="DZ7" t="n">
         <v>149.95</v>
       </c>
+      <c r="EA7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3872,6 +3895,9 @@
       <c r="DZ8" t="n">
         <v>149.95</v>
       </c>
+      <c r="EA8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4272,6 +4298,9 @@
       <c r="DZ9" t="n">
         <v>168.95</v>
       </c>
+      <c r="EA9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4676,6 +4705,9 @@
       <c r="DZ10" t="n">
         <v>179.95</v>
       </c>
+      <c r="EA10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5080,6 +5112,9 @@
       <c r="DZ11" t="n">
         <v>179.95</v>
       </c>
+      <c r="EA11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5484,6 +5519,9 @@
       <c r="DZ12" t="n">
         <v>179.95</v>
       </c>
+      <c r="EA12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5888,6 +5926,9 @@
       <c r="DZ13" t="n">
         <v>179.95</v>
       </c>
+      <c r="EA13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6288,6 +6329,9 @@
       <c r="DZ14" t="n">
         <v>179.95</v>
       </c>
+      <c r="EA14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6688,6 +6732,9 @@
       <c r="DZ15" t="n">
         <v>179.95</v>
       </c>
+      <c r="EA15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7088,6 +7135,9 @@
       <c r="DZ16" t="n">
         <v>179.95</v>
       </c>
+      <c r="EA16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7488,6 +7538,9 @@
       <c r="DZ17" t="n">
         <v>189.95</v>
       </c>
+      <c r="EA17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7892,6 +7945,9 @@
       <c r="DZ18" t="n">
         <v>209.95</v>
       </c>
+      <c r="EA18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8296,6 +8352,9 @@
       <c r="DZ19" t="n">
         <v>209.95</v>
       </c>
+      <c r="EA19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8696,6 +8755,9 @@
       <c r="DZ20" t="n">
         <v>219.95</v>
       </c>
+      <c r="EA20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9100,6 +9162,9 @@
       <c r="DZ21" t="n">
         <v>249.95</v>
       </c>
+      <c r="EA21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9504,6 +9569,9 @@
       <c r="DZ22" t="n">
         <v>249.95</v>
       </c>
+      <c r="EA22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9908,6 +9976,9 @@
       <c r="DZ23" t="n">
         <v>249.95</v>
       </c>
+      <c r="EA23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10308,6 +10379,9 @@
       <c r="DZ24" t="n">
         <v>249.95</v>
       </c>
+      <c r="EA24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10708,6 +10782,9 @@
       <c r="DZ25" t="n">
         <v>249.95</v>
       </c>
+      <c r="EA25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11108,6 +11185,9 @@
       <c r="DZ26" t="n">
         <v>249.95</v>
       </c>
+      <c r="EA26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11508,6 +11588,9 @@
       <c r="DZ27" t="n">
         <v>279.95</v>
       </c>
+      <c r="EA27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11908,6 +11991,9 @@
       <c r="DZ28" t="n">
         <v>299.95</v>
       </c>
+      <c r="EA28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -12308,6 +12394,9 @@
       <c r="DZ29" t="n">
         <v>299.95</v>
       </c>
+      <c r="EA29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -12708,6 +12797,9 @@
       <c r="DZ30" t="n">
         <v>299.95</v>
       </c>
+      <c r="EA30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -13108,6 +13200,9 @@
       <c r="DZ31" t="n">
         <v>299.95</v>
       </c>
+      <c r="EA31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -13508,6 +13603,9 @@
       <c r="DZ32" t="n">
         <v>399.95</v>
       </c>
+      <c r="EA32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -13908,6 +14006,9 @@
       <c r="DZ33" t="n">
         <v>399.95</v>
       </c>
+      <c r="EA33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -14308,6 +14409,9 @@
       <c r="DZ34" t="n">
         <v>399.95</v>
       </c>
+      <c r="EA34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -14708,6 +14812,9 @@
       <c r="DZ35" t="n">
         <v>429.95</v>
       </c>
+      <c r="EA35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -15108,6 +15215,9 @@
       <c r="DZ36" t="n">
         <v>429.95</v>
       </c>
+      <c r="EA36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -15508,6 +15618,9 @@
       <c r="DZ37" t="n">
         <v>429.95</v>
       </c>
+      <c r="EA37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -15908,6 +16021,9 @@
       <c r="DZ38" t="n">
         <v>499.95</v>
       </c>
+      <c r="EA38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -16308,6 +16424,9 @@
       <c r="DZ39" t="n">
         <v>499.95</v>
       </c>
+      <c r="EA39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -16708,6 +16827,9 @@
       <c r="DZ40" t="n">
         <v>499.95</v>
       </c>
+      <c r="EA40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -17108,6 +17230,9 @@
       <c r="DZ41" t="n">
         <v>549.95</v>
       </c>
+      <c r="EA41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -17508,6 +17633,9 @@
       <c r="DZ42" t="n">
         <v>549.95</v>
       </c>
+      <c r="EA42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -17908,6 +18036,9 @@
       <c r="DZ43" t="n">
         <v>549.95</v>
       </c>
+      <c r="EA43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -18308,6 +18439,9 @@
       <c r="DZ44" t="n">
         <v>649.95</v>
       </c>
+      <c r="EA44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -18708,6 +18842,9 @@
       <c r="DZ45" t="n">
         <v>649.95</v>
       </c>
+      <c r="EA45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -19108,6 +19245,9 @@
       <c r="DZ46" t="n">
         <v>899.95</v>
       </c>
+      <c r="EA46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -19508,6 +19648,9 @@
       <c r="DZ47" t="n">
         <v>899.95</v>
       </c>
+      <c r="EA47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -19908,6 +20051,9 @@
       <c r="DZ48" t="n">
         <v>899.95</v>
       </c>
+      <c r="EA48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -20308,6 +20454,9 @@
       <c r="DZ49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="EA49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -20708,6 +20857,9 @@
       <c r="DZ50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="EA50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -21106,6 +21258,9 @@
         <v>1299.95</v>
       </c>
       <c r="DZ51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="EA51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -21360,6 +21515,7 @@
       <c r="DX52" t="inlineStr"/>
       <c r="DY52" t="inlineStr"/>
       <c r="DZ52" t="inlineStr"/>
+      <c r="EA52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EA52"/>
+  <dimension ref="A1:EB52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,6 +1077,11 @@
           <t>2026-02-22 01:43:07</t>
         </is>
       </c>
+      <c r="EB1" t="inlineStr">
+        <is>
+          <t>2026-02-22 04:12:09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1480,6 +1485,9 @@
       <c r="EA2" t="n">
         <v>129.95</v>
       </c>
+      <c r="EB2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1883,6 +1891,9 @@
       <c r="EA3" t="n">
         <v>149.95</v>
       </c>
+      <c r="EB3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2286,6 +2297,9 @@
       <c r="EA4" t="n">
         <v>149.95</v>
       </c>
+      <c r="EB4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2689,6 +2703,9 @@
       <c r="EA5" t="n">
         <v>149.95</v>
       </c>
+      <c r="EB5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3092,6 +3109,9 @@
       <c r="EA6" t="n">
         <v>149.95</v>
       </c>
+      <c r="EB6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3495,6 +3515,9 @@
       <c r="EA7" t="n">
         <v>149.95</v>
       </c>
+      <c r="EB7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3898,6 +3921,9 @@
       <c r="EA8" t="n">
         <v>149.95</v>
       </c>
+      <c r="EB8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4301,6 +4327,9 @@
       <c r="EA9" t="n">
         <v>168.95</v>
       </c>
+      <c r="EB9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4708,6 +4737,9 @@
       <c r="EA10" t="n">
         <v>179.95</v>
       </c>
+      <c r="EB10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5115,6 +5147,9 @@
       <c r="EA11" t="n">
         <v>179.95</v>
       </c>
+      <c r="EB11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5522,6 +5557,9 @@
       <c r="EA12" t="n">
         <v>179.95</v>
       </c>
+      <c r="EB12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5929,6 +5967,9 @@
       <c r="EA13" t="n">
         <v>179.95</v>
       </c>
+      <c r="EB13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6332,6 +6373,9 @@
       <c r="EA14" t="n">
         <v>179.95</v>
       </c>
+      <c r="EB14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6735,6 +6779,9 @@
       <c r="EA15" t="n">
         <v>179.95</v>
       </c>
+      <c r="EB15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7138,6 +7185,9 @@
       <c r="EA16" t="n">
         <v>179.95</v>
       </c>
+      <c r="EB16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7541,6 +7591,9 @@
       <c r="EA17" t="n">
         <v>189.95</v>
       </c>
+      <c r="EB17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7948,6 +8001,9 @@
       <c r="EA18" t="n">
         <v>209.95</v>
       </c>
+      <c r="EB18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8355,6 +8411,9 @@
       <c r="EA19" t="n">
         <v>209.95</v>
       </c>
+      <c r="EB19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8758,6 +8817,9 @@
       <c r="EA20" t="n">
         <v>219.95</v>
       </c>
+      <c r="EB20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9165,6 +9227,9 @@
       <c r="EA21" t="n">
         <v>249.95</v>
       </c>
+      <c r="EB21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9572,6 +9637,9 @@
       <c r="EA22" t="n">
         <v>249.95</v>
       </c>
+      <c r="EB22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9979,6 +10047,9 @@
       <c r="EA23" t="n">
         <v>249.95</v>
       </c>
+      <c r="EB23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10382,6 +10453,9 @@
       <c r="EA24" t="n">
         <v>249.95</v>
       </c>
+      <c r="EB24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10785,6 +10859,9 @@
       <c r="EA25" t="n">
         <v>249.95</v>
       </c>
+      <c r="EB25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11188,6 +11265,9 @@
       <c r="EA26" t="n">
         <v>249.95</v>
       </c>
+      <c r="EB26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11591,6 +11671,9 @@
       <c r="EA27" t="n">
         <v>279.95</v>
       </c>
+      <c r="EB27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11994,6 +12077,9 @@
       <c r="EA28" t="n">
         <v>299.95</v>
       </c>
+      <c r="EB28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -12397,6 +12483,9 @@
       <c r="EA29" t="n">
         <v>299.95</v>
       </c>
+      <c r="EB29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -12800,6 +12889,9 @@
       <c r="EA30" t="n">
         <v>299.95</v>
       </c>
+      <c r="EB30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -13203,6 +13295,9 @@
       <c r="EA31" t="n">
         <v>299.95</v>
       </c>
+      <c r="EB31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -13606,6 +13701,9 @@
       <c r="EA32" t="n">
         <v>399.95</v>
       </c>
+      <c r="EB32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -14009,6 +14107,9 @@
       <c r="EA33" t="n">
         <v>399.95</v>
       </c>
+      <c r="EB33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -14412,6 +14513,9 @@
       <c r="EA34" t="n">
         <v>399.95</v>
       </c>
+      <c r="EB34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -14815,6 +14919,9 @@
       <c r="EA35" t="n">
         <v>429.95</v>
       </c>
+      <c r="EB35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -15218,6 +15325,9 @@
       <c r="EA36" t="n">
         <v>429.95</v>
       </c>
+      <c r="EB36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -15621,6 +15731,9 @@
       <c r="EA37" t="n">
         <v>429.95</v>
       </c>
+      <c r="EB37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -16024,6 +16137,9 @@
       <c r="EA38" t="n">
         <v>499.95</v>
       </c>
+      <c r="EB38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -16427,6 +16543,9 @@
       <c r="EA39" t="n">
         <v>499.95</v>
       </c>
+      <c r="EB39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -16830,6 +16949,9 @@
       <c r="EA40" t="n">
         <v>499.95</v>
       </c>
+      <c r="EB40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -17233,6 +17355,9 @@
       <c r="EA41" t="n">
         <v>549.95</v>
       </c>
+      <c r="EB41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -17636,6 +17761,9 @@
       <c r="EA42" t="n">
         <v>549.95</v>
       </c>
+      <c r="EB42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -18039,6 +18167,9 @@
       <c r="EA43" t="n">
         <v>549.95</v>
       </c>
+      <c r="EB43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -18442,6 +18573,9 @@
       <c r="EA44" t="n">
         <v>649.95</v>
       </c>
+      <c r="EB44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -18845,6 +18979,9 @@
       <c r="EA45" t="n">
         <v>649.95</v>
       </c>
+      <c r="EB45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -19248,6 +19385,9 @@
       <c r="EA46" t="n">
         <v>899.95</v>
       </c>
+      <c r="EB46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -19651,6 +19791,9 @@
       <c r="EA47" t="n">
         <v>899.95</v>
       </c>
+      <c r="EB47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -20054,6 +20197,9 @@
       <c r="EA48" t="n">
         <v>899.95</v>
       </c>
+      <c r="EB48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -20457,6 +20603,9 @@
       <c r="EA49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="EB49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -20860,6 +21009,9 @@
       <c r="EA50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="EB50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -21261,6 +21413,9 @@
         <v>1299.95</v>
       </c>
       <c r="EA51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="EB51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -21516,6 +21671,7 @@
       <c r="DY52" t="inlineStr"/>
       <c r="DZ52" t="inlineStr"/>
       <c r="EA52" t="inlineStr"/>
+      <c r="EB52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EB52"/>
+  <dimension ref="A1:EC52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,6 +1082,11 @@
           <t>2026-02-22 04:12:09</t>
         </is>
       </c>
+      <c r="EC1" t="inlineStr">
+        <is>
+          <t>2026-02-22 05:47:27</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1488,6 +1493,9 @@
       <c r="EB2" t="n">
         <v>129.95</v>
       </c>
+      <c r="EC2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1894,6 +1902,9 @@
       <c r="EB3" t="n">
         <v>149.95</v>
       </c>
+      <c r="EC3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2300,6 +2311,9 @@
       <c r="EB4" t="n">
         <v>149.95</v>
       </c>
+      <c r="EC4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2706,6 +2720,9 @@
       <c r="EB5" t="n">
         <v>149.95</v>
       </c>
+      <c r="EC5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3112,6 +3129,9 @@
       <c r="EB6" t="n">
         <v>149.95</v>
       </c>
+      <c r="EC6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3518,6 +3538,9 @@
       <c r="EB7" t="n">
         <v>149.95</v>
       </c>
+      <c r="EC7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3924,6 +3947,9 @@
       <c r="EB8" t="n">
         <v>149.95</v>
       </c>
+      <c r="EC8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4330,6 +4356,9 @@
       <c r="EB9" t="n">
         <v>168.95</v>
       </c>
+      <c r="EC9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4740,6 +4769,9 @@
       <c r="EB10" t="n">
         <v>179.95</v>
       </c>
+      <c r="EC10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5150,6 +5182,9 @@
       <c r="EB11" t="n">
         <v>179.95</v>
       </c>
+      <c r="EC11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5560,6 +5595,9 @@
       <c r="EB12" t="n">
         <v>179.95</v>
       </c>
+      <c r="EC12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5970,6 +6008,9 @@
       <c r="EB13" t="n">
         <v>179.95</v>
       </c>
+      <c r="EC13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6376,6 +6417,9 @@
       <c r="EB14" t="n">
         <v>179.95</v>
       </c>
+      <c r="EC14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6782,6 +6826,9 @@
       <c r="EB15" t="n">
         <v>179.95</v>
       </c>
+      <c r="EC15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7188,6 +7235,9 @@
       <c r="EB16" t="n">
         <v>179.95</v>
       </c>
+      <c r="EC16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7594,6 +7644,9 @@
       <c r="EB17" t="n">
         <v>189.95</v>
       </c>
+      <c r="EC17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8004,6 +8057,9 @@
       <c r="EB18" t="n">
         <v>209.95</v>
       </c>
+      <c r="EC18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8414,6 +8470,9 @@
       <c r="EB19" t="n">
         <v>209.95</v>
       </c>
+      <c r="EC19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8820,6 +8879,9 @@
       <c r="EB20" t="n">
         <v>219.95</v>
       </c>
+      <c r="EC20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9230,6 +9292,9 @@
       <c r="EB21" t="n">
         <v>249.95</v>
       </c>
+      <c r="EC21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9640,6 +9705,9 @@
       <c r="EB22" t="n">
         <v>249.95</v>
       </c>
+      <c r="EC22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10050,6 +10118,9 @@
       <c r="EB23" t="n">
         <v>249.95</v>
       </c>
+      <c r="EC23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10456,6 +10527,9 @@
       <c r="EB24" t="n">
         <v>249.95</v>
       </c>
+      <c r="EC24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10862,6 +10936,9 @@
       <c r="EB25" t="n">
         <v>249.95</v>
       </c>
+      <c r="EC25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11268,6 +11345,9 @@
       <c r="EB26" t="n">
         <v>249.95</v>
       </c>
+      <c r="EC26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11674,6 +11754,9 @@
       <c r="EB27" t="n">
         <v>279.95</v>
       </c>
+      <c r="EC27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -12080,6 +12163,9 @@
       <c r="EB28" t="n">
         <v>299.95</v>
       </c>
+      <c r="EC28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -12486,6 +12572,9 @@
       <c r="EB29" t="n">
         <v>299.95</v>
       </c>
+      <c r="EC29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -12892,6 +12981,9 @@
       <c r="EB30" t="n">
         <v>299.95</v>
       </c>
+      <c r="EC30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -13298,6 +13390,9 @@
       <c r="EB31" t="n">
         <v>299.95</v>
       </c>
+      <c r="EC31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -13704,6 +13799,9 @@
       <c r="EB32" t="n">
         <v>399.95</v>
       </c>
+      <c r="EC32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -14110,6 +14208,9 @@
       <c r="EB33" t="n">
         <v>399.95</v>
       </c>
+      <c r="EC33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -14516,6 +14617,9 @@
       <c r="EB34" t="n">
         <v>399.95</v>
       </c>
+      <c r="EC34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -14922,6 +15026,9 @@
       <c r="EB35" t="n">
         <v>429.95</v>
       </c>
+      <c r="EC35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -15328,6 +15435,9 @@
       <c r="EB36" t="n">
         <v>429.95</v>
       </c>
+      <c r="EC36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -15734,6 +15844,9 @@
       <c r="EB37" t="n">
         <v>429.95</v>
       </c>
+      <c r="EC37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -16140,6 +16253,9 @@
       <c r="EB38" t="n">
         <v>499.95</v>
       </c>
+      <c r="EC38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -16546,6 +16662,9 @@
       <c r="EB39" t="n">
         <v>499.95</v>
       </c>
+      <c r="EC39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -16952,6 +17071,9 @@
       <c r="EB40" t="n">
         <v>499.95</v>
       </c>
+      <c r="EC40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -17358,6 +17480,9 @@
       <c r="EB41" t="n">
         <v>549.95</v>
       </c>
+      <c r="EC41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -17764,6 +17889,9 @@
       <c r="EB42" t="n">
         <v>549.95</v>
       </c>
+      <c r="EC42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -18170,6 +18298,9 @@
       <c r="EB43" t="n">
         <v>549.95</v>
       </c>
+      <c r="EC43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -18576,6 +18707,9 @@
       <c r="EB44" t="n">
         <v>649.95</v>
       </c>
+      <c r="EC44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -18982,6 +19116,9 @@
       <c r="EB45" t="n">
         <v>649.95</v>
       </c>
+      <c r="EC45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -19388,6 +19525,9 @@
       <c r="EB46" t="n">
         <v>899.95</v>
       </c>
+      <c r="EC46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -19794,6 +19934,9 @@
       <c r="EB47" t="n">
         <v>899.95</v>
       </c>
+      <c r="EC47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -20200,6 +20343,9 @@
       <c r="EB48" t="n">
         <v>899.95</v>
       </c>
+      <c r="EC48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -20606,6 +20752,9 @@
       <c r="EB49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="EC49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -21012,6 +21161,9 @@
       <c r="EB50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="EC50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -21416,6 +21568,9 @@
         <v>1299.95</v>
       </c>
       <c r="EB51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="EC51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -21672,6 +21827,7 @@
       <c r="DZ52" t="inlineStr"/>
       <c r="EA52" t="inlineStr"/>
       <c r="EB52" t="inlineStr"/>
+      <c r="EC52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_xiaomi.xlsx
+++ b/datanomics/outputs/ldlc_xiaomi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EC52"/>
+  <dimension ref="A1:ED52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1087,6 +1087,11 @@
           <t>2026-02-22 05:47:27</t>
         </is>
       </c>
+      <c r="ED1" t="inlineStr">
+        <is>
+          <t>2026-02-22 06:40:37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1496,6 +1501,9 @@
       <c r="EC2" t="n">
         <v>129.95</v>
       </c>
+      <c r="ED2" t="n">
+        <v>129.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1905,6 +1913,9 @@
       <c r="EC3" t="n">
         <v>149.95</v>
       </c>
+      <c r="ED3" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2314,6 +2325,9 @@
       <c r="EC4" t="n">
         <v>149.95</v>
       </c>
+      <c r="ED4" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2723,6 +2737,9 @@
       <c r="EC5" t="n">
         <v>149.95</v>
       </c>
+      <c r="ED5" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3132,6 +3149,9 @@
       <c r="EC6" t="n">
         <v>149.95</v>
       </c>
+      <c r="ED6" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3541,6 +3561,9 @@
       <c r="EC7" t="n">
         <v>149.95</v>
       </c>
+      <c r="ED7" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3950,6 +3973,9 @@
       <c r="EC8" t="n">
         <v>149.95</v>
       </c>
+      <c r="ED8" t="n">
+        <v>149.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4359,6 +4385,9 @@
       <c r="EC9" t="n">
         <v>168.95</v>
       </c>
+      <c r="ED9" t="n">
+        <v>168.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4772,6 +4801,9 @@
       <c r="EC10" t="n">
         <v>179.95</v>
       </c>
+      <c r="ED10" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5185,6 +5217,9 @@
       <c r="EC11" t="n">
         <v>179.95</v>
       </c>
+      <c r="ED11" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5598,6 +5633,9 @@
       <c r="EC12" t="n">
         <v>179.95</v>
       </c>
+      <c r="ED12" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6011,6 +6049,9 @@
       <c r="EC13" t="n">
         <v>179.95</v>
       </c>
+      <c r="ED13" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6420,6 +6461,9 @@
       <c r="EC14" t="n">
         <v>179.95</v>
       </c>
+      <c r="ED14" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6829,6 +6873,9 @@
       <c r="EC15" t="n">
         <v>179.95</v>
       </c>
+      <c r="ED15" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7238,6 +7285,9 @@
       <c r="EC16" t="n">
         <v>179.95</v>
       </c>
+      <c r="ED16" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7647,6 +7697,9 @@
       <c r="EC17" t="n">
         <v>189.95</v>
       </c>
+      <c r="ED17" t="n">
+        <v>189.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8060,6 +8113,9 @@
       <c r="EC18" t="n">
         <v>209.95</v>
       </c>
+      <c r="ED18" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8473,6 +8529,9 @@
       <c r="EC19" t="n">
         <v>209.95</v>
       </c>
+      <c r="ED19" t="n">
+        <v>209.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8882,6 +8941,9 @@
       <c r="EC20" t="n">
         <v>219.95</v>
       </c>
+      <c r="ED20" t="n">
+        <v>219.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9295,6 +9357,9 @@
       <c r="EC21" t="n">
         <v>249.95</v>
       </c>
+      <c r="ED21" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9708,6 +9773,9 @@
       <c r="EC22" t="n">
         <v>249.95</v>
       </c>
+      <c r="ED22" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10121,6 +10189,9 @@
       <c r="EC23" t="n">
         <v>249.95</v>
       </c>
+      <c r="ED23" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10530,6 +10601,9 @@
       <c r="EC24" t="n">
         <v>249.95</v>
       </c>
+      <c r="ED24" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10939,6 +11013,9 @@
       <c r="EC25" t="n">
         <v>249.95</v>
       </c>
+      <c r="ED25" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11348,6 +11425,9 @@
       <c r="EC26" t="n">
         <v>249.95</v>
       </c>
+      <c r="ED26" t="n">
+        <v>249.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11757,6 +11837,9 @@
       <c r="EC27" t="n">
         <v>279.95</v>
       </c>
+      <c r="ED27" t="n">
+        <v>279.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -12166,6 +12249,9 @@
       <c r="EC28" t="n">
         <v>299.95</v>
       </c>
+      <c r="ED28" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -12575,6 +12661,9 @@
       <c r="EC29" t="n">
         <v>299.95</v>
       </c>
+      <c r="ED29" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -12984,6 +13073,9 @@
       <c r="EC30" t="n">
         <v>299.95</v>
       </c>
+      <c r="ED30" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -13393,6 +13485,9 @@
       <c r="EC31" t="n">
         <v>299.95</v>
       </c>
+      <c r="ED31" t="n">
+        <v>299.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -13802,6 +13897,9 @@
       <c r="EC32" t="n">
         <v>399.95</v>
       </c>
+      <c r="ED32" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -14211,6 +14309,9 @@
       <c r="EC33" t="n">
         <v>399.95</v>
       </c>
+      <c r="ED33" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -14620,6 +14721,9 @@
       <c r="EC34" t="n">
         <v>399.95</v>
       </c>
+      <c r="ED34" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -15029,6 +15133,9 @@
       <c r="EC35" t="n">
         <v>429.95</v>
       </c>
+      <c r="ED35" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -15438,6 +15545,9 @@
       <c r="EC36" t="n">
         <v>429.95</v>
       </c>
+      <c r="ED36" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -15847,6 +15957,9 @@
       <c r="EC37" t="n">
         <v>429.95</v>
       </c>
+      <c r="ED37" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -16256,6 +16369,9 @@
       <c r="EC38" t="n">
         <v>499.95</v>
       </c>
+      <c r="ED38" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -16665,6 +16781,9 @@
       <c r="EC39" t="n">
         <v>499.95</v>
       </c>
+      <c r="ED39" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -17074,6 +17193,9 @@
       <c r="EC40" t="n">
         <v>499.95</v>
       </c>
+      <c r="ED40" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -17483,6 +17605,9 @@
       <c r="EC41" t="n">
         <v>549.95</v>
       </c>
+      <c r="ED41" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -17892,6 +18017,9 @@
       <c r="EC42" t="n">
         <v>549.95</v>
       </c>
+      <c r="ED42" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -18301,6 +18429,9 @@
       <c r="EC43" t="n">
         <v>549.95</v>
       </c>
+      <c r="ED43" t="n">
+        <v>549.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -18710,6 +18841,9 @@
       <c r="EC44" t="n">
         <v>649.95</v>
       </c>
+      <c r="ED44" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -19119,6 +19253,9 @@
       <c r="EC45" t="n">
         <v>649.95</v>
       </c>
+      <c r="ED45" t="n">
+        <v>649.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -19528,6 +19665,9 @@
       <c r="EC46" t="n">
         <v>899.95</v>
       </c>
+      <c r="ED46" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -19937,6 +20077,9 @@
       <c r="EC47" t="n">
         <v>899.95</v>
       </c>
+      <c r="ED47" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -20346,6 +20489,9 @@
       <c r="EC48" t="n">
         <v>899.95</v>
       </c>
+      <c r="ED48" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -20755,6 +20901,9 @@
       <c r="EC49" t="n">
         <v>1119.95</v>
       </c>
+      <c r="ED49" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -21164,6 +21313,9 @@
       <c r="EC50" t="n">
         <v>1119.95</v>
       </c>
+      <c r="ED50" t="n">
+        <v>1119.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -21571,6 +21723,9 @@
         <v>1299.95</v>
       </c>
       <c r="EC51" t="n">
+        <v>1299.95</v>
+      </c>
+      <c r="ED51" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -21828,6 +21983,7 @@
       <c r="EA52" t="inlineStr"/>
       <c r="EB52" t="inlineStr"/>
       <c r="EC52" t="inlineStr"/>
+      <c r="ED52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
